--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -82,7 +82,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.0007188410702652894], ["'autoclave' (unit, GLO, None)", 0.0007704105219249651], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.761349825772249e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848591663741e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.355361206964916e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183371928873], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780930083786e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908693322459698e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418225110766], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308530446584e-05]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410702652894], ["'autoclave' (unit, GLO, None)", 0.0007704105219249651], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461460731745e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162301047366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389906110916e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002903574137976611], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.670308530446584e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410702652894], ["'autoclave' (unit, GLO, None)", 0.0007704105219249651], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461460731745e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162301047366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389906110916e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002903574137976611], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308530446584e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.002056820056781551], ["'autoclave' (unit, GLO, None)", 0.0010272140292332866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.98774763746721e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.36239944572845e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778988420049e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012460447703590682], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211477283251], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719304135664e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366404658508e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00037384276690452864], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732179973034]]</t>
@@ -94,10 +94,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 7.659785550323257e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178353906431], ["'autoclave' (unit, GLO, None)", 0.0015408210438499306], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967339474616e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138282328252], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921433434314436e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.7346593085251e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854136278108e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.311564403661329e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785550323257e-05], ["'wet wipe' (unit, GLO, None)", 0.0002523811665805174], ["'autoclave' (unit, GLO, None)", 0.0015408210438499306], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.9134967339474616e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138282328252], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921433434314436e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.7346593085251e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967951573392623e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093426598684e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.390125428017649e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774182417246e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520891769532157], ["'autoclave' (unit, GLO, None)", 0.0011556157828874476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9338183933213372e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651545759595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286686862887e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.461688334370782e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384927068139029e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.6557822018306645e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785550323257e-05], ["'wet wipe' (unit, GLO, None)", 0.0002523811665805174], ["'autoclave' (unit, GLO, None)", 0.0015408210438499306], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967339474616e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138282328252], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921433434314436e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.7346593085251e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967951573392623e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093426598684e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.390125428017649e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774182417246e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520891769532157], ["'autoclave' (unit, GLO, None)", 0.0011556157828874476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183933213372e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651545759595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286686862887e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.461688334370782e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384927068139029e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.6557822018306645e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 4.494774182417246e-05], ["'wet wipe' (unit, GLO, None)", 0.0002523811665805174], ["'autoclave' (unit, GLO, None)", 0.0011556157828874476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183933213372e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651545759595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286686862887e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883343707818], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967951573392623e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624415591732e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.353567605999342e-05]]</t>
@@ -106,7 +106,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.247667922373819], ["'autoclave' (unit, GLO, None)", 0.22259094114103065], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02729629041948217], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916681776463], ["'mixed heating grid' (megajoule, GLO, None)", -0.012745640005553819], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148958876733], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600300631987506], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147106136754144], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452449736868], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228668433013]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247667922373819], ["'autoclave' (unit, GLO, None)", 0.22259094114103065], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491773675085], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503855550683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777878509753], ["'mixed heating grid' (megajoule, GLO, None)", -0.0849709333703588], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.01548228668433013]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.247667922373819], ["'autoclave' (unit, GLO, None)", 0.22259094114103065], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491773675085], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503855550683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777878509753], ["'mixed heating grid' (megajoule, GLO, None)", -0.0849709333703588], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228668433013]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.7087358449906817], ["'autoclave' (unit, GLO, None)", 0.2967879215213742], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193554297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720463339226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01319729968260235], ["'mixed heating grid' (megajoule, GLO, None)", -0.03646457163737049], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462670910745774], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306886597976822], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876501023313833], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851971089772], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04404612572535692]]</t>
@@ -118,10 +118,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016493320684], ["'mechanical disinfection' (unit, GLO, None)", 0.2242201906447033], ["'autoclave' (unit, GLO, None)", 0.44518188228206146], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158588023868], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033881943865], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158990965206], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028955795665946546], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935762112339e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021396748360953972]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016493320684], ["'wet wipe' (unit, GLO, None)", 0.05759767923225554], ["'autoclave' (unit, GLO, None)", 0.44518188228206146], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.003894158588023868], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033881943865], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158990965206], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028955795665946546], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277294504733], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973669453835], ["'mixed heating grid' (megajoule, GLO, None)", -0.012847374907794085]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332806392779], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009532235165], ["'autoclave' (unit, GLO, None)", 0.333886411711546], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0023251779151740926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009307870123], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798193041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0048455637755704115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8719678810561593e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010698374180476986]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016493320684], ["'wet wipe' (unit, GLO, None)", 0.05759767923225554], ["'autoclave' (unit, GLO, None)", 0.44518188228206146], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158588023868], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033881943865], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158990965206], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028955795665946546], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277294504733], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973669453835], ["'mixed heating grid' (megajoule, GLO, None)", -0.012847374907794085]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332806392779], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009532235165], ["'autoclave' (unit, GLO, None)", 0.333886411711546], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779151740926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009307870123], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798193041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0048455637755704115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8719678810561593e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010698374180476986]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332806392779], ["'wet wipe' (unit, GLO, None)", 0.05759767923225554], ["'autoclave' (unit, GLO, None)", 0.333886411711546], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779151740926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009307870123], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798193041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637755704106], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277294504733], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046110170157277995], ["'mixed heating grid' (megajoule, GLO, None)", -0.012740391165989315]]</t>
@@ -130,7 +130,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.007819008486787805], ["'autoclave' (unit, GLO, None)", 0.04607194141542909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001433129335183215], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002860267596604847], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004797297994391167], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0033086582724437944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000380425314685337], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126315905923956], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485011646086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065600820297]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008486787805], ["'autoclave' (unit, GLO, None)", 0.04607194141542909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00950954979420638], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224669857305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068450644032313], ["'mixed heating grid' (megajoule, GLO, None)", -0.003198198662927445], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005008065600820297]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008486787805], ["'autoclave' (unit, GLO, None)", 0.04607194141542909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00950954979420638], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224669857305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068450644032313], ["'mixed heating grid' (megajoule, GLO, None)", -0.003198198662927445], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065600820297]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.0223690071787641], ["'autoclave' (unit, GLO, None)", 0.061429255220572125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040583008276683565], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489568614929], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183067514302907], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013724804427715316], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448780057037], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449693937131502], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283608524548], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376059618616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629668156477]]</t>
@@ -142,10 +142,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640038340915], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624513114293], ["'autoclave' (unit, GLO, None)", 0.09214388283085821], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171459671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760696520087], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950347686495e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350538243024e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675395105854e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.053465965912225e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640038340915], ["'wet wipe' (unit, GLO, None)", 0.002224593535286164], ["'autoclave' (unit, GLO, None)", 0.09214388283085821], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.003880586171459671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760696520087], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950347686495e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350538243024e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831057754518e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883098073865677], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048355897272711287]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001131189681364371], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122565571466], ["'autoclave' (unit, GLO, None)", 0.06910791212314364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.002317073909510926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559248266533], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790069537299e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977465858463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008376975529205e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.0267329829561125e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640038340915], ["'wet wipe' (unit, GLO, None)", 0.002224593535286164], ["'autoclave' (unit, GLO, None)", 0.09214388283085821], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171459671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760696520087], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950347686495e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350538243024e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831057754518e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883098073865677], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048355897272711287]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001131189681364371], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122565571466], ["'autoclave' (unit, GLO, None)", 0.06910791212314364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909510926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559248266533], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790069537299e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977465858463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008376975529205e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.0267329829561125e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001131189681364371], ["'wet wipe' (unit, GLO, None)", 0.002224593535286164], ["'autoclave' (unit, GLO, None)", 0.06910791212314364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909510926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559248266533], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790069537299e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001567397746585846], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831057754518e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002859089696890155], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047953223974415667]]</t>
@@ -154,7 +154,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.01032083080909734], ["'autoclave' (unit, GLO, None)", 0.0581574901462062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020751526270105397], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003729728329127616], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006393496706551773], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0044126818214933125], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329912053712], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596614377426], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01585383988245385], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750384482194]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083080909734], ["'autoclave' (unit, GLO, None)", 0.0581574901462062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704347453114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331777982467], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002486485552751744], ["'mixed heating grid' (megajoule, GLO, None)", -0.004262331137701182], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006592750384482194]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.01032083080909734], ["'autoclave' (unit, GLO, None)", 0.0581574901462062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704347453114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331777982467], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002486485552751744], ["'mixed heating grid' (megajoule, GLO, None)", -0.004262331137701182], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750384482194]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.02952714187841635], ["'autoclave' (unit, GLO, None)", 0.0775433201949416], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366784899005], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931437353826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670546617207283], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018291440725437256], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799828706345], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001501041041491894], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974670545478], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870389423621], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595758116928]]</t>
@@ -166,10 +166,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734839824337], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074165667853], ["'autoclave' (unit, GLO, None)", 0.11631498029241244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844950871], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00598890703619016], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850017397398e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112269711953], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282954664576e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.073308520537742e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734839824337], ["'wet wipe' (unit, GLO, None)", 0.002469441822516034], ["'autoclave' (unit, GLO, None)", 0.11631498029241244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.004962058844950871], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00598890703619016], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850017397398e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112269711953], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017385959352e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037594987876358684], ["'mixed heating grid' (megajoule, GLO, None)", -0.000644452919782966]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447262154579], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370828339265], ["'autoclave' (unit, GLO, None)", 0.0872362352193093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00296281452829299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682928458649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700034794796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639652699022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.13064147733228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.36654260268871e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734839824337], ["'wet wipe' (unit, GLO, None)", 0.002469441822516034], ["'autoclave' (unit, GLO, None)", 0.11631498029241244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844950871], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00598890703619016], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850017397398e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112269711953], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017385959352e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037594987876358684], ["'mixed heating grid' (megajoule, GLO, None)", -0.000644452919782966]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447262154579], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370828339265], ["'autoclave' (unit, GLO, None)", 0.0872362352193093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00296281452829299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682928458649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700034794796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639652699022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.13064147733228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.36654260268871e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447262154579], ["'wet wipe' (unit, GLO, None)", 0.002469441822516034], ["'autoclave' (unit, GLO, None)", 0.0872362352193093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00296281452829299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682928458649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700034794796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020633639652699017], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017385959352e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192372862554], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006390863771802772]]</t>
@@ -178,7 +178,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.6751939159143687], ["'autoclave' (unit, GLO, None)", 2.3654221043543124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234404077501], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857067271942104], ["'mixed heating grid' (megajoule, GLO, None)", -0.05760449439322219], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3044161549148883], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823764976633], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919289698383175], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311097615645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.036722014565523695]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939159143687], ["'autoclave' (unit, GLO, None)", 2.3654221043543124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286380275724], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805796080657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571378181294735], ["'mixed heating grid' (megajoule, GLO, None)", -0.3840299626214813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.036722014565523695]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939159143687], ["'autoclave' (unit, GLO, None)", 2.3654221043543124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286380275724], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805796080657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571378181294735], ["'mixed heating grid' (megajoule, GLO, None)", -0.3840299626214813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.036722014565523695]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 1.930445118864402], ["'autoclave' (unit, GLO, None)", 3.153896139139083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729200331616], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02906154204828798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.036783358888210896], ["'mixed heating grid' (megajoule, GLO, None)", -0.1648032748077672], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004360187255], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539191400734], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781629215212039], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073548624126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180726077786]]</t>
@@ -190,10 +190,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597924267489], ["'mechanical disinfection' (unit, GLO, None)", 2.3912574993001736], ["'autoclave' (unit, GLO, None)", 4.730844208708626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144058514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173069001649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934281200089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0068679463950077554], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583806929877987], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009670356847162522]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597924267489], ["'wet wipe' (unit, GLO, None)", 0.1393521891025128], ["'autoclave' (unit, GLO, None)", 4.730844208708626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3403312144058514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173069001649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934281200089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0068679463950077554], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502557908108465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959691579661236], ["'mixed heating grid' (megajoule, GLO, None)", -0.05806428986862718]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0667106376873391], ["'mechanical disinfection' (unit, GLO, None)", 1.1956287496500868], ["'autoclave' (unit, GLO, None)", 3.5481331565314687], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2032096551009839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761052443795], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868562400178], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011493060887754095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791903464938965], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004835178423581261]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597924267489], ["'wet wipe' (unit, GLO, None)", 0.1393521891025128], ["'autoclave' (unit, GLO, None)", 4.730844208708626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144058514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173069001649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934281200089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0068679463950077554], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502557908108465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959691579661236], ["'mixed heating grid' (megajoule, GLO, None)", -0.05806428986862718]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0667106376873391], ["'mechanical disinfection' (unit, GLO, None)", 1.1956287496500868], ["'autoclave' (unit, GLO, None)", 3.5481331565314687], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551009839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761052443795], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868562400178], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011493060887754095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791903464938965], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004835178423581261]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0667106376873391], ["'wet wipe' (unit, GLO, None)", 0.1393521891025128], ["'autoclave' (unit, GLO, None)", 3.5481331565314687], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551009839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761052443795], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868562400178], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060887754093], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502557908108465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851772545011877], ["'mixed heating grid' (megajoule, GLO, None)", -0.05758077202626905]]</t>
@@ -202,7 +202,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.149759798736719], ["'autoclave' (unit, GLO, None)", 0.05699651511994287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223125308415e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214563857546131], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036834219946674574], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246604052669], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605203523279], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650545779702], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314531213155], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932725236417]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149759798736719], ["'autoclave' (unit, GLO, None)", 0.05699651511994287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000309408863728682], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371579200054e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092383640873], ["'mixed heating grid' (megajoule, GLO, None)", -0.024556146631116386], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004210932725236417]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.149759798736719], ["'autoclave' (unit, GLO, None)", 0.05699651511994287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000309408863728682], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371579200054e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092383640873], ["'mixed heating grid' (megajoule, GLO, None)", -0.024556146631116386], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932725236417]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.4284511286148056], ["'autoclave' (unit, GLO, None)", 0.07599535349325716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204350099970514], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460732456077275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000706401197], ["'mixed heating grid' (megajoule, GLO, None)", -0.010538066753547966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2911741593855884], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405316631963267], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833143407905], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074515834692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837088568158]]</t>
@@ -214,10 +214,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276449926278], ["'mechanical disinfection' (unit, GLO, None)", 0.057753132535823724], ["'autoclave' (unit, GLO, None)", 0.11399303023988579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467857704994], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334450409719], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747389702673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000787551025510988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495715319275e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.183546176791471e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276449926278], ["'wet wipe' (unit, GLO, None)", 0.03231285969023964], ["'autoclave' (unit, GLO, None)", 0.11399303023988579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0010836467857704994], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334450409719], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747389702673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000787551025510988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345591585377e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584303771653], ["'mixed heating grid' (megajoule, GLO, None)", -0.003712822838907045]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659389154725], ["'mechanical disinfection' (unit, GLO, None)", 0.028876566267911862], ["'autoclave' (unit, GLO, None)", 0.08549477267991432], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006470387677255822], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323181666085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494779405346e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0013179153371072202], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474785765961e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.0917730883957356e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276449926278], ["'wet wipe' (unit, GLO, None)", 0.03231285969023964], ["'autoclave' (unit, GLO, None)", 0.11399303023988579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467857704994], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334450409719], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747389702673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000787551025510988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345591585377e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584303771653], ["'mixed heating grid' (megajoule, GLO, None)", -0.003712822838907045]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659389154725], ["'mechanical disinfection' (unit, GLO, None)", 0.028876566267911862], ["'autoclave' (unit, GLO, None)", 0.08549477267991432], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387677255822], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323181666085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494779405346e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0013179153371072202], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474785765961e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.0917730883957356e-05]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659389154725], ["'wet wipe' (unit, GLO, None)", 0.03231285969023964], ["'autoclave' (unit, GLO, None)", 0.08549477267991432], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387677255822], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323181666085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494779405346e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153371072201], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345591585377e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636825195086], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036819051080230875]]</t>
@@ -226,7 +226,7 @@
     <t>[["'H200' (unit, GLO, None)", 5.5416036394987e-05], ["'autoclave' (unit, GLO, None)", 0.00022512371863078133], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949221611162e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8335807732624486e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3142927943269523e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264656364118e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961126917693e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.0326476584840455e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138751049296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220029227001e-06]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 5.5416036394987e-05], ["'autoclave' (unit, GLO, None)", 0.00022512371863078133], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140826119013014e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9306379547903394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205155082988e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.2095285295513018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.943220029227001e-06]]</t>
+    <t>[["'H200' (unit, GLO, None)", 5.5416036394987e-05], ["'autoclave' (unit, GLO, None)", 0.00022512371863078133], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140826119013014e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9306379547903394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205155082988e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.2095285295513018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220029227001e-06]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.0001588899675459949], ["'autoclave' (unit, GLO, None)", 0.0003001649581743751], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028611353441e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.736999822916391e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.096766272022137e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.482008512188845e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316211228312e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.818454319751927e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463834946e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.80003908480262e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808482998441e-05]]</t>
@@ -238,10 +238,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 1.372829768896067e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658189101625], ["'autoclave' (unit, GLO, None)", 0.00045024743726156276], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383011501141e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218573127864e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.27339279099066e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.111532606732012e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625287639207e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.5638703810743165e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829768896067e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622246912e-05], ["'autoclave' (unit, GLO, None)", 0.00045024743726156276], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.467383011501141e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218573127864e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.27339279099066e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.111532606732012e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613573326905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180175491602e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3407472723507746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 8.12388444644984e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829094550812], ["'autoclave' (unit, GLO, None)", 0.000337685577946172], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.264540450724591e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958256529878e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654678558198132e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774078814886e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812643819595e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7819351905371582e-08]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829768896067e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622246912e-05], ["'autoclave' (unit, GLO, None)", 0.00045024743726156276], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383011501141e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218573127864e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.27339279099066e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.111532606732012e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613573326905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180175491602e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3407472723507746e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 8.12388444644984e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829094550812], ["'autoclave' (unit, GLO, None)", 0.000337685577946172], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540450724591e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958256529878e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654678558198132e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774078814886e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812643819595e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7819351905371582e-08]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 8.12388444644984e-06], ["'wet wipe' (unit, GLO, None)", 2.109659622246912e-05], ["'autoclave' (unit, GLO, None)", 0.000337685577946172], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540450724591e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958256529878e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654678558198132e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774078814883e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613573326905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002049053415e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3129279204454027e-06]]</t>
@@ -250,7 +250,7 @@
     <t>[["'H200' (unit, GLO, None)", 7.917951242037932e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112054144817], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296612965753094e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075562920174e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.691631462222427e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167856517917e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983000603147e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322672982202e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142578284817e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.061270299611283e-06]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951242037932e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112054144817], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510235567146694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164168505381e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338370861345e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.4610876414816183e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.061270299611283e-06]]</t>
+    <t>[["'H200' (unit, GLO, None)", 7.917951242037932e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112054144817], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510235567146694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164168505381e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338370861345e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.4610876414816183e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.061270299611283e-06]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 2.293561007040121e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816072193088], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.216704419274007e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568280762562177e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.4983581303308e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.056155358650672e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7437558536557055e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482817349278e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957877102931253e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.41158945867178e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.8641835422485545e-06]]</t>
@@ -262,10 +262,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 2.898688453713508e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578546519443e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224108289644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031238428255e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134700729597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805861511765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300855279e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464040055432e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.197327823799747e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688453713508e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110098332e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224108289644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.686031238428255e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134700729597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805861511765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300855279e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602951629444e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3465076491888084e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.721097833919152e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.71884198926554e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.7702892732597216e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668081217226], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0067187843719567e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767623523959e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361172302353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197201135e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786732020027709e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.0986639118998734e-09]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688453713508e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110098332e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224108289644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031238428255e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134700729597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805861511765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300855279e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602951629444e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3465076491888084e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.721097833919152e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.71884198926554e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.7702892732597216e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668081217226], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187843719567e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767623523959e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361172302353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197201135e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786732020027709e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.0986639118998734e-09]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 1.71884198926554e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110098332e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668081217226], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187843719567e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767623523959e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361172302353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197201135e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602951629444e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640328988539e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.690111194800153e-07]]</t>
@@ -274,7 +274,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.009957978274459192], ["'autoclave' (unit, GLO, None)", 0.021468100066080388], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053190619412e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038216398512514274], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005238920231841209], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078120720876], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004849985728848123], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255136253142102], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000805443381], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855991814091]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978274459192], ["'autoclave' (unit, GLO, None)", 0.021468100066080388], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698846111946], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.14741122792666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547759900834285], ["'mixed heating grid' (megajoule, GLO, None)", -0.00349261348789414], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007167855991814091]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978274459192], ["'autoclave' (unit, GLO, None)", 0.021468100066080388], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698846111946], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.14741122792666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547759900834285], ["'mixed heating grid' (megajoule, GLO, None)", -0.00349261348789414], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855991814091]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.02851044916683673], ["'autoclave' (unit, GLO, None)", 0.028624133421440517], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098239960451], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523100395971e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001093350040229168], ["'mixed heating grid' (megajoule, GLO, None)", -0.001498826124174238], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700795567134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597044426630271], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001583046546682421], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382550544737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096634939453]]</t>
@@ -286,10 +286,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496644536361], ["'mechanical disinfection' (unit, GLO, None)", 0.021196851897387157], ["'autoclave' (unit, GLO, None)", 0.04293620013216079], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009959289456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853861232408], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080675244073e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705351778887], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.41557945993999e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.79483947726219e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496644536361], ["'wet wipe' (unit, GLO, None)", 0.002321360183767274], ["'autoclave' (unit, GLO, None)", 0.04293620013216079], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0005548009959289456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853861232408], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080675244073e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705351778887], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.297704123356093e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003852143941787098], ["'mixed heating grid' (megajoule, GLO, None)", -0.000528073696583014]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012423949706], ["'mechanical disinfection' (unit, GLO, None)", 0.010598425948693578], ["'autoclave' (unit, GLO, None)", 0.032202150099120586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00033126823006589614], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086453866391], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216135048815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0002243357460729157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077897299699865e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.397419738631095e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496644536361], ["'wet wipe' (unit, GLO, None)", 0.002321360183767274], ["'autoclave' (unit, GLO, None)", 0.04293620013216079], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009959289456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853861232408], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080675244073e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705351778887], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.297704123356093e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003852143941787098], ["'mixed heating grid' (megajoule, GLO, None)", -0.000528073696583014]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012423949706], ["'mechanical disinfection' (unit, GLO, None)", 0.010598425948693578], ["'autoclave' (unit, GLO, None)", 0.032202150099120586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823006589614], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086453866391], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216135048815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0002243357460729157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077897299699865e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.397419738631095e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012423949706], ["'wet wipe' (unit, GLO, None)", 0.002321360183767274], ["'autoclave' (unit, GLO, None)", 0.032202150099120586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823006589614], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086453866391], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216135048815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574607291567], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.297704123356093e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038200660444874074], ["'mixed heating grid' (megajoule, GLO, None)", -0.000523676276844383]]</t>
@@ -298,7 +298,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.1553442024775278], ["'autoclave' (unit, GLO, None)", 0.6714095482141793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742417768367], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550795351565], ["'mixed heating grid' (megajoule, GLO, None)", -0.014239218210836874], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894708181025], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913175130189], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945384376542403], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311767698455], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261107653215]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442024775278], ["'autoclave' (unit, GLO, None)", 0.6714095482141793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174875341626], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265998911778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0454703386356771], ["'mixed heating grid' (megajoule, GLO, None)", -0.09492812140557917], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016660261107653215]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442024775278], ["'autoclave' (unit, GLO, None)", 0.6714095482141793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174875341626], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265998911778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0454703386356771], ["'mixed heating grid' (megajoule, GLO, None)", -0.09492812140557917], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261107653215]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.4448101288231193], ["'autoclave' (unit, GLO, None)", 0.8952127309522391], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049073943482091736], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046098544669], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019513218871319807], ["'mixed heating grid' (megajoule, GLO, None)", -0.04073761633648545], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875834284343], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0215793503329161], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.02393451414666831], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681035770297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738840436784]]</t>
@@ -310,10 +310,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089545453201], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817302913513], ["'autoclave' (unit, GLO, None)", 1.342819096428359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513566871716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224306794945], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234915896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906058933703], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001145000243123538], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023904093382617967]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089545453201], ["'wet wipe' (unit, GLO, None)", 0.0448806383986857], ["'autoclave' (unit, GLO, None)", 1.342819096428359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05671513566871716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224306794945], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234915896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906058933703], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939025549036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874992005686028], ["'mixed heating grid' (megajoule, GLO, None)", -0.01435287476100039]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486871952187], ["'mechanical disinfection' (unit, GLO, None)", 0.32654086514567565], ["'autoclave' (unit, GLO, None)", 1.007114322321269], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0338642553794718], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666925199254], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469831792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239947933237], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725001215617675e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011952046691308984]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089545453201], ["'wet wipe' (unit, GLO, None)", 0.0448806383986857], ["'autoclave' (unit, GLO, None)", 1.342819096428359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513566871716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224306794945], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234915896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906058933703], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939025549036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874992005686028], ["'mixed heating grid' (megajoule, GLO, None)", -0.01435287476100039]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486871952187], ["'mechanical disinfection' (unit, GLO, None)", 0.32654086514567565], ["'autoclave' (unit, GLO, None)", 1.007114322321269], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0338642553794718], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666925199254], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469831792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239947933237], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725001215617675e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011952046691308984]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486871952187], ["'wet wipe' (unit, GLO, None)", 0.0448806383986857], ["'autoclave' (unit, GLO, None)", 1.007114322321269], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0338642553794718], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666925199254], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469831792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.052142399479332364], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939025549036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741993529867], ["'mixed heating grid' (megajoule, GLO, None)", -0.014233354294087298]]</t>
@@ -322,7 +322,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.0110966518461686], ["'autoclave' (unit, GLO, None)", 0.06018770644458141], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037875194640188e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236957137715], ["'mixed heating grid' (megajoule, GLO, None)", -0.000857556551539378], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398513394307], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000715235797067858], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584839456151], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712111673113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814771944223]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0110966518461686], ["'autoclave' (unit, GLO, None)", 0.06018770644458141], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793377459761996e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114079256169302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00931482463809181], ["'mixed heating grid' (megajoule, GLO, None)", -0.005717043676929187], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000998814771944223]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0110966518461686], ["'autoclave' (unit, GLO, None)", 0.06018770644458141], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793377459761996e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114079256169302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00931482463809181], ["'mixed heating grid' (megajoule, GLO, None)", -0.005717043676929187], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814771944223]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.03191441340711096], ["'autoclave' (unit, GLO, None)", 0.08025027525944187], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.143435685958857e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600760381023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379772501471], ["'mixed heating grid' (megajoule, GLO, None)", -0.0024534218990241515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459392003845], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0021526514280683106], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784153838923], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806228640314], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028415648100565075]]</t>
@@ -334,10 +334,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810429479554], ["'mechanical disinfection' (unit, GLO, None)", 0.062308700301182615], ["'autoclave' (unit, GLO, None)", 0.12037541288916284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010798048937], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964954408819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650620226506625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364880349233], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898494012666e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.43962341087463e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810429479554], ["'wet wipe' (unit, GLO, None)", 0.003225553725419618], ["'autoclave' (unit, GLO, None)", 0.12037541288916284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003865010798048937], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964954408819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650620226506625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364880349233], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654304984807068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762479613832], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864401514357906]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895795791277], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350150591308], ["'autoclave' (unit, GLO, None)", 0.09028155966687211], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00023077739507504878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112559660351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.30124045301325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00031260373716861917], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949247006302e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.19811705437315e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810429479554], ["'wet wipe' (unit, GLO, None)", 0.003225553725419618], ["'autoclave' (unit, GLO, None)", 0.12037541288916284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010798048937], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964954408819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650620226506625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364880349233], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654304984807068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762479613832], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864401514357906]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895795791277], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350150591308], ["'autoclave' (unit, GLO, None)", 0.09028155966687211], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739507504878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112559660351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.30124045301325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00031260373716861917], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949247006302e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.19811705437315e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895795791277], ["'wet wipe' (unit, GLO, None)", 0.003225553725419618], ["'autoclave' (unit, GLO, None)", 0.09028155966687211], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739507504878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112559660351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.30124045301325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031260373716861913], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654304984807068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482987143804], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008572033973035327]]</t>
@@ -346,7 +346,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.004202587243443334], ["'autoclave' (unit, GLO, None)", 0.04303643149663856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666041496495534e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018191089927], ["'mixed heating grid' (megajoule, GLO, None)", -0.0088052684814053], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001123609648355017], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931998924217716], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646119660772602], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522490058525016], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832293187434654]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202587243443334], ["'autoclave' (unit, GLO, None)", 0.04303643149663856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968494342290825e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272364210478495e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0067800121273932845], ["'mixed heating grid' (megajoule, GLO, None)", -0.058701789876035346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0038832293187434654]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.004202587243443334], ["'autoclave' (unit, GLO, None)", 0.04303643149663856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968494342290825e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272364210478495e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0067800121273932845], ["'mixed heating grid' (megajoule, GLO, None)", -0.058701789876035346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832293187434654]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.01225290548179579], ["'autoclave' (unit, GLO, None)", 0.05738190866218474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400757545269296e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283463896113132e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095859974137554], ["'mixed heating grid' (megajoule, GLO, None)", -0.02519138648091235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624774870919357], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754043762057], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918157091759559], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654222551697188], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541637817643]]</t>
@@ -358,10 +358,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097152479562], ["'mechanical disinfection' (unit, GLO, None)", 0.04429418615537295], ["'autoclave' (unit, GLO, None)", 0.08607286299327714], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576099396965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389764032094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795187849381714e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621922080343], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072922188784234e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014781848056682353]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097152479562], ["'wet wipe' (unit, GLO, None)", 0.012977474932823111], ["'autoclave' (unit, GLO, None)", 0.08607286299327714], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002647576099396965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389764032094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795187849381714e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621922080343], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968384181998122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251194640919137], ["'mixed heating grid' (megajoule, GLO, None)", -0.008875551584314589]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007419796289825838], ["'mechanical disinfection' (unit, GLO, None)", 0.022147093077686475], ["'autoclave' (unit, GLO, None)", 0.06455464724495784], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0001580851250894885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020303941308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590375698763428e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012153524671636986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461094392095e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.390924028341177e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097152479562], ["'wet wipe' (unit, GLO, None)", 0.012977474932823111], ["'autoclave' (unit, GLO, None)", 0.08607286299327714], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576099396965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389764032094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795187849381714e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621922080343], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968384181998122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251194640919137], ["'mixed heating grid' (megajoule, GLO, None)", -0.008875551584314589]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007419796289825838], ["'mechanical disinfection' (unit, GLO, None)", 0.022147093077686475], ["'autoclave' (unit, GLO, None)", 0.06455464724495784], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001580851250894885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020303941308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590375698763428e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012153524671636986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461094392095e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.390924028341177e-05]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0007419796289825838], ["'wet wipe' (unit, GLO, None)", 0.012977474932823111], ["'autoclave' (unit, GLO, None)", 0.06455464724495784], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001580851250894885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020303941308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590375698763428e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524671636984], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968384181998122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001016583002997524], ["'mixed heating grid' (megajoule, GLO, None)", -0.008801642344031177]]</t>
@@ -370,7 +370,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.002064264940773534], ["'autoclave' (unit, GLO, None)", 0.0035315377341952896], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244268598708e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.12977805694236e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.77901770093275e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233334488006], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.44724417409294e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499632181692], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576351233338], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000502307802800539]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264940773534], ["'autoclave' (unit, GLO, None)", 0.0035315377341952896], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713486640264e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544722809111705e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000208651870462824], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004519345133955167], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000502307802800539]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264940773534], ["'autoclave' (unit, GLO, None)", 0.0035315377341952896], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713486640264e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544722809111705e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000208651870462824], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004519345133955167], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000502307802800539]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.005902614736846073], ["'autoclave' (unit, GLO, None)", 0.004708716978927053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679467414816902e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690239611762e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122046183271e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019394394983614157], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101650113625184], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345333950302], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101696587961197], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866577812208], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339073344445]]</t>
@@ -382,10 +382,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215281388546], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784057797194], ["'autoclave' (unit, GLO, None)", 0.007063075468390582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922136871072], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764600675474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426494473905e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427577693623e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116190387524e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.138027873202968e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215281388546], ["'wet wipe' (unit, GLO, None)", 0.0003586764312282618], ["'autoclave' (unit, GLO, None)", 0.007063075468390582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00019945922136871072], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764600675474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426494473905e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427577693623e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.19631291720224e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759749859933e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.833127396702355e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808238200909], ["'mechanical disinfection' (unit, GLO, None)", 0.001441392028898597], ["'autoclave' (unit, GLO, None)", 0.005297306601292935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00011909586269307428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735574171134], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999685298894781e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015720962562333323], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058095193755e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.69013936601484e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215281388546], ["'wet wipe' (unit, GLO, None)", 0.0003586764312282618], ["'autoclave' (unit, GLO, None)", 0.007063075468390582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922136871072], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764600675474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426494473905e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427577693623e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.19631291720224e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759749859933e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.833127396702355e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808238200909], ["'mechanical disinfection' (unit, GLO, None)", 0.001441392028898597], ["'autoclave' (unit, GLO, None)", 0.005297306601292935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586269307428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735574171134], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999685298894781e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015720962562333323], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058095193755e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.69013936601484e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808238200909], ["'wet wipe' (unit, GLO, None)", 0.0003586764312282618], ["'autoclave' (unit, GLO, None)", 0.005297306601292935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586269307428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735574171134], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999685298894781e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015720962562333321], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.19631291720224e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489168908003e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.776226003042207e-05]]</t>
@@ -394,7 +394,7 @@
     <t>[["'H200' (unit, GLO, None)", 4.733841624227815e-08], ["'autoclave' (unit, GLO, None)", 2.6940935163752057e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668337571646e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490130270588e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2136615941522035e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.65256685145038e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670900765206e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170092303793745e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874232910022e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444252141438e-09]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841624227815e-08], ["'autoclave' (unit, GLO, None)", 2.6940935163752057e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686466986793e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796481128115e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.508993420180392e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.091077294348023e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.843444252141438e-09]]</t>
+    <t>[["'H200' (unit, GLO, None)", 4.733841624227815e-08], ["'autoclave' (unit, GLO, None)", 2.6940935163752057e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686466986793e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796481128115e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.508993420180392e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.091077294348023e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444252141438e-09]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 1.35790566699193e-07], ["'autoclave' (unit, GLO, None)", 3.592124688500274e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201407742251e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199507965817e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554363234167e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.4722187449358544e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264316996103e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545163086638072e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045687112557e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753305045078e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102476820105e-08]]</t>
@@ -406,10 +406,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 1.055853065385351e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.583138430482919e-07], ["'autoclave' (unit, GLO, None)", 5.388187032750412e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981954557254e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237426326566e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440746108e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922643359364e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086204277759e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.0374348964911453e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853065385351e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488195766232e-07], ["'autoclave' (unit, GLO, None)", 5.388187032750412e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.8815981954557254e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237426326566e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440746108e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922643359364e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771913612e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305502979653767e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2233489651731988e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933471637202e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692152414595e-07], ["'autoclave' (unit, GLO, None)", 4.0411402745628085e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1234906001928505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695872103396e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914881492217e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994827113554e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043102138868e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.0187174482455727e-10]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853065385351e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488195766232e-07], ["'autoclave' (unit, GLO, None)", 5.388187032750412e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981954557254e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237426326566e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440746108e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922643359364e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771913612e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305502979653767e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2233489651731988e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933471637202e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692152414595e-07], ["'autoclave' (unit, GLO, None)", 4.0411402745628085e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906001928505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695872103396e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914881492217e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994827113554e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043102138868e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.0187174482455727e-10]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 6.232933471637202e-09], ["'wet wipe' (unit, GLO, None)", 1.0964488195766232e-07], ["'autoclave' (unit, GLO, None)", 4.0411402745628085e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906001928505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695872103396e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914881492217e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994827113552e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771913612e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322548632391e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.213161790690743e-08]]</t>
@@ -418,7 +418,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.0003099037464634079], ["'autoclave' (unit, GLO, None)", 0.00026835532574080923], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121583534757e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.80522043565256e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.888433203603604e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957543232714], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615280917577e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731155169783e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471433518773e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738749473945e-05]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037464634079], ["'autoclave' (unit, GLO, None)", 0.00026835532574080923], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566658233343e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.633861366425056e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136237683734e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012589554690690694], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.5635738749473945e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037464634079], ["'autoclave' (unit, GLO, None)", 0.00026835532574080923], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566658233343e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.633861366425056e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136237683734e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012589554690690694], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738749473945e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.0008865846139095841], ["'autoclave' (unit, GLO, None)", 0.00035780710098774564], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587287953565e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294216696606e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525361721903e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.402703026696741e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137056870135], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.313020133091698e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880646247349e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468826813445], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205422714265e-05]]</t>
@@ -430,10 +430,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 3.113029066242475e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00026064334675535015], ["'autoclave' (unit, GLO, None)", 0.0005367106514816187], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695364749328e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504177175422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734504776653e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532152195919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015359302453e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.1702080112391156e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.113029066242475e-05], ["'wet wipe' (unit, GLO, None)", 7.725704204989522e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106514816187], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7083695364749328e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504177175422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734504776653e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532152195919e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607998332967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8355934674387236e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9035065594548734e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546228795025e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032167337767507], ["'autoclave' (unit, GLO, None)", 0.0004025329886112139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0200568434434208e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289007212005e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003469009553306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337222541055e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007679651218e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5851040056195578e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.113029066242475e-05], ["'wet wipe' (unit, GLO, None)", 7.725704204989522e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106514816187], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695364749328e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504177175422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734504776653e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532152195919e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607998332967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8355934674387236e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9035065594548734e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546228795025e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032167337767507], ["'autoclave' (unit, GLO, None)", 0.0004025329886112139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568434434208e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289007212005e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003469009553306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337222541055e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007679651218e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5851040056195578e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 1.820546228795025e-05], ["'wet wipe' (unit, GLO, None)", 7.725704204989522e-05], ["'autoclave' (unit, GLO, None)", 0.0004025329886112139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568434434208e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289007212005e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003469009553306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337222541054e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607998332967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.80365339064222e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.887655519398678e-05]]</t>
@@ -442,7 +442,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.000581879901719408], ["'autoclave' (unit, GLO, None)", 0.00047596019368074147], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431464237053e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578607740751e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.785141976595945e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029814098803468403], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.27432137568159e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675280828247e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230152266636e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.4845273999265384e-05]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581879901719408], ["'autoclave' (unit, GLO, None)", 0.00047596019368074147], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7964919061759882e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781083120449355e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385738493834e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003190094651063964], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.4845273999265384e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.000581879901719408], ["'autoclave' (unit, GLO, None)", 0.00047596019368074147], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7964919061759882e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781083120449355e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385738493834e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003190094651063964], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.4845273999265384e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001665484900767878], ["'autoclave' (unit, GLO, None)", 0.0006346135915743219], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324613680626e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450270464702e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591275709454433e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013690026732634812], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385424817265], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.189358860642032e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729668315012185e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00024414732823286304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.913259913082144e-05]]</t>
@@ -454,10 +454,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 4.555731193148531e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574080347565634], ["'autoclave' (unit, GLO, None)", 0.0009519203873614831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702568839864e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719423113397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217531342e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948396698051e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.560327763096065e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.033059046077498e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731193148531e-05], ["'wet wipe' (unit, GLO, None)", 0.0010944013359261442], ["'autoclave' (unit, GLO, None)", 0.0009519203873614831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.2499702568839864e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719423113397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217531342e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948396698051e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669419303636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767353508772e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.8233366809013126e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834089195087e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040173782817], ["'autoclave' (unit, GLO, None)", 0.0007139402905211122], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.463494796718121e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252228009403e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698435062684e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.090568860293464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638815480305e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.016529523038749e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731193148531e-05], ["'wet wipe' (unit, GLO, None)", 0.0010944013359261442], ["'autoclave' (unit, GLO, None)", 0.0009519203873614831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702568839864e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719423113397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217531342e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948396698051e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669419303636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767353508772e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.8233366809013126e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834089195087e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040173782817], ["'autoclave' (unit, GLO, None)", 0.0007139402905211122], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494796718121e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252228009403e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698435062684e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.090568860293464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638815480305e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.016529523038749e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 2.662834089195087e-05], ["'wet wipe' (unit, GLO, None)", 0.0010944013359261442], ["'autoclave' (unit, GLO, None)", 0.0007139402905211122], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494796718121e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252228009403e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698435062684e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688602934639], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669419303636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750965353991e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.783171385670925e-05]]</t>
@@ -466,7 +466,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.0006164943885660565], ["'autoclave' (unit, GLO, None)", 0.0004880770682402906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521092182654e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365607140044e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.956964937863081e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640292071504], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583326646751113e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703506338514e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547639427162e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6126692815419705e-05]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943885660565], ["'autoclave' (unit, GLO, None)", 0.0004880770682402906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766125697984e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.396169823463236e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243738093363e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003304643291908721], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6126692815419705e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943885660565], ["'autoclave' (unit, GLO, None)", 0.0004880770682402906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766125697984e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.396169823463236e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243738093363e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003304643291908721], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6126692815419705e-05]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.001764859957036998], ["'autoclave' (unit, GLO, None)", 0.0006507694243203875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541036741536e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186683898274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191464720351588e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014181602728609944], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693459689], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823604470804318e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.640452638085467e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000256071764490906], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815456032378]]</t>
@@ -478,10 +478,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 4.83344812700389e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772791722646516], ["'autoclave' (unit, GLO, None)", 0.0009761541364805815], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854789732465e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343000212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994504382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606156301598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.595545764181851e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.32150691242747e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.83344812700389e-05], ["'wet wipe' (unit, GLO, None)", 0.0016920736912715948], ["'autoclave' (unit, GLO, None)", 0.0009761541364805815], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3024854789732465e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343000212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994504382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606156301598e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462549476e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580228859630824e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.99653112231064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083842380303e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386395861323258], ["'autoclave' (unit, GLO, None)", 0.0007321156023604359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.777059927290718e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205389291949e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691989008764e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1306740251408256e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977728820909233e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.160753456213735e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.83344812700389e-05], ["'wet wipe' (unit, GLO, None)", 0.0016920736912715948], ["'autoclave' (unit, GLO, None)", 0.0009761541364805815], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854789732465e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343000212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994504382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606156301598e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462549476e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580228859630824e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.99653112231064e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083842380303e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386395861323258], ["'autoclave' (unit, GLO, None)", 0.0007321156023604359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059927290718e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205389291949e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691989008764e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1306740251408256e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977728820909233e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.160753456213735e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 2.824083842380303e-05], ["'wet wipe' (unit, GLO, None)", 0.0016920736912715948], ["'autoclave' (unit, GLO, None)", 0.0007321156023604359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059927290718e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205389291949e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691989008764e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00011306740251408255], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462549476e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451571421754e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.954923587748503e-05]]</t>
@@ -490,7 +490,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.001999873819232332], ["'autoclave' (unit, GLO, None)", 0.004165478879702957], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840522291723e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299252238813e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.397439125888028e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499984442284], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.989635490013214e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.3707298412513884e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108573351737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741871477106]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873819232332], ["'autoclave' (unit, GLO, None)", 0.004165478879702957], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249318530023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658548253012e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199501492541], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004931626083925352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00016358741871477106]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873819232332], ["'autoclave' (unit, GLO, None)", 0.004165478879702957], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249318530023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658548253012e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199501492541], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004931626083925352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741871477106]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.005755802054775333], ["'autoclave' (unit, GLO, None)", 0.005553971839603943], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472596499432e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806963377222e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135213912313], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021163664501860417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029754221810516365], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932057321324e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917953700881], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213682634293], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958526094278]]</t>
@@ -502,10 +502,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659287392633], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202616593667], ["'autoclave' (unit, GLO, None)", 0.008330957759405918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389546193e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073806437376], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347964091e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498875330054e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.400128077346027e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.241845395155768e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659287392633], ["'wet wipe' (unit, GLO, None)", 0.009590872144167078], ["'autoclave' (unit, GLO, None)", 0.008330957759405918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.511844389546193e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073806437376], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347964091e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498875330054e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.24396011764121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406870999809837e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.456485022835739e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269047058335], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001013082968336], ["'autoclave' (unit, GLO, None)", 0.0062482183195544366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.096900480944358e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216601902743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695928182e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720604084995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640386730117e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.20922697577884e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659287392633], ["'wet wipe' (unit, GLO, None)", 0.009590872144167078], ["'autoclave' (unit, GLO, None)", 0.008330957759405918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389546193e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073806437376], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347964091e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498875330054e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.24396011764121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406870999809837e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.456485022835739e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269047058335], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001013082968336], ["'autoclave' (unit, GLO, None)", 0.0062482183195544366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900480944358e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216601902743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695928182e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720604084995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640386730117e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.20922697577884e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269047058335], ["'wet wipe' (unit, GLO, None)", 0.009590872144167078], ["'autoclave' (unit, GLO, None)", 0.0062482183195544366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900480944358e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216601902743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695928182e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00051198720604085], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.24396011764121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864595942555e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.39439275307795e-05]]</t>
@@ -514,7 +514,7 @@
     <t>[["'H200' (unit, GLO, None)", 1.014262305360281e-09], ["'autoclave' (unit, GLO, None)", 1.4473327468368333e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.95196582642474e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485222236416237e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3267763574759918e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566934054200286e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.701134931838065e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.695003001093594e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.242275547134069e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121851589803e-11]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262305360281e-09], ["'autoclave' (unit, GLO, None)", 1.4473327468368333e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538071739781e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352021882789e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148157610825e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.845175716506613e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.718121851589803e-11]]</t>
+    <t>[["'H200' (unit, GLO, None)", 1.014262305360281e-09], ["'autoclave' (unit, GLO, None)", 1.4473327468368333e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538071739781e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352021882789e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148157610825e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.845175716506613e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121851589803e-11]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 2.904679505923198e-09], ["'autoclave' (unit, GLO, None)", 1.9297769957824445e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183601931742e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894635234112018e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464651391475e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.7958338312451487e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668523000232592e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119920668638836e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105992534243426e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269146856533e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7647441596769725e-10]]</t>
@@ -526,10 +526,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 1.0936049829858e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521274342568525e-09], ["'autoclave' (unit, GLO, None)", 2.8946654936736674e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734046123863e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058040848972e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184050227056e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348146485995e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957845450432e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.2273263515842866e-12]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.0936049829858e-10], ["'wet wipe' (unit, GLO, None)", 5.65861231027879e-10], ["'autoclave' (unit, GLO, None)", 2.8946654936736674e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.610734046123863e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058040848972e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184050227056e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348146485995e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920211969306e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.871258950069254e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.337366603470991e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814749339381e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260637171284263e-10], ["'autoclave' (unit, GLO, None)", 2.17099912025525e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.1559468809088322e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.245568144306684e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368100454112e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526111146303e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.39097892272521e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.1136631757921433e-12]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.0936049829858e-10], ["'wet wipe' (unit, GLO, None)", 5.65861231027879e-10], ["'autoclave' (unit, GLO, None)", 2.8946654936736674e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734046123863e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058040848972e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184050227056e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348146485995e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920211969306e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.871258950069254e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.337366603470991e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814749339381e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260637171284263e-10], ["'autoclave' (unit, GLO, None)", 2.17099912025525e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468809088322e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.245568144306684e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368100454112e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526111146303e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.39097892272521e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.1136631757921433e-12]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 6.423814749339381e-11], ["'wet wipe' (unit, GLO, None)", 5.65861231027879e-10], ["'autoclave' (unit, GLO, None)", 2.17099912025525e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468809088322e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.245568144306684e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368100454112e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415261111463024e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920211969306e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473491608420087e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3262299717130695e-10]]</t>
@@ -538,7 +538,7 @@
     <t>[["'H200' (unit, GLO, None)", 4.981149017788575e-07], ["'autoclave' (unit, GLO, None)", 6.098544329441012e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248195223e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70405159192176e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8904291065119227e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558199411376e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.62813321770547e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696456201854e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279352872036104e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600881825692e-08]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981149017788575e-07], ["'autoclave' (unit, GLO, None)", 6.098544329441012e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189310454286e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780871023462e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936772794784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9269527376746154e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.706600881825692e-08]]</t>
+    <t>[["'H200' (unit, GLO, None)", 4.981149017788575e-07], ["'autoclave' (unit, GLO, None)", 6.098544329441012e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189310454286e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780871023462e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936772794784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9269527376746154e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600881825692e-08]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 1.425453088754695e-06], ["'autoclave' (unit, GLO, None)", 8.131392439254682e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086010774e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016377670863e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755286684773e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.269357927198499e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355784602541e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.596816793678345e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976945092238e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043062545382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044913801572e-07]]</t>
@@ -550,10 +550,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 5.684096701098281e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.010847988496422e-07], ["'autoclave' (unit, GLO, None)", 1.2197088658882028e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023813630885e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977874262326e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310923691e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282028984127e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680570264776e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.852309042171581e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096701098281e-08], ["'wet wipe' (unit, GLO, None)", 1.4231705648991007e-07], ["'autoclave' (unit, GLO, None)", 1.2197088658882028e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9208023813630885e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977874262326e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310923691e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282028984127e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461928757028e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508725467682e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.9135003310604964e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804229933043e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423994248211e-07], ["'autoclave' (unit, GLO, None)", 9.147816494161519e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.7439929674717514e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160620212517e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.1164621847382e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722380144333e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340285132366e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4261545210857906e-10]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096701098281e-08], ["'wet wipe' (unit, GLO, None)", 1.4231705648991007e-07], ["'autoclave' (unit, GLO, None)", 1.2197088658882028e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023813630885e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977874262326e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310923691e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282028984127e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461928757028e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508725467682e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.9135003310604964e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804229933043e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423994248211e-07], ["'autoclave' (unit, GLO, None)", 9.147816494161519e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929674717514e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160620212517e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.1164621847382e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722380144333e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340285132366e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4261545210857906e-10]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 3.335804229933043e-08], ["'wet wipe' (unit, GLO, None)", 1.4231705648991007e-07], ["'autoclave' (unit, GLO, None)", 9.147816494161519e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929674717514e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160620212517e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.1164621847382e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722380144332e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461928757028e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70005532261638e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.889238785849638e-08]]</t>
@@ -562,7 +562,7 @@
     <t>[["'H200' (unit, GLO, None)", 0.05704845730755774], ["'autoclave' (unit, GLO, None)", 0.011815228248866725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.71241943040915e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315149784768], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155533877554997], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001057082823], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000246656779918728], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508129154074], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652262557526], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012365015062033142]]</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845730755774], ["'autoclave' (unit, GLO, None)", 0.011815228248866725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783136359781], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352038269584477e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210099856512], ["'mixed heating grid' (megajoule, GLO, None)", -0.007703559183699981], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012365015062033142]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845730755774], ["'autoclave' (unit, GLO, None)", 0.011815228248866725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783136359781], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352038269584477e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210099856512], ["'mixed heating grid' (megajoule, GLO, None)", -0.007703559183699981], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012365015062033142]]</t>
   </si>
   <si>
     <t>[["'H400' (unit, GLO, None)", 0.1631995339913356], ["'autoclave' (unit, GLO, None)", 0.015753637665155633], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8491877328408646e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.04239421003204e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854532704754], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033059185603196246], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1152566522688874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650657748125], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000625596187109318], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718947199304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685255594286]]</t>
@@ -574,10 +574,10 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191618494249], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162737240843], ["'autoclave' (unit, GLO, None)", 0.023630456497733456], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551219025973423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310676884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849905990443e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708549561987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552062553415e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.939852968531049e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191618494249], ["'wet wipe' (unit, GLO, None)", 0.012386853609435824], ["'autoclave' (unit, GLO, None)", 0.023630456497733456], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003551219025973423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310676884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849905990443e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708549561987], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287727521945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002285832406254468], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011647572767736435]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587452996571], ["'mechanical disinfection' (unit, GLO, None)", 0.005860581368620422], ["'autoclave' (unit, GLO, None)", 0.017722842373300088], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00021204108318890186], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192755299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569981198089e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003869936676060373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776031276657e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.699264842655246e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191618494249], ["'wet wipe' (unit, GLO, None)", 0.012386853609435824], ["'autoclave' (unit, GLO, None)", 0.023630456497733456], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551219025973423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310676884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849905990443e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708549561987], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287727521945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002285832406254468], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011647572767736435]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587452996571], ["'mechanical disinfection' (unit, GLO, None)", 0.005860581368620422], ["'autoclave' (unit, GLO, None)", 0.017722842373300088], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108318890186], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192755299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569981198089e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003869936676060373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776031276657e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.699264842655246e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587452996571], ["'wet wipe' (unit, GLO, None)", 0.012386853609435824], ["'autoclave' (unit, GLO, None)", 0.017722842373300088], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108318890186], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192755299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569981198089e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038699366760603727], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287727521945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976302231965], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011550580119309881]]</t>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410702652894], ["'autoclave' (unit, GLO, None)", 0.0007704105219249651], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.761349825772249e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848591663741e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.355361206964916e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183371928873], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780930083786e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908693322459698e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418225110766], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308530446584e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410702652894], ["'autoclave' (unit, GLO, None)", 0.0007704105219249651], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461460731745e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162301047366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389906110916e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002903574137976611], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308530446584e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820056781551], ["'autoclave' (unit, GLO, None)", 0.0010272140292332866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.98774763746721e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.36239944572845e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778988420049e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012460447703590682], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211477283251], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719304135664e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366404658508e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00037384276690452864], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732179973034]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820056781551], ["'autoclave' (unit, GLO, None)", 0.0010272140292332866], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242664994858e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153430439303e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193256133674], ["'mixed heating grid' (megajoule, GLO, None)", -0.000830696513572712], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732179973034]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785550323257e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178353906431], ["'autoclave' (unit, GLO, None)", 0.0015408210438499306], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967339474616e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138282328252], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921433434314436e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.7346593085251e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854136278108e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.311564403661329e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785550323257e-05], ["'wet wipe' (unit, GLO, None)", 0.0002523811665805174], ["'autoclave' (unit, GLO, None)", 0.0015408210438499306], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967339474616e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138282328252], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921433434314436e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.7346593085251e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967951573392623e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093426598684e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.390125428017649e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774182417246e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520891769532157], ["'autoclave' (unit, GLO, None)", 0.0011556157828874476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183933213372e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651545759595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286686862887e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.461688334370782e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384927068139029e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.6557822018306645e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774182417246e-05], ["'wet wipe' (unit, GLO, None)", 0.0002523811665805174], ["'autoclave' (unit, GLO, None)", 0.0011556157828874476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183933213372e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651545759595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286686862887e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883343707818], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967951573392623e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074151501553e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624415591732e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.353567605999342e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247667922373819], ["'autoclave' (unit, GLO, None)", 0.22259094114103065], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02729629041948217], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916681776463], ["'mixed heating grid' (megajoule, GLO, None)", -0.012745640005553819], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148958876733], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600300631987506], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147106136754144], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452449736868], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228668433013]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247667922373819], ["'autoclave' (unit, GLO, None)", 0.22259094114103065], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491773675085], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503855550683], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777878509753], ["'mixed heating grid' (megajoule, GLO, None)", -0.0849709333703588], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228668433013]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087358449906817], ["'autoclave' (unit, GLO, None)", 0.2967879215213742], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193554297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720463339226], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01319729968260235], ["'mixed heating grid' (megajoule, GLO, None)", -0.03646457163737049], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462670910745774], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306886597976822], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876501023313833], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851971089772], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04404612572535692]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087358449906817], ["'autoclave' (unit, GLO, None)", 0.2967879215213742], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110358781714], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734999127371], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199788401573], ["'mixed heating grid' (megajoule, GLO, None)", -0.2430971442491366], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04404612572535692]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016493320684], ["'mechanical disinfection' (unit, GLO, None)", 0.2242201906447033], ["'autoclave' (unit, GLO, None)", 0.44518188228206146], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158588023868], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033881943865], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158990965206], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028955795665946546], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935762112339e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021396748360953972]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016493320684], ["'wet wipe' (unit, GLO, None)", 0.05759767923225554], ["'autoclave' (unit, GLO, None)", 0.44518188228206146], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158588023868], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033881943865], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158990965206], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028955795665946546], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277294504733], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973669453835], ["'mixed heating grid' (megajoule, GLO, None)", -0.012847374907794085]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332806392779], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009532235165], ["'autoclave' (unit, GLO, None)", 0.333886411711546], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779151740926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009307870123], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798193041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0048455637755704115], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8719678810561593e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010698374180476986]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332806392779], ["'wet wipe' (unit, GLO, None)", 0.05759767923225554], ["'autoclave' (unit, GLO, None)", 0.333886411711546], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779151740926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009307870123], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798193041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637755704106], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277294504733], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364862482], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046110170157277995], ["'mixed heating grid' (megajoule, GLO, None)", -0.012740391165989315]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008486787805], ["'autoclave' (unit, GLO, None)", 0.04607194141542909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001433129335183215], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002860267596604847], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004797297994391167], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0033086582724437944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000380425314685337], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126315905923956], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485011646086], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065600820297]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008486787805], ["'autoclave' (unit, GLO, None)", 0.04607194141542909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00950954979420638], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224669857305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068450644032313], ["'mixed heating grid' (megajoule, GLO, None)", -0.003198198662927445], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065600820297]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0223690071787641], ["'autoclave' (unit, GLO, None)", 0.061429255220572125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040583008276683565], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489568614929], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183067514302907], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013724804427715316], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448780057037], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449693937131502], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283608524548], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376059618616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629668156477]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0223690071787641], ["'autoclave' (unit, GLO, None)", 0.061429255220572125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746420903206], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034730401687740713], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455378342868609], ["'mixed heating grid' (megajoule, GLO, None)", -0.009149869618476875], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629668156477]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640038340915], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624513114293], ["'autoclave' (unit, GLO, None)", 0.09214388283085821], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171459671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760696520087], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950347686495e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350538243024e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675395105854e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.053465965912225e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640038340915], ["'wet wipe' (unit, GLO, None)", 0.002224593535286164], ["'autoclave' (unit, GLO, None)", 0.09214388283085821], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171459671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760696520087], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950347686495e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350538243024e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831057754518e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883098073865677], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048355897272711287]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001131189681364371], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122565571466], ["'autoclave' (unit, GLO, None)", 0.06910791212314364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909510926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559248266533], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790069537299e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977465858463], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008376975529205e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.0267329829561125e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001131189681364371], ["'wet wipe' (unit, GLO, None)", 0.002224593535286164], ["'autoclave' (unit, GLO, None)", 0.06910791212314364], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909510926], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559248266533], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790069537299e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001567397746585846], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831057754518e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689332137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002859089696890155], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047953223974415667]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083080909734], ["'autoclave' (unit, GLO, None)", 0.0581574901462062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020751526270105397], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003729728329127616], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006393496706551773], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0044126818214933125], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329912053712], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596614377426], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01585383988245385], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750384482194]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083080909734], ["'autoclave' (unit, GLO, None)", 0.0581574901462062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704347453114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331777982467], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002486485552751744], ["'mixed heating grid' (megajoule, GLO, None)", -0.004262331137701182], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750384482194]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714187841635], ["'autoclave' (unit, GLO, None)", 0.0775433201949416], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366784899005], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931437353826], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670546617207283], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018291440725437256], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799828706345], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001501041041491894], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974670545478], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870389423621], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595758116928]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714187841635], ["'autoclave' (unit, GLO, None)", 0.0775433201949416], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789957029047], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028966519089629], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697744804861], ["'mixed heating grid' (megajoule, GLO, None)", -0.01219429381695817], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595758116928]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734839824337], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074165667853], ["'autoclave' (unit, GLO, None)", 0.11631498029241244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844950871], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00598890703619016], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850017397398e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112269711953], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282954664576e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.073308520537742e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734839824337], ["'wet wipe' (unit, GLO, None)", 0.002469441822516034], ["'autoclave' (unit, GLO, None)", 0.11631498029241244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844950871], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00598890703619016], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850017397398e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112269711953], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017385959352e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037594987876358684], ["'mixed heating grid' (megajoule, GLO, None)", -0.000644452919782966]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447262154579], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370828339265], ["'autoclave' (unit, GLO, None)", 0.0872362352193093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00296281452829299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682928458649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700034794796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639652699022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.13064147733228e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.36654260268871e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447262154579], ["'wet wipe' (unit, GLO, None)", 0.002469441822516034], ["'autoclave' (unit, GLO, None)", 0.0872362352193093], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00296281452829299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682928458649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700034794796e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020633639652699017], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017385959352e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600825432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192372862554], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006390863771802772]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939159143687], ["'autoclave' (unit, GLO, None)", 2.3654221043543124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234404077501], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857067271942104], ["'mixed heating grid' (megajoule, GLO, None)", -0.05760449439322219], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3044161549148883], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823764976633], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919289698383175], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311097615645], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.036722014565523695]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939159143687], ["'autoclave' (unit, GLO, None)", 2.3654221043543124], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286380275724], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805796080657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571378181294735], ["'mixed heating grid' (megajoule, GLO, None)", -0.3840299626214813], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.036722014565523695]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445118864402], ["'autoclave' (unit, GLO, None)", 3.153896139139083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729200331616], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02906154204828798], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.036783358888210896], ["'mixed heating grid' (megajoule, GLO, None)", -0.1648032748077672], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004360187255], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539191400734], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781629215212039], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073548624126], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180726077786]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445118864402], ["'autoclave' (unit, GLO, None)", 3.153896139139083], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933465565422], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19344917047340632], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522239258807285], ["'mixed heating grid' (megajoule, GLO, None)", -1.098688498718448], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180726077786]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597924267489], ["'mechanical disinfection' (unit, GLO, None)", 2.3912574993001736], ["'autoclave' (unit, GLO, None)", 4.730844208708626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144058514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173069001649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934281200089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0068679463950077554], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583806929877987], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009670356847162522]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597924267489], ["'wet wipe' (unit, GLO, None)", 0.1393521891025128], ["'autoclave' (unit, GLO, None)", 4.730844208708626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144058514], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173069001649], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934281200089], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0068679463950077554], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502557908108465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959691579661236], ["'mixed heating grid' (megajoule, GLO, None)", -0.05806428986862718]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0667106376873391], ["'mechanical disinfection' (unit, GLO, None)", 1.1956287496500868], ["'autoclave' (unit, GLO, None)", 3.5481331565314687], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551009839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761052443795], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868562400178], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011493060887754095], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791903464938965], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004835178423581261]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0667106376873391], ["'wet wipe' (unit, GLO, None)", 0.1393521891025128], ["'autoclave' (unit, GLO, None)", 3.5481331565314687], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551009839], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761052443795], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868562400178], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060887754093], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502557908108465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046393282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851772545011877], ["'mixed heating grid' (megajoule, GLO, None)", -0.05758077202626905]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149759798736719], ["'autoclave' (unit, GLO, None)", 0.05699651511994287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223125308415e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214563857546131], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036834219946674574], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246604052669], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605203523279], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650545779702], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314531213155], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932725236417]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.149759798736719], ["'autoclave' (unit, GLO, None)", 0.05699651511994287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000309408863728682], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371579200054e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092383640873], ["'mixed heating grid' (megajoule, GLO, None)", -0.024556146631116386], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932725236417]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511286148056], ["'autoclave' (unit, GLO, None)", 0.07599535349325716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204350099970514], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460732456077275e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000706401197], ["'mixed heating grid' (megajoule, GLO, None)", -0.010538066753547966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2911741593855884], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405316631963267], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833143407905], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074515834692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837088568158]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511286148056], ["'autoclave' (unit, GLO, None)", 0.07599535349325716], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742640244564], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000109571440969025], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165333804267482], ["'mixed heating grid' (megajoule, GLO, None)", -0.07025377835698644], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837088568158]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276449926278], ["'mechanical disinfection' (unit, GLO, None)", 0.057753132535823724], ["'autoclave' (unit, GLO, None)", 0.11399303023988579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467857704994], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334450409719], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747389702673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000787551025510988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495715319275e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.183546176791471e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276449926278], ["'wet wipe' (unit, GLO, None)", 0.03231285969023964], ["'autoclave' (unit, GLO, None)", 0.11399303023988579], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467857704994], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334450409719], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747389702673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000787551025510988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345591585377e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584303771653], ["'mixed heating grid' (megajoule, GLO, None)", -0.003712822838907045]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659389154725], ["'mechanical disinfection' (unit, GLO, None)", 0.028876566267911862], ["'autoclave' (unit, GLO, None)", 0.08549477267991432], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387677255822], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323181666085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494779405346e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0013179153371072202], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474785765961e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.0917730883957356e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659389154725], ["'wet wipe' (unit, GLO, None)", 0.03231285969023964], ["'autoclave' (unit, GLO, None)", 0.08549477267991432], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387677255822], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323181666085], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494779405346e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153371072201], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345591585377e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557377277286e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636825195086], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036819051080230875]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.5416036394987e-05], ["'autoclave' (unit, GLO, None)", 0.00022512371863078133], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949221611162e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8335807732624486e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3142927943269523e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264656364118e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961126917693e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.0326476584840455e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138751049296e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220029227001e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.5416036394987e-05], ["'autoclave' (unit, GLO, None)", 0.00022512371863078133], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140826119013014e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9306379547903394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205155082988e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.2095285295513018e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220029227001e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899675459949], ["'autoclave' (unit, GLO, None)", 0.0003001649581743751], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028611353441e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.736999822916391e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.096766272022137e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.482008512188845e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316211228312e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.818454319751927e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463834946e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.80003908480262e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808482998441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899675459949], ["'autoclave' (unit, GLO, None)", 0.0003001649581743751], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828401723665639e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.81581447178933e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775146814253e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.321339008125895e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808482998441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829768896067e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658189101625], ["'autoclave' (unit, GLO, None)", 0.00045024743726156276], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383011501141e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218573127864e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.27339279099066e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.111532606732012e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625287639207e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.5638703810743165e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829768896067e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622246912e-05], ["'autoclave' (unit, GLO, None)", 0.00045024743726156276], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383011501141e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218573127864e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.27339279099066e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.111532606732012e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613573326905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180175491602e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3407472723507746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 8.12388444644984e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829094550812], ["'autoclave' (unit, GLO, None)", 0.000337685577946172], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540450724591e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958256529878e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654678558198132e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774078814886e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812643819595e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.7819351905371582e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 8.12388444644984e-06], ["'wet wipe' (unit, GLO, None)", 2.109659622246912e-05], ["'autoclave' (unit, GLO, None)", 0.000337685577946172], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540450724591e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958256529878e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654678558198132e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774078814883e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613573326905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291206622693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002049053415e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3129279204454027e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951242037932e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112054144817], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296612965753094e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075562920174e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.691631462222427e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167856517917e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983000603147e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322672982202e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142578284817e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.061270299611283e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951242037932e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112054144817], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510235567146694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164168505381e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338370861345e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.4610876414816183e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.061270299611283e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561007040121e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816072193088], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.216704419274007e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568280762562177e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.4983581303308e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.056155358650672e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7437558536557055e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482817349278e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957877102931253e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.41158945867178e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.8641835422485545e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561007040121e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816072193088], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.03105227243569e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080507602178e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238753553871e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.041035724337813e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.8641835422485545e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688453713508e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578546519443e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224108289644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031238428255e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134700729597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805861511765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300855279e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464040055432e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.197327823799747e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688453713508e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110098332e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224108289644], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031238428255e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134700729597e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805861511765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300855279e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602951629444e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3465076491888084e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.721097833919152e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.71884198926554e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.7702892732597216e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668081217226], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187843719567e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767623523959e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361172302353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197201135e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786732020027709e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.0986639118998734e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.71884198926554e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110098332e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668081217226], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187843719567e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767623523959e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361172302353e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197201135e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602951629444e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.15788025264218e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640328988539e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.690111194800153e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978274459192], ["'autoclave' (unit, GLO, None)", 0.021468100066080388], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053190619412e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038216398512514274], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005238920231841209], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078120720876], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004849985728848123], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255136253142102], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000805443381], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855991814091]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978274459192], ["'autoclave' (unit, GLO, None)", 0.021468100066080388], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698846111946], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.14741122792666e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547759900834285], ["'mixed heating grid' (megajoule, GLO, None)", -0.00349261348789414], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855991814091]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851044916683673], ["'autoclave' (unit, GLO, None)", 0.028624133421440517], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098239960451], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523100395971e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001093350040229168], ["'mixed heating grid' (megajoule, GLO, None)", -0.001498826124174238], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700795567134], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597044426630271], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001583046546682421], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382550544737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096634939453]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851044916683673], ["'autoclave' (unit, GLO, None)", 0.028624133421440517], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201968580597034], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021530716078623638], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289000268194458], ["'mixed heating grid' (megajoule, GLO, None)", -0.009992174161161585], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096634939453]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496644536361], ["'mechanical disinfection' (unit, GLO, None)", 0.021196851897387157], ["'autoclave' (unit, GLO, None)", 0.04293620013216079], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009959289456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853861232408], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080675244073e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705351778887], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.41557945993999e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.79483947726219e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496644536361], ["'wet wipe' (unit, GLO, None)", 0.002321360183767274], ["'autoclave' (unit, GLO, None)", 0.04293620013216079], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009959289456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853861232408], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080675244073e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705351778887], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.297704123356093e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003852143941787098], ["'mixed heating grid' (megajoule, GLO, None)", -0.000528073696583014]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012423949706], ["'mechanical disinfection' (unit, GLO, None)", 0.010598425948693578], ["'autoclave' (unit, GLO, None)", 0.032202150099120586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823006589614], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086453866391], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216135048815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0002243357460729157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077897299699865e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.397419738631095e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012423949706], ["'wet wipe' (unit, GLO, None)", 0.002321360183767274], ["'autoclave' (unit, GLO, None)", 0.032202150099120586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823006589614], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086453866391], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216135048815e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574607291567], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.297704123356093e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201153287565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038200660444874074], ["'mixed heating grid' (megajoule, GLO, None)", -0.000523676276844383]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442024775278], ["'autoclave' (unit, GLO, None)", 0.6714095482141793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742417768367], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550795351565], ["'mixed heating grid' (megajoule, GLO, None)", -0.014239218210836874], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894708181025], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913175130189], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945384376542403], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311767698455], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261107653215]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442024775278], ["'autoclave' (unit, GLO, None)", 0.6714095482141793], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174875341626], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265998911778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0454703386356771], ["'mixed heating grid' (megajoule, GLO, None)", -0.09492812140557917], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261107653215]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101288231193], ["'autoclave' (unit, GLO, None)", 0.8952127309522391], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049073943482091736], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046098544669], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019513218871319807], ["'mixed heating grid' (megajoule, GLO, None)", -0.04073761633648545], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875834284343], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0215793503329161], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.02393451414666831], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681035770297], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738840436784]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101288231193], ["'autoclave' (unit, GLO, None)", 0.8952127309522391], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32392041902370783], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04199638588392956], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1300881258087988], ["'mixed heating grid' (megajoule, GLO, None)", -0.271584108909903], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738840436784]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089545453201], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817302913513], ["'autoclave' (unit, GLO, None)", 1.342819096428359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513566871716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224306794945], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234915896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906058933703], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001145000243123538], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023904093382617967]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089545453201], ["'wet wipe' (unit, GLO, None)", 0.0448806383986857], ["'autoclave' (unit, GLO, None)", 1.342819096428359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513566871716], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224306794945], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234915896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906058933703], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939025549036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874992005686028], ["'mixed heating grid' (megajoule, GLO, None)", -0.01435287476100039]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486871952187], ["'mechanical disinfection' (unit, GLO, None)", 0.32654086514567565], ["'autoclave' (unit, GLO, None)", 1.007114322321269], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0338642553794718], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666925199254], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469831792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239947933237], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725001215617675e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011952046691308984]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486871952187], ["'wet wipe' (unit, GLO, None)", 0.0448806383986857], ["'autoclave' (unit, GLO, None)", 1.007114322321269], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0338642553794718], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666925199254], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469831792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.052142399479332364], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939025549036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231078241243], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741993529867], ["'mixed heating grid' (megajoule, GLO, None)", -0.014233354294087298]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0110966518461686], ["'autoclave' (unit, GLO, None)", 0.06018770644458141], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037875194640188e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236957137715], ["'mixed heating grid' (megajoule, GLO, None)", -0.000857556551539378], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398513394307], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000715235797067858], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584839456151], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712111673113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814771944223]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0110966518461686], ["'autoclave' (unit, GLO, None)", 0.06018770644458141], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793377459761996e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114079256169302e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00931482463809181], ["'mixed heating grid' (megajoule, GLO, None)", -0.005717043676929187], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814771944223]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441340711096], ["'autoclave' (unit, GLO, None)", 0.08025027525944187], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.143435685958857e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600760381023e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379772501471], ["'mixed heating grid' (megajoule, GLO, None)", -0.0024534218990241515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459392003845], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0021526514280683106], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784153838923], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806228640314], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028415648100565075]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441340711096], ["'autoclave' (unit, GLO, None)", 0.08025027525944187], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547430270355493e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.38078895599831e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198483343163], ["'mixed heating grid' (megajoule, GLO, None)", -0.01635614599349434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0028415648100565075]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810429479554], ["'mechanical disinfection' (unit, GLO, None)", 0.062308700301182615], ["'autoclave' (unit, GLO, None)", 0.12037541288916284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010798048937], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964954408819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650620226506625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364880349233], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898494012666e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.43962341087463e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810429479554], ["'wet wipe' (unit, GLO, None)", 0.003225553725419618], ["'autoclave' (unit, GLO, None)", 0.12037541288916284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010798048937], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964954408819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650620226506625e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364880349233], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654304984807068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762479613832], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864401514357906]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895795791277], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350150591308], ["'autoclave' (unit, GLO, None)", 0.09028155966687211], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739507504878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112559660351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.30124045301325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00031260373716861917], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949247006302e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.19811705437315e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895795791277], ["'wet wipe' (unit, GLO, None)", 0.003225553725419618], ["'autoclave' (unit, GLO, None)", 0.09028155966687211], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739507504878], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112559660351], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.30124045301325e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031260373716861913], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654304984807068e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977151615597e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482987143804], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008572033973035327]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202587243443334], ["'autoclave' (unit, GLO, None)", 0.04303643149663856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666041496495534e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018191089927], ["'mixed heating grid' (megajoule, GLO, None)", -0.0088052684814053], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001123609648355017], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931998924217716], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646119660772602], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522490058525016], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832293187434654]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202587243443334], ["'autoclave' (unit, GLO, None)", 0.04303643149663856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968494342290825e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272364210478495e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0067800121273932845], ["'mixed heating grid' (megajoule, GLO, None)", -0.058701789876035346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832293187434654]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225290548179579], ["'autoclave' (unit, GLO, None)", 0.05738190866218474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400757545269296e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283463896113132e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095859974137554], ["'mixed heating grid' (megajoule, GLO, None)", -0.02519138648091235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624774870919357], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754043762057], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918157091759559], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654222551697188], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541637817643]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225290548179579], ["'autoclave' (unit, GLO, None)", 0.05738190866218474], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.545054485326268e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8452236876862485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019397239982758385], ["'mixed heating grid' (megajoule, GLO, None)", -0.16794257653941566], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541637817643]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097152479562], ["'mechanical disinfection' (unit, GLO, None)", 0.04429418615537295], ["'autoclave' (unit, GLO, None)", 0.08607286299327714], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576099396965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389764032094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795187849381714e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621922080343], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072922188784234e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014781848056682353]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097152479562], ["'wet wipe' (unit, GLO, None)", 0.012977474932823111], ["'autoclave' (unit, GLO, None)", 0.08607286299327714], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576099396965], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389764032094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795187849381714e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621922080343], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968384181998122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251194640919137], ["'mixed heating grid' (megajoule, GLO, None)", -0.008875551584314589]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007419796289825838], ["'mechanical disinfection' (unit, GLO, None)", 0.022147093077686475], ["'autoclave' (unit, GLO, None)", 0.06455464724495784], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001580851250894885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020303941308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590375698763428e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012153524671636986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461094392095e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.390924028341177e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0007419796289825838], ["'wet wipe' (unit, GLO, None)", 0.012977474932823111], ["'autoclave' (unit, GLO, None)", 0.06455464724495784], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001580851250894885], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020303941308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590375698763428e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524671636984], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968384181998122e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069834792593658e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001016583002997524], ["'mixed heating grid' (megajoule, GLO, None)", -0.008801642344031177]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264940773534], ["'autoclave' (unit, GLO, None)", 0.0035315377341952896], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244268598708e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.12977805694236e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.77901770093275e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233334488006], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.44724417409294e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499632181692], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576351233338], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000502307802800539]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264940773534], ["'autoclave' (unit, GLO, None)", 0.0035315377341952896], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713486640264e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544722809111705e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000208651870462824], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004519345133955167], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000502307802800539]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902614736846073], ["'autoclave' (unit, GLO, None)", 0.004708716978927053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679467414816902e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690239611762e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122046183271e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019394394983614157], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101650113625184], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345333950302], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101696587961197], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866577812208], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339073344445]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902614736846073], ["'autoclave' (unit, GLO, None)", 0.004708716978927053], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669615455324689], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430470364007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414697455518], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012929596655742769], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339073344445]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215281388546], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784057797194], ["'autoclave' (unit, GLO, None)", 0.007063075468390582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922136871072], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764600675474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426494473905e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427577693623e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116190387524e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.138027873202968e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215281388546], ["'wet wipe' (unit, GLO, None)", 0.0003586764312282618], ["'autoclave' (unit, GLO, None)", 0.007063075468390582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922136871072], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764600675474], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426494473905e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427577693623e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.19631291720224e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759749859933e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.833127396702355e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808238200909], ["'mechanical disinfection' (unit, GLO, None)", 0.001441392028898597], ["'autoclave' (unit, GLO, None)", 0.005297306601292935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586269307428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735574171134], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999685298894781e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015720962562333323], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058095193755e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.69013936601484e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808238200909], ["'wet wipe' (unit, GLO, None)", 0.0003586764312282618], ["'autoclave' (unit, GLO, None)", 0.005297306601292935], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586269307428], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735574171134], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999685298894781e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015720962562333321], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.19631291720224e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958544610396e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489168908003e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.776226003042207e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841624227815e-08], ["'autoclave' (unit, GLO, None)", 2.6940935163752057e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668337571646e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490130270588e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2136615941522035e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.65256685145038e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670900765206e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170092303793745e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874232910022e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444252141438e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841624227815e-08], ["'autoclave' (unit, GLO, None)", 2.6940935163752057e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686466986793e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796481128115e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.508993420180392e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.091077294348023e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444252141438e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.35790566699193e-07], ["'autoclave' (unit, GLO, None)", 3.592124688500274e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201407742251e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199507965817e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554363234167e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.4722187449358544e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264316996103e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545163086638072e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045687112557e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753305045078e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102476820105e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.35790566699193e-07], ["'autoclave' (unit, GLO, None)", 3.592124688500274e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7255454836582524e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783259101866e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.003903624215612e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.3148124966239028e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102476820105e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853065385351e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.583138430482919e-07], ["'autoclave' (unit, GLO, None)", 5.388187032750412e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981954557254e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237426326566e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440746108e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922643359364e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086204277759e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.0374348964911453e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853065385351e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488195766232e-07], ["'autoclave' (unit, GLO, None)", 5.388187032750412e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981954557254e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237426326566e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440746108e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922643359364e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771913612e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305502979653767e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2233489651731988e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933471637202e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692152414595e-07], ["'autoclave' (unit, GLO, None)", 4.0411402745628085e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906001928505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695872103396e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914881492217e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994827113554e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043102138868e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.0187174482455727e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933471637202e-09], ["'wet wipe' (unit, GLO, None)", 1.0964488195766232e-07], ["'autoclave' (unit, GLO, None)", 4.0411402745628085e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906001928505e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695872103396e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914881492217e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994827113552e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771913612e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367010237915e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322548632391e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.213161790690743e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037464634079], ["'autoclave' (unit, GLO, None)", 0.00026835532574080923], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121583534757e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.80522043565256e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.888433203603604e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957543232714], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615280917577e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731155169783e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471433518773e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738749473945e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037464634079], ["'autoclave' (unit, GLO, None)", 0.00026835532574080923], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566658233343e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.633861366425056e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136237683734e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012589554690690694], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738749473945e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846139095841], ["'autoclave' (unit, GLO, None)", 0.00035780710098774564], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587287953565e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294216696606e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525361721903e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.402703026696741e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137056870135], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.313020133091698e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880646247349e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468826813445], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205422714265e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846139095841], ["'autoclave' (unit, GLO, None)", 0.00035780710098774564], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108638473896743e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.395894964576461e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683574481274e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003601802017797827], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205422714265e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.113029066242475e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00026064334675535015], ["'autoclave' (unit, GLO, None)", 0.0005367106514816187], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695364749328e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504177175422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734504776653e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532152195919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015359302453e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.1702080112391156e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.113029066242475e-05], ["'wet wipe' (unit, GLO, None)", 7.725704204989522e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106514816187], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695364749328e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504177175422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734504776653e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532152195919e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607998332967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8355934674387236e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9035065594548734e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546228795025e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032167337767507], ["'autoclave' (unit, GLO, None)", 0.0004025329886112139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568434434208e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289007212005e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003469009553306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337222541055e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007679651218e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5851040056195578e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546228795025e-05], ["'wet wipe' (unit, GLO, None)", 7.725704204989522e-05], ["'autoclave' (unit, GLO, None)", 0.0004025329886112139], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568434434208e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289007212005e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003469009553306e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337222541054e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607998332967e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605074832614e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.80365339064222e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.887655519398678e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581879901719408], ["'autoclave' (unit, GLO, None)", 0.00047596019368074147], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431464237053e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578607740751e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.785141976595945e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00029814098803468403], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.27432137568159e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675280828247e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230152266636e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.4845273999265384e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581879901719408], ["'autoclave' (unit, GLO, None)", 0.00047596019368074147], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7964919061759882e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781083120449355e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385738493834e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003190094651063964], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.4845273999265384e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484900767878], ["'autoclave' (unit, GLO, None)", 0.0006346135915743219], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324613680626e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450270464702e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591275709454433e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013690026732634812], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385424817265], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.189358860642032e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729668315012185e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00024414732823286304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.913259913082144e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484900767878], ["'autoclave' (unit, GLO, None)", 0.0006346135915743219], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441989228136e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144708911153e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727517139636302], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009126684488423208], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.913259913082144e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731193148531e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574080347565634], ["'autoclave' (unit, GLO, None)", 0.0009519203873614831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702568839864e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719423113397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217531342e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948396698051e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.560327763096065e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.033059046077498e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731193148531e-05], ["'wet wipe' (unit, GLO, None)", 0.0010944013359261442], ["'autoclave' (unit, GLO, None)", 0.0009519203873614831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702568839864e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719423113397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217531342e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948396698051e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669419303636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767353508772e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.8233366809013126e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834089195087e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040173782817], ["'autoclave' (unit, GLO, None)", 0.0007139402905211122], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494796718121e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252228009403e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698435062684e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.090568860293464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638815480305e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.016529523038749e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834089195087e-05], ["'wet wipe' (unit, GLO, None)", 0.0010944013359261442], ["'autoclave' (unit, GLO, None)", 0.0007139402905211122], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494796718121e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252228009403e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698435062684e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688602934639], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669419303636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147357606e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750965353991e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.783171385670925e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943885660565], ["'autoclave' (unit, GLO, None)", 0.0004880770682402906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521092182654e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365607140044e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.956964937863081e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640292071504], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583326646751113e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703506338514e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547639427162e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6126692815419705e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943885660565], ["'autoclave' (unit, GLO, None)", 0.0004880770682402906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766125697984e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.396169823463236e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243738093363e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003304643291908721], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6126692815419705e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764859957036998], ["'autoclave' (unit, GLO, None)", 0.0006507694243203875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541036741536e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186683898274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191464720351588e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014181602728609944], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693459689], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823604470804318e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.640452638085467e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000256071764490906], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815456032378]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764859957036998], ["'autoclave' (unit, GLO, None)", 0.0006507694243203875], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469331182532e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552838218001e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001812764314690107], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009454401819073295], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815456032378]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.83344812700389e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772791722646516], ["'autoclave' (unit, GLO, None)", 0.0009761541364805815], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854789732465e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343000212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994504382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606156301598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.595545764181851e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.32150691242747e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.83344812700389e-05], ["'wet wipe' (unit, GLO, None)", 0.0016920736912715948], ["'autoclave' (unit, GLO, None)", 0.0009761541364805815], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854789732465e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343000212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994504382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606156301598e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462549476e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580228859630824e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.99653112231064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083842380303e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386395861323258], ["'autoclave' (unit, GLO, None)", 0.0007321156023604359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059927290718e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205389291949e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691989008764e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1306740251408256e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977728820909233e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.160753456213735e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083842380303e-05], ["'wet wipe' (unit, GLO, None)", 0.0016920736912715948], ["'autoclave' (unit, GLO, None)", 0.0007321156023604359], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059927290718e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205389291949e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691989008764e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00011306740251408255], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462549476e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992537727e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451571421754e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.954923587748503e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873819232332], ["'autoclave' (unit, GLO, None)", 0.004165478879702957], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840522291723e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299252238813e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.397439125888028e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499984442284], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.989635490013214e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.3707298412513884e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108573351737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741871477106]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873819232332], ["'autoclave' (unit, GLO, None)", 0.004165478879702957], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249318530023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658548253012e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199501492541], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004931626083925352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741871477106]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802054775333], ["'autoclave' (unit, GLO, None)", 0.005553971839603943], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472596499432e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806963377222e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135213912313], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021163664501860417], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029754221810516365], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932057321324e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917953700881], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213682634293], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958526094278]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802054775333], ["'autoclave' (unit, GLO, None)", 0.005553971839603943], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028986617798676124], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345445972582406e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423475941553], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014109109667906944], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958526094278]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659287392633], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202616593667], ["'autoclave' (unit, GLO, None)", 0.008330957759405918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389546193e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073806437376], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347964091e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498875330054e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.400128077346027e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.241845395155768e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659287392633], ["'wet wipe' (unit, GLO, None)", 0.009590872144167078], ["'autoclave' (unit, GLO, None)", 0.008330957759405918], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389546193e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073806437376], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347964091e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498875330054e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.24396011764121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406870999809837e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.456485022835739e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269047058335], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001013082968336], ["'autoclave' (unit, GLO, None)", 0.0062482183195544366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900480944358e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216601902743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695928182e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720604084995e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640386730117e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.20922697577884e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269047058335], ["'wet wipe' (unit, GLO, None)", 0.009590872144167078], ["'autoclave' (unit, GLO, None)", 0.0062482183195544366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900480944358e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216601902743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695928182e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00051198720604085], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.24396011764121e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849817875902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864595942555e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.39439275307795e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262305360281e-09], ["'autoclave' (unit, GLO, None)", 1.4473327468368333e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.95196582642474e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485222236416237e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3267763574759918e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566934054200286e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.701134931838065e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.695003001093594e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.242275547134069e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121851589803e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262305360281e-09], ["'autoclave' (unit, GLO, None)", 1.4473327468368333e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538071739781e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352021882789e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148157610825e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.845175716506613e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121851589803e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679505923198e-09], ["'autoclave' (unit, GLO, None)", 1.9297769957824445e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183601931742e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894635234112018e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464651391475e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.7958338312451487e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668523000232592e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119920668638836e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105992534243426e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269146856533e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7647441596769725e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679505923198e-09], ["'autoclave' (unit, GLO, None)", 1.9297769957824445e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487526027554e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240616125592e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976434260988e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.530555887496766e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.7647441596769725e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.0936049829858e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521274342568525e-09], ["'autoclave' (unit, GLO, None)", 2.8946654936736674e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734046123863e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058040848972e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184050227056e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348146485995e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957845450432e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.2273263515842866e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 1.0936049829858e-10], ["'wet wipe' (unit, GLO, None)", 5.65861231027879e-10], ["'autoclave' (unit, GLO, None)", 2.8946654936736674e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734046123863e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058040848972e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184050227056e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348146485995e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920211969306e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.871258950069254e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.337366603470991e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814749339381e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260637171284263e-10], ["'autoclave' (unit, GLO, None)", 2.17099912025525e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468809088322e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.245568144306684e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368100454112e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526111146303e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.39097892272521e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.1136631757921433e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814749339381e-11], ["'wet wipe' (unit, GLO, None)", 5.65861231027879e-10], ["'autoclave' (unit, GLO, None)", 2.17099912025525e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468809088322e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.245568144306684e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368100454112e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415261111463024e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920211969306e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128891131002e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473491608420087e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3262299717130695e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981149017788575e-07], ["'autoclave' (unit, GLO, None)", 6.098544329441012e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248195223e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70405159192176e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.8904291065119227e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558199411376e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.62813321770547e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696456201854e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279352872036104e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600881825692e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981149017788575e-07], ["'autoclave' (unit, GLO, None)", 6.098544329441012e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189310454286e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780871023462e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936772794784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9269527376746154e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600881825692e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453088754695e-06], ["'autoclave' (unit, GLO, None)", 8.131392439254682e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086010774e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016377670863e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755286684773e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.269357927198499e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355784602541e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.596816793678345e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976945092238e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043062545382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044913801572e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453088754695e-06], ["'autoclave' (unit, GLO, None)", 8.131392439254682e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940650832194e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287497598538e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.850850352445653e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.512905284798999e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044913801572e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096701098281e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.010847988496422e-07], ["'autoclave' (unit, GLO, None)", 1.2197088658882028e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023813630885e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977874262326e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310923691e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282028984127e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680570264776e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.852309042171581e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096701098281e-08], ["'wet wipe' (unit, GLO, None)", 1.4231705648991007e-07], ["'autoclave' (unit, GLO, None)", 1.2197088658882028e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023813630885e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977874262326e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310923691e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282028984127e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461928757028e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508725467682e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.9135003310604964e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804229933043e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423994248211e-07], ["'autoclave' (unit, GLO, None)", 9.147816494161519e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929674717514e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160620212517e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.1164621847382e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722380144333e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340285132366e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.4261545210857906e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804229933043e-08], ["'wet wipe' (unit, GLO, None)", 1.4231705648991007e-07], ["'autoclave' (unit, GLO, None)", 9.147816494161519e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929674717514e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160620212517e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.1164621847382e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722380144332e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461928757028e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617526213e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.70005532261638e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.889238785849638e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845730755774], ["'autoclave' (unit, GLO, None)", 0.011815228248866725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.71241943040915e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315149784768], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155533877554997], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001057082823], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000246656779918728], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508129154074], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652262557526], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012365015062033142]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845730755774], ["'autoclave' (unit, GLO, None)", 0.011815228248866725], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783136359781], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352038269584477e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210099856512], ["'mixed heating grid' (megajoule, GLO, None)", -0.007703559183699981], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012365015062033142]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995339913356], ["'autoclave' (unit, GLO, None)", 0.015753637665155633], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8491877328408646e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.04239421003204e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854532704754], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033059185603196246], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1152566522688874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650657748125], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000625596187109318], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718947199304], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685255594286]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995339913356], ["'autoclave' (unit, GLO, None)", 0.015753637665155633], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003200783982073178], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221408267386525e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236355136506], ["'mixed heating grid' (megajoule, GLO, None)", -0.022039457068797497], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685255594286]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191618494249], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162737240843], ["'autoclave' (unit, GLO, None)", 0.023630456497733456], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551219025973423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310676884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849905990443e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708549561987], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552062553415e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.939852968531049e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191618494249], ["'wet wipe' (unit, GLO, None)", 0.012386853609435824], ["'autoclave' (unit, GLO, None)", 0.023630456497733456], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551219025973423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310676884], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849905990443e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708549561987], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287727521945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002285832406254468], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011647572767736435]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587452996571], ["'mechanical disinfection' (unit, GLO, None)", 0.005860581368620422], ["'autoclave' (unit, GLO, None)", 0.017722842373300088], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108318890186], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192755299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569981198089e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003869936676060373], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776031276657e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.699264842655246e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587452996571], ["'wet wipe' (unit, GLO, None)", 0.012386853609435824], ["'autoclave' (unit, GLO, None)", 0.017722842373300088], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108318890186], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192755299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569981198089e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038699366760603727], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287727521945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874434452653e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976302231965], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011550580119309881]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410688181114], ["'autoclave' (unit, GLO, None)", 0.0007704105008018239], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498302795726e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848481653279e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.355362668952844e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091833635801414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780979672099e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.90869331302765e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418255303023], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308518412899e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410688181114], ["'autoclave' (unit, GLO, None)", 0.0007704105008018239], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461490640155e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162307056496e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453898987768852e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00029035751126352293], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308518412899e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820246415286], ["'autoclave' (unit, GLO, None)", 0.0010272140010690986], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.98774765023094e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399448447849e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1987789569466636e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012460451886257343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211453785166], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719453382046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366376245604e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427677550148], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732145737962]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820246415286], ["'autoclave' (unit, GLO, None)", 0.0010272140010690986], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242673419762e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23515343224948e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193046311107], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008306967924171561], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732145737962]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344372311302], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178440438018], ["'autoclave' (unit, GLO, None)", 0.0015408210016036484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.91349673670983e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138253615088], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.29214335284683e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659286019061e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853951597998e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.31156685797416e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344372311302], ["'wet wipe' (unit, GLO, None)", 0.0002523811666001432], ["'autoclave' (unit, GLO, None)", 0.0015408210016036484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.91349673670983e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138253615088], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.29214335284683e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659286019061e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795160647002e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093315710125e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.3901269016750735e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193116747448], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752089220219009], ["'autoclave' (unit, GLO, None)", 0.001155615751202736], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183949707306e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651528587602], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.58428670569366e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4616883306045434e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926975798975e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.65578342898708e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193116747448], ["'wet wipe' (unit, GLO, None)", 0.0002523811666001432], ["'autoclave' (unit, GLO, None)", 0.001155615751202736], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183949707306e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651528587602], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.58428670569366e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883306045432], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795160647002e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176244045952161e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.353569067385202e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476679222535662], ["'autoclave' (unit, GLO, None)", 0.22259093978105798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02729629042053888], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916698749679], ["'mixed heating grid' (megajoule, GLO, None)", -0.01274564271290235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148949726336], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760030078035169], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002614710606877219], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452447845058], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228665661733]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476679222535662], ["'autoclave' (unit, GLO, None)", 0.22259093978105798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491774376266], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503855686057], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777991664523], ["'mixed heating grid' (megajoule, GLO, None)", -0.084970951419349], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228665661733]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708735877779695], ["'autoclave' (unit, GLO, None)", 0.29678791970807733], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193853534], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009937204633453524], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299731161781], ["'mixed heating grid' (megajoule, GLO, None)", -0.03646457938294501], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4046267088499135], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830688664263012], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876501002835089], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851965760727], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125646515756]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708735877779695], ["'autoclave' (unit, GLO, None)", 0.29678791970807733], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510211035897923], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734999168151], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199820774527], ["'mixed heating grid' (megajoule, GLO, None)", -0.24309719588630005], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125646515756]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978836215], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019155910256], ["'autoclave' (unit, GLO, None)", 0.44518187956211613], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038941585976651275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338782557896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158991069945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579561411659], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935790606132e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021396752905916423]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978836215], ["'wet wipe' (unit, GLO, None)", 0.05759767927135408], ["'autoclave' (unit, GLO, None)", 0.44518187956211613], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038941585976651275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338782557896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158991069945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579561411659], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277299178076], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004649736711647045], ["'mixed heating grid' (megajoule, GLO, None)", -0.012847377636752503]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074977410017], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009577955128], ["'autoclave' (unit, GLO, None)", 0.333886409671587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002325177920930829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009285813485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798213989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004845563766897007], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8719678953030557e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010698376452958211]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074977410017], ["'wet wipe' (unit, GLO, None)", 0.05759767927135408], ["'autoclave' (unit, GLO, None)", 0.333886409671587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002325177920930829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009285813485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798213989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637668970056], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277299178076], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017032694025], ["'mixed heating grid' (megajoule, GLO, None)", -0.01274039387222292]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008443233445], ["'autoclave' (unit, GLO, None)", 0.046071940059315565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00143312933545059], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602674121067204], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047973042844385514], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658243749758], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253166629812], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126316002261054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485043719399], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065578398268]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008443233445], ["'autoclave' (unit, GLO, None)", 0.046071940059315565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00950954979598055], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224670243762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449414044802], ["'mixed heating grid' (megajoule, GLO, None)", -0.003198202856292368], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065578398268]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901630473332], ["'autoclave' (unit, GLO, None)", 0.06142925341242075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300828425503], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489568789818], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066986463964], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013724822423193247], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448699295676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001144969399665283], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283637544938], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376068653352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629604367221]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901630473332], ["'autoclave' (unit, GLO, None)", 0.06142925341242075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746421402972], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040168890487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377990975979], ["'mixed heating grid' (megajoule, GLO, None)", -0.009149881615462164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629604367221]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304166968747], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624483362235], ["'autoclave' (unit, GLO, None)", 0.09214388011863116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586172830397], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760705530927], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950353741703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350496308152e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675085379549e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.053476525331839e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304166968747], ["'wet wipe' (unit, GLO, None)", 0.002224593535992914], ["'autoclave' (unit, GLO, None)", 0.09214388011863116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586172830397], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760705530927], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950353741703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350496308152e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831076846434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028830978878948983], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048355960675252783]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363663734047], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122416811174], ["'autoclave' (unit, GLO, None)", 0.06910791008897335], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910329378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559253655492], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900707483406e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977395683184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837542689768e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.0267382626659195e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363663734047], ["'wet wipe' (unit, GLO, None)", 0.002224593535992914], ["'autoclave' (unit, GLO, None)", 0.06910791008897335], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910329378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559253655492], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900707483406e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015673977395683184], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831076846434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002859089512468007], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047953286848986186]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032083075189385], ["'autoclave' (unit, GLO, None)", 0.058157488391319824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152627350867], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280978067855], ["'mixed heating grid' (megajoule, GLO, None)", -0.000639350489616647], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681783993667], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329937653298], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596626000495], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01585383992316165], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750354038106]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032083075189385], ["'autoclave' (unit, GLO, None)", 0.058157488391319824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01376970434971136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433177846133], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002486485398537857], ["'mixed heating grid' (megajoule, GLO, None)", -0.004262336597444314], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750354038106]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715371769564], ["'autoclave' (unit, GLO, None)", 0.0775433178550931], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366785862735], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931437570532], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001067054595541117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018291464155472284], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799723160981], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010410491966236], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974705558575], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.044658704008906064], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0018755957494557777]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715371769564], ["'autoclave' (unit, GLO, None)", 0.0775433178550931], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789957665172], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502896651923388], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697303607453], ["'mixed heating grid' (megajoule, GLO, None)", -0.012194309436981523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0018755957494557777]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544288695192], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074128992426], ["'autoclave' (unit, GLO, None)", 0.11631497678263969], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846667775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907047004417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850025140502e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112212773802], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.2612825663346375e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0733098953696435e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544288695192], ["'wet wipe' (unit, GLO, None)", 0.002469441823028268], ["'autoclave' (unit, GLO, None)", 0.11631497678263969], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846667775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907047004417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850025140502e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112212773802], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017410313242e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498554468649], ["'mixed heating grid' (megajoule, GLO, None)", -0.000644453745281335]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052136045631236], ["'mechanical disinfection' (unit, GLO, None)", 0.02963037064496213], ["'autoclave' (unit, GLO, None)", 0.08723623258697974], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145293181425], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682934926146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700050281005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639557416733], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1306412831673107e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.366549476848218e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052136045631236], ["'wet wipe' (unit, GLO, None)", 0.002469441823028268], ["'autoclave' (unit, GLO, None)", 0.08723623258697974], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145293181425], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682934926146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700050281005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020633639557416732], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017410313242e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192141636985], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006390871958044868]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939126713836], ["'autoclave' (unit, GLO, None)", 2.365421998922403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234405943819], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065783016078], ["'mixed heating grid' (megajoule, GLO, None)", -0.057604550840239674], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441615255616256], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823977256757], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919289706536126], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311417168817], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0367220144268848]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939126713836], ["'autoclave' (unit, GLO, None)", 2.365421998922403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286381514122], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805796178376], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571377188677386], ["'mixed heating grid' (megajoule, GLO, None)", -0.3840303389349312], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0367220144268848]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445825678544], ["'autoclave' (unit, GLO, None)", 3.153895998563204], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.2260672920561661], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0290615420487302], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335462847583], ["'mixed heating grid' (megajoule, GLO, None)", -0.16480343629956454], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004293799277], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539255290869], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.057816292397718225], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073638639104], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180686635897]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445825678544], ["'autoclave' (unit, GLO, None)", 3.153895998563204], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492193346905387], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19344917047634996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522236418983906], ["'mixed heating grid' (megajoule, GLO, None)", -1.0986895753304302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180686635897]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170355968278], ["'mechanical disinfection' (unit, GLO, None)", 2.3912574792810144], ["'autoclave' (unit, GLO, None)", 4.730843997844808], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312145434122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173142972613], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342854599164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946369078772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804430342813], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009670366323207885]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170355968278], ["'wet wipe' (unit, GLO, None)", 0.13935218914457811], ["'autoclave' (unit, GLO, None)", 4.730843997844808], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312145434122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173142972613], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342854599164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946369078772], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950255952503764], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959690078850696], ["'mixed heating grid' (megajoule, GLO, None)", -0.05806434676620123]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615285849755], ["'mechanical disinfection' (unit, GLO, None)", 1.1956287396405072], ["'autoclave' (unit, GLO, None)", 3.548132998383605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965518312062], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376149482926], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868570919833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01149306084436363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791902215171378], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048351831616039425]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615285849755], ["'wet wipe' (unit, GLO, None)", 0.13935218914457811], ["'autoclave' (unit, GLO, None)", 3.548132998383605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965518312062], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376149482926], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868570919833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060844363628], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950255952503764], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851771056699013], ["'mixed heating grid' (megajoule, GLO, None)", -0.05758082845004083]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597987121301], ["'autoclave' (unit, GLO, None)", 0.056996514864440684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223433868314e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638592361665], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036834227370333137], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246602278799], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605235557193], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650534659563], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314520698701], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932719223046]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597987121301], ["'autoclave' (unit, GLO, None)", 0.056996514864440684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088657761355], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371580868589e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092394907777], ["'mixed heating grid' (megajoule, GLO, None)", -0.024556151580222094], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932719223046]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511363619727], ["'autoclave' (unit, GLO, None)", 0.07599535315258757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204350187347757], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.646073246362814e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000754752178], ["'mixed heating grid' (megajoule, GLO, None)", -0.010538068877415653], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117415933566154], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405316728376015], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833109909823], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074512872874], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837071460503]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511363619727], ["'autoclave' (unit, GLO, None)", 0.07599535315258757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742697919312], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957144101928762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165333836501472], ["'mixed heating grid' (megajoule, GLO, None)", -0.07025379251610435], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837071460503]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682454029658], ["'mechanical disinfection' (unit, GLO, None)", 0.0577531325813526], ["'autoclave' (unit, GLO, None)", 0.1139930297288814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467892314707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344500768966], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473882951e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510243863357], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495743690755e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.183547423038456e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682454029658], ["'wet wipe' (unit, GLO, None)", 0.03231285970014396], ["'autoclave' (unit, GLO, None)", 0.1139930297288814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467892314707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344500768966], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473882951e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510243863357], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345592612936e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584320806907], ["'mixed heating grid' (megajoule, GLO, None)", -0.0037128235871984193]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277797316052], ["'mechanical disinfection' (unit, GLO, None)", 0.0288765662906763], ["'autoclave' (unit, GLO, None)", 0.08549477229666103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387697921066], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132316176155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947765902e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0013179153352251877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474787184535e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.091773711519228e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277797316052], ["'wet wipe' (unit, GLO, None)", 0.03231285970014396], ["'autoclave' (unit, GLO, None)", 0.08549477229666103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387697921066], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132316176155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947765902e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153352251876], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345592612936e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214063684208848], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036819058500832265]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603628602147e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237164496279], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949647259677e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580757230533e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3142940636732035e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264591100463e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0419611296275445e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647656537976e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138786445682e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220016878666e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603628602147e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237164496279], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140826401452683e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930637958984115e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.555720504820355e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.209529375782136e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220016878666e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899875303657], ["'autoclave' (unit, GLO, None)", 0.00030016495526617054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028731887553e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.7369998418951e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662674354947e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.482012143718316e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316192859402e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184543205675134e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463248716e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039094773432e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.6908084794854177e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899875303657], ["'autoclave' (unit, GLO, None)", 0.00030016495526617054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828401803226108e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.8158144844225744e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775116236637e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.321341429145544e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.6908084794854177e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.773918685736534e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658171712125], ["'autoclave' (unit, GLO, None)", 0.00045024743289925597], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383013418518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421856459238e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392826537583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326044225608e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625260725622e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.563872511989854e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.773918685736534e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622094356e-05], ["'autoclave' (unit, GLO, None)", 0.00045024743289925597], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383013418518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421856459238e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392826537583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326044225608e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361384518092e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.86418015933172e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3407485518288684e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634319946657e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829085856063], ["'autoclave' (unit, GLO, None)", 0.0003376855746744419], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404518694447e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958251425205e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785653075166e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774040167725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2178126303628025e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.781936255994927e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634319946657e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622094356e-05], ["'autoclave' (unit, GLO, None)", 0.0003376855746744419], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404518694447e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958251425205e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785653075166e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.860077404016772e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361384518092e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002033028101e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.312929189268919e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951220843568e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112023698682], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2966129690083096e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.320007548078031e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.6916334354213746e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167751104603e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983004157458e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322671666328e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142582374453e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702976435166e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951220843568e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112023698682], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023558874673e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164169213634e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2133383653853536e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.4610889569475836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702976435166e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561188337563e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816031598244], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044201958112e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.556828076576734e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358106831039e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.0561559231719856e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7437558239863945e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482828046717e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.895787709896734e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.4115894598237903e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183536650384e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561188337563e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816031598244], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052278520206e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080509735706e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238737887364e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.041039487813238e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183536650384e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374439666783e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578554373837e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224047397375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312393766215e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134613498417e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.390180586642421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.8550972971750587e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464026266199e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.197331136308285e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374439666783e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110013958e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224047397375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312393766215e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134613498417e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.390180586642421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.8550972971750587e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295338448e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507640909258e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.7210998228680504e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.360063786841998e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.770289277186919e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668035548026], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187849382205e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767571355103e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361173284842e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254191042526e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320131330926e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.0986655681541427e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.360063786841998e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110013958e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668035548026], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187849382205e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767571355103e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361173284842e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254191042525e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295338448e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640320777935e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.6901131671865087e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978216722818], ["'autoclave' (unit, GLO, None)", 0.021468099434625215], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053190586511e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821639984041428], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005238929113384451], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078085605105], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000484998573466384], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255136174566338], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000721816221], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855823652741]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978216722818], ["'autoclave' (unit, GLO, None)", 0.021468099434625215], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698846090115], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411208957246e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025477599893609522], ["'mixed heating grid' (megajoule, GLO, None)", -0.003492619408922968], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855823652741]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851046434974896], ["'autoclave' (unit, GLO, None)", 0.028624132579500285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098239951133], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523091811463e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933500782196533], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014988286651346735], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700785683556], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597044444133887], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001583046523012418], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382314975272], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096156531055]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851046434974896], ["'autoclave' (unit, GLO, None)", 0.028624132579500285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201968580535536], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071602148056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289000521464361], ["'mixed heating grid' (megajoule, GLO, None)", -0.009992191100897822], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096156531055]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566090728283], ["'mechanical disinfection' (unit, GLO, None)", 0.021196851987364713], ["'autoclave' (unit, GLO, None)", 0.042936198869250444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009925032309], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853817250999], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080622809625e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705037274589], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579682861258e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.794854387156533e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566090728283], ["'wet wipe' (unit, GLO, None)", 0.002321360169312302], ["'autoclave' (unit, GLO, None)", 0.042936198869250444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009925032309], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853817250999], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080622809625e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705037274589], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041123807472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000385214407563702], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005280745918265306]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455210112787], ["'mechanical disinfection' (unit, GLO, None)", 0.010598425993682357], ["'autoclave' (unit, GLO, None)", 0.03220214915193782], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682280204232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086427563184], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216124561925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00022433574080989117], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077898414306204e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.397427193578266e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455210112787], ["'wet wipe' (unit, GLO, None)", 0.002321360169312302], ["'autoclave' (unit, GLO, None)", 0.03220214915193782], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682280204232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086427563184], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216124561925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574080989115], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041123807472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066177222723], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005236771646329523]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442016476101], ["'autoclave' (unit, GLO, None)", 0.6714095266312972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01732974242135599], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550549624407], ["'mixed heating grid' (megajoule, GLO, None)", -0.014239228493933907], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894657357765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913206907892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00794538439040292], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311773023866], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261069048957]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442016476101], ["'autoclave' (unit, GLO, None)", 0.6714095266312972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.114991748777222], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265999500045], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336997496044], ["'mixed heating grid' (megajoule, GLO, None)", -0.09492818995955939], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261069048957]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102659529137], ["'autoclave' (unit, GLO, None)", 0.8952127021750629], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394349225108], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046098810886], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019513218168307984], ["'mixed heating grid' (megajoule, GLO, None)", -0.04073764575585774], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875691238746], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935042855773], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.02393451418842145], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681050771455], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.047397388294541175]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102659529137], ["'autoclave' (unit, GLO, None)", 0.8952127021750629], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32392041909076624], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04199638588570164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812112205334], ["'mixed heating grid' (megajoule, GLO, None)", -0.27158430503905157], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.047397388294541175]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.134033070292281], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817287388881], ["'autoclave' (unit, GLO, None)", 1.3428190532625948], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513568799652], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224311228051], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162358284963], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003115890598673397], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450002018720811], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002390411064537131]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.134033070292281], ["'wet wipe' (unit, GLO, None)", 0.04488063838359272], ["'autoclave' (unit, GLO, None)", 1.3428190532625948], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513568799652], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224311228051], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162358284963], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003115890598673397], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939052852327], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00687499175799749], ["'mixed heating grid' (megajoule, GLO, None)", -0.014352885126176461]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152189365282], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408643694441], ["'autoclave' (unit, GLO, None)", 1.0071142899469459], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425539098339], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566695171157], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832471656993], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239935851082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250010093603907e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011952055322685655]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152189365282], ["'wet wipe' (unit, GLO, None)", 0.04488063838359272], ["'autoclave' (unit, GLO, None)", 1.0071142899469459], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425539098339], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566695171157], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832471656993], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.05214239935851082], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939052852327], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741747903902], ["'mixed heating grid' (megajoule, GLO, None)", -0.014233364572949603]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665182775785], ["'autoclave' (unit, GLO, None)", 0.060187706166319695], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037875243901647e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236933508094], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008575566221049949], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398504298038], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152357968417912], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584830796418], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712113423029], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0009988147701896286]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665182775785], ["'autoclave' (unit, GLO, None)", 0.060187706166319695], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.67933777866371e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.1140792681604807e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824622338728], ["'mixed heating grid' (megajoule, GLO, None)", -0.005717044147366633], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0009988147701896286]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441613022367], ["'autoclave' (unit, GLO, None)", 0.08025027488842626], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434356999085974e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600814646466e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379765741167], ["'mixed heating grid' (megajoule, GLO, None)", -0.002453422100908482], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459366401762], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002152651427387915], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0024597841512302827], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806229133248], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564805064798]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441613022367], ["'autoclave' (unit, GLO, None)", 0.08025027488842626], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547430362432986e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380788992120293e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198438274468], ["'mixed heating grid' (megajoule, GLO, None)", -0.016356147339389875], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564805064798]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318388153893], ["'mechanical disinfection' (unit, GLO, None)", 0.06230870009186154], ["'autoclave' (unit, GLO, None)", 0.12037541233263943], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650108016042683], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964975328089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157081357e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364847533878], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.345589845434443e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4396235293366882e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318388153893], ["'wet wipe' (unit, GLO, None)", 0.003225553724761926], ["'autoclave' (unit, GLO, None)", 0.12037541233263943], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650108016042683], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964975328089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157081357e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364847533878], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305024669924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762455795602], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008644015854867733]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764788151633], ["'mechanical disinfection' (unit, GLO, None)", 0.03115435004593077], ["'autoclave' (unit, GLO, None)", 0.09028155924947955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739528733543], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611257217118], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314162713e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003126037366194756], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949227172184e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.198117646683441e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764788151633], ["'wet wipe' (unit, GLO, None)", 0.003225553724761926], ["'autoclave' (unit, GLO, None)", 0.09028155924947955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739528733543], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611257217118], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314162713e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031260373661947554], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305024669924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482963523913], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008572034678400898]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585638243206], ["'autoclave' (unit, GLO, None)", 0.04303643675815541], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666215345663517e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018608050288], ["'mixed heating grid' (megajoule, GLO, None)", -0.008805268908291574], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236078710943713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931998956418747], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646118180782497], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522487042030759], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003883229261892149]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585638243206], ["'autoclave' (unit, GLO, None)", 0.04303643675815541], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968505878076738e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272362544267463e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006780012405366859], ["'mixed heating grid' (megajoule, GLO, None)", -0.05870179272194383], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003883229261892149]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291908811051], ["'autoclave' (unit, GLO, None)", 0.05738191567754054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.40080677545425e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283456355763348e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095861167038107], ["'mixed heating grid' (megajoule, GLO, None)", -0.025191387702210386], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624724848682635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754140677782], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918156645930353], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654221701980496], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541476079246]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291908811051], ["'autoclave' (unit, GLO, None)", 0.05738191567754054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.5450869804978544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845218668426057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01939724077802542], ["'mixed heating grid' (megajoule, GLO, None)", -0.16794258468140255], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541476079246]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002500412963400862], ["'mechanical disinfection' (unit, GLO, None)", 0.04429419522062567], ["'autoclave' (unit, GLO, None)", 0.08607287351631085], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000264757624312299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389690744589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795203303125556e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621815753988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072922888756615e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014781848773317858]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002500412963400862], ["'wet wipe' (unit, GLO, None)", 0.01297747484478032], ["'autoclave' (unit, GLO, None)", 0.08607287351631085], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000264757624312299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389690744589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795203303125556e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621815753988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968385460318012e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251195061207652], ["'mixed heating grid' (megajoule, GLO, None)", -0.008875552014608242]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490272391741565], ["'mechanical disinfection' (unit, GLO, None)", 0.022147097610312836], ["'autoclave' (unit, GLO, None)", 0.06455465513723312], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513367128024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020260111506], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590406606251112e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001215352449370676], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461444378284e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.390924386658929e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490272391741565], ["'wet wipe' (unit, GLO, None)", 0.01297747484478032], ["'autoclave' (unit, GLO, None)", 0.06455465513723312], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513367128024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020260111506], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590406606251112e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524493706757], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968385460318012e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830446763893], ["'mixed heating grid' (megajoule, GLO, None)", -0.008801642770741651]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264928475684], ["'autoclave' (unit, GLO, None)", 0.003531537544403964], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244281507666e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1297782518105674e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.779027475338869e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233267999826], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447244209180088e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499593965505], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576357140281], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078002518279]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264928475684], ["'autoclave' (unit, GLO, None)", 0.003531537544403964], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713495206021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5447227953008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865188345403784], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004519351650225913], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078002518279]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902617311554139], ["'autoclave' (unit, GLO, None)", 0.004708716725871952], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679467451372177e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.05669023336171e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122603690443e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019394422947649858], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101649926489577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345344510512], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00031016965764490306], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866579476136], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001429033900083523]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902617311554139], ["'autoclave' (unit, GLO, None)", 0.004708716725871952], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669615479453581], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430428760318e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969415069126966], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012929615298433238], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001429033900083523]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00198275794356299], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784101431748], ["'autoclave' (unit, GLO, None)", 0.00706307508880793], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922116472721], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764531801363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426493932188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427530026276e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116517522608e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.1380295140817942e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00198275794356299], ["'wet wipe' (unit, GLO, None)", 0.000358676430267348], ["'autoclave' (unit, GLO, None)", 0.00706307508880793], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922116472721], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764531801363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426493932188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427530026276e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312923589486e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759946283567e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.833137249127173e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581921807905], ["'mechanical disinfection' (unit, GLO, None)", 0.001441392050715874], ["'autoclave' (unit, GLO, None)", 0.005297306316605946], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000119095862571277], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355700520982], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852987864375e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001572096248256512], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058258761297e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.690147570408971e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581921807905], ["'wet wipe' (unit, GLO, None)", 0.000358676430267348], ["'autoclave' (unit, GLO, None)", 0.005297306316605946], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000119095862571277], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355700520982], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852987864375e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001572096248256512], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312923589486e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489363695961e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.776235773423083e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841623983167e-08], ["'autoclave' (unit, GLO, None)", 2.6940935067393965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.993166833961125e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490117974328e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2136615956036133e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525668499926127e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670955160415e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.61700923258597e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874294989444e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.84344424902245e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841623983167e-08], ["'autoclave' (unit, GLO, None)", 2.6940935067393965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686468340175e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.602979648174783e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5089934119828855e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.09107730402409e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.84344424902245e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905787739765e-07], ["'autoclave' (unit, GLO, None)", 3.592124675652529e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201408319821e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199508246267e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554328055248e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.4722187490882574e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.6512643128931156e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545163103009445e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045693759661e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753322532238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102467946776e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905787739765e-07], ["'autoclave' (unit, GLO, None)", 3.592124675652529e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.725545484039486e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8287832592885486e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036218703507e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.3148124993921717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102467946776e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.309745584084949e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.583138431890677e-07], ["'autoclave' (unit, GLO, None)", 5.388187013478795e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981994321654e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374271672008e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457441018597e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922642776034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086183635408e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.0374348989277002e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.309745584084949e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488198776517e-07], ["'autoclave' (unit, GLO, None)", 5.388187013478795e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981994321654e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374271672008e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457441018597e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922642776034e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517719333122e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.30550296725936e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2233489666361938e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057247375477e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692159453386e-07], ["'autoclave' (unit, GLO, None)", 4.041140260109095e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.123490602567158e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169592237779e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914882037194e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994817351904e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043091817692e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.0187174494638501e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057247375477e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488198776517e-07], ["'autoclave' (unit, GLO, None)", 4.041140260109095e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.123490602567158e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169592237779e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914882037194e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994817351904e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517719333122e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322536341195e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.213161792141555e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037460717971], ["'autoclave' (unit, GLO, None)", 0.0002683553197372275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.94312160276159e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.805220413522427e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.8884336728449168e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001446095751579996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615306413913e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.33673114104541e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471438407791e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.563573869779285e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037460717971], ["'autoclave' (unit, GLO, None)", 0.0002683553197372275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9435666709913354e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.633861367358652e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136090149514e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012589557818966113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.563573869779285e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846998670577], ["'autoclave' (unit, GLO, None)", 0.00035780709298297], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587342399645e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294220921548e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525298408814e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.402704369170203e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137049148995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130201407653521e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880603699376e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468840585328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.29320540801132e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846998670577], ["'autoclave' (unit, GLO, None)", 0.00035780709298297], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110863850983475e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3958949648576956e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683532272549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036018029127801347], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.29320540801132e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262926336372], ["'mechanical disinfection' (unit, GLO, None)", 0.0002606433485630812], ["'autoclave' (unit, GLO, None)", 0.0005367106394744552], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695379920654e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173912371e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.450173452166082e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.7945321425302455e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015322151484e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.1702087989781604e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262926336372], ["'wet wipe' (unit, GLO, None)", 7.725704212839006e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106394744552], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695379920654e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173912371e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.450173452166082e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.7945321425302455e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608012709118e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.835593445131949e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9035070324416412e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691224094413], ["'mechanical disinfection' (unit, GLO, None)", 0.0001303216742815406], ["'autoclave' (unit, GLO, None)", 0.00040253297960584126], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568443492912e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005260528e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346904332164e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.02333720636618e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007661075733e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5851043994890802e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691224094413], ["'wet wipe' (unit, GLO, None)", 7.725704212839006e-05], ["'autoclave' (unit, GLO, None)", 0.00040253297960584126], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568443492912e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005260528e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346904332164e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.02333720636618e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608012709118e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.803653368521201e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.88765598844675e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799014602584], ["'autoclave' (unit, GLO, None)", 0.00047596019246792543], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431467131889e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578642378698e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.7851422101796996e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140987773559], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2743214227746675e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675264615687e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230136702824e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527393010284e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799014602584], ["'autoclave' (unit, GLO, None)", 0.00047596019246792543], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7964919080968604e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108312257588e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.1963857615858e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00031900948067864666], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527393010284e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665485038799347], ["'autoclave' (unit, GLO, None)", 0.0006346135899572339], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324621878152e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450271427048e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591275808551687e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013690027400905025], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000839138541746772], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893588748156766e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.57296682661738e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002441473277944458], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325989340584e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665485038799347], ["'autoclave' (unit, GLO, None)", 0.0006346135899572339], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441994639045e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144709551744e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001772751720570114], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009126684933936682], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325989340584e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000331375603226376], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574080878594696], ["'autoclave' (unit, GLO, None)", 0.0009519203849358512], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702601411357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719431340424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217784585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948383762906e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.560327768910912e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.033059438206321e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.000331375603226376], ["'wet wipe' (unit, GLO, None)", 0.001094401336157242], ["'autoclave' (unit, GLO, None)", 0.0009519203849358512], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702601411357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719431340424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217784585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948383762906e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239344e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767388423198e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.823336916349518e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001974127742468106], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040439297348], ["'autoclave' (unit, GLO, None)", 0.0007139402887018882], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494816166358e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252232929599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.904569843556917e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0905688581288517e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.80163884455454e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.0165297191031603e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001974127742468106], ["'wet wipe' (unit, GLO, None)", 0.001094401336157242], ["'autoclave' (unit, GLO, None)", 0.0007139402887018882], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494816166358e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252232929599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.904569843556917e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688581288515], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239344e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750999977674e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.783171619158486e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943883204066], ["'autoclave' (unit, GLO, None)", 0.00048807706696843515], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521095494101e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365647532788e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.956965275817605e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564026655141], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.58332669774723e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703490642287e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547619870872e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669274345061e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943883204066], ["'autoclave' (unit, GLO, None)", 0.00048807706696843515], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766147671137e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3961698236444922e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243765021859e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003304643517211737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669274345061e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860100161653], ["'autoclave' (unit, GLO, None)", 0.0006507694226245802], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.200254104611881e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186684718541e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191464835912994e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001418160369547916], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693452506192], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.282360462428778e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404526333571674e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717639400246], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815435557625]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860100161653], ["'autoclave' (unit, GLO, None)", 0.0006507694226245802], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469337372153e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552838764014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127643223942008], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009454402463652772], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815435557625]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902811505313], ["'mechanical disinfection' (unit, GLO, None)", 0.0004877279219672729], ["'autoclave' (unit, GLO, None)", 0.0009761541339368706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854827900184e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143439142046], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994208585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606142841555e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955457709627843e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.321507479768765e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902811505313], ["'wet wipe' (unit, GLO, None)", 0.0016920736915198439], ["'autoclave' (unit, GLO, None)", 0.0009761541339368706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854827900184e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143439142046], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994208585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606142841555e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462744698e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.58022890034598e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9965314629626965e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002016768074404066], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386396098363645], ["'autoclave' (unit, GLO, None)", 0.0007321156004526527], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059950080426e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205394758108e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.917569198841717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1306740228883751e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.9777288548139e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.1607537398843827e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002016768074404066], ["'wet wipe' (unit, GLO, None)", 0.0016920736915198439], ["'autoclave' (unit, GLO, None)", 0.0007321156004526527], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059950080426e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205394758108e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.917569198841717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001130674022888375], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462744698e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451611797863e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9549239255638524e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817636385], ["'autoclave' (unit, GLO, None)", 0.004165478852990999], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840525648976e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299269228993e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.397439924932896e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499976098605], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896354925899553e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370729834852461e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108553420805], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001635874184855299]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817636385], ["'autoclave' (unit, GLO, None)", 0.004165478852990999], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249320757732], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658547352461e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199512819328], ["'mixed heating grid' (megajoule, GLO, None)", -0.000493162661662193], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001635874184855299]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802310238077], ["'autoclave' (unit, GLO, None)", 0.005553971803988], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3914725974501306e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806962969683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135262520278], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002116366678788362], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00297542217870325], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932065076564e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917934424881], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213677019948], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958519572512]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802310238077], ["'autoclave' (unit, GLO, None)", 0.005553971803988], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898661780495136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454459723111266e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423508346864], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014109111191922413], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958519572512]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127826133977], ["'mechanical disinfection' (unit, GLO, None)", 0.0040002026184792275], ["'autoclave' (unit, GLO, None)", 0.008330957705982002], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389932182e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073768699806], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347723972e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498871042664e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280801982542e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.2418455292954576e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127826133977], ["'wet wipe' (unit, GLO, None)", 0.009590872144140571], ["'autoclave' (unit, GLO, None)", 0.008330957705982002], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389932182e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073768699806], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347723972e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498871042664e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960118862116e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871016935631e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.456485828258532e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000807209970878467], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001013092396137], ["'autoclave' (unit, GLO, None)", 0.0062482182794865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.09690048117483e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216579333682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695447944e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720532338316e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640400991253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.209227646477288e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000807209970878467], ["'wet wipe' (unit, GLO, None)", 0.009590872144140571], ["'autoclave' (unit, GLO, None)", 0.0062482182794865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.09690048117483e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216579333682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695447944e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005119872053233831], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960118862116e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864612925739e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.394393551793758e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262290290017e-09], ["'autoclave' (unit, GLO, None)", 1.4473327813055766e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965842362903e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522259305976e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3267765266967422e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933890832268e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011349411478816e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950029856915604e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.242275521081477e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121788711236e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262290290017e-09], ["'autoclave' (unit, GLO, None)", 1.4473327813055766e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538082315571e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352020463835e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148395373174e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.845176844644949e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121788711236e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.90467980620386e-09], ["'autoclave' (unit, GLO, None)", 1.9297770417407685e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183647065043e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352334698784e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464753425216e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.795834315376363e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522540421948e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119920696658672e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105992487846654e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.31626907346895e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744141788418e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.90467980620386e-09], ["'autoclave' (unit, GLO, None)", 1.9297770417407685e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487555818511e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240611851167e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976502283481e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.5305562102509086e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744141788418e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899713978106e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521275191440994e-09], ["'autoclave' (unit, GLO, None)", 2.894665562611154e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734063058019e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705802011678e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184064292495e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348028887155e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957905321979e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.22732663566369e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899713978106e-10], ["'wet wipe' (unit, GLO, None)", 5.658612303920462e-10], ["'autoclave' (unit, GLO, None)", 2.894665562611154e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734063058019e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705802011678e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184064292495e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348028887155e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920251176916e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.871258986018277e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.337366774042451e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568319936464e-10], ["'mechanical disinfection' (unit, GLO, None)", 7.260637595720497e-10], ["'autoclave' (unit, GLO, None)", 2.170999171958365e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468910201113e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681430667893e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436812858499e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415260914669025e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.390978952660983e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.113663317831845e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568319936464e-10], ["'wet wipe' (unit, GLO, None)", 5.658612303920462e-10], ["'autoclave' (unit, GLO, None)", 2.170999171958365e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468910201113e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681430667893e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436812858499e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526091466902e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920251176916e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.847349196491674e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3262301408641323e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149010363303e-07], ["'autoclave' (unit, GLO, None)", 6.098544208302909e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248496834e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051582240373e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.890430183900549e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558150216433e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628133256772136e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696417917699e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279352857664803e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600869483538e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149010363303e-07], ["'autoclave' (unit, GLO, None)", 6.098544208302909e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189312455627e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780870710394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.469367721493582e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9269534559336995e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600869483538e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453255595169e-06], ["'autoclave' (unit, GLO, None)", 8.131392277737213e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086864868e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016377529187e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755258986858e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.269361009547815e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.32535577075628e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.596816805436274e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976829765833e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043058497128e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044878688925e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453255595169e-06], ["'autoclave' (unit, GLO, None)", 8.131392277737213e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940651395952e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287497504231e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8508503505991253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.512907339698543e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044878688925e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620439676e-07], ["'mechanical disinfection' (unit, GLO, None)", 6.010848007867623e-07], ["'autoclave' (unit, GLO, None)", 1.2197088416605823e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023825176036e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977855121186e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310925182236e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282005901174e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680554012146e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.852310850838178e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620439676e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705652427986e-07], ["'autoclave' (unit, GLO, None)", 1.2197088416605823e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023825176036e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977855121186e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310925182236e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282005901174e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461930357132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508715709019e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.913501417048771e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725501981917e-07], ["'mechanical disinfection' (unit, GLO, None)", 3.0054240039338115e-07], ["'autoclave' (unit, GLO, None)", 9.147816312454365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929681611052e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160608765105e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462185036447e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722341516516e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340277006051e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.426155425419089e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725501981917e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705652427986e-07], ["'autoclave' (unit, GLO, None)", 9.147816312454365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929681611052e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160608765105e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462185036447e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722341516514e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461930357132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055312938981e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.88923986279458e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845730150517], ["'autoclave' (unit, GLO, None)", 0.011815228152122534], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124194415558804e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315155889623], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155534141144975], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040950010566176365], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665678121322247], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508118249345], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652219649097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150439664]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845730150517], ["'autoclave' (unit, GLO, None)", 0.011815228152122534], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783210324066], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352038269874695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210103926416], ["'mixed heating grid' (megajoule, GLO, None)", -0.007703560940966501], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150439664]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995366567615], ["'autoclave' (unit, GLO, None)", 0.01575363753616338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849187764405905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.042394210163376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000648785453445132], ["'mixed heating grid' (megajoule, GLO, None)", -0.003305919314435984], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1152566522557944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650696708636], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255961867808261], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718935112422], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003517768520419555]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995366567615], ["'autoclave' (unit, GLO, None)", 0.01575363753616338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00032007840029081884], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221408268260765e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043252363563008826], ["'mixed heating grid' (megajoule, GLO, None)", -0.02203946209623989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003517768520419555]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822394409311], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162719714193], ["'autoclave' (unit, GLO, None)", 0.023630456304245075], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190399653227], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310174791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849839663274e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708515772607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552072801942e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9398534110328322e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822394409311], ["'wet wipe' (unit, GLO, None)", 0.012386853614093722], ["'autoclave' (unit, GLO, None)", 0.023630456304245075], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190399653227], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310174791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849839663274e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708515772607], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328775946255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002285832406869826], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011647575424675804]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961279216322], ["'mechanical disinfection' (unit, GLO, None)", 0.0058605813598570965], ["'autoclave' (unit, GLO, None)", 0.0177228422281838], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410840243495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192455021], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569967932655e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000386993667040594], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.903477603640092e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.699267055164161e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961279216322], ["'wet wipe' (unit, GLO, None)", 0.012386853614093722], ["'autoclave' (unit, GLO, None)", 0.0177228422281838], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410840243495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192455021], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569967932655e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00386993667040594], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328775946255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976308334307], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155058275412416]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410688181114], ["'autoclave' (unit, GLO, None)", 0.0007704105008018239], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498302795726e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848481653279e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.355362668952844e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091833635801414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780979672099e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.90869331302765e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418255303023], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308518412899e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410688181114], ["'autoclave' (unit, GLO, None)", 0.0007704105008018239], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461490640155e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162307056496e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453898987768852e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00029035751126352293], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.670308518412899e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820246415286], ["'autoclave' (unit, GLO, None)", 0.0010272140010690986], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.98774765023094e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399448447849e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1987789569466636e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012460451886257343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211453785166], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719453382046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366376245604e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427677550148], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732145737962]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820246415286], ["'autoclave' (unit, GLO, None)", 0.0010272140010690986], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242673419762e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23515343224948e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193046311107], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008306967924171561], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013286732145737962]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344372311302], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178440438018], ["'autoclave' (unit, GLO, None)", 0.0015408210016036484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.91349673670983e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138253615088], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.29214335284683e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659286019061e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853951597998e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.31156685797416e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344372311302], ["'wet wipe' (unit, GLO, None)", 0.0002523811666001432], ["'autoclave' (unit, GLO, None)", 0.0015408210016036484], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.91349673670983e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138253615088], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.29214335284683e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659286019061e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795160647002e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093315710125e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.3901269016750735e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193116747448], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752089220219009], ["'autoclave' (unit, GLO, None)", 0.001155615751202736], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183949707306e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651528587602], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.58428670569366e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4616883306045434e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926975798975e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.65578342898708e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193116747448], ["'wet wipe' (unit, GLO, None)", 0.0002523811666001432], ["'autoclave' (unit, GLO, None)", 0.001155615751202736], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183949707306e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651528587602], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.58428670569366e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883306045432], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795160647002e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074160511112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176244045952161e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.353569067385202e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476679222535662], ["'autoclave' (unit, GLO, None)", 0.22259093978105798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02729629042053888], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916698749679], ["'mixed heating grid' (megajoule, GLO, None)", -0.01274564271290235], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148949726336], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760030078035169], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002614710606877219], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452447845058], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228665661733]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476679222535662], ["'autoclave' (unit, GLO, None)", 0.22259093978105798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491774376266], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503855686057], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777991664523], ["'mixed heating grid' (megajoule, GLO, None)", -0.084970951419349], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01548228665661733]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.708735877779695], ["'autoclave' (unit, GLO, None)", 0.29678791970807733], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193853534], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009937204633453524], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299731161781], ["'mixed heating grid' (megajoule, GLO, None)", -0.03646457938294501], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4046267088499135], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830688664263012], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876501002835089], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851965760727], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125646515756]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.708735877779695], ["'autoclave' (unit, GLO, None)", 0.29678791970807733], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.510211035897923], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734999168151], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199820774527], ["'mixed heating grid' (megajoule, GLO, None)", -0.24309719588630005], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125646515756]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978836215], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019155910256], ["'autoclave' (unit, GLO, None)", 0.44518187956211613], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038941585976651275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338782557896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158991069945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579561411659], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935790606132e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021396752905916423]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978836215], ["'wet wipe' (unit, GLO, None)", 0.05759767927135408], ["'autoclave' (unit, GLO, None)", 0.44518187956211613], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038941585976651275], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338782557896], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037493158991069945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579561411659], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277299178076], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004649736711647045], ["'mixed heating grid' (megajoule, GLO, None)", -0.012847377636752503]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074977410017], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009577955128], ["'autoclave' (unit, GLO, None)", 0.333886409671587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002325177920930829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009285813485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798213989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004845563766897007], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8719678953030557e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010698376452958211]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074977410017], ["'wet wipe' (unit, GLO, None)", 0.05759767927135408], ["'autoclave' (unit, GLO, None)", 0.333886409671587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002325177920930829], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009285813485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631798213989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637668970056], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277299178076], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653648827786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017032694025], ["'mixed heating grid' (megajoule, GLO, None)", -0.01274039387222292]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008443233445], ["'autoclave' (unit, GLO, None)", 0.046071940059315565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00143312933545059], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602674121067204], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047973042844385514], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658243749758], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253166629812], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126316002261054], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485043719399], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065578398268]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008443233445], ["'autoclave' (unit, GLO, None)", 0.046071940059315565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00950954979598055], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224670243762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449414044802], ["'mixed heating grid' (megajoule, GLO, None)", -0.003198202856292368], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005008065578398268]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901630473332], ["'autoclave' (unit, GLO, None)", 0.06142925341242075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300828425503], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489568789818], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066986463964], ["'mixed heating grid' (megajoule, GLO, None)", -0.0013724822423193247], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448699295676], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001144969399665283], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283637544938], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376068653352], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629604367221]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901630473332], ["'autoclave' (unit, GLO, None)", 0.06142925341242075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746421402972], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040168890487], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377990975979], ["'mixed heating grid' (megajoule, GLO, None)", -0.009149881615462164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629604367221]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304166968747], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624483362235], ["'autoclave' (unit, GLO, None)", 0.09214388011863116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586172830397], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760705530927], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950353741703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350496308152e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675085379549e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.053476525331839e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304166968747], ["'wet wipe' (unit, GLO, None)", 0.002224593535992914], ["'autoclave' (unit, GLO, None)", 0.09214388011863116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586172830397], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760705530927], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950353741703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350496308152e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831076846434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028830978878948983], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048355960675252783]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363663734047], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122416811174], ["'autoclave' (unit, GLO, None)", 0.06910791008897335], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910329378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559253655492], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900707483406e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977395683184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837542689768e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.0267382626659195e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363663734047], ["'wet wipe' (unit, GLO, None)", 0.002224593535992914], ["'autoclave' (unit, GLO, None)", 0.06910791008897335], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910329378], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559253655492], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900707483406e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015673977395683184], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667831076846434e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907689911556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002859089512468007], ["'mixed heating grid' (megajoule, GLO, None)", -0.00047953286848986186]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083075189385], ["'autoclave' (unit, GLO, None)", 0.058157488391319824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152627350867], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280978067855], ["'mixed heating grid' (megajoule, GLO, None)", -0.000639350489616647], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681783993667], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329937653298], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596626000495], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01585383992316165], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750354038106]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083075189385], ["'autoclave' (unit, GLO, None)", 0.058157488391319824], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01376970434971136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433177846133], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002486485398537857], ["'mixed heating grid' (megajoule, GLO, None)", -0.004262336597444314], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750354038106]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952715371769564], ["'autoclave' (unit, GLO, None)", 0.0775433178550931], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366785862735], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931437570532], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001067054595541117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018291464155472284], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799723160981], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010410491966236], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974705558575], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.044658704008906064], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0018755957494557777]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952715371769564], ["'autoclave' (unit, GLO, None)", 0.0775433178550931], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789957665172], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00502896651923388], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697303607453], ["'mixed heating grid' (megajoule, GLO, None)", -0.012194309436981523], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0018755957494557777]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544288695192], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074128992426], ["'autoclave' (unit, GLO, None)", 0.11631497678263969], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846667775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907047004417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850025140502e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112212773802], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.2612825663346375e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0733098953696435e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544288695192], ["'wet wipe' (unit, GLO, None)", 0.002469441823028268], ["'autoclave' (unit, GLO, None)", 0.11631497678263969], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846667775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907047004417], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850025140502e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112212773802], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017410313242e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498554468649], ["'mixed heating grid' (megajoule, GLO, None)", -0.000644453745281335]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052136045631236], ["'mechanical disinfection' (unit, GLO, None)", 0.02963037064496213], ["'autoclave' (unit, GLO, None)", 0.08723623258697974], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145293181425], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682934926146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700050281005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639557416733], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1306412831673107e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.366549476848218e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052136045631236], ["'wet wipe' (unit, GLO, None)", 0.002469441823028268], ["'autoclave' (unit, GLO, None)", 0.08723623258697974], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145293181425], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682934926146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700050281005e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020633639557416732], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017410313242e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001600897228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192141636985], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006390871958044868]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939126713836], ["'autoclave' (unit, GLO, None)", 2.365421998922403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234405943819], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065783016078], ["'mixed heating grid' (megajoule, GLO, None)", -0.057604550840239674], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441615255616256], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823977256757], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919289706536126], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311417168817], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0367220144268848]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939126713836], ["'autoclave' (unit, GLO, None)", 2.365421998922403], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286381514122], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805796178376], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571377188677386], ["'mixed heating grid' (megajoule, GLO, None)", -0.3840303389349312], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0367220144268848]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445825678544], ["'autoclave' (unit, GLO, None)", 3.153895998563204], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.2260672920561661], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0290615420487302], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335462847583], ["'mixed heating grid' (megajoule, GLO, None)", -0.16480343629956454], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004293799277], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539255290869], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.057816292397718225], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073638639104], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180686635897]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445825678544], ["'autoclave' (unit, GLO, None)", 3.153895998563204], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492193346905387], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19344917047634996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522236418983906], ["'mixed heating grid' (megajoule, GLO, None)", -1.0986895753304302], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180686635897]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170355968278], ["'mechanical disinfection' (unit, GLO, None)", 2.3912574792810144], ["'autoclave' (unit, GLO, None)", 4.730843997844808], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312145434122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173142972613], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342854599164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946369078772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804430342813], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009670366323207885]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170355968278], ["'wet wipe' (unit, GLO, None)", 0.13935218914457811], ["'autoclave' (unit, GLO, None)", 4.730843997844808], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312145434122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173142972613], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342854599164], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946369078772], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950255952503764], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959690078850696], ["'mixed heating grid' (megajoule, GLO, None)", -0.05806434676620123]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615285849755], ["'mechanical disinfection' (unit, GLO, None)", 1.1956287396405072], ["'autoclave' (unit, GLO, None)", 3.548132998383605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965518312062], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376149482926], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868570919833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.01149306084436363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791902215171378], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048351831616039425]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615285849755], ["'wet wipe' (unit, GLO, None)", 0.13935218914457811], ["'autoclave' (unit, GLO, None)", 3.548132998383605], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965518312062], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376149482926], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868570919833], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060844363628], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950255952503764], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292046539792], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851771056699013], ["'mixed heating grid' (megajoule, GLO, None)", -0.05758082845004083]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597987121301], ["'autoclave' (unit, GLO, None)", 0.056996514864440684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223433868314e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638592361665], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036834227370333137], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246602278799], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605235557193], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650534659563], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314520698701], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932719223046]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597987121301], ["'autoclave' (unit, GLO, None)", 0.056996514864440684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088657761355], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371580868589e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092394907777], ["'mixed heating grid' (megajoule, GLO, None)", -0.024556151580222094], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932719223046]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511363619727], ["'autoclave' (unit, GLO, None)", 0.07599535315258757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204350187347757], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.646073246362814e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000754752178], ["'mixed heating grid' (megajoule, GLO, None)", -0.010538068877415653], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117415933566154], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405316728376015], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833109909823], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074512872874], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837071460503]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511363619727], ["'autoclave' (unit, GLO, None)", 0.07599535315258757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742697919312], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957144101928762], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165333836501472], ["'mixed heating grid' (megajoule, GLO, None)", -0.07025379251610435], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837071460503]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682454029658], ["'mechanical disinfection' (unit, GLO, None)", 0.0577531325813526], ["'autoclave' (unit, GLO, None)", 0.1139930297288814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467892314707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344500768966], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473882951e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510243863357], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495743690755e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.183547423038456e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682454029658], ["'wet wipe' (unit, GLO, None)", 0.03231285970014396], ["'autoclave' (unit, GLO, None)", 0.1139930297288814], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467892314707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344500768966], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473882951e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510243863357], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345592612936e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584320806907], ["'mixed heating grid' (megajoule, GLO, None)", -0.0037128235871984193]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277797316052], ["'mechanical disinfection' (unit, GLO, None)", 0.0288765662906763], ["'autoclave' (unit, GLO, None)", 0.08549477229666103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387697921066], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132316176155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947765902e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0013179153352251877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474787184535e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.091773711519228e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277797316052], ["'wet wipe' (unit, GLO, None)", 0.03231285970014396], ["'autoclave' (unit, GLO, None)", 0.08549477229666103], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387697921066], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132316176155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947765902e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153352251876], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345592612936e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555740229384e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214063684208848], ["'mixed heating grid' (megajoule, GLO, None)", -0.0036819058500832265]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541603628602147e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237164496279], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949647259677e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580757230533e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3142940636732035e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264591100463e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0419611296275445e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647656537976e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138786445682e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220016878666e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541603628602147e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237164496279], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140826401452683e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930637958984115e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.555720504820355e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.209529375782136e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220016878666e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899875303657], ["'autoclave' (unit, GLO, None)", 0.00030016495526617054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028731887553e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.7369998418951e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662674354947e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.482012143718316e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316192859402e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184543205675134e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463248716e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039094773432e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.6908084794854177e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899875303657], ["'autoclave' (unit, GLO, None)", 0.00030016495526617054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828401803226108e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.8158144844225744e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775116236637e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.321341429145544e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.6908084794854177e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.773918685736534e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658171712125], ["'autoclave' (unit, GLO, None)", 0.00045024743289925597], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383013418518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421856459238e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392826537583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326044225608e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625260725622e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.563872511989854e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.773918685736534e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622094356e-05], ["'autoclave' (unit, GLO, None)", 0.00045024743289925597], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383013418518e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421856459238e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392826537583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326044225608e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361384518092e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.86418015933172e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.3407485518288684e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634319946657e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829085856063], ["'autoclave' (unit, GLO, None)", 0.0003376855746744419], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404518694447e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958251425205e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785653075166e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774040167725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2178126303628025e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.781936255994927e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634319946657e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622094356e-05], ["'autoclave' (unit, GLO, None)", 0.0003376855746744419], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404518694447e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958251425205e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785653075166e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.860077404016772e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361384518092e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946291269500486e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002033028101e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.312929189268919e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951220843568e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112023698682], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2966129690083096e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.320007548078031e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.6916334354213746e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167751104603e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983004157458e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322671666328e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142582374453e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702976435166e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951220843568e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112023698682], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023558874673e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164169213634e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2133383653853536e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.4610889569475836e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702976435166e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561188337563e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816031598244], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044201958112e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.556828076576734e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358106831039e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.0561559231719856e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.7437558239863945e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482828046717e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.895787709896734e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.4115894598237903e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183536650384e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561188337563e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816031598244], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052278520206e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080509735706e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238737887364e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.041039487813238e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183536650384e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374439666783e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578554373837e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224047397375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312393766215e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134613498417e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.390180586642421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.8550972971750587e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464026266199e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.197331136308285e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374439666783e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110013958e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224047397375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312393766215e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134613498417e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.390180586642421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.8550972971750587e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295338448e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507640909258e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.7210998228680504e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.360063786841998e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.770289277186919e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668035548026], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187849382205e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767571355103e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361173284842e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254191042526e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320131330926e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.0986655681541427e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.360063786841998e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110013958e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668035548026], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187849382205e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767571355103e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361173284842e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254191042525e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295338448e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1578802537040724e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640320777935e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.6901131671865087e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978216722818], ["'autoclave' (unit, GLO, None)", 0.021468099434625215], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053190586511e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821639984041428], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005238929113384451], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078085605105], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000484998573466384], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255136174566338], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000721816221], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855823652741]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978216722818], ["'autoclave' (unit, GLO, None)", 0.021468099434625215], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698846090115], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411208957246e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025477599893609522], ["'mixed heating grid' (megajoule, GLO, None)", -0.003492619408922968], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167855823652741]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851046434974896], ["'autoclave' (unit, GLO, None)", 0.028624132579500285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098239951133], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523091811463e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933500782196533], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014988286651346735], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700785683556], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597044444133887], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001583046523012418], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382314975272], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096156531055]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851046434974896], ["'autoclave' (unit, GLO, None)", 0.028624132579500285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201968580535536], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071602148056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289000521464361], ["'mixed heating grid' (megajoule, GLO, None)", -0.009992191100897822], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0020392096156531055]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566090728283], ["'mechanical disinfection' (unit, GLO, None)", 0.021196851987364713], ["'autoclave' (unit, GLO, None)", 0.042936198869250444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009925032309], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853817250999], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080622809625e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705037274589], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579682861258e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.794854387156533e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566090728283], ["'wet wipe' (unit, GLO, None)", 0.002321360169312302], ["'autoclave' (unit, GLO, None)", 0.042936198869250444], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009925032309], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853817250999], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906080622809625e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00013405705037274589], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041123807472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000385214407563702], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005280745918265306]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455210112787], ["'mechanical disinfection' (unit, GLO, None)", 0.010598425993682357], ["'autoclave' (unit, GLO, None)", 0.03220214915193782], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682280204232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086427563184], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216124561925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00022433574080989117], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077898414306204e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.397427193578266e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455210112787], ["'wet wipe' (unit, GLO, None)", 0.002321360169312302], ["'autoclave' (unit, GLO, None)", 0.03220214915193782], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682280204232], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086427563184], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216124561925e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574080989115], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041123807472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201124846489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066177222723], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005236771646329523]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442016476101], ["'autoclave' (unit, GLO, None)", 0.6714095266312972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.01732974242135599], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550549624407], ["'mixed heating grid' (megajoule, GLO, None)", -0.014239228493933907], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894657357765], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913206907892], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00794538439040292], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311773023866], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261069048957]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442016476101], ["'autoclave' (unit, GLO, None)", 0.6714095266312972], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.114991748777222], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265999500045], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336997496044], ["'mixed heating grid' (megajoule, GLO, None)", -0.09492818995955939], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261069048957]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448102659529137], ["'autoclave' (unit, GLO, None)", 0.8952127021750629], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394349225108], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046098810886], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019513218168307984], ["'mixed heating grid' (megajoule, GLO, None)", -0.04073764575585774], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875691238746], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935042855773], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.02393451418842145], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681050771455], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.047397388294541175]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448102659529137], ["'autoclave' (unit, GLO, None)", 0.8952127021750629], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32392041909076624], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04199638588570164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812112205334], ["'mixed heating grid' (megajoule, GLO, None)", -0.27158430503905157], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.047397388294541175]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.134033070292281], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817287388881], ["'autoclave' (unit, GLO, None)", 1.3428190532625948], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513568799652], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224311228051], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162358284963], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003115890598673397], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450002018720811], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002390411064537131]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.134033070292281], ["'wet wipe' (unit, GLO, None)", 0.04488063838359272], ["'autoclave' (unit, GLO, None)", 1.3428190532625948], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513568799652], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224311228051], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162358284963], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003115890598673397], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939052852327], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00687499175799749], ["'mixed heating grid' (megajoule, GLO, None)", -0.014352885126176461]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152189365282], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408643694441], ["'autoclave' (unit, GLO, None)", 1.0071142899469459], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425539098339], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566695171157], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832471656993], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239935851082], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250010093603907e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011952055322685655]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152189365282], ["'wet wipe' (unit, GLO, None)", 0.04488063838359272], ["'autoclave' (unit, GLO, None)", 1.0071142899469459], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425539098339], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566695171157], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832471656993], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.05214239935851082], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939052852327], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310783294426], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741747903902], ["'mixed heating grid' (megajoule, GLO, None)", -0.014233364572949603]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109665182775785], ["'autoclave' (unit, GLO, None)", 0.060187706166319695], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037875243901647e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236933508094], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008575566221049949], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398504298038], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152357968417912], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584830796418], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712113423029], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0009988147701896286]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109665182775785], ["'autoclave' (unit, GLO, None)", 0.060187706166319695], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.67933777866371e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.1140792681604807e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824622338728], ["'mixed heating grid' (megajoule, GLO, None)", -0.005717044147366633], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0009988147701896286]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441613022367], ["'autoclave' (unit, GLO, None)", 0.08025027488842626], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434356999085974e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600814646466e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379765741167], ["'mixed heating grid' (megajoule, GLO, None)", -0.002453422100908482], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459366401762], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002152651427387915], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0024597841512302827], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806229133248], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564805064798]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441613022367], ["'autoclave' (unit, GLO, None)", 0.08025027488842626], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547430362432986e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380788992120293e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198438274468], ["'mixed heating grid' (megajoule, GLO, None)", -0.016356147339389875], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564805064798]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318388153893], ["'mechanical disinfection' (unit, GLO, None)", 0.06230870009186154], ["'autoclave' (unit, GLO, None)", 0.12037541233263943], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650108016042683], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964975328089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157081357e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364847533878], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.345589845434443e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.4396235293366882e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318388153893], ["'wet wipe' (unit, GLO, None)", 0.003225553724761926], ["'autoclave' (unit, GLO, None)", 0.12037541233263943], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650108016042683], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964975328089], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157081357e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018680364847533878], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305024669924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762455795602], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008644015854867733]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764788151633], ["'mechanical disinfection' (unit, GLO, None)", 0.03115435004593077], ["'autoclave' (unit, GLO, None)", 0.09028155924947955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739528733543], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611257217118], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314162713e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003126037366194756], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949227172184e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.198117646683441e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764788151633], ["'wet wipe' (unit, GLO, None)", 0.003225553724761926], ["'autoclave' (unit, GLO, None)", 0.09028155924947955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739528733543], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611257217118], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314162713e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031260373661947554], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305024669924e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977169594118e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482963523913], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008572034678400898]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585638243206], ["'autoclave' (unit, GLO, None)", 0.04303643675815541], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666215345663517e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018608050288], ["'mixed heating grid' (megajoule, GLO, None)", -0.008805268908291574], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236078710943713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931998956418747], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646118180782497], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522487042030759], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003883229261892149]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585638243206], ["'autoclave' (unit, GLO, None)", 0.04303643675815541], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968505878076738e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272362544267463e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006780012405366859], ["'mixed heating grid' (megajoule, GLO, None)", -0.05870179272194383], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003883229261892149]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225291908811051], ["'autoclave' (unit, GLO, None)", 0.05738191567754054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.40080677545425e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283456355763348e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095861167038107], ["'mixed heating grid' (megajoule, GLO, None)", -0.025191387702210386], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624724848682635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754140677782], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918156645930353], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654221701980496], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541476079246]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225291908811051], ["'autoclave' (unit, GLO, None)", 0.05738191567754054], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.5450869804978544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845218668426057e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01939724077802542], ["'mixed heating grid' (megajoule, GLO, None)", -0.16794258468140255], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541476079246]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002500412963400862], ["'mechanical disinfection' (unit, GLO, None)", 0.04429419522062567], ["'autoclave' (unit, GLO, None)", 0.08607287351631085], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000264757624312299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389690744589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795203303125556e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621815753988], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072922888756615e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014781848773317858]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002500412963400862], ["'wet wipe' (unit, GLO, None)", 0.01297747484478032], ["'autoclave' (unit, GLO, None)", 0.08607287351631085], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000264757624312299], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389690744589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795203303125556e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621815753988], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968385460318012e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251195061207652], ["'mixed heating grid' (megajoule, GLO, None)", -0.008875552014608242]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490272391741565], ["'mechanical disinfection' (unit, GLO, None)", 0.022147097610312836], ["'autoclave' (unit, GLO, None)", 0.06455465513723312], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513367128024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020260111506], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590406606251112e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001215352449370676], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461444378284e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.390924386658929e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490272391741565], ["'wet wipe' (unit, GLO, None)", 0.01297747484478032], ["'autoclave' (unit, GLO, None)", 0.06455465513723312], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513367128024], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020260111506], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590406606251112e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524493706757], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968385460318012e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069809810887683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830446763893], ["'mixed heating grid' (megajoule, GLO, None)", -0.008801642770741651]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264928475684], ["'autoclave' (unit, GLO, None)", 0.003531537544403964], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244281507666e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1297782518105674e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.779027475338869e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233267999826], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447244209180088e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499593965505], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576357140281], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078002518279]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264928475684], ["'autoclave' (unit, GLO, None)", 0.003531537544403964], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713495206021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5447227953008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865188345403784], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004519351650225913], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078002518279]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902617311554139], ["'autoclave' (unit, GLO, None)", 0.004708716725871952], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679467451372177e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.05669023336171e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122603690443e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019394422947649858], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101649926489577], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345344510512], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00031016965764490306], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866579476136], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001429033900083523]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902617311554139], ["'autoclave' (unit, GLO, None)", 0.004708716725871952], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669615479453581], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430428760318e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969415069126966], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012929615298433238], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001429033900083523]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00198275794356299], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784101431748], ["'autoclave' (unit, GLO, None)", 0.00706307508880793], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922116472721], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764531801363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426493932188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427530026276e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116517522608e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.1380295140817942e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00198275794356299], ["'wet wipe' (unit, GLO, None)", 0.000358676430267348], ["'autoclave' (unit, GLO, None)", 0.00706307508880793], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922116472721], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764531801363], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426493932188e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427530026276e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312923589486e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759946283567e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.833137249127173e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581921807905], ["'mechanical disinfection' (unit, GLO, None)", 0.001441392050715874], ["'autoclave' (unit, GLO, None)", 0.005297306316605946], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000119095862571277], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355700520982], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852987864375e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001572096248256512], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058258761297e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.690147570408971e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581921807905], ["'wet wipe' (unit, GLO, None)", 0.000358676430267348], ["'autoclave' (unit, GLO, None)", 0.005297306316605946], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000119095862571277], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355700520982], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852987864375e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001572096248256512], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312923589486e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139585239035376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489363695961e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.776235773423083e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841623983167e-08], ["'autoclave' (unit, GLO, None)", 2.6940935067393965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.993166833961125e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490117974328e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2136615956036133e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525668499926127e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670955160415e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.61700923258597e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874294989444e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.84344424902245e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841623983167e-08], ["'autoclave' (unit, GLO, None)", 2.6940935067393965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686468340175e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.602979648174783e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5089934119828855e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.09107730402409e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.84344424902245e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905787739765e-07], ["'autoclave' (unit, GLO, None)", 3.592124675652529e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201408319821e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199508246267e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554328055248e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.4722187490882574e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.6512643128931156e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545163103009445e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045693759661e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753322532238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102467946776e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905787739765e-07], ["'autoclave' (unit, GLO, None)", 3.592124675652529e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.725545484039486e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8287832592885486e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036218703507e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.3148124993921717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.2314102467946776e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.309745584084949e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.583138431890677e-07], ["'autoclave' (unit, GLO, None)", 5.388187013478795e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981994321654e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374271672008e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457441018597e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922642776034e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086183635408e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.0374348989277002e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.309745584084949e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488198776517e-07], ["'autoclave' (unit, GLO, None)", 5.388187013478795e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981994321654e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374271672008e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457441018597e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.466922642776034e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517719333122e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.30550296725936e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2233489666361938e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057247375477e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692159453386e-07], ["'autoclave' (unit, GLO, None)", 4.041140260109095e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.123490602567158e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169592237779e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914882037194e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994817351904e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043091817692e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.0187174494638501e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057247375477e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488198776517e-07], ["'autoclave' (unit, GLO, None)", 4.041140260109095e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.123490602567158e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169592237779e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914882037194e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.4547994817351904e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517719333122e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670103308303e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322536341195e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.213161792141555e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037460717971], ["'autoclave' (unit, GLO, None)", 0.0002683553197372275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.94312160276159e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.805220413522427e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.8884336728449168e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001446095751579996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615306413913e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.33673114104541e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471438407791e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.563573869779285e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037460717971], ["'autoclave' (unit, GLO, None)", 0.0002683553197372275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9435666709913354e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.633861367358652e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136090149514e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012589557818966113], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.563573869779285e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846998670577], ["'autoclave' (unit, GLO, None)", 0.00035780709298297], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587342399645e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294220921548e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525298408814e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.402704369170203e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137049148995], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130201407653521e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880603699376e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468840585328], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.29320540801132e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846998670577], ["'autoclave' (unit, GLO, None)", 0.00035780709298297], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110863850983475e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3958949648576956e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683532272549e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036018029127801347], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.29320540801132e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262926336372], ["'mechanical disinfection' (unit, GLO, None)", 0.0002606433485630812], ["'autoclave' (unit, GLO, None)", 0.0005367106394744552], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695379920654e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173912371e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.450173452166082e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.7945321425302455e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015322151484e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.1702087989781604e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262926336372], ["'wet wipe' (unit, GLO, None)", 7.725704212839006e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106394744552], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695379920654e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173912371e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.450173452166082e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.7945321425302455e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608012709118e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.835593445131949e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9035070324416412e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691224094413], ["'mechanical disinfection' (unit, GLO, None)", 0.0001303216742815406], ["'autoclave' (unit, GLO, None)", 0.00040253297960584126], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568443492912e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005260528e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346904332164e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.02333720636618e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007661075733e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.5851043994890802e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691224094413], ["'wet wipe' (unit, GLO, None)", 7.725704212839006e-05], ["'autoclave' (unit, GLO, None)", 0.00040253297960584126], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568443492912e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005260528e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346904332164e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.02333720636618e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608012709118e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605076232367e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.803653368521201e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.88765598844675e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818799014602584], ["'autoclave' (unit, GLO, None)", 0.00047596019246792543], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431467131889e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578642378698e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.7851422101796996e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140987773559], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2743214227746675e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675264615687e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230136702824e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527393010284e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818799014602584], ["'autoclave' (unit, GLO, None)", 0.00047596019246792543], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7964919080968604e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108312257588e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.1963857615858e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00031900948067864666], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527393010284e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665485038799347], ["'autoclave' (unit, GLO, None)", 0.0006346135899572339], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324621878152e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450271427048e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591275808551687e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013690027400905025], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000839138541746772], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893588748156766e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.57296682661738e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002441473277944458], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325989340584e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665485038799347], ["'autoclave' (unit, GLO, None)", 0.0006346135899572339], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441994639045e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144709551744e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001772751720570114], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009126684933936682], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325989340584e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000331375603226376], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574080878594696], ["'autoclave' (unit, GLO, None)", 0.0009519203849358512], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702601411357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719431340424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217784585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948383762906e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.560327768910912e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.033059438206321e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000331375603226376], ["'wet wipe' (unit, GLO, None)", 0.001094401336157242], ["'autoclave' (unit, GLO, None)", 0.0009519203849358512], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702601411357e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719431340424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849217784585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948383762906e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239344e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767388423198e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.823336916349518e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001974127742468106], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040439297348], ["'autoclave' (unit, GLO, None)", 0.0007139402887018882], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494816166358e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252232929599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.904569843556917e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0905688581288517e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.80163884455454e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.0165297191031603e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001974127742468106], ["'wet wipe' (unit, GLO, None)", 0.001094401336157242], ["'autoclave' (unit, GLO, None)", 0.0007139402887018882], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494816166358e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252232929599e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.904569843556917e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688581288515], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239344e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839147676439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750999977674e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.783171619158486e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943883204066], ["'autoclave' (unit, GLO, None)", 0.00048807706696843515], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521095494101e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365647532788e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.956965275817605e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564026655141], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.58332669774723e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703490642287e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547619870872e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669274345061e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943883204066], ["'autoclave' (unit, GLO, None)", 0.00048807706696843515], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766147671137e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3961698236444922e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243765021859e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003304643517211737], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669274345061e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764860100161653], ["'autoclave' (unit, GLO, None)", 0.0006507694226245802], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.200254104611881e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186684718541e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191464835912994e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001418160369547916], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693452506192], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.282360462428778e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404526333571674e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717639400246], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815435557625]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764860100161653], ["'autoclave' (unit, GLO, None)", 0.0006507694226245802], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469337372153e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552838764014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127643223942008], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009454402463652772], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815435557625]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902811505313], ["'mechanical disinfection' (unit, GLO, None)", 0.0004877279219672729], ["'autoclave' (unit, GLO, None)", 0.0009761541339368706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854827900184e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143439142046], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994208585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606142841555e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955457709627843e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.321507479768765e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902811505313], ["'wet wipe' (unit, GLO, None)", 0.0016920736915198439], ["'autoclave' (unit, GLO, None)", 0.0009761541339368706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854827900184e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143439142046], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845994208585e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.756606142841555e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462744698e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.58022890034598e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9965314629626965e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002016768074404066], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386396098363645], ["'autoclave' (unit, GLO, None)", 0.0007321156004526527], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059950080426e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205394758108e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.917569198841717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1306740228883751e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.9777288548139e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.1607537398843827e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002016768074404066], ["'wet wipe' (unit, GLO, None)", 0.0016920736915198439], ["'autoclave' (unit, GLO, None)", 0.0007321156004526527], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059950080426e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205394758108e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.917569198841717e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001130674022888375], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802462744698e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918992809486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451611797863e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.9549239255638524e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873817636385], ["'autoclave' (unit, GLO, None)", 0.004165478852990999], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840525648976e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299269228993e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.397439924932896e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499976098605], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896354925899553e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370729834852461e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108553420805], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001635874184855299]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873817636385], ["'autoclave' (unit, GLO, None)", 0.004165478852990999], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249320757732], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658547352461e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199512819328], ["'mixed heating grid' (megajoule, GLO, None)", -0.000493162661662193], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001635874184855299]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802310238077], ["'autoclave' (unit, GLO, None)", 0.005553971803988], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3914725974501306e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806962969683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135262520278], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002116366678788362], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00297542217870325], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932065076564e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917934424881], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213677019948], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958519572512]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802310238077], ["'autoclave' (unit, GLO, None)", 0.005553971803988], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898661780495136], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454459723111266e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423508346864], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014109111191922413], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0004653958519572512]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127826133977], ["'mechanical disinfection' (unit, GLO, None)", 0.0040002026184792275], ["'autoclave' (unit, GLO, None)", 0.008330957705982002], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389932182e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073768699806], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347723972e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498871042664e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280801982542e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.2418455292954576e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127826133977], ["'wet wipe' (unit, GLO, None)", 0.009590872144140571], ["'autoclave' (unit, GLO, None)", 0.008330957705982002], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844389932182e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073768699806], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347723972e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498871042664e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960118862116e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871016935631e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.456485828258532e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000807209970878467], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001013092396137], ["'autoclave' (unit, GLO, None)", 0.0062482182794865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.09690048117483e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216579333682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695447944e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720532338316e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640400991253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.209227646477288e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000807209970878467], ["'wet wipe' (unit, GLO, None)", 0.009590872144140571], ["'autoclave' (unit, GLO, None)", 0.0062482182794865], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.09690048117483e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216579333682], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976695447944e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005119872053233831], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960118862116e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849816525698e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864612925739e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.394393551793758e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262290290017e-09], ["'autoclave' (unit, GLO, None)", 1.4473327813055766e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965842362903e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522259305976e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3267765266967422e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933890832268e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011349411478816e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950029856915604e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.242275521081477e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121788711236e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262290290017e-09], ["'autoclave' (unit, GLO, None)", 1.4473327813055766e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538082315571e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352020463835e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148395373174e-10], ["'mixed heating grid' (megajoule, GLO, None)", -8.845176844644949e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121788711236e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.90467980620386e-09], ["'autoclave' (unit, GLO, None)", 1.9297770417407685e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183647065043e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352334698784e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464753425216e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.795834315376363e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522540421948e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119920696658672e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105992487846654e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.31626907346895e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744141788418e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.90467980620386e-09], ["'autoclave' (unit, GLO, None)", 1.9297770417407685e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487555818511e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240611851167e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976502283481e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.5305562102509086e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744141788418e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899713978106e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521275191440994e-09], ["'autoclave' (unit, GLO, None)", 2.894665562611154e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734063058019e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705802011678e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184064292495e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348028887155e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957905321979e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.22732663566369e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899713978106e-10], ["'wet wipe' (unit, GLO, None)", 5.658612303920462e-10], ["'autoclave' (unit, GLO, None)", 2.894665562611154e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734063058019e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705802011678e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184064292495e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348028887155e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920251176916e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.871258986018277e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.337366774042451e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568319936464e-10], ["'mechanical disinfection' (unit, GLO, None)", 7.260637595720497e-10], ["'autoclave' (unit, GLO, None)", 2.170999171958365e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468910201113e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681430667893e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436812858499e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415260914669025e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.390978952660983e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.113663317831845e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568319936464e-10], ["'wet wipe' (unit, GLO, None)", 5.658612303920462e-10], ["'autoclave' (unit, GLO, None)", 2.170999171958365e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468910201113e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681430667893e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436812858499e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526091466902e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.7095920251176916e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128889003549e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.847349196491674e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3262301408641323e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981149010363303e-07], ["'autoclave' (unit, GLO, None)", 6.098544208302909e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248496834e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051582240373e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.890430183900549e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558150216433e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628133256772136e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696417917699e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279352857664803e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600869483538e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981149010363303e-07], ["'autoclave' (unit, GLO, None)", 6.098544208302909e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189312455627e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780870710394e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.469367721493582e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.9269534559336995e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.706600869483538e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453255595169e-06], ["'autoclave' (unit, GLO, None)", 8.131392277737213e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086864868e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016377529187e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755258986858e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.269361009547815e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.32535577075628e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.596816805436274e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976829765833e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043058497128e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044878688925e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453255595169e-06], ["'autoclave' (unit, GLO, None)", 8.131392277737213e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940651395952e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287497504231e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8508503505991253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.512907339698543e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044878688925e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620439676e-07], ["'mechanical disinfection' (unit, GLO, None)", 6.010848007867623e-07], ["'autoclave' (unit, GLO, None)", 1.2197088416605823e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023825176036e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977855121186e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310925182236e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282005901174e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680554012146e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.852310850838178e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620439676e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705652427986e-07], ["'autoclave' (unit, GLO, None)", 1.2197088416605823e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023825176036e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977855121186e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310925182236e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282005901174e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461930357132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508715709019e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.913501417048771e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725501981917e-07], ["'mechanical disinfection' (unit, GLO, None)", 3.0054240039338115e-07], ["'autoclave' (unit, GLO, None)", 9.147816312454365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929681611052e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160608765105e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462185036447e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722341516516e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340277006051e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.426155425419089e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725501981917e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705652427986e-07], ["'autoclave' (unit, GLO, None)", 9.147816312454365e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929681611052e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160608765105e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462185036447e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722341516514e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461930357132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617479275e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055312938981e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.88923986279458e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845730150517], ["'autoclave' (unit, GLO, None)", 0.011815228152122534], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124194415558804e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315155889623], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155534141144975], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040950010566176365], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665678121322247], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508118249345], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652219649097], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150439664]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845730150517], ["'autoclave' (unit, GLO, None)", 0.011815228152122534], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783210324066], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352038269874695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210103926416], ["'mixed heating grid' (megajoule, GLO, None)", -0.007703560940966501], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150439664]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995366567615], ["'autoclave' (unit, GLO, None)", 0.01575363753616338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849187764405905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.042394210163376e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000648785453445132], ["'mixed heating grid' (megajoule, GLO, None)", -0.003305919314435984], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1152566522557944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650696708636], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255961867808261], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718935112422], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003517768520419555]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995366567615], ["'autoclave' (unit, GLO, None)", 0.01575363753616338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00032007840029081884], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221408268260765e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043252363563008826], ["'mixed heating grid' (megajoule, GLO, None)", -0.02203946209623989], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003517768520419555]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822394409311], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162719714193], ["'autoclave' (unit, GLO, None)", 0.023630456304245075], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190399653227], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310174791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849839663274e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708515772607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552072801942e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9398534110328322e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822394409311], ["'wet wipe' (unit, GLO, None)", 0.012386853614093722], ["'autoclave' (unit, GLO, None)", 0.023630456304245075], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190399653227], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123310174791], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849839663274e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708515772607], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328775946255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002285832406869826], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011647575424675804]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961279216322], ["'mechanical disinfection' (unit, GLO, None)", 0.0058605813598570965], ["'autoclave' (unit, GLO, None)", 0.0177228422281838], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410840243495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192455021], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569967932655e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000386993667040594], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.903477603640092e-06], ["'mixed heating grid' (megajoule, GLO, None)", -9.699267055164161e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961279216322], ["'wet wipe' (unit, GLO, None)", 0.012386853614093722], ["'autoclave' (unit, GLO, None)", 0.0177228422281838], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410840243495], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915192455021], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569967932655e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00386993667040594], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328775946255e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887443488778e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976308334307], ["'mixed heating grid' (megajoule, GLO, None)", -0.001155058275412416]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410684669359], ["'autoclave' (unit, GLO, None)", 0.0007704105336894967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498277450186e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848112358642e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.737645723317484e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183360247974], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780935330093e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908693308155014e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418305415528], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6703085358377366e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410684669359], ["'autoclave' (unit, GLO, None)", 0.0007704105336894967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461473822085e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162288506237e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453898741572428e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003158430482211656], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6703085358377366e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820148630195], ["'autoclave' (unit, GLO, None)", 0.001027214044919329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.987747643053651e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399440053028e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778851293509e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013554142577000065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211444406548], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719319925523e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366361567367e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427691666346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001328673219531052]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820148630195], ["'autoclave' (unit, GLO, None)", 0.001027214044919329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2922426686822784e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153426661439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325192341956742], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009036095051333375], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001328673219531052]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344370910012], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178576988137], ["'autoclave' (unit, GLO, None)", 0.0015408210673789938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967350089084e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138222798216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143338794318e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659318607919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853331644478e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.953324691502558e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344370910012], ["'wet wipe' (unit, GLO, None)", 0.0002523811665085952], ["'autoclave' (unit, GLO, None)", 0.0015408210673789938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967350089084e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138222798216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143338794318e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659318607919e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795162369632e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270092943467801e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.775461315496512e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193113414828], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520892884940687], ["'autoclave' (unit, GLO, None)", 0.001155615800534245], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818393955121e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651510157485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286677588636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4616883360580764e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926665822214e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.976662345751279e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193113414828], ["'wet wipe' (unit, GLO, None)", 0.0002523811665085952], ["'autoclave' (unit, GLO, None)", 0.001155615800534245], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818393955121e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651510157485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286677588636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883360580763], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795162369632e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176243676809605e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.7356946920389985e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476679220817101], ["'autoclave' (unit, GLO, None)", 0.22259094264483173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290419631775], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046129166053206485], ["'mixed heating grid' (megajoule, GLO, None)", -0.0138577926709179], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148941071332], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600300577387067], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147106057479064], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452454188393], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.015482286695043913]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476679220817101], ["'autoclave' (unit, GLO, None)", 0.22259094264483173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491773774353], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503854827283], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777368804326], ["'mixed heating grid' (megajoule, GLO, None)", -0.092385284472786], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.015482286695043913]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087358545188976], ["'autoclave' (unit, GLO, None)", 0.2967879235264423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193596662], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720463306489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299463866491], ["'mixed heating grid' (megajoule, GLO, None)", -0.03964637894717917], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462670860631234], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830688658154368], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00787650099943317], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851983629278], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125755836954]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087358545188976], ["'autoclave' (unit, GLO, None)", 0.2967879235264423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110358809678], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734998909455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199642577667], ["'mixed heating grid' (megajoule, GLO, None)", -0.2643091929811945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125755836954]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978692973], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019520097605], ["'autoclave' (unit, GLO, None)", 0.4451818852896636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158590572405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338751483066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315898669975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579568598403], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74393563376211e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002326377510181519]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978692973], ["'wet wipe' (unit, GLO, None)", 0.0575976792341035], ["'autoclave' (unit, GLO, None)", 0.4451818852896636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158590572405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338751483066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315898669975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579568598403], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527729761218], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973661747227], ["'mixed heating grid' (megajoule, GLO, None)", -0.013968404706251348]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074972223885], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009760048803], ["'autoclave' (unit, GLO, None)", 0.3338864139672476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779166958086], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009267229094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863179733995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004845563778923554], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967816881045e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011631887550907596]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074972223885], ["'wet wipe' (unit, GLO, None)", 0.0575976792341035], ["'autoclave' (unit, GLO, None)", 0.3338864139672476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779166958086], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009267229094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863179733995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637789235534], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527729761218], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611016939303471], ["'mixed heating grid' (megajoule, GLO, None)", -0.01385208583074227]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008420326993], ["'autoclave' (unit, GLO, None)", 0.0460719422116275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293351926193], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002860267341806551], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007292373521370532], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658224468763], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253163912271], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126315868838094], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485047134094], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000500806564020611]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008420326993], ["'autoclave' (unit, GLO, None)", 0.0460719422116275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549794268782], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152922466841733], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068448945377008], ["'mixed heating grid' (megajoule, GLO, None)", -0.004861582347580355], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000500806564020611]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901460884153], ["'autoclave' (unit, GLO, None)", 0.06142925628217], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300827694988], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489567963275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066785339065], ["'mixed heating grid' (megajoule, GLO, None)", -0.0020863077614039762], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448645027975], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449693988473827], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283597352879], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.034333760696152384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629780206623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901460884153], ["'autoclave' (unit, GLO, None)", 0.06142925628217], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026787464209207842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040168340296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377856892714], ["'mixed heating grid' (megajoule, GLO, None)", -0.01390871840935984], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629780206623]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304088869], ["'mechanical disinfection' (unit, GLO, None)", 0.0469862455521236], ["'autoclave' (unit, GLO, None)", 0.09214388442325502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038805861722927995], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760663941381], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950344409433e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350611904467e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801674967363111e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.2242075025095549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304088869], ["'wet wipe' (unit, GLO, None)", 0.002224593531597808], ["'autoclave' (unit, GLO, None)", 0.09214388442325502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038805861722927995], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760663941381], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950344409433e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350611904467e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.66783107284823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028830978170335975], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007350580791226959]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363603123032], ["'mechanical disinfection' (unit, GLO, None)", 0.0234931227760618], ["'autoclave' (unit, GLO, None)", 0.06910791331744125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910008382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592287827455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900688818866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977589126086], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837483681549e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.1210375125477746e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363603123032], ["'wet wipe' (unit, GLO, None)", 0.002224593531597808], ["'autoclave' (unit, GLO, None)", 0.06910791331744125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910008382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592287827455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900688818866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015673977589126084], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.66783107284823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894421967887], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007289370416101481]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032083072170793], ["'autoclave' (unit, GLO, None)", 0.05815749116684428], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152627024302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280019618005], ["'mixed heating grid' (megajoule, GLO, None)", -0.000954018411982486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681758860304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329933866006], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596609670412], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853839929054685], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750435698005]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032083072170793], ["'autoclave' (unit, GLO, None)", 0.05815749116684428], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704347544433], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433177616877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853346412007], ["'mixed heating grid' (megajoule, GLO, None)", -0.006360122746549908], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750435698005]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715142374949], ["'autoclave' (unit, GLO, None)", 0.07754332155579237], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366784937977], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931436533047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545681203967], ["'mixed heating grid' (megajoule, GLO, None)", -0.00272939395055464], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799652421386], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010410480567591], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974656366164], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870402550616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595772687502]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715142374949], ["'autoclave' (unit, GLO, None)", 0.07754332155579237], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789957054771], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0050289665185432745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0071136971208026496], ["'mixed heating grid' (megajoule, GLO, None)", -0.018195959670364265], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595772687502]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544190125404], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074222099309], ["'autoclave' (unit, GLO, None)", 0.1163149823336886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846028684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906993861411], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385001329548e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112365498486], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.26128240543483e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6015587984606033e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544190125404], ["'wet wipe' (unit, GLO, None)", 0.002469441817625118], ["'autoclave' (unit, GLO, None)", 0.1163149823336886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846028684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906993861411], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385001329548e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112365498486], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.86901740590186e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498457858636], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009616333273446148]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052135969256101], ["'mechanical disinfection' (unit, GLO, None)", 0.029630371110496545], ["'autoclave' (unit, GLO, None)", 0.08723623675026643], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145289365454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829031438202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.054770002659096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639812991543], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641202717407e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.007793992303017e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052135969256101], ["'wet wipe' (unit, GLO, None)", 0.002469441817625118], ["'autoclave' (unit, GLO, None)", 0.08723623675026643], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145289365454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829031438202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.054770002659096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002063363981299154], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.86901740590186e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920458314706], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009536255333523117]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939095156287], ["'autoclave' (unit, GLO, None)", 2.3654221727599407], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234404051738], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857064947425672], ["'mixed heating grid' (megajoule, GLO, None)", -0.07078879531145725], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441615062803434], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823898832053], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0191928969444717], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311406962226], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.03672201491512]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939095156287], ["'autoclave' (unit, GLO, None)", 2.3654221727599407], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.529728638025863], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642180579488466], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571376631617114], ["'mixed heating grid' (megajoule, GLO, None)", -0.47192530207638167], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.03672201491512]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445713791319], ["'autoclave' (unit, GLO, None)", 3.1538962303465876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729200258663], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029061542042875553], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335223789786], ["'mixed heating grid' (megajoule, GLO, None)", -0.20252283107266597], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004239530769], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539231687316], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781629203355298], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073635764008], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180825535721]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445713791319], ["'autoclave' (unit, GLO, None)", 3.1538962303465876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492193346551727], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491704373783], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522234825265257], ["'mixed heating grid' (megajoule, GLO, None)", -1.3501522071511063], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180825535721]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170274997637], ["'mechanical disinfection' (unit, GLO, None)", 2.391257534466676], ["'autoclave' (unit, GLO, None)", 4.730844345519883], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.34033121445609743], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172770256869], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342791950217], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946460391114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583803027595076], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011883671901876498]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170274997637], ["'wet wipe' (unit, GLO, None)", 0.13935218863111537], ["'autoclave' (unit, GLO, None)", 4.730844345519883], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.34033121445609743], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172770256869], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342791950217], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946460391114], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502559119210696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01295968923659066], ["'mixed heating grid' (megajoule, GLO, None)", -0.07135382705310218]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615227754251], ["'mechanical disinfection' (unit, GLO, None)", 1.195628767233338], ["'autoclave' (unit, GLO, None)", 3.5481332591399113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551309855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375926579212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998685583900434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011493060997168885], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001079190151379751], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005941835950938249]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615227754251], ["'wet wipe' (unit, GLO, None)", 0.13935218863111537], ["'autoclave' (unit, GLO, None)", 3.5481332591399113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551309855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375926579212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998685583900434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060997168884], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502559119210696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851770221452714], ["'mixed heating grid' (megajoule, GLO, None)", -0.07075964345800835]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597986749921], ["'autoclave' (unit, GLO, None)", 0.056996515460426125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223141570424e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638385611833], ["'mixed heating grid' (megajoule, GLO, None)", -0.0039689918545080275], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1034524660017636], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605189766198], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650525826767], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01274831452650935], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932728297714]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597986749921], ["'autoclave' (unit, GLO, None)", 0.056996515460426125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088638365888], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371551045322e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092257074555], ["'mixed heating grid' (megajoule, GLO, None)", -0.026459945696720187], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932728297714]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511315917903], ["'autoclave' (unit, GLO, None)", 0.07599535394723483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001320435010457555], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460732328664522e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000163252334], ["'mixed heating grid' (megajoule, GLO, None)", -0.011355066339845152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117415927648693], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002340531659055846], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833083302087], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074514509676], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837097277356]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511315917903], ["'autoclave' (unit, GLO, None)", 0.07599535394723483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742643284192], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957144012089757], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02316533344216824], ["'mixed heating grid' (megajoule, GLO, None)", -0.07570044226563434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837097277356]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682452678323], ["'mechanical disinfection' (unit, GLO, None)", 0.05775313349559401], ["'autoclave' (unit, GLO, None)", 0.11399303092085229], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001083646786688891], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444923944], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473746037828e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510260835282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495396609386e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.662946695542909e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682452678323], ["'wet wipe' (unit, GLO, None)", 0.03231285969252844], ["'autoclave' (unit, GLO, None)", 0.11399303092085229], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001083646786688891], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444923944], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473746037828e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510260835282], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383455912665584e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584112406808], ["'mixed heating grid' (megajoule, GLO, None)", -0.004000672099527882]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277795133429], ["'mechanical disinfection' (unit, GLO, None)", 0.028876566747797004], ["'autoclave' (unit, GLO, None)", 0.0854947731906392], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387682739481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132311167722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947492075656e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001317915338065329], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747698304666e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.3314733477714546e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277795133429], ["'wet wipe' (unit, GLO, None)", 0.03231285969252844], ["'autoclave' (unit, GLO, None)", 0.0854947731906392], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387682739481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132311167722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947492075656e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153380653287], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383455912665584e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214063663542379], ["'mixed heating grid' (megajoule, GLO, None)", -0.003967357366050166]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603623090033e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237201501375], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949307523685e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580727723729e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.294675395561891e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264551274014e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0419611286608055e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647656861826e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138835258344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220037374627e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603623090033e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237201501375], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.714082617602039e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930637933989033e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557204851491526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.863116930374594e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220037374627e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899813206231], ["'autoclave' (unit, GLO, None)", 0.0003001649602001833], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028635681941e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.736999728781181e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662589937612e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.228682895111428e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316181649971e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.818454320276553e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463346272e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039108523478e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808485316389e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899813206231], ["'autoclave' (unit, GLO, None)", 0.0003001649602001833], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828401739724054e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.815814409127898e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775059958413e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.191219300742852e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808485316389e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.77391868302904e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658409144605], ["'autoclave' (unit, GLO, None)", 0.00045024744030027516], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673830132510585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421852417498e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392708953242e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326082558245e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625211191064e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.20968807300198e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.77391868302904e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622460246e-05], ["'autoclave' (unit, GLO, None)", 0.00045024744030027516], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673830132510585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421852417498e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392708953242e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326082558245e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613864157488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180129589395e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.328955226259352e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634316315735e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829204572303], ["'autoclave' (unit, GLO, None)", 0.00033768558022520626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540451769456e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958227253465e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785417906484e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774104314896e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2178126055955234e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.60484403650099e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634316315735e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622460246e-05], ["'autoclave' (unit, GLO, None)", 0.00033768558022520626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540451769456e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958227253465e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785417906484e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774104314895e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613864157488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002003533448e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.292906785894342e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951223635653e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112055109632], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2966129686780336e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075108558715e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.663805223234625e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167742767702e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.51398300172121e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322673962447e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142590250073e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702995758753e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951223635653e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112055109632], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023558655518e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164168818383e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338340570581e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.109203482156417e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702995758753e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561039610919e-05], ["'autoclave' (unit, GLO, None)", 0.0002055081607347951], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044201022844e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.556828076397865e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358000340499e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.3342888987236239e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743755821639916e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482820714322e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957877105884122e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.411589462042275e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183542147822e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561039610919e-05], ["'autoclave' (unit, GLO, None)", 0.0002055081607347951], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052277902868e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.036308050854506e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238666893671e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.895259324824158e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183542147822e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374461798076e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578572397037e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224110219275], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031241059706e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134665635796e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805856036057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300789058e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573463963779485e-09], ["'mixed heating grid' (megajoule, GLO, None)", -7.82936492185337e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374461798076e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110123698e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224110219275], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031241059706e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134665635796e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805856036057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300789058e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295723134e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507603389994e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.7010314251551783e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.36006379813254e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.7702892861985185e-05], ["'autoclave' (unit, GLO, None)", 0.0002311966808266445], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187859431796e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767602536011e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361171207211e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197090319e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786731981889735e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.914682460926685e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.36006379813254e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110123698e-05], ["'autoclave' (unit, GLO, None)", 0.0002311966808266445], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187859431796e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767602536011e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361171207211e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.4512541970903184e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295723134e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640283571105e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.661884600545911e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978218235153], ["'autoclave' (unit, GLO, None)", 0.02146810126819779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053192882156e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821639572239663], ["'mixed heating grid' (megajoule, GLO, None)", -0.000632493923787222], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078073558438], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000484998572647057], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000525513622997751], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000860303011], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167856102804088]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978218235153], ["'autoclave' (unit, GLO, None)", 0.02146810126819779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698847613393], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411213766959e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547759714826442], ["'mixed heating grid' (megajoule, GLO, None)", -0.004216626158581481], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167856102804088]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851045320299205], ["'autoclave' (unit, GLO, None)", 0.02862413502426372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098240601209], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2345230939880733e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933499604054442], ["'mixed heating grid' (megajoule, GLO, None)", -0.001809530159653882], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700782292938], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001459704441947453], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830465397043665], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382705078905], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002039209695069897]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851045320299205], ["'autoclave' (unit, GLO, None)", 0.02862413502426372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001720196858482646], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071603596924], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0072889997360363], ["'mixed heating grid' (megajoule, GLO, None)", -0.012063534397692546], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002039209695069897]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566104608692], ["'mechanical disinfection' (unit, GLO, None)", 0.021196854047100783], ["'autoclave' (unit, GLO, None)", 0.042936202536395594], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009979839287], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853824375146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608057304249e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001340570555935828], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415578991548876e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0617994326852593e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566104608692], ["'wet wipe' (unit, GLO, None)", 0.002321360192959184], ["'autoclave' (unit, GLO, None)", 0.042936202536395594], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009979839287], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853824375146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608057304249e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001340570555935828], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041509935884e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003852143660548279], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006375424507718236]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455217334484], ["'mechanical disinfection' (unit, GLO, None)", 0.010598427023550391], ["'autoclave' (unit, GLO, None)", 0.03220215190229669], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823129291376], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0054750864318238], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216114608498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00022433574954662164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077894957744297e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.308997163426297e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455217334484], ["'wet wipe' (unit, GLO, None)", 0.002321360192959184], ["'autoclave' (unit, GLO, None)", 0.03220215190229669], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823129291376], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0054750864318238], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216114608498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574954662163], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041509935884e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038200657655905435], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006322334536083972]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442012202316], ["'autoclave' (unit, GLO, None)", 0.6714095591105025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0173297424184745], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550417827566], ["'mixed heating grid' (megajoule, GLO, None)", -0.017517567634197612], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894626101713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913200305915], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945384373887343], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117741527041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261162587103]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442012202316], ["'autoclave' (unit, GLO, None)", 0.6714095591105025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174875810182], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265997514687], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336118850437], ["'mixed heating grid' (megajoule, GLO, None)", -0.11678378422798409], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261162587103]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102338338779], ["'autoclave' (unit, GLO, None)", 0.89521274548067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049073943484091345], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046097912423], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321779124451], ["'mixed heating grid' (megajoule, GLO, None)", -0.05011679285083699], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875603266414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021579350408687702], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.023934514138670256], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681053951281], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738856065128]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102338338779], ["'autoclave' (unit, GLO, None)", 0.89521274548067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3239204190369066], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.041996385879720995], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008811860829683], ["'mixed heating grid' (megajoule, GLO, None)", -0.3341119523389132], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738856065128]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1340330692758133], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817381357457], ["'autoclave' (unit, GLO, None)", 1.3428191182210054], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135680705756], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224255133623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234728692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906161673984], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001797466812], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002940762381501388]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1340330692758133], ["'wet wipe' (unit, GLO, None)", 0.04488063832020132], ["'autoclave' (unit, GLO, None)", 1.3428191182210054], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135680705756], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224255133623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234728692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906161673984], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939054768465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0068749916251486555], ["'mixed heating grid' (megajoule, GLO, None)", -0.017657391764643458]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152110500621], ["'mechanical disinfection' (unit, GLO, None)", 0.32654086906787283], ["'autoclave' (unit, GLO, None)", 1.0071143386657537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538663011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666616237245], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469457384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239965126154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725000898733391e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001470381190750694]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152110500621], ["'wet wipe' (unit, GLO, None)", 0.04488063832020132], ["'autoclave' (unit, GLO, None)", 1.0071143386657537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538663011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666616237245], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469457384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.05214239965126153], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939054768465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741616161338], ["'mixed heating grid' (megajoule, GLO, None)", -0.01751035364556839]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665181970701], ["'autoclave' (unit, GLO, None)", 0.0601877065950165], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.03787520566996e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236894185636], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011650668417456692], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00285139849956304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152357972641713], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584832490379], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712115874148], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814772159871]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665181970701], ["'autoclave' (unit, GLO, None)", 0.0601877065950165], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.67933775329502e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.1140792377465684e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824596123757], ["'mixed heating grid' (megajoule, GLO, None)", -0.007767112278304462], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814772159871]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441610177578], ["'autoclave' (unit, GLO, None)", 0.080250275460022], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.143435689082241e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600677009916e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00399737975449123], ["'mixed heating grid' (megajoule, GLO, None)", -0.003333191844006892], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459353074782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002152651428659156], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784151740568], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806229823704], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564810670013]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441610177578], ["'autoclave' (unit, GLO, None)", 0.080250275460022], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547430290971889e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380788900502042e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198363274885], ["'mixed heating grid' (megajoule, GLO, None)", -0.022221278960045943], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564810670013]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318383394494], ["'mechanical disinfection' (unit, GLO, None)", 0.062308700600697285], ["'autoclave' (unit, GLO, None)", 0.12037541319003305], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501079678093], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964940921624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157068746e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000186803648843824], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898388331838e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.9558564360566433e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318383394494], ["'wet wipe' (unit, GLO, None)", 0.003225553725189484], ["'autoclave' (unit, GLO, None)", 0.12037541319003305], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501079678093], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964940921624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157068746e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000186803648843824], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6543049744601743e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762416159276], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011743663324889136]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764783287154], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350300348643], ["'autoclave' (unit, GLO, None)", 0.09028155989252476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739499933689], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112551594295], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314137493e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00031260373723611157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949194165888e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.779282180283216e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764783287154], ["'wet wipe' (unit, GLO, None)", 0.003225553725189484], ["'autoclave' (unit, GLO, None)", 0.09028155989252476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739499933689], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112551594295], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314137493e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003126037372361115], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6543049744601743e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482924217649], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011645870503086302]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585224711323], ["'autoclave' (unit, GLO, None)", 0.04303644069756317], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666207476128644e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001017001826333214], ["'mixed heating grid' (megajoule, GLO, None)", -0.00903061261686635], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236080534228505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931999005139458], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964611754256906], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522490800209028], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832292249369725]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585224711323], ["'autoclave' (unit, GLO, None)", 0.04303644069756317], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968505355892648e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272348605147981e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00678001217555476], ["'mixed heating grid' (megajoule, GLO, None)", -0.06020408411244233], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832292249369725]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291854347221], ["'autoclave' (unit, GLO, None)", 0.05738192093008423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400804546978485e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283393275016311e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095860180818533], ["'mixed heating grid' (megajoule, GLO, None)", -0.02583608359827956], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003162472998044447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754287312931], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918156453676236], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654222760622262], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541370944108]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291854347221], ["'autoclave' (unit, GLO, None)", 0.05738192093008423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.545085509556756e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845176678506298e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019397240120545705], ["'mixed heating grid' (megajoule, GLO, None)", -0.17224055732186372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541370944108]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00250041400370423], ["'mechanical disinfection' (unit, GLO, None)", 0.044294190814470905], ["'autoclave' (unit, GLO, None)", 0.08607288139512637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475762723909423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840390408099431], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795142611501924e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621746638452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.707292231006088e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001516014461605291]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00250041400370423], ["'wet wipe' (unit, GLO, None)", 0.01297747481903741], ["'autoclave' (unit, GLO, None)", 0.08607288139512637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475762723909423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840390408099431], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795142611501924e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621746638452], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968317469182393e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251194713737984], ["'mixed heating grid' (megajoule, GLO, None)", -0.009102694402586509]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490274089137119], ["'mechanical disinfection' (unit, GLO, None)", 0.022147095407235452], ["'autoclave' (unit, GLO, None)", 0.06455466104634476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513541885148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020689127615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590285223003848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012153524378046411], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461155030418e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.580072308026455e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490274089137119], ["'wet wipe' (unit, GLO, None)", 0.01297747481903741], ["'autoclave' (unit, GLO, None)", 0.06455466104634476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513541885148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020689127615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590285223003848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524378046409], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968317469182393e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830102187702], ["'mixed heating grid' (megajoule, GLO, None)", -0.009026893679506244]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264930722576], ["'autoclave' (unit, GLO, None)", 0.0035315378499628084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244270208835e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129777760791608e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.164753745250644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233244502582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447244206138996e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499653648758], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576551250469], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078040713939]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264930722576], ["'autoclave' (unit, GLO, None)", 0.0035315378499628084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713487708666e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5447227902725826e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865185071944055], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005443169163500429], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078040713939]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00590261480038326], ["'autoclave' (unit, GLO, None)", 0.004708717133283745], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.767946741937642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690231086217e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954121198912337e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023358909220364766], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003110164986035495], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345343595232], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101696594427893], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866634155062], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339109499465]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00590261480038326], ["'autoclave' (unit, GLO, None)", 0.004708717133283745], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669615458334272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430413613419e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414132608229], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015572606146909843], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339109499465]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001982757961639609], ["'mechanical disinfection' (unit, GLO, None)", 0.0028827844433279527], ["'autoclave' (unit, GLO, None)", 0.0070630756999256195], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922176637152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764523125623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426373173533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427601461829e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254115693224329e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.3706583681961883e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001982757961639609], ["'wet wipe' (unit, GLO, None)", 0.0003586764334892058], ["'autoclave' (unit, GLO, None)", 0.0070630756999256195], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922176637152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764523125623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426373173533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427601461829e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312977337636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759451345325e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.229924299552113e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581930708326], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413922216639763], ["'autoclave' (unit, GLO, None)", 0.005297306774944213], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586293051507], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735569533243], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852746347065e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015720962602107868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6270578466121574e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.853291840980942e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581930708326], ["'wet wipe' (unit, GLO, None)", 0.0003586764334892058], ["'autoclave' (unit, GLO, None)", 0.005297306774944213], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586293051507], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735569533243], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852746347065e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015720962602107863], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312977337636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1284888728792104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.161391381142304e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841617004039e-08], ["'autoclave' (unit, GLO, None)", 2.694093519827622e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668337448094e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490099939565e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3328294925909967e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525668466350594e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670893658232e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170092301954643e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874290048354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444256150953e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841617004039e-08], ["'autoclave' (unit, GLO, None)", 2.694093519827622e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.322568646690481e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.602979648012679e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.50899339995971e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.885529950606646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444256150953e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905755382743e-07], ["'autoclave' (unit, GLO, None)", 3.5921246931034965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201407707264e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199507512673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554276458785e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.813151516268074e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.6512643034430476e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.54516308449908e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045686558551e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753321140382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.231410248822692e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905755382743e-07], ["'autoclave' (unit, GLO, None)", 3.5921246931034965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.725545483635158e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783258800229e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036184305866e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.542101010845382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.231410248822692e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.30974558027566e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.5831384422118255e-07], ["'autoclave' (unit, GLO, None)", 5.388187039655246e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981959962552e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374250327888e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440429554e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4669226441092448e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086153359541e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.2374880546289493e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.30974558027566e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488196755484e-07], ["'autoclave' (unit, GLO, None)", 5.388187039655246e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981959962552e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374250327888e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440429554e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4669226441092448e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771927492e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305502949080643e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3434680543323143e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057243337958e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692211059127e-07], ["'autoclave' (unit, GLO, None)", 4.0411402797414335e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906005155974e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169579472867e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491488085911e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.454799483966232e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043076679759e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.1187440273144746e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057243337958e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488196755484e-07], ["'autoclave' (unit, GLO, None)", 4.0411402797414335e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906005155974e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169579472867e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491488085911e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.454799483966232e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771927492e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322518313858e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3322806140591694e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037457471415], ["'autoclave' (unit, GLO, None)", 0.0002683553312193839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121588649017e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052202213679435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.0207299090515367e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957497373954], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615278817904e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731143436054e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471460864887e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738784613676e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037457471415], ["'autoclave' (unit, GLO, None)", 0.0002683553312193839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566661626917e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338613574952334e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368134809119622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013471532727010247], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738784613676e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846647012072], ["'autoclave' (unit, GLO, None)", 0.00035780710829251186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587302436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294176285167e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886524748665458e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.781196589286941e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137043962868], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130201324597574e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880610900904e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468903844755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205432711296e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846647012072], ["'autoclave' (unit, GLO, None)", 0.00035780710829251186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108638483456106e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3958949618864595e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683165776977e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003854131059524627], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205432711296e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262923733465], ["'mechanical disinfection' (unit, GLO, None)", 0.0002606433564842717], ["'autoclave' (unit, GLO, None)", 0.0005367106624387679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695367580705e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504155567747e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734467490756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532158767937e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388014999572066e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.392301159501517e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262923733465], ["'wet wipe' (unit, GLO, None)", 7.725704204704148e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106624387679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695367580705e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504155567747e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734467490756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532158767937e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608014431012e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.835593251443701e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.036859248940453e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691221860516], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032167824213585], ["'autoclave' (unit, GLO, None)", 0.00040253299682907587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568436124806e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889942894735e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003468934981512e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.0233372335389e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1940074997860243e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.6961505797507584e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691221860516], ["'wet wipe' (unit, GLO, None)", 7.725704204704148e-05], ["'autoclave' (unit, GLO, None)", 0.00040253299682907587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568436124806e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889942894735e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003468934981512e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337233538899e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608014431012e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036531764458494e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.019897743142945e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799008687123], ["'autoclave' (unit, GLO, None)", 0.0004759601975511752], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431464641625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578350449832e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.0217917970029225e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140987474896], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2743213465166445e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675260431495e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230155501224e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527405180534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799008687123], ["'autoclave' (unit, GLO, None)", 0.0004759601975511752], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796491906444443e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108310014105e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385566966554e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003347861198001949], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527405180534e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665485007118165], ["'autoclave' (unit, GLO, None)", 0.0006346135967349003], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324614826287e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450261274284e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591274973359332e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014367068789796392], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385409061642], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893588518642326e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729668253569425e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002441473283239782], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325992802943e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665485007118165], ["'autoclave' (unit, GLO, None)", 0.0006346135967349003], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441989984348e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.017614470279352e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727516648906235], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009578045859864261], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325992802943e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003313756026217556], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574081532082187], ["'autoclave' (unit, GLO, None)", 0.0009519203951023508], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702569691142e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719402952564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849206978238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948406524354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603277199033413e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.430335028665006e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003313756026217556], ["'wet wipe' (unit, GLO, None)", 0.0010944013359244227], ["'autoclave' (unit, GLO, None)", 0.0009519203951023508], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702569691142e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719402952564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849206978238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948406524354e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239248e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767094164172e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.0618754253900774e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000197412773757239], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040766041093], ["'autoclave' (unit, GLO, None)", 0.0007139402963267629], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494797226414e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252215952159e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698413956476e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0905688619378318e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638599516687e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.215167514332503e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000197412773757239], ["'wet wipe' (unit, GLO, None)", 0.0010944013359244227], ["'autoclave' (unit, GLO, None)", 0.0007139402963267629], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494797226414e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252215952159e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698413956476e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688619378317], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239248e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750708169027e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.019723750246752e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943877003351], ["'autoclave' (unit, GLO, None)", 0.00048807707199794955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521092513573e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365340087294e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.1994925954730965e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640234696474], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583326615683054e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703483872221e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547636661599e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669287115237e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943877003351], ["'autoclave' (unit, GLO, None)", 0.00048807707199794955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766127893805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.39616982084237e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243560058195e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00034663283969820646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669287115237e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860065669635], ["'autoclave' (unit, GLO, None)", 0.0006507694293305994], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541037678625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186672037685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191463956328428e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014875460953156576], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693443540397], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.282360437729851e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404526313177665e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717644130028], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815471887969]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860065669635], ["'autoclave' (unit, GLO, None)", 0.0006507694293305994], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469331801072e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552830322958e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127642637552299], ["'mixed heating grid' (megajoule, GLO, None)", -0.000991697396877105], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815471887969]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902804963232], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772792903369364], ["'autoclave' (unit, GLO, None)", 0.0009761541439958994], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854791817335e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143409793878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845980984663e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.7566061667250165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955457193503595e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.728650316618385e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902804963232], ["'wet wipe' (unit, GLO, None)", 0.001692073691272626], ["'autoclave' (unit, GLO, None)", 0.0009761541439958994], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854791817335e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143409793878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845980984663e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.7566061667250165e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380246270907e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580228590446474e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.24099462053178e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000201676806900386], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386396451684682], ["'autoclave' (unit, GLO, None)", 0.0007321156079969244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.77705992853558e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205377206351e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691961969326e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.130674026885117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977728596751776e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.3643251583091927e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000201676806900386], ["'wet wipe' (unit, GLO, None)", 0.001692073691272626], ["'autoclave' (unit, GLO, None)", 0.0007321156079969244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.77705992853558e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205377206351e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691961969326e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00011306740268851168], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380246270907e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451304478979e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.1973513689486874e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817407977], ["'autoclave' (unit, GLO, None)", 0.004165478894990731], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840523985257e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299206236768e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.36406249352107e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499972351654], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896354905971602e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.3707298382790814e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108693453213], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741880968577]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817407977], ["'autoclave' (unit, GLO, None)", 0.004165478894990731], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249319653767], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658546359374e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199470824512], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006242708329014047], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741880968577]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802165086748], ["'autoclave' (unit, GLO, None)", 0.005553971859987642], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472596979003e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806962520266e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135082303006], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002679006526647748], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002975422177648644], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932059078832e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917944747162], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213716465697], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00046539585287945414]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802165086748], ["'autoclave' (unit, GLO, None)", 0.005553971859987642], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028986617801841604], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345445972011971e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423388202015], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017860043510984987], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00046539585287945414]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127827080146], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202650024476], ["'autoclave' (unit, GLO, None)", 0.008330957789981466], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844392408949e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073749015216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988346592433e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498877105199e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.400128069623432e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.5719923732571445e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127827080146], ["'wet wipe' (unit, GLO, None)", 0.009590872144258194], ["'autoclave' (unit, GLO, None)", 0.008330957789981466], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844392408949e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073749015216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988346592433e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498877105199e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2439601221589935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406870953440606e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.4388058553244e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008072099712024455], ["'mechanical disinfection' (unit, GLO, None)", 0.002000101325012238], ["'autoclave' (unit, GLO, None)", 0.0062482183424860975], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004826536918e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216567561257], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976693184865e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720633790895e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640348117142e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.859961866285723e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008072099712024455], ["'wet wipe' (unit, GLO, None)", 0.009590872144258194], ["'autoclave' (unit, GLO, None)", 0.0062482183424860975], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004826536918e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216567561257], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976693184865e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005119872063379089], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2439601221589935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864549959455e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.360206236661543e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262285891513e-09], ["'autoclave' (unit, GLO, None)", 1.4473328381582634e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965841252508e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522187229424e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3992677916587175e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933902829125e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011349376131327e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950029792933905e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755578429412e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121774453468e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262285891513e-09], ["'autoclave' (unit, GLO, None)", 1.4473328381582634e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538081578767e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.39635200772794e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990147914862824e-10], ["'mixed heating grid' (megajoule, GLO, None)", -9.32845194439145e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121774453468e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679704194998e-09], ["'autoclave' (unit, GLO, None)", 1.929777117544351e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183643920656e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352277063162e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464547218183e-11], ["'mixed heating grid' (megajoule, GLO, None)", -4.003227818028072e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522574187934e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.1199206860201077e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.1059924685729365e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269177022371e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744137732173e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679704194998e-09], ["'autoclave' (unit, GLO, None)", 1.929777117544351e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487553743008e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240573485812e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976364812127e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.6688185453520476e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744137732173e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899803031924e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521274968528793e-09], ["'autoclave' (unit, GLO, None)", 2.8946656763165276e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340626892445e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058054376059e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184008498565e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348002221518e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957784323437e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.3490213763030583e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899803031924e-10], ["'wet wipe' (unit, GLO, None)", 5.658612300008852e-10], ["'autoclave' (unit, GLO, None)", 2.8946656763165276e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340626892445e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058054376059e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184008498565e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348002221518e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709591964578716e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8712589133664143e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.4104366597524597e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568466348266e-10], ["'mechanical disinfection' (unit, GLO, None)", 7.260637484264397e-10], ["'autoclave' (unit, GLO, None)", 2.170999257237395e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468907999184e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681451156751e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436801699713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415260870045823e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.390978892161712e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.1745106881515291e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568466348266e-10], ["'wet wipe' (unit, GLO, None)", 5.658612300008852e-10], ["'autoclave' (unit, GLO, None)", 2.170999257237395e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468907999184e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681451156751e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436801699713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526087004582e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709591964578716e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.847349124444804e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3986915528709442e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.98114900579222e-07], ["'autoclave' (unit, GLO, None)", 6.098544442948598e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248265288e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051206291139e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.1924570769139485e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558119363893e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628133216250563e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696433082512e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.527935292654991e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.7066008899910466e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.98114900579222e-07], ["'autoclave' (unit, GLO, None)", 6.098544442948598e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189310919201e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.411478086899639e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936747086076e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.1283047179426324e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.7066008899910466e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453167222215e-06], ["'autoclave' (unit, GLO, None)", 8.131392590598131e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086209182e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016376753523e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.776275418341688e-08], ["'mixed heating grid' (megajoule, GLO, None)", -9.133443258214855e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355762072618e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968167932404602e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976875448004e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043077901384e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044937031489e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453167222215e-06], ["'autoclave' (unit, GLO, None)", 8.131392590598131e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940650963156e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287496987908e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.85085027889446e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.088962172143236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044937031489e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620977916e-07], ["'mechanical disinfection' (unit, GLO, None)", 6.010848182056133e-07], ["'autoclave' (unit, GLO, None)", 1.21970888858972e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023827392063e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.418797783021724e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310913528905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282044255407e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290679922887214e-10], ["'mixed heating grid' (megajoule, GLO, None)", -5.359338620744792e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620977916e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705650266504e-07], ["'autoclave' (unit, GLO, None)", 1.21970888858972e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023827392063e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.418797783021724e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310913528905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282044255407e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2264619316527378e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508336758982e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.2179390698530686e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725500699558e-07], ["'mechanical disinfection' (unit, GLO, None)", 3.0054240910280663e-07], ["'autoclave' (unit, GLO, None)", 9.147816664422898e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929682934227e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160593871228e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462182705781e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722405699825e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145339961443586e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.679669310372396e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725500699558e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705650266504e-07], ["'autoclave' (unit, GLO, None)", 9.147816664422898e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929682934227e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160593871228e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462182705781e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722405699824e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2264619316527378e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700054937144569e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.191142376749344e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845729009904], ["'autoclave' (unit, GLO, None)", 0.011815228317266575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124194300446698e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002267731455450902], ["'mixed heating grid' (megajoule, GLO, None)", -0.001212458421205857], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040950010559103585], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665677942489734], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508070974373], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652222430427], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150729796]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845729009904], ["'autoclave' (unit, GLO, None)", 0.011815228317266575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783133941266], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.335203814798344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118209703006015], ["'mixed heating grid' (megajoule, GLO, None)", -0.008083056141372379], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150729796]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16319953493617], ["'autoclave' (unit, GLO, None)", 0.015753637756355434], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849187731808738e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.0423941550021346e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854362399653], ["'mixed heating grid' (megajoule, GLO, None)", -0.00346877653363261], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665223588757], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650642885259], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255961853567245], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718935895896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685286736267]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16319953493617], ["'autoclave' (unit, GLO, None)", 0.015753637756355434], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003200783981391906], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221407901078034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236241599772], ["'mixed heating grid' (megajoule, GLO, None)", -0.023125176890884065], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685286736267]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822384203171], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162991352988], ["'autoclave' (unit, GLO, None)", 0.02363045663453316], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190297650224], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123306130677], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849283766616e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708570034635], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.806955106323401e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.0354150694164384e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822384203171], ["'wet wipe' (unit, GLO, None)", 0.012386853610494747], ["'autoclave' (unit, GLO, None)", 0.02363045663453316], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190297650224], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123306130677], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849283766616e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708570034635], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287701537485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858323462517476], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012221361885755627]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961267805111], ["'mechanical disinfection' (unit, GLO, None)", 0.005860581495676494], ["'autoclave' (unit, GLO, None)", 0.017722842475899864], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410834152959], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151900364273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569856753323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003869936679486337], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034775531616955e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0177075347082192e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961267805111], ["'wet wipe' (unit, GLO, None)", 0.012386853610494747], ["'autoclave' (unit, GLO, None)", 0.017722842475899864], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410834152959], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151900364273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569856753323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038699366794863366], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287701537485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667975707201362], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012119591132284805]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410684669359], ["'autoclave' (unit, GLO, None)", 0.0007704105336894967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498277450186e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848112358642e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.737645723317484e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183360247974], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102780935330093e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908693308155014e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418305415528], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6703085358377366e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188410684669359], ["'autoclave' (unit, GLO, None)", 0.0007704105336894967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461473822085e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162288506237e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453898741572428e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003158430482211656], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6703085358377366e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820148630195], ["'autoclave' (unit, GLO, None)", 0.001027214044919329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.987747643053651e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399440053028e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778851293509e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013554142577000065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211444406548], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719319925523e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366361567367e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427691666346], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001328673219531052]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056820148630195], ["'autoclave' (unit, GLO, None)", 0.001027214044919329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2922426686822784e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153426661439e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325192341956742], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009036095051333375], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001328673219531052]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344370910012], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504178576988137], ["'autoclave' (unit, GLO, None)", 0.0015408210673789938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967350089084e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138222798216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143338794318e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659318607919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853331644478e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.953324691502558e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005662344370910012], ["'wet wipe' (unit, GLO, None)", 0.0002523811665085952], ["'autoclave' (unit, GLO, None)", 0.0015408210673789938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.9134967350089084e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138222798216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143338794318e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.734659318607919e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795162369632e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270092943467801e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.775461315496512e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193113414828], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520892884940687], ["'autoclave' (unit, GLO, None)", 0.001155615800534245], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818393955121e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651510157485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286677588636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4616883360580764e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926665822214e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.976662345751279e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375193113414828], ["'wet wipe' (unit, GLO, None)", 0.0002523811665085952], ["'autoclave' (unit, GLO, None)", 0.001155615800534245], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818393955121e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651510157485], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286677588636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00014616883360580763], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795162369632e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074132698485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176243676809605e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.7356946920389985e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476679220817101], ["'autoclave' (unit, GLO, None)", 0.22259094264483173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290419631775], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046129166053206485], ["'mixed heating grid' (megajoule, GLO, None)", -0.0138577926709179], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148941071332], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600300577387067], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147106057479064], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452454188393], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.015482286695043913]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476679220817101], ["'autoclave' (unit, GLO, None)", 0.22259094264483173], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491773774353], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503854827283], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752777368804326], ["'mixed heating grid' (megajoule, GLO, None)", -0.092385284472786], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.015482286695043913]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087358545188976], ["'autoclave' (unit, GLO, None)", 0.2967879235264423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697193596662], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720463306489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299463866491], ["'mixed heating grid' (megajoule, GLO, None)", -0.03964637894717917], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462670860631234], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830688658154368], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00787650099943317], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851983629278], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125755836954]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087358545188976], ["'autoclave' (unit, GLO, None)", 0.2967879235264423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110358809678], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734998909455], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199642577667], ["'mixed heating grid' (megajoule, GLO, None)", -0.2643091929811945], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.044046125755836954]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978692973], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019520097605], ["'autoclave' (unit, GLO, None)", 0.4451818852896636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158590572405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338751483066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315898669975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579568598403], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74393563376211e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002326377510181519]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1315540978692973], ["'wet wipe' (unit, GLO, None)", 0.0575976792341035], ["'autoclave' (unit, GLO, None)", 0.4451818852896636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158590572405], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338751483066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315898669975], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002895579568598403], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527729761218], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973661747227], ["'mixed heating grid' (megajoule, GLO, None)", -0.013968404706251348]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074972223885], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009760048803], ["'autoclave' (unit, GLO, None)", 0.3338864139672476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779166958086], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009267229094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863179733995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004845563778923554], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967816881045e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011631887550907596]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07834074972223885], ["'wet wipe' (unit, GLO, None)", 0.0575976792341035], ["'autoclave' (unit, GLO, None)", 0.3338864139672476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251779166958086], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009267229094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863179733995], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.048455637789235534], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527729761218], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364754021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611016939303471], ["'mixed heating grid' (megajoule, GLO, None)", -0.01385208583074227]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008420326993], ["'autoclave' (unit, GLO, None)", 0.0460719422116275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293351926193], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002860267341806551], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007292373521370532], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658224468763], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253163912271], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126315868838094], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485047134094], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000500806564020611]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819008420326993], ["'autoclave' (unit, GLO, None)", 0.0460719422116275], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549794268782], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152922466841733], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068448945377008], ["'mixed heating grid' (megajoule, GLO, None)", -0.004861582347580355], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000500806564020611]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901460884153], ["'autoclave' (unit, GLO, None)", 0.06142925628217], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300827694988], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489567963275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066785339065], ["'mixed heating grid' (megajoule, GLO, None)", -0.0020863077614039762], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448645027975], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449693988473827], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283597352879], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.034333760696152384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629780206623]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901460884153], ["'autoclave' (unit, GLO, None)", 0.06142925628217], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026787464209207842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040168340296], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377856892714], ["'mixed heating grid' (megajoule, GLO, None)", -0.01390871840935984], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014247629780206623]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304088869], ["'mechanical disinfection' (unit, GLO, None)", 0.0469862455521236], ["'autoclave' (unit, GLO, None)", 0.09214388442325502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038805861722927995], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760663941381], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950344409433e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350611904467e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801674967363111e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.2242075025095549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006450304088869], ["'wet wipe' (unit, GLO, None)", 0.002224593531597808], ["'autoclave' (unit, GLO, None)", 0.09214388442325502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0038805861722927995], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760663941381], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950344409433e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.366350611904467e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.66783107284823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028830978170335975], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007350580791226959]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363603123032], ["'mechanical disinfection' (unit, GLO, None)", 0.0234931227760618], ["'autoclave' (unit, GLO, None)", 0.06910791331744125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910008382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592287827455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900688818866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015673977589126086], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837483681549e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.1210375125477746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003844363603123032], ["'wet wipe' (unit, GLO, None)", 0.002224593531597808], ["'autoclave' (unit, GLO, None)", 0.06910791331744125], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073910008382], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592287827455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900688818866e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015673977589126084], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.66783107284823e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907687173163], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894421967887], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007289370416101481]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083072170793], ["'autoclave' (unit, GLO, None)", 0.05815749116684428], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152627024302], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280019618005], ["'mixed heating grid' (megajoule, GLO, None)", -0.000954018411982486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681758860304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987329933866006], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596609670412], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853839929054685], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750435698005]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032083072170793], ["'autoclave' (unit, GLO, None)", 0.05815749116684428], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704347544433], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433177616877], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853346412007], ["'mixed heating grid' (megajoule, GLO, None)", -0.006360122746549908], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006592750435698005]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952715142374949], ["'autoclave' (unit, GLO, None)", 0.07754332155579237], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366784937977], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931436533047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545681203967], ["'mixed heating grid' (megajoule, GLO, None)", -0.00272939395055464], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799652421386], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010410480567591], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974656366164], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870402550616], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595772687502]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952715142374949], ["'autoclave' (unit, GLO, None)", 0.07754332155579237], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789957054771], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0050289665185432745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0071136971208026496], ["'mixed heating grid' (megajoule, GLO, None)", -0.018195959670364265], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001875595772687502]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544190125404], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074222099309], ["'autoclave' (unit, GLO, None)", 0.1163149823336886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846028684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906993861411], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385001329548e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112365498486], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.26128240543483e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6015587984606033e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008476544190125404], ["'wet wipe' (unit, GLO, None)", 0.002469441817625118], ["'autoclave' (unit, GLO, None)", 0.1163149823336886], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058846028684], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906993861411], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385001329548e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00012330112365498486], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.86901740590186e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498457858636], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009616333273446148]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052135969256101], ["'mechanical disinfection' (unit, GLO, None)", 0.029630371110496545], ["'autoclave' (unit, GLO, None)", 0.08723623675026643], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145289365454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829031438202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.054770002659096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00020633639812991543], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641202717407e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.007793992303017e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005052135969256101], ["'wet wipe' (unit, GLO, None)", 0.002469441817625118], ["'autoclave' (unit, GLO, None)", 0.08723623675026643], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145289365454], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829031438202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.054770002659096e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002063363981299154], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.86901740590186e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016005535023], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920458314706], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009536255333523117]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939095156287], ["'autoclave' (unit, GLO, None)", 2.3654221727599407], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234404051738], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857064947425672], ["'mixed heating grid' (megajoule, GLO, None)", -0.07078879531145725], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441615062803434], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823898832053], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0191928969444717], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311406962226], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.03672201491512]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751939095156287], ["'autoclave' (unit, GLO, None)", 2.3654221727599407], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.529728638025863], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642180579488466], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571376631617114], ["'mixed heating grid' (megajoule, GLO, None)", -0.47192530207638167], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.03672201491512]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445713791319], ["'autoclave' (unit, GLO, None)", 3.1538962303465876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729200258663], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029061542042875553], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335223789786], ["'mixed heating grid' (megajoule, GLO, None)", -0.20252283107266597], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004239530769], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539231687316], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781629203355298], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073635764008], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180825535721]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445713791319], ["'autoclave' (unit, GLO, None)", 3.1538962303465876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.492193346551727], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491704373783], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522234825265257], ["'mixed heating grid' (megajoule, GLO, None)", -1.3501522071511063], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.10447180825535721]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170274997637], ["'mechanical disinfection' (unit, GLO, None)", 2.391257534466676], ["'autoclave' (unit, GLO, None)", 4.730844345519883], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.34033121445609743], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172770256869], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342791950217], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946460391114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583803027595076], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011883671901876498]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2358170274997637], ["'wet wipe' (unit, GLO, None)", 0.13935218863111537], ["'autoclave' (unit, GLO, None)", 4.730844345519883], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.34033121445609743], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172770256869], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342791950217], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.006867946460391114], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502559119210696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01295968923659066], ["'mixed heating grid' (megajoule, GLO, None)", -0.07135382705310218]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615227754251], ["'mechanical disinfection' (unit, GLO, None)", 1.195628767233338], ["'autoclave' (unit, GLO, None)", 3.5481332591399113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551309855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375926579212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998685583900434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011493060997168885], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001079190151379751], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005941835950938249]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.1400615227754251], ["'wet wipe' (unit, GLO, None)", 0.13935218863111537], ["'autoclave' (unit, GLO, None)", 3.5481332591399113], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551309855], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375926579212], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998685583900434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.11493060997168884], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502559119210696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292044600108], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851770221452714], ["'mixed heating grid' (megajoule, GLO, None)", -0.07075964345800835]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597986749921], ["'autoclave' (unit, GLO, None)", 0.056996515460426125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629223141570424e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638385611833], ["'mixed heating grid' (megajoule, GLO, None)", -0.0039689918545080275], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1034524660017636], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605189766198], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650525826767], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01274831452650935], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932728297714]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597986749921], ["'autoclave' (unit, GLO, None)", 0.056996515460426125], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088638365888], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637371551045322e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092257074555], ["'mixed heating grid' (megajoule, GLO, None)", -0.026459945696720187], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.004210932728297714]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511315917903], ["'autoclave' (unit, GLO, None)", 0.07599535394723483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001320435010457555], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460732328664522e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748000163252334], ["'mixed heating grid' (megajoule, GLO, None)", -0.011355066339845152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117415927648693], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002340531659055846], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833083302087], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074514509676], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837097277356]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511315917903], ["'autoclave' (unit, GLO, None)", 0.07599535394723483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742643284192], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957144012089757], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02316533344216824], ["'mixed heating grid' (megajoule, GLO, None)", -0.07570044226563434], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011979837097277356]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682452678323], ["'mechanical disinfection' (unit, GLO, None)", 0.05775313349559401], ["'autoclave' (unit, GLO, None)", 0.11399303092085229], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001083646786688891], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444923944], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473746037828e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510260835282], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389495396609386e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.662946695542909e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02980682452678323], ["'wet wipe' (unit, GLO, None)", 0.03231285969252844], ["'autoclave' (unit, GLO, None)", 0.11399303092085229], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001083646786688891], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444923944], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473746037828e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007875510260835282], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383455912665584e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584112406808], ["'mixed heating grid' (megajoule, GLO, None)", -0.004000672099527882]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277795133429], ["'mechanical disinfection' (unit, GLO, None)", 0.028876566747797004], ["'autoclave' (unit, GLO, None)", 0.0854947731906392], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387682739481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132311167722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947492075656e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.001317915338065329], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747698304666e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.3314733477714546e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01768277795133429], ["'wet wipe' (unit, GLO, None)", 0.03231285969252844], ["'autoclave' (unit, GLO, None)", 0.0854947731906392], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387682739481], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132311167722], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4974947492075656e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.013179153380653287], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383455912665584e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555695514993e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001214063663542379], ["'mixed heating grid' (megajoule, GLO, None)", -0.003967357366050166]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541603623090033e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237201501375], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831949307523685e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580727723729e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.294675395561891e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264551274014e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.0419611286608055e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647656861826e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690138835258344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220037374627e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541603623090033e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237201501375], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.714082617602039e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930637933989033e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557204851491526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.863116930374594e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.943220037374627e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899813206231], ["'autoclave' (unit, GLO, None)", 0.0003001649602001833], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315028635681941e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.736999728781181e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662589937612e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.228682895111428e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316181649971e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.818454320276553e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500463346272e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039108523478e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808485316389e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899813206231], ["'autoclave' (unit, GLO, None)", 0.0003001649602001833], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828401739724054e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.815814409127898e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775059958413e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.191219300742852e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.690808485316389e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.77391868302904e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658409144605], ["'autoclave' (unit, GLO, None)", 0.00045024744030027516], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673830132510585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421852417498e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392708953242e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326082558245e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625211191064e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.20968807300198e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.77391868302904e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622460246e-05], ["'autoclave' (unit, GLO, None)", 0.00045024744030027516], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673830132510585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.467421852417498e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392708953242e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1115326082558245e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613864157488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180129589395e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.328955226259352e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634316315735e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829204572303], ["'autoclave' (unit, GLO, None)", 0.00033768558022520626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540451769456e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958227253465e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785417906484e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774104314896e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2178126055955234e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.60484403650099e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.844634316315735e-05], ["'wet wipe' (unit, GLO, None)", 2.109659622460246e-05], ["'autoclave' (unit, GLO, None)", 0.00033768558022520626], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.264540451769456e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958227253465e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546785417906484e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8600774104314895e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523613864157488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629089474616e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002003533448e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.292906785894342e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951223635653e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112055109632], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2966129686780336e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075108558715e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.663805223234625e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3960167742767702e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.51398300172121e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322673962447e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142590250073e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702995758753e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917951223635653e-06], ["'autoclave' (unit, GLO, None)", 0.00015413112055109632], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023558655518e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164168818383e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338340570581e-06], ["'mixed heating grid' (megajoule, GLO, None)", -3.109203482156417e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.0612702995758753e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561039610919e-05], ["'autoclave' (unit, GLO, None)", 0.0002055081607347951], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044201022844e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.556828076397865e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358000340499e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.3342888987236239e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743755821639916e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482820714322e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957877105884122e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.411589462042275e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183542147822e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293561039610919e-05], ["'autoclave' (unit, GLO, None)", 0.0002055081607347951], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052277902868e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.036308050854506e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238666893671e-06], ["'mixed heating grid' (megajoule, GLO, None)", -8.895259324824158e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.864183542147822e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374461798076e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.540578572397037e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224110219275], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031241059706e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134665635796e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805856036057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300789058e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573463963779485e-09], ["'mixed heating grid' (megajoule, GLO, None)", -7.82936492185337e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.645374461798076e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110123698e-05], ["'autoclave' (unit, GLO, None)", 0.00030826224110219275], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.686031241059706e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134665635796e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805856036057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.855097300789058e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295723134e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507603389994e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.7010314251551783e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.36006379813254e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.7702892861985185e-05], ["'autoclave' (unit, GLO, None)", 0.0002311966808266445], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187859431796e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767602536011e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361171207211e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.451254197090319e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786731981889735e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.914682460926685e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.36006379813254e-06], ["'wet wipe' (unit, GLO, None)", 8.815349110123698e-05], ["'autoclave' (unit, GLO, None)", 0.0002311966808266445], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187859431796e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767602536011e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361171207211e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.4512541970903184e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060295723134e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880253111468e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640283571105e-07], ["'mixed heating grid' (megajoule, GLO, None)", -4.661884600545911e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978218235153], ["'autoclave' (unit, GLO, None)", 0.02146810126819779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053192882156e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821639572239663], ["'mixed heating grid' (megajoule, GLO, None)", -0.000632493923787222], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078073558438], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000484998572647057], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000525513622997751], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000860303011], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167856102804088]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957978218235153], ["'autoclave' (unit, GLO, None)", 0.02146810126819779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106698847613393], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411213766959e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547759714826442], ["'mixed heating grid' (megajoule, GLO, None)", -0.004216626158581481], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007167856102804088]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851045320299205], ["'autoclave' (unit, GLO, None)", 0.02862413502426372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002606098240601209], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2345230939880733e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933499604054442], ["'mixed heating grid' (megajoule, GLO, None)", -0.001809530159653882], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01475700782292938], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001459704441947453], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830465397043665], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382705078905], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002039209695069897]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851045320299205], ["'autoclave' (unit, GLO, None)", 0.02862413502426372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001720196858482646], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071603596924], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0072889997360363], ["'mixed heating grid' (megajoule, GLO, None)", -0.012063534397692546], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002039209695069897]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566104608692], ["'mechanical disinfection' (unit, GLO, None)", 0.021196854047100783], ["'autoclave' (unit, GLO, None)", 0.042936202536395594], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009979839287], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853824375146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608057304249e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001340570555935828], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415578991548876e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0617994326852593e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02352566104608692], ["'wet wipe' (unit, GLO, None)", 0.002321360192959184], ["'autoclave' (unit, GLO, None)", 0.042936202536395594], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009979839287], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853824375146], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608057304249e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0001340570555935828], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041509935884e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003852143660548279], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006375424507718236]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455217334484], ["'mechanical disinfection' (unit, GLO, None)", 0.010598427023550391], ["'autoclave' (unit, GLO, None)", 0.03220215190229669], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823129291376], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0054750864318238], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216114608498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00022433574954662164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077894957744297e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.308997163426297e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01404455217334484], ["'wet wipe' (unit, GLO, None)", 0.002321360192959184], ["'autoclave' (unit, GLO, None)", 0.03220215190229669], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00033126823129291376], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0054750864318238], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581216114608498e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0022433574954662163], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977041509935884e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001071620113205775], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038200657655905435], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006322334536083972]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442012202316], ["'autoclave' (unit, GLO, None)", 0.6714095591105025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0173297424184745], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550417827566], ["'mixed heating grid' (megajoule, GLO, None)", -0.017517567634197612], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894626101713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913200305915], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945384373887343], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117741527041], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261162587103]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553442012202316], ["'autoclave' (unit, GLO, None)", 0.6714095591105025], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174875810182], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941265997514687], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336118850437], ["'mixed heating grid' (megajoule, GLO, None)", -0.11678378422798409], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.016660261162587103]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448102338338779], ["'autoclave' (unit, GLO, None)", 0.89521274548067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049073943484091345], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046097912423], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321779124451], ["'mixed heating grid' (megajoule, GLO, None)", -0.05011679285083699], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875603266414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021579350408687702], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.023934514138670256], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681053951281], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738856065128]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448102338338779], ["'autoclave' (unit, GLO, None)", 0.89521274548067], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3239204190369066], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.041996385879720995], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008811860829683], ["'mixed heating grid' (megajoule, GLO, None)", -0.3341119523389132], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.04739738856065128]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1340330692758133], ["'mechanical disinfection' (unit, GLO, None)", 0.6530817381357457], ["'autoclave' (unit, GLO, None)", 1.3428191182210054], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135680705756], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224255133623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234728692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906161673984], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001797466812], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002940762381501388]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1340330692758133], ["'wet wipe' (unit, GLO, None)", 0.04488063832020132], ["'autoclave' (unit, GLO, None)", 1.3428191182210054], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135680705756], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224255133623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916234728692], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0031158906161673984], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939054768465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0068749916251486555], ["'mixed heating grid' (megajoule, GLO, None)", -0.017657391764643458]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152110500621], ["'mechanical disinfection' (unit, GLO, None)", 0.32654086906787283], ["'autoclave' (unit, GLO, None)", 1.0071143386657537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538663011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666616237245], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469457384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.005214239965126154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725000898733391e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001470381190750694]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07984152110500621], ["'wet wipe' (unit, GLO, None)", 0.04488063832020132], ["'autoclave' (unit, GLO, None)", 1.0071143386657537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538663011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666616237245], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832469457384], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.05214239965126153], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939054768465], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310780317755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741616161338], ["'mixed heating grid' (megajoule, GLO, None)", -0.01751035364556839]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109665181970701], ["'autoclave' (unit, GLO, None)", 0.0601877065950165], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.03787520566996e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972236894185636], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011650668417456692], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00285139849956304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152357972641713], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584832490379], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712115874148], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814772159871]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109665181970701], ["'autoclave' (unit, GLO, None)", 0.0601877065950165], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.67933775329502e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.1140792377465684e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824596123757], ["'mixed heating grid' (megajoule, GLO, None)", -0.007767112278304462], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000998814772159871]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441610177578], ["'autoclave' (unit, GLO, None)", 0.080250275460022], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.143435689082241e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092600677009916e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00399737975449123], ["'mixed heating grid' (megajoule, GLO, None)", -0.003333191844006892], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459353074782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002152651428659156], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784151740568], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806229823704], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564810670013]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191441610177578], ["'autoclave' (unit, GLO, None)", 0.080250275460022], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547430290971889e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380788900502042e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198363274885], ["'mixed heating grid' (megajoule, GLO, None)", -0.022221278960045943], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.002841564810670013]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318383394494], ["'mechanical disinfection' (unit, GLO, None)", 0.062308700600697285], ["'autoclave' (unit, GLO, None)", 0.12037541319003305], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501079678093], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964940921624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157068746e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000186803648843824], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898388331838e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.9558564360566433e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008631318383394494], ["'wet wipe' (unit, GLO, None)", 0.003225553725189484], ["'autoclave' (unit, GLO, None)", 0.12037541319003305], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501079678093], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964940921624], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202157068746e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.000186803648843824], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6543049744601743e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762416159276], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011743663324889136]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764783287154], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350300348643], ["'autoclave' (unit, GLO, None)", 0.09028155989252476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739499933689], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112551594295], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314137493e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00031260373723611157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949194165888e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.779282180283216e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005140764783287154], ["'wet wipe' (unit, GLO, None)", 0.003225553725189484], ["'autoclave' (unit, GLO, None)", 0.09028155989252476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739499933689], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112551594295], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012404314137493e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.003126037372361115], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6543049744601743e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977123994167e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966482924217649], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011645870503086302]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585224711323], ["'autoclave' (unit, GLO, None)", 0.04303644069756317], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666207476128644e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001017001826333214], ["'mixed heating grid' (megajoule, GLO, None)", -0.00903061261686635], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236080534228505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931999005139458], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964611754256906], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522490800209028], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832292249369725]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585224711323], ["'autoclave' (unit, GLO, None)", 0.04303644069756317], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.968505355892648e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272348605147981e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00678001217555476], ["'mixed heating grid' (megajoule, GLO, None)", -0.06020408411244233], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038832292249369725]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225291854347221], ["'autoclave' (unit, GLO, None)", 0.05738192093008423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400804546978485e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283393275016311e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095860180818533], ["'mixed heating grid' (megajoule, GLO, None)", -0.02583608359827956], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003162472998044447], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754287312931], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918156453676236], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654222760622262], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541370944108]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225291854347221], ["'autoclave' (unit, GLO, None)", 0.05738192093008423], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.545085509556756e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845176678506298e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019397240120545705], ["'mixed heating grid' (megajoule, GLO, None)", -0.17224055732186372], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.011047541370944108]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00250041400370423], ["'mechanical disinfection' (unit, GLO, None)", 0.044294190814470905], ["'autoclave' (unit, GLO, None)", 0.08607288139512637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475762723909423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840390408099431], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795142611501924e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621746638452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.707292231006088e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001516014461605291]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00250041400370423], ["'wet wipe' (unit, GLO, None)", 0.01297747481903741], ["'autoclave' (unit, GLO, None)", 0.08607288139512637], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475762723909423], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840390408099431], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795142611501924e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0007262621746638452], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968317469182393e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251194713737984], ["'mixed heating grid' (megajoule, GLO, None)", -0.009102694402586509]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490274089137119], ["'mechanical disinfection' (unit, GLO, None)", 0.022147095407235452], ["'autoclave' (unit, GLO, None)", 0.06455466104634476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513541885148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020689127615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590285223003848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0012153524378046411], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461155030418e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.580072308026455e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001490274089137119], ["'wet wipe' (unit, GLO, None)", 0.01297747481903741], ["'autoclave' (unit, GLO, None)", 0.06455466104634476], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808513541885148], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020689127615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590285223003848e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.012153524378046409], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968317469182393e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069600819962853e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830102187702], ["'mixed heating grid' (megajoule, GLO, None)", -0.009026893679506244]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264930722576], ["'autoclave' (unit, GLO, None)", 0.0035315378499628084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244270208835e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129777760791608e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.164753745250644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233244502582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447244206138996e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499653648758], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576551250469], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078040713939]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064264930722576], ["'autoclave' (unit, GLO, None)", 0.0035315378499628084], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142713487708666e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5447227902725826e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865185071944055], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005443169163500429], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005023078040713939]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00590261480038326], ["'autoclave' (unit, GLO, None)", 0.004708717133283745], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.767946741937642e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690231086217e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954121198912337e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023358909220364766], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003110164986035495], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345343595232], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101696594427893], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866634155062], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339109499465]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00590261480038326], ["'autoclave' (unit, GLO, None)", 0.004708717133283745], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669615458334272], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430413613419e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414132608229], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015572606146909843], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0014290339109499465]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001982757961639609], ["'mechanical disinfection' (unit, GLO, None)", 0.0028827844433279527], ["'autoclave' (unit, GLO, None)", 0.0070630756999256195], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922176637152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764523125623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426373173533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427601461829e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254115693224329e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.3706583681961883e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001982757961639609], ["'wet wipe' (unit, GLO, None)", 0.0003586764334892058], ["'autoclave' (unit, GLO, None)", 0.0070630756999256195], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945922176637152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764523125623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426373173533e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.394427601461829e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312977337636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.154759451345325e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.229924299552113e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581930708326], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413922216639763], ["'autoclave' (unit, GLO, None)", 0.005297306774944213], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586293051507], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735569533243], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852746347065e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00015720962602107868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6270578466121574e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.853291840980942e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001178581930708326], ["'wet wipe' (unit, GLO, None)", 0.0003586764334892058], ["'autoclave' (unit, GLO, None)", 0.005297306774944213], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586293051507], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735569533243], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.9996852746347065e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0015720962602107863], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196312977337636e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.81395851636467e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1284888728792104e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.161391381142304e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841617004039e-08], ["'autoclave' (unit, GLO, None)", 2.694093519827622e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668337448094e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490099939565e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3328294925909967e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525668466350594e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670893658232e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170092301954643e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874290048354e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444256150953e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733841617004039e-08], ["'autoclave' (unit, GLO, None)", 2.694093519827622e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.322568646690481e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.602979648012679e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.50899339995971e-08], ["'mixed heating grid' (megajoule, GLO, None)", -8.885529950606646e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.843444256150953e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905755382743e-07], ["'autoclave' (unit, GLO, None)", 3.5921246931034965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201407707264e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199507512673e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554276458785e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.813151516268074e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.6512643034430476e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.54516308449908e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871045686558551e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753321140382e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.231410248822692e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905755382743e-07], ["'autoclave' (unit, GLO, None)", 3.5921246931034965e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.725545483635158e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783258800229e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036184305866e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.542101010845382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.231410248822692e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.30974558027566e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.5831384422118255e-07], ["'autoclave' (unit, GLO, None)", 5.388187039655246e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981959962552e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374250327888e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440429554e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4669226441092448e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086153359541e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.2374880546289493e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.30974558027566e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488196755484e-07], ["'autoclave' (unit, GLO, None)", 5.388187039655246e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981959962552e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374250327888e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457440429554e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4669226441092448e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771927492e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305502949080643e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3434680543323143e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057243337958e-08], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692211059127e-07], ["'autoclave' (unit, GLO, None)", 4.0411402797414335e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906005155974e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169579472867e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491488085911e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.454799483966232e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.418043076679759e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.1187440273144746e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.970057243337958e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488196755484e-07], ["'autoclave' (unit, GLO, None)", 4.0411402797414335e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234906005155974e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169579472867e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491488085911e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.454799483966232e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334751771927492e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670100877852e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322518313858e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.3322806140591694e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037457471415], ["'autoclave' (unit, GLO, None)", 0.0002683553312193839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121588649017e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052202213679435e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.0207299090515367e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957497373954], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615278817904e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731143436054e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471460864887e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738784613676e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099037457471415], ["'autoclave' (unit, GLO, None)", 0.0002683553312193839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566661626917e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338613574952334e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368134809119622e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00013471532727010247], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.5635738784613676e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846647012072], ["'autoclave' (unit, GLO, None)", 0.00035780710829251186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587302436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970294176285167e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886524748665458e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.781196589286941e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137043962868], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130201324597574e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880610900904e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468903844755], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205432711296e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865846647012072], ["'autoclave' (unit, GLO, None)", 0.00035780710829251186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108638483456106e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3958949618864595e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683165776977e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003854131059524627], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.293205432711296e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262923733465], ["'mechanical disinfection' (unit, GLO, None)", 0.0002606433564842717], ["'autoclave' (unit, GLO, None)", 0.0005367106624387679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695367580705e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504155567747e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734467490756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532158767937e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388014999572066e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.392301159501517e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002471262923733465], ["'wet wipe' (unit, GLO, None)", 7.725704204704148e-05], ["'autoclave' (unit, GLO, None)", 0.0005367106624387679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695367580705e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504155567747e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734467490756e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.794532158767937e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608014431012e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.835593251443701e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.036859248940453e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691221860516], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032167824213585], ["'autoclave' (unit, GLO, None)", 0.00040253299682907587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568436124806e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889942894735e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003468934981512e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.0233372335389e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1940074997860243e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.6961505797507584e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001472691221860516], ["'wet wipe' (unit, GLO, None)", 7.725704204704148e-05], ["'autoclave' (unit, GLO, None)", 0.00040253299682907587], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568436124806e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889942894735e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003468934981512e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.023337233538899e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608014431012e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605061444023e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036531764458494e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.019897743142945e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818799008687123], ["'autoclave' (unit, GLO, None)", 0.0004759601975511752], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431464641625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578350449832e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.0217917970029225e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140987474896], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.2743213465166445e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675260431495e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230155501224e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527405180534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818799008687123], ["'autoclave' (unit, GLO, None)", 0.0004759601975511752], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796491906444443e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108310014105e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385566966554e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003347861198001949], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.484527405180534e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665485007118165], ["'autoclave' (unit, GLO, None)", 0.0006346135967349003], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324614826287e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450261274284e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591274973359332e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014367068789796392], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385409061642], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893588518642326e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729668253569425e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002441473283239782], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325992802943e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665485007118165], ["'autoclave' (unit, GLO, None)", 0.0006346135967349003], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441989984348e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.017614470279352e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727516648906235], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009578045859864261], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.91325992802943e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003313756026217556], ["'mechanical disinfection' (unit, GLO, None)", 0.00047574081532082187], ["'autoclave' (unit, GLO, None)", 0.0009519203951023508], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702569691142e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719402952564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849206978238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948406524354e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603277199033413e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.430335028665006e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003313756026217556], ["'wet wipe' (unit, GLO, None)", 0.0010944013359244227], ["'autoclave' (unit, GLO, None)", 0.0009519203951023508], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702569691142e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719402952564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849206978238e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.516948406524354e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239248e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767094164172e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.0618754253900774e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000197412773757239], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787040766041093], ["'autoclave' (unit, GLO, None)", 0.0007139402963267629], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494797226414e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252215952159e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698413956476e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0905688619378318e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638599516687e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.215167514332503e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000197412773757239], ["'wet wipe' (unit, GLO, None)", 0.0010944013359244227], ["'autoclave' (unit, GLO, None)", 0.0007139402963267629], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494797226414e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252215952159e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045698413956476e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010905688619378317], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669421239248e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839144312757e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290750708169027e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.019723750246752e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943877003351], ["'autoclave' (unit, GLO, None)", 0.00048807707199794955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521092513573e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365340087294e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.1994925954730965e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640234696474], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583326615683054e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703483872221e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547636661599e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669287115237e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164943877003351], ["'autoclave' (unit, GLO, None)", 0.00048807707199794955], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766127893805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.39616982084237e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243560058195e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00034663283969820646], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.612669287115237e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764860065669635], ["'autoclave' (unit, GLO, None)", 0.0006507694293305994], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541037678625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186672037685e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191463956328428e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014875460953156576], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693443540397], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.282360437729851e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404526313177665e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717644130028], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815471887969]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764860065669635], ["'autoclave' (unit, GLO, None)", 0.0006507694293305994], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469331801072e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552830322958e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127642637552299], ["'mixed heating grid' (megajoule, GLO, None)", -0.000991697396877105], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00010277815471887969]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902804963232], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772792903369364], ["'autoclave' (unit, GLO, None)", 0.0009761541439958994], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854791817335e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143409793878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845980984663e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.7566061667250165e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955457193503595e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.728650316618385e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003385902804963232], ["'wet wipe' (unit, GLO, None)", 0.001692073691272626], ["'autoclave' (unit, GLO, None)", 0.0009761541439958994], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854791817335e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143409793878], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845980984663e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.7566061667250165e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380246270907e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580228590446474e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.24099462053178e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000201676806900386], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386396451684682], ["'autoclave' (unit, GLO, None)", 0.0007321156079969244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.77705992853558e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205377206351e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691961969326e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.130674026885117e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977728596751776e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.3643251583091927e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.000201676806900386], ["'wet wipe' (unit, GLO, None)", 0.001692073691272626], ["'autoclave' (unit, GLO, None)", 0.0007321156079969244], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.77705992853558e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205377206351e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691961969326e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00011306740268851168], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3380246270907e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.09191898860823e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451304478979e-06], ["'mixed heating grid' (megajoule, GLO, None)", -5.1973513689486874e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873817407977], ["'autoclave' (unit, GLO, None)", 0.004165478894990731], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840523985257e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299206236768e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.36406249352107e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499972351654], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896354905971602e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.3707298382790814e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108693453213], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741880968577]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873817407977], ["'autoclave' (unit, GLO, None)", 0.004165478894990731], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249319653767], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658546359374e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199470824512], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006242708329014047], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00016358741880968577]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802165086748], ["'autoclave' (unit, GLO, None)", 0.005553971859987642], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472596979003e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806962520266e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135082303006], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002679006526647748], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002975422177648644], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932059078832e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153917944747162], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213716465697], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00046539585287945414]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755802165086748], ["'autoclave' (unit, GLO, None)", 0.005553971859987642], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028986617801841604], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345445972011971e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423388202015], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017860043510984987], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00046539585287945414]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127827080146], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202650024476], ["'autoclave' (unit, GLO, None)", 0.008330957789981466], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844392408949e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073749015216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988346592433e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498877105199e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.400128069623432e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.5719923732571445e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.001359127827080146], ["'wet wipe' (unit, GLO, None)", 0.009590872144258194], ["'autoclave' (unit, GLO, None)", 0.008330957789981466], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.511844392408949e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073749015216], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988346592433e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.059498877105199e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2439601221589935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406870953440606e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.4388058553244e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008072099712024455], ["'mechanical disinfection' (unit, GLO, None)", 0.002000101325012238], ["'autoclave' (unit, GLO, None)", 0.0062482183424860975], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004826536918e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216567561257], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976693184865e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1198720633790895e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640348117142e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.859961866285723e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008072099712024455], ["'wet wipe' (unit, GLO, None)", 0.009590872144258194], ["'autoclave' (unit, GLO, None)", 0.0062482183424860975], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004826536918e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216567561257], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976693184865e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0005119872063379089], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2439601221589935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981503675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864549959455e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.360206236661543e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262285891513e-09], ["'autoclave' (unit, GLO, None)", 1.4473328381582634e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965841252508e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522187229424e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3992677916587175e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933902829125e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011349376131327e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950029792933905e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755578429412e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121774453468e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262285891513e-09], ["'autoclave' (unit, GLO, None)", 1.4473328381582634e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538081578767e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.39635200772794e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990147914862824e-10], ["'mixed heating grid' (megajoule, GLO, None)", -9.32845194439145e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.718121774453468e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679704194998e-09], ["'autoclave' (unit, GLO, None)", 1.929777117544351e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183643920656e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352277063162e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464547218183e-11], ["'mixed heating grid' (megajoule, GLO, None)", -4.003227818028072e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522574187934e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.1199206860201077e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.1059924685729365e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269177022371e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744137732173e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679704194998e-09], ["'autoclave' (unit, GLO, None)", 1.929777117544351e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487553743008e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240573485812e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976364812127e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.6688185453520476e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.764744137732173e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899803031924e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521274968528793e-09], ["'autoclave' (unit, GLO, None)", 2.8946656763165276e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340626892445e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058054376059e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184008498565e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348002221518e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957784323437e-13], ["'mixed heating grid' (megajoule, GLO, None)", -2.3490213763030583e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.943899803031924e-10], ["'wet wipe' (unit, GLO, None)", 5.658612300008852e-10], ["'autoclave' (unit, GLO, None)", 2.8946656763165276e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340626892445e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827058054376059e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184008498565e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8175348002221518e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709591964578716e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8712589133664143e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.4104366597524597e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568466348266e-10], ["'mechanical disinfection' (unit, GLO, None)", 7.260637484264397e-10], ["'autoclave' (unit, GLO, None)", 2.170999257237395e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468907999184e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681451156751e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436801699713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.0415260870045823e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.390978892161712e-13], ["'mixed heating grid' (megajoule, GLO, None)", -1.1745106881515291e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.540568466348266e-10], ["'wet wipe' (unit, GLO, None)", 5.658612300008852e-10], ["'autoclave' (unit, GLO, None)", 2.170999257237395e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468907999184e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681451156751e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.181436801699713e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.041526087004582e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709591964578716e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128869908464e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.847349124444804e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.3986915528709442e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.98114900579222e-07], ["'autoclave' (unit, GLO, None)", 6.098544442948598e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248248265288e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051206291139e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.1924570769139485e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026558119363893e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628133216250563e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696433082512e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.527935292654991e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.7066008899910466e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.98114900579222e-07], ["'autoclave' (unit, GLO, None)", 6.098544442948598e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189310919201e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.411478086899639e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936747086076e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.1283047179426324e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.7066008899910466e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453167222215e-06], ["'autoclave' (unit, GLO, None)", 8.131392590598131e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030086209182e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016376753523e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.776275418341688e-08], ["'mixed heating grid' (megajoule, GLO, None)", -9.133443258214855e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355762072618e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968167932404602e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976875448004e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.304043077901384e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044937031489e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425453167222215e-06], ["'autoclave' (unit, GLO, None)", 8.131392590598131e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940650963156e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287496987908e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.85085027889446e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.088962172143236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0545044937031489e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620977916e-07], ["'mechanical disinfection' (unit, GLO, None)", 6.010848182056133e-07], ["'autoclave' (unit, GLO, None)", 1.21970888858972e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023827392063e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.418797783021724e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310913528905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282044255407e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290679922887214e-10], ["'mixed heating grid' (megajoule, GLO, None)", -5.359338620744792e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.894019620977916e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705650266504e-07], ["'autoclave' (unit, GLO, None)", 1.21970888858972e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023827392063e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.418797783021724e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5582310913528905e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 6.932282044255407e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2264619316527378e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508336758982e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.2179390698530686e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725500699558e-07], ["'mechanical disinfection' (unit, GLO, None)", 3.0054240910280663e-07], ["'autoclave' (unit, GLO, None)", 9.147816664422898e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929682934227e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160593871228e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462182705781e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722405699825e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145339961443586e-11], ["'mixed heating grid' (megajoule, GLO, None)", -2.679669310372396e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.320725500699558e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705650266504e-07], ["'autoclave' (unit, GLO, None)", 9.147816664422898e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929682934227e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160593871228e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462182705781e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.1600722405699824e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2264619316527378e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586172222924e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700054937144569e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.191142376749344e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845729009904], ["'autoclave' (unit, GLO, None)", 0.011815228317266575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124194300446698e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002267731455450902], ["'mixed heating grid' (megajoule, GLO, None)", -0.001212458421205857], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040950010559103585], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665677942489734], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508070974373], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652222430427], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150729796]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845729009904], ["'autoclave' (unit, GLO, None)", 0.011815228317266575], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783133941266], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.335203814798344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118209703006015], ["'mixed heating grid' (megajoule, GLO, None)", -0.008083056141372379], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00123650150729796]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.16319953493617], ["'autoclave' (unit, GLO, None)", 0.015753637756355434], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849187731808738e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.0423941550021346e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854362399653], ["'mixed heating grid' (megajoule, GLO, None)", -0.00346877653363261], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665223588757], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650642885259], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255961853567245], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082718935895896], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685286736267]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.16319953493617], ["'autoclave' (unit, GLO, None)", 0.015753637756355434], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003200783981391906], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221407901078034e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236241599772], ["'mixed heating grid' (megajoule, GLO, None)", -0.023125176890884065], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0035177685286736267]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822384203171], ["'mechanical disinfection' (unit, GLO, None)", 0.011721162991352988], ["'autoclave' (unit, GLO, None)", 0.02363045663453316], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190297650224], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123306130677], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849283766616e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708570034635], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.806955106323401e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.0354150694164384e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006498822384203171], ["'wet wipe' (unit, GLO, None)", 0.012386853610494747], ["'autoclave' (unit, GLO, None)", 0.02363045663453316], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190297650224], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123306130677], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849283766616e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00023125708570034635], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287701537485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858323462517476], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012221361885755627]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961267805111], ["'mechanical disinfection' (unit, GLO, None)", 0.005860581495676494], ["'autoclave' (unit, GLO, None)", 0.017722842475899864], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410834152959], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151900364273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569856753323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0003869936679486337], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034775531616955e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0177075347082192e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003837961267805111], ["'wet wipe' (unit, GLO, None)", 0.012386853610494747], ["'autoclave' (unit, GLO, None)", 0.017722842475899864], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002120410834152959], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151900364273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569856753323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0038699366794863366], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393287701537485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.001887425213473e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667975707201362], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012119591132284805]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188409811598503], ["'autoclave' (unit, DK, None)", 0.0007704106131069967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.761349901315382e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.118084848901607e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.737644611538529e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091834263244786], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102784453212793e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908696204763177e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418545421725], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365818695119e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188409811598503], ["'autoclave' (unit, DK, None)", 0.0007704106131069967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461961999263e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162956150477e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389899267738e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003158429741025686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365818695119e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056819863669496], ["'autoclave' (unit, DK, None)", 0.001027214150809329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9877478513884186e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399742191894e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778959053117e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013554139396261918], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211630383466], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396729907727826e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836375087250835e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427759273726], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670477869976]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056819863669496], ["'autoclave' (unit, DK, None)", 0.001027214150809329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242806196976e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23515362778123e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193060354132], ["'mixed heating grid' (megajoule, DK, None)", -0.0009036092930841278], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670477869976]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737335993882399], ["'mechanical disinfection' (unit, DK, None)", 0.0007504184385824863], ["'autoclave' (unit, DK, None)", 0.0015408212262139939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496719510092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002086713826007308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143854667642e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.72541518623043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853963958287e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953322825103183e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737335993882399], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0015408212262139939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496719510092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002086713826007308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143854667642e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.72541518623043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093323131685e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.775460194843407e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'mechanical disinfection' (unit, DK, None)", 0.00037520921929124314], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601413907245168e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926981979118e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9766614125515916e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014601413907245166], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624405331192e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356935807178905e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.247667884169238], ["'autoclave' (unit, DK, None)", 0.22259098188612164], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290448048065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916779607403], ["'mixed heating grid' (megajoule, DK, None)", -0.013857791662173826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376149184344764], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760031586342419], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147118563214717], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0494545256284145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122523373368]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.247667884169238], ["'autoclave' (unit, DK, None)", 0.22259098188612164], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491792630023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503881380986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752778530716018], ["'mixed heating grid' (megajoule, DK, None)", -0.09238527774782551], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122523373368]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087357357939408], ["'autoclave' (unit, DK, None)", 0.2967879758481622], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697201643518], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009937204645081629], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299962491261], ["'mixed heating grid' (megajoule, DK, None)", -0.039646376061218125], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4046267154534122], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830689118219563], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00787650476663552], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930852289694226], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.044079797938331194]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087357357939408], ["'autoclave' (unit, DK, None)", 0.2967879758481622], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110364121134], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0661473500690844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199974994181], ["'mixed heating grid' (megajoule, DK, None)", -0.26430917374145413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.044079797938331194]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13343703892212214], ["'mechanical disinfection' (unit, DK, None)", 0.22422044798007632], ["'autoclave' (unit, DK, None)", 0.44518196377224345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158508447571], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0447803385997261], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315920011997], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931681372342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935926346068e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263773408385664]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13343703892212214], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.44518196377224345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158508447571], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0447803385997261], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315920011997], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931681372342], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973679315017], ["'mixed heating grid' (megajoule, DK, None)", -0.01396840368945554]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'mechanical disinfection' (unit, DK, None)", 0.11211022399003816], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00484926809354945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967963173024e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631886704192832]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04849268093549449], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017113518451], ["'mixed heating grid' (megajoule, DK, None)", -0.013852084822413612]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819006924819134], ["'autoclave' (unit, DK, None)", 0.046071943160264785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293368790164], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602673697873817], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292370457424269], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658377660383], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253789171729], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126320981916327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485101078922], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699896003686]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819006924819134], ["'autoclave' (unit, DK, None)", 0.046071943160264785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549805458893], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224682833013], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449131915877], ["'mixed heating grid' (megajoule, DK, None)", -0.004861580304949513], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699896003686]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901110695293], ["'autoclave' (unit, DK, None)", 0.061429257547019715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300832470486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489574487016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066865390674], ["'mixed heating grid' (megajoule, DK, None)", -0.002086306884825884], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312449076196442], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449695870322679], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991285137606155], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376084810964], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054450972511]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901110695293], ["'autoclave' (unit, DK, None)", 0.061429257547019715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746424072928], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034730401726828465], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377910260454], ["'mixed heating grid' (megajoule, DK, None)", -0.01390871256550589], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054450972511]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0065457413244776426], ["'mechanical disinfection' (unit, DK, None)", 0.04698625592218581], ["'autoclave' (unit, DK, None)", 0.0921438863205296], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171441996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0047747607126877156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950442377426e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055818158793e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675014335941e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242069881494508e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0065457413244776426], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.0921438863205296], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171441996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0047747607126877156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950442377426e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055818158793e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883097845237769], ["'mixed heating grid' (megajoule, DK, None)", -0.0007350577702824468]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'mechanical disinfection' (unit, DK, None)", 0.023493127961092906], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443661859637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008375071679647e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121034940747254e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015663443661859636], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894701660964], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289367353416995]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032082863136484], ["'autoclave' (unit, DK, None)", 0.05815749255563378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152629310425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003729728045091046], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540180157711627], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681966336027], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330802670634], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588597322378256], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853840002388805], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586954781544894]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032082863136484], ["'autoclave' (unit, DK, None)", 0.05815749255563378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704362714037], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331795901753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853633940307], ["'mixed heating grid' (megajoule, DK, None)", -0.006360120105141085], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586954781544894]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952714644563127], ["'autoclave' (unit, DK, None)", 0.0775433234075117], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366791411766], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931445463105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545804594353], ["'mixed heating grid' (megajoule, DK, None)", -0.0027293928170159416], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419800236376236], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001501041309541647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834976803312763], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.044658704232081146], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873946945762297]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952714644563127], ["'autoclave' (unit, DK, None)", 0.0775433234075117], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038787899613278984], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0050289665244875985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697203062908], ["'mixed heating grid' (megajoule, DK, None)", -0.01819595211343961], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873946945762297]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384728630735], ["'mechanical disinfection' (unit, DK, None)", 0.059260756660717825], ["'autoclave' (unit, DK, None)", 0.1163149851112676], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844510155], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0059889070559211175], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850148375983e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927302497795], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282477838068e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015581333206825e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384728630735], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.1163149851112676], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844510155], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0059889070559211175], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850148375983e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927302497795], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498501332136], ["'mixed heating grid' (megajoule, DK, None)", -0.0009616329279707573]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'mechanical disinfection' (unit, DK, None)", 0.029630378330358913], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500882746517], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641238919026e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007790666603412e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020615500882746516], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920889429545], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536251373041539]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751937338483626], ["'autoclave' (unit, DK, None)", 2.3654223123466656], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234422198172], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065494396788], ["'mixed heating grid' (megajoule, DK, None)", -0.07078878018682692], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441616656416914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535831042330842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919290290644128], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311979595417], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537395515982]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751937338483626], ["'autoclave' (unit, DK, None)", 2.3654223123466656], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286392299722], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805811017439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571376996264525], ["'mixed heating grid' (megajoule, DK, None)", -0.4719252012455129], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537395515982]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445248609966], ["'autoclave' (unit, DK, None)", 3.1538964164622207], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729251645294], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029061542115883597], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.036783353802751995], ["'mixed heating grid' (megajoule, DK, None)", -0.20252278780193453], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004688064363], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0768554138167239], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.057816309993268776], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073797069132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997210660975]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445248609966], ["'autoclave' (unit, DK, None)", 3.1538964164622207], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933499435838], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491709233589], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522235868501346], ["'mixed heating grid' (megajoule, DK, None)", -1.3501519186795634], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997210660975]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2402569760534228], ["'mechanical disinfection' (unit, DK, None)", 2.3912587510119407], ["'autoclave' (unit, DK, None)", 4.730844624693333], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312142793317], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173146161299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343889269113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131647942866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583803945823062], ["'mixed heating grid' (megajoule, DK, None)", -0.0011883669362828565]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2402569760534228], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 4.730844624693333], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312142793317], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173146161299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343889269113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131647942866], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959689787927666], ["'mixed heating grid' (megajoule, DK, None)", -0.07135381180774801]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'mechanical disinfection' (unit, DK, None)", 1.1956293755059704], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555329637047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791901972911502], ["'mixed heating grid' (megajoule, DK, None)", -0.0005941834681414283]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.11456555329637044], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285177076819858], ["'mixed heating grid' (megajoule, DK, None)", -0.07075962833960657]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597922898768], ["'autoclave' (unit, DK, None)", 0.05699652207816925], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.662922819623305e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638708264152], ["'mixed heating grid' (megajoule, DK, None)", -0.003968991393431242], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246643514079], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776607886218842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179652632904674], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314719813992], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004208732611132142]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597922898768], ["'autoclave' (unit, DK, None)", 0.05699652207816925], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088973768735], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637372025372128e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092472176102], ["'mixed heating grid' (megajoule, DK, None)", -0.02645994262287495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004208732611132142]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511106208858], ["'autoclave' (unit, DK, None)", 0.07599536277089233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001320435153594263], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460734475205364e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003474800108634279], ["'mixed heating grid' (megajoule, DK, None)", -0.011355065020729952], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2911741604962572], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002340532470609554], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627839430620683], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074568961688], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973577903189227]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511106208858], ["'autoclave' (unit, DK, None)", 0.07599536277089233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715743588080945], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957145440942172], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165334057561878], ["'mixed heating grid' (megajoule, DK, None)", -0.075700433471533], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973577903189227]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050839500837], ["'mechanical disinfection' (unit, DK, None)", 0.05775317583815584], ["'autoclave' (unit, DK, None)", 0.11399304415633854], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467743858377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444671454], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747746453257e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395484743976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.03894959382621e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662945921510067e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050839500837], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.11399304415633854], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467743858377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444671454], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747746453257e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395484743976], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001224258443763452], ["'mixed heating grid' (megajoule, DK, None)", -0.00400067163477081]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'mechanical disinfection' (unit, DK, None)", 0.02887658791907792], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267570916738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747969131025e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.3314729607550333e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.013172267570916735], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636957943239], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356905163259]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541602747309945e-05], ["'autoclave' (unit, DK, None)", 0.00022512372814226776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831956605441997e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580765063717e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294674621043863e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.36672651767721e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04196147733744e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647946798767e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690139074835725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429152198651e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541602747309945e-05], ["'autoclave' (unit, DK, None)", 0.00022512372814226776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140831018564316e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930638601211985e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.555720510042478e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.8631164140292423e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429152198651e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899572898265], ["'autoclave' (unit, DK, None)", 0.000300164970856357], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315030702288715e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.737002748263315e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662696765253e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2286826735261007e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316357700758e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184544252180643e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.1185005506862857e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039176010065e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524708311984e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899572898265], ["'autoclave' (unit, DK, None)", 0.000300164970856357], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828403103820935e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.8158164190567355e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775131176841e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.191217823507339e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524708311984e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.914085597243836e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381664218233606], ["'autoclave' (unit, DK, None)", 0.00045024745628453563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467382996302144e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218560316255e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397764468825e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587433384187e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625273875584e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209686772779524e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.914085597243836e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00045024745628453563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467382996302144e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218560316255e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397764468825e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587433384187e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180167227428e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.32895444555917e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690832109116803], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609072e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812636937783e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.604843386389762e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609067e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002040858059e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.292906011695272e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917950054207846e-06], ["'autoclave' (unit, DK, None)", 0.00015413112165581715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296613051938488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075681022545e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.663804075124159e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016858285555e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983469933647e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323057813319e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142618047929e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851340375305e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917950054207846e-06], ["'autoclave' (unit, DK, None)", 0.00015413112165581715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510236139031084e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164245664473e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2133383787348364e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.1092027167494394e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851340375305e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293560697871747e-05], ["'autoclave' (unit, DK, None)", 0.0002055081622077562], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044436797774e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568281111741564e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358164119237e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3342885702555646e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743756058088484e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595484229897384e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957878262188674e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.4115894698726565e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024162973861e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293560697871747e-05], ["'autoclave' (unit, DK, None)", 0.0002055081622077562], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052433529884e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080740034657e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238776079496e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.895257135037098e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024162973861e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451653857245e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540579344352707e-05], ["'autoclave' (unit, DK, None)", 0.0003082622433116344], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312136441555e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134661448332e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806500590737e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984563741018376e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464059881874e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.829362994462454e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451653857245e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.0003082622433116344], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312136441555e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134661448332e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806500590737e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984563741018376e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3465076610933143e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.7010302678805656e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289672176353e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085816e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320299409295e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.914681497231227e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085815e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3186403407939126e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618834529082527e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957966219641127], ["'autoclave' (unit, DK, None)", 0.021468112364053785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203054129824933e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640096652532], ["'mixed heating grid' (megajoule, DK, None)", -0.0006324937442773581], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078843480443], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499904011044427], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255140154022441], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454001146282093], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079300086367]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957966219641127], ["'autoclave' (unit, DK, None)", 0.021468112364053785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106699469323086], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147412075817256e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547760064435021], ["'mixed heating grid' (megajoule, DK, None)", -0.004216624961849055], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079300086367]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851041911020474], ["'autoclave' (unit, DK, None)", 0.028624149818738377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026060985059223876], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.23452348410437e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933501104370676], ["'mixed heating grid' (megajoule, DK, None)", -0.001809529646086083], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757009989928398], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597058488760944], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830477217756733], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363383510653786], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400452239798857]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851041911020474], ["'autoclave' (unit, DK, None)", 0.028624149818738377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001720197033612137], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021530718632792008], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289000736247123], ["'mixed heating grid' (megajoule, DK, None)", -0.012063530973907218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400452239798857]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02370930667937485], ["'mechanical disinfection' (unit, DK, None)", 0.02119693227563219], ["'autoclave' (unit, DK, None)", 0.04293622472810758], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009683479581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853805022534], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906087372324364e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198302248195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579871907194e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617991313330021e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02370930667937485], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.04293622472810758], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009683479581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853805022534], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906087372324364e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198302248195], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038521441891469784], ["'mixed heating grid' (megajoule, DK, None)", -0.0006375422698291232]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'mechanical disinfection' (unit, DK, None)", 0.010598466137816094], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244276670207016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077899359535885e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.3089956566650105e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0022442766702070157], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066289787452], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322332741724581]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553441636421933], ["'autoclave' (unit, DK, None)", 0.6714095900306614], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742453674527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550519745571], ["'mixed heating grid' (megajoule, DK, None)", -0.01751756356727522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894952289782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169914717759652], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945385646969226], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117859489914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807653314142]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553441636421933], ["'autoclave' (unit, DK, None)", 0.6714095900306614], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149917489916721], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941266028950268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336798303805], ["'mixed heating grid' (megajoule, DK, None)", -0.11678375711516814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807653314142]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448101342144495], ["'autoclave' (unit, DK, None)", 0.8952127867075484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394358376992], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046112138429], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321808282629], ["'mixed heating grid' (megajoule, DK, None)", -0.050116781215596796], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698876521345413], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935497578148], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.023934517973676208], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681087180258], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737595979157]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448101342144495], ["'autoclave' (unit, DK, None)", 0.8952127867075484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.323920419694851], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0419963859744169], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812055217536], ["'mixed heating grid' (megajoule, DK, None)", -0.3341118747706453], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737595979157]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089489611244], ["'mechanical disinfection' (unit, DK, None)", 0.6530819961466987], ["'autoclave' (unit, DK, None)", 1.3428191800613232], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135631447706], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243223375775], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162573754586], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001022495753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001968561705], ["'mixed heating grid' (megajoule, DK, None)", -0.00029407616987666254]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089489611244], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.3428191800613232], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135631447706], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243223375775], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162573754586], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001022495753], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874991727880164], ["'mixed heating grid' (megajoule, DK, None)", -0.017657387665259146]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'mechanical disinfection' (unit, DK, None)", 0.32654099807334935], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037244074958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250009842808374e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014703808493833127]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.05201037244074957], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741718037371], ["'mixed heating grid' (megajoule, DK, None)", -0.017510349580320814]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109664910736055], ["'autoclave' (unit, DK, None)", 0.06018770930716342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877178041586e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237045687974], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650668190230945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398663217282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152359033353387], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585727226815], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712190735319], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001003286304509496]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109664910736055], ["'autoclave' (unit, DK, None)", 0.06018770930716342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.679339062064977e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114081068503148e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824697125315], ["'mixed heating grid' (megajoule, DK, None)", -0.007767112126820631], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001003286304509496]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191440753664197], ["'autoclave' (unit, DK, None)", 0.08025027907621789], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434362476136454e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092608962001865e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379797835211], ["'mixed heating grid' (megajoule, DK, None)", -0.0033331917789988616], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459813691026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0021526517479024754], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0024597844212691502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806250911358], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002854286037196319]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191440753664197], ["'autoclave' (unit, DK, None)", 0.08025027907621789], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547433977647824e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380794415435891e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198652234758], ["'mixed heating grid' (megajoule, DK, None)", -0.022221278526659075], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002854286037196319]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138935596821], ["'mechanical disinfection' (unit, DK, None)", 0.06230871875245788], ["'autoclave' (unit, DK, None)", 0.12037541861432688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010738168882], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964807981586], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650621693088586e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859655448], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898642666446e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.955856397911112e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138935596821], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.12037541861432688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010738168882], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964807981586], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650621693088586e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859655448], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762568870893], ["'mixed heating grid' (megajoule, DK, None)", -0.0011743663095849688]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'mechanical disinfection' (unit, DK, None)", 0.03115435937622894], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136581935], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949321333193e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.77928198955556e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0031400321365819346], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483075657594], ["'mixed heating grid' (megajoule, DK, None)", -0.001164587027595413]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585039371011], ["'autoclave' (unit, DK, None)", 0.04303643783726186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666305107554916e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018782848025], ["'mixed heating grid' (megajoule, DK, None)", -0.009030612862528358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236045217438747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319994536496607], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646122373121545], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522484918756986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832403404741906]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585039371011], ["'autoclave' (unit, DK, None)", 0.04303643783726186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9685118342396252e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2723628129470843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006780012521898684], ["'mixed heating grid' (megajoule, DK, None)", -0.060204085750189054], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832403404741906]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225292467247306], ["'autoclave' (unit, DK, None)", 0.05738191711634915], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400832194008543e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283457571658745e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002909586166712477], ["'mixed heating grid' (megajoule, DK, None)", -0.02583608430110499], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624630578883893], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814755637198008], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918157908822034], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654221103875208], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572993943978]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225292467247306], ["'autoclave' (unit, DK, None)", 0.05738191711634915], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.54510375842148e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845219477791078e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019397241111416528], ["'mixed heating grid' (megajoule, DK, None)", -0.17224056200736657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572993943978]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341452602074327], ["'mechanical disinfection' (unit, DK, None)", 0.04429419813455004], ["'autoclave' (unit, DK, None)", 0.08607287567452375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475760202553973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389514337264], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.79518255827049e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000726264253550711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072923182198386e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001516014502845811]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341452602074327], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.08607287567452375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475760202553973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389514337264], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.79518255827049e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000726264253550711], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251195237400612], ["'mixed heating grid' (megajoule, DK, None)", -0.009102694650209376]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'mechanical disinfection' (unit, DK, None)", 0.02214709906727502], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153559166863843], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461591099171e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580072514229055e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.012153559166863842], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830621489645], ["'mixed heating grid' (megajoule, DK, None)", -0.009026893925067085]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064263609871142], ["'autoclave' (unit, DK, None)", 0.003531539003013573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243245181060849e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1297781317537295e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164738612740972e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050234138819627], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447249265569555e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296503865654432], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576737453479], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574296160147]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064263609871142], ["'autoclave' (unit, DK, None)", 0.003531539003013573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.1427140921057967e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544723642195848e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865187545024864], ["'mixed heating grid' (megajoule, DK, None)", -0.0005443159075160649], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574296160147]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902611103434651], ["'autoclave' (unit, DK, None)", 0.004708718670684764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679469998705022e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690616619579e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122260214465e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0002335886592709093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003110165237747246], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00028433468663364677], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101697863243907], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866686606614], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750924835353]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902611103434651], ["'autoclave' (unit, DK, None)", 0.004708718670684764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000116696171608614], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690432979929721e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414840142981], ["'mixed heating grid' (megajoule, DK, None)", -0.0015572577284727286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750924835353]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642898004657], ["'mechanical disinfection' (unit, DK, None)", 0.0028827928360491495], ["'autoclave' (unit, DK, None)", 0.007063078006027149], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921821383774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764556630424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433599242385e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355724780529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116315977141e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3706558278255097e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642898004657], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.007063078006027149], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921821383774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764556630424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433599242385e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355724780529e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547598252684426e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.229909046255695e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'mechanical disinfection' (unit, DK, None)", 0.0014413964180245748], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515756020207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058157988564e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853279139127548e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015722515756020205], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489243688564e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161376254864419e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733840433402183e-08], ["'autoclave' (unit, DK, None)", 2.694093644540442e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668430655967e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2634901546953076e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3328293688843016e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525669182024057e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167553009238e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170096157030477e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.507987461236878e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.86060407545479e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733840433402183e-08], ["'autoclave' (unit, DK, None)", 2.694093644540442e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686528753023e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796566541075e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5089934364635386e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.885529125895345e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.86060407545479e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905332916981e-07], ["'autoclave' (unit, DK, None)", 3.5921248593872555e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201434101643e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199546619e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.505855443311194e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.813151162350056e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264504874321e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545164479930716e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871046847853747e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753411934869e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362921088081822e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905332916981e-07], ["'autoclave' (unit, DK, None)", 3.5921248593872555e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7255455010571905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783284831493e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036288741301e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.542100774900037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362921088081822e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.39714412565362e-08], ["'mechanical disinfection' (unit, DK, None)", 2.5831392372195993e-07], ["'autoclave' (unit, DK, None)", 5.388187289080885e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981712407326e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374187932773e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457507931943e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319647448674e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086245280766e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.2374878469562844e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.39714412565362e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 5.388187289080885e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981712407326e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374187932773e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457507931943e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319647448674e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305503004273443e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3434679296382e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2915696186097997e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170072982528e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431226403715e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187439234781422e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601700729825274e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322573047052e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3322804904034183e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099036910400239], ["'autoclave' (unit, DK, None)", 0.000268355384604779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943122041447846e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052204866764473e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207294348765124e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957867129109], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362617453217634e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336732945919162e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.6414716106175937e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317500925114e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099036910400239], ["'autoclave' (unit, DK, None)", 0.000268355384604779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566962082215e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338617731275323e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136577842984e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001347152956584342], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317500925114e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865844769858729], ["'autoclave' (unit, DK, None)", 0.00035780717947303867], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829588584660723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970296057207125e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525507698425e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.781195232698403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040701371480330277], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130207868907442e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063886040664324e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891469325683366], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181751049612e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865844769858729], ["'autoclave' (unit, DK, None)", 0.00035780717947303867], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108639329809058e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.395895087090687e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683671798955e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00038541301551322686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181751049612e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024999713073634326], ["'mechanical disinfection' (unit, DK, None)", 0.00026064372075635094], ["'autoclave' (unit, DK, None)", 0.0005367107692095582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695263167655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504150136452e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737666596773e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773479883059312e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015444958826e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.392300363480002e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024999713073634326], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0005367107692095582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695263167655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504150136452e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737666596773e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773479883059312e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8355935188698806e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.036858770980593e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'mechanical disinfection' (unit, DK, None)", 0.00013032186037817547], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.98810762156626e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007722479404e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.696150181740001e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107621566258e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534416450953e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.019897269163193e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581879790948417], ["'autoclave' (unit, DK, None)", 0.0004759603108342956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2144315630849516e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578824863395e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0217901737084745e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002981409944546082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274325766527174e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221678870132434e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230477258698e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767935593465e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581879790948417], ["'autoclave' (unit, DK, None)", 0.0004759603108342956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79649197176665e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781084000877576e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385883242264e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033478601158056496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767935593465e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484544905806], ["'autoclave' (unit, DK, None)", 0.0006346137477790608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324893595705e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450668897828e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591276330630317e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001436706414564069], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385605510496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.189360182158664e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.572967912735905e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000244147337387569], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.8971842956008e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484544905806], ["'autoclave' (unit, DK, None)", 0.0006346137477790608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877442173990564e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144974129558e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727517553753558], ["'mixed heating grid' (megajoule, DK, None)", -0.000957804276376046], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.8971842956008e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652206574926], ["'mechanical disinfection' (unit, DK, None)", 0.00047574154937322856], ["'autoclave' (unit, DK, None)", 0.0009519206216685915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702372748621e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719342541228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849883258777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.5063803322581455e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603277995455377e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.430332303558788e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652206574926], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0009519206216685915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702372748621e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719342541228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849883258777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.5063803322581455e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767572364475e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.061873789138594e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'mechanical disinfection' (unit, DK, None)", 0.00023787077468661428], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800363553859e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638997727669e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215166151779394e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010888003635538588], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.29075118238722e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0197221276207997e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164942737989614], ["'autoclave' (unit, DK, None)", 0.00048807718986053914], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521194301764e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365837895082e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.199490913199815e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564096349692], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.5833312340295796e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445707225441036e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.09054797326344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069124967221355e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164942737989614], ["'autoclave' (unit, DK, None)", 0.00048807718986053914], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766803310766e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3961699142148026e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243891930054e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034663272754665436], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069124967221355e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764859588806121], ["'autoclave' (unit, DK, None)", 0.0006507695864807189], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541325919948e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369187094589682e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191465380528996e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001487545614026569], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693648666352], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823618277176403e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404537584203394e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717738947448], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437767573416]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764859588806121], ["'autoclave' (unit, DK, None)", 0.0006507695864807189], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469522059373e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230553111596172e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127643587019344], ["'mixed heating grid' (megajoule, DK, None)", -0.0009916970760177127], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437767573416]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943641957366], ["'mechanical disinfection' (unit, DK, None)", 0.0004877286896019], ["'autoclave' (unit, DK, None)", 0.0009761543797210785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854589731838e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143347110637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846682193127e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745839511274627e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955458029198622e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.728647492501428e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943641957366], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0009761543797210785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854589731838e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143347110637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846682193127e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745839511274627e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580229092227734e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.2409929248306984e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'mechanical disinfection' (unit, DK, None)", 0.00024386434480095], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.128872297233605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.97772901459929e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.364323746250714e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001128872297233605], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451802081763e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349687368191e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873638805205], ["'autoclave' (unit, DK, None)", 0.004165479060726981], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550784065771117e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299290893568e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364060333029202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571500088924896], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.989636193264576e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370730421544957e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004621110912581378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069610017125]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873638805205], ["'autoclave' (unit, DK, None)", 0.004165479060726981], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249408387785], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110565867010091e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199527262379], ["'mixed heating grid' (megajoule, DK, None)", -0.0006242706888686135], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069610017125]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755801669799746], ["'autoclave' (unit, DK, None)", 0.005553972080969308], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472634847182e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025807018518843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135324501433], ["'mixed heating grid' (megajoule, DK, None)", -0.00026790059085429654], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002975422210458994], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997934173903093e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153919701765414], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213838257405], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277150017066]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755801669799746], ["'autoclave' (unit, DK, None)", 0.005553972080969308], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898661805179658], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345446009287619e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423549667635], ["'mixed heating grid' (megajoule, DK, None)", -0.0017860039390286435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277150017066]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273969164187], ["'mechanical disinfection' (unit, DK, None)", 0.004000203821408868], ["'autoclave' (unit, DK, None)", 0.008330958121453966], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.51184435080894e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073736761785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988446125982e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056373265861e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280838351957e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5719920105644843e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273969164187], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.008330958121453966], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.51184435080894e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073736761785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988446125982e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056373265861e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871038773133e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.438803677587623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'mechanical disinfection' (unit, DK, None)", 0.002000101910704434], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784317427014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640419175961e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.859960052822422e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005122478431742701], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864634581393e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360204077059398e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262135748798e-09], ["'autoclave' (unit, DK, None)", 1.4473329624477082e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965861586061e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485222999233684e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992677304991334e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933688154229e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011355763984238e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950035125676844e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755482008328e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566179817168e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262135748798e-09], ["'autoclave' (unit, DK, None)", 1.4473329624477082e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538095071125e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352031147321e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148666155789e-10], ["'mixed heating grid' (megajoule, DK, None)", -9.32845153666089e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566179817168e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679279849177e-09], ["'autoclave' (unit, DK, None)", 1.9297772832636107e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183701500716e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352383046334e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464869629329e-11], ["'mixed heating grid' (megajoule, DK, None)", -4.0032276430538814e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668521969970512e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.11992260857778e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105994074997563e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269149861502e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.76515506191634e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679279849177e-09], ["'autoclave' (unit, DK, None)", 1.9297772832636107e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487591749649e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240644033883e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.43297657975289e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.6688184287025876e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.76515506191634e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031254685603e-10], ["'mechanical disinfection' (unit, DK, None)", 1.4521285524564737e-09], ["'autoclave' (unit, DK, None)", 2.8946659248954173e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340100050643e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057943093323e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184129164757e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049405923884e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957973508441e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.349021273631381e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031254685603e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.8946659248954173e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340100050643e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057943093323e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184129164757e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049405923884e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8712590269598747e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.4104365981047036e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260642762282368e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909789867542147e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1745106368156906e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492370923392e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914917365465e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981147820756165e-07], ["'autoclave' (unit, DK, None)", 6.098545586628893e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.00024825770281e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051734643327e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1924565265113074e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655891093617e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628137920452114e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795700336993785e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353244695439e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773685051868e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981147820756165e-07], ["'autoclave' (unit, DK, None)", 6.098545586628893e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.990818937354201e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780955930723e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936782309555e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.1283043510075382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773685051868e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425452801509515e-06], ["'autoclave' (unit, DK, None)", 8.131394115505191e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030112934126e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016416095196e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755695003285e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.133441683543318e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355984866142e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968182090681117e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.649598863551085e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.3040431675198423e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621971081106e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425452801509515e-06], ["'autoclave' (unit, DK, None)", 8.131394115505191e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940668603384e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287523175829e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.850850379666887e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.088961122362212e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621971081106e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421526969435747e-07], ["'mechanical disinfection' (unit, DK, None)", 6.010856037965267e-07], ["'autoclave' (unit, DK, None)", 1.2197091173257791e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023574747758e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.41879778215033e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231159305223e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.91951344261283e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680809858664e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.359337696756132e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421526969435747e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 1.2197091173257791e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023574747758e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.41879778215033e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231159305223e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.91951344261283e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508869328442e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.2179385150571475e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'mechanical disinfection' (unit, DK, None)", 3.0054280189826337e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.14534040492931e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.679668848378066e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055465279172e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141826573367e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845509046995], ["'autoclave' (unit, DK, None)", 0.011815230642179259], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124196052168807e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315597719857], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124582117382428], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001070989502], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466568737583866], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767515311140387], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.003579365288850814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307216793785]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845509046995], ["'autoclave' (unit, DK, None)", 0.011815230642179259], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362784296298929], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352039801199898e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210398479904], ["'mixed heating grid' (megajoule, DK, None)", -0.00808305474492162], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307216793785]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995272607774], ["'autoclave' (unit, DK, None)", 0.015753640856239013], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849188227857149e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.0423949031564866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854660856507], ["'mixed heating grid' (megajoule, DK, None)", -0.003468775934357343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665266030057], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423653482048529], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255964034580116], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082719123523421], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215784486116]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995272607774], ["'autoclave' (unit, DK, None)", 0.015753640856239013], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00032007843088166], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.022141288119364e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236440571008], ["'mixed heating grid' (megajoule, DK, None)", -0.02312517289571562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215784486116]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499250831302], ["'mechanical disinfection' (unit, DK, None)", 0.011721177616971962], ["'autoclave' (unit, DK, None)", 0.023630461284358525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218988519799], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331232970923836], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714286223714236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074845731866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552814524626e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.035414717772596e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499250831302], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.023630461284358525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218988519799], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331232970923836], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714286223714236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074845731866], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858324514055158], ["'mixed heating grid' (megajoule, DK, None)", -0.0012221359774359914]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'mechanical disinfection' (unit, DK, None)", 0.005860588808485981], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693285993957386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776407262264e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.017707358886298e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003869328599395738], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976749982588], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119589038471284]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -100,7 +100,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'mechanical disinfection' (unit, DK, None)", 0.00037520921929124314], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601413907245168e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926981979118e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9766614125515916e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00014601413907245166], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624405331192e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356935807178905e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601413907245168e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624405331192e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356935807178905e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.247667884169238], ["'autoclave' (unit, DK, None)", 0.22259098188612164], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290448048065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916779607403], ["'mixed heating grid' (megajoule, DK, None)", -0.013857791662173826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376149184344764], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760031586342419], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147118563214717], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0494545256284145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122523373368]]</t>
@@ -124,7 +124,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'mechanical disinfection' (unit, DK, None)", 0.11211022399003816], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00484926809354945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967963173024e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631886704192832]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04849268093549449], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017113518451], ["'mixed heating grid' (megajoule, DK, None)", -0.013852084822413612]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00484926809354945], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017113518451], ["'mixed heating grid' (megajoule, DK, None)", -0.013852084822413612]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007819006924819134], ["'autoclave' (unit, DK, None)", 0.046071943160264785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293368790164], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602673697873817], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292370457424269], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658377660383], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253789171729], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126320981916327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485101078922], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699896003686]]</t>
@@ -148,7 +148,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'mechanical disinfection' (unit, DK, None)", 0.023493127961092906], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443661859637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008375071679647e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121034940747254e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015663443661859636], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894701660964], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289367353416995]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443661859637], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894701660964], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289367353416995]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01032082863136484], ["'autoclave' (unit, DK, None)", 0.05815749255563378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152629310425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003729728045091046], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540180157711627], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681966336027], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330802670634], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588597322378256], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853840002388805], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586954781544894]]</t>
@@ -172,7 +172,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'mechanical disinfection' (unit, DK, None)", 0.029630378330358913], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500882746517], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641238919026e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007790666603412e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020615500882746516], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920889429545], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536251373041539]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500882746517], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920889429545], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536251373041539]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6751937338483626], ["'autoclave' (unit, DK, None)", 2.3654223123466656], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234422198172], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065494396788], ["'mixed heating grid' (megajoule, DK, None)", -0.07078878018682692], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441616656416914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535831042330842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919290290644128], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311979595417], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537395515982]]</t>
@@ -196,7 +196,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'mechanical disinfection' (unit, DK, None)", 1.1956293755059704], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555329637047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791901972911502], ["'mixed heating grid' (megajoule, DK, None)", -0.0005941834681414283]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.11456555329637044], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285177076819858], ["'mixed heating grid' (megajoule, DK, None)", -0.07075962833960657]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555329637047], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285177076819858], ["'mixed heating grid' (megajoule, DK, None)", -0.07075962833960657]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1497597922898768], ["'autoclave' (unit, DK, None)", 0.05699652207816925], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.662922819623305e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638708264152], ["'mixed heating grid' (megajoule, DK, None)", -0.003968991393431242], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246643514079], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776607886218842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179652632904674], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314719813992], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004208732611132142]]</t>
@@ -220,7 +220,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'mechanical disinfection' (unit, DK, None)", 0.02887658791907792], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267570916738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747969131025e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.3314729607550333e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.013172267570916735], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636957943239], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356905163259]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267570916738], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636957943239], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356905163259]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.541602747309945e-05], ["'autoclave' (unit, DK, None)", 0.00022512372814226776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831956605441997e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580765063717e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294674621043863e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.36672651767721e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04196147733744e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647946798767e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690139074835725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429152198651e-06]]</t>
@@ -244,7 +244,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690832109116803], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609072e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812636937783e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.604843386389762e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609067e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002040858059e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.292906011695272e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609072e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002040858059e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.292906011695272e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.917950054207846e-06], ["'autoclave' (unit, DK, None)", 0.00015413112165581715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296613051938488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075681022545e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.663804075124159e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016858285555e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983469933647e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323057813319e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142618047929e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851340375305e-06]]</t>
@@ -268,7 +268,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289672176353e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085816e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320299409295e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.914681497231227e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085815e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3186403407939126e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618834529082527e-07]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085816e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3186403407939126e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618834529082527e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009957966219641127], ["'autoclave' (unit, DK, None)", 0.021468112364053785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203054129824933e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640096652532], ["'mixed heating grid' (megajoule, DK, None)", -0.0006324937442773581], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078843480443], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499904011044427], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255140154022441], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454001146282093], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079300086367]]</t>
@@ -292,7 +292,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'mechanical disinfection' (unit, DK, None)", 0.010598466137816094], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244276670207016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077899359535885e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.3089956566650105e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0022442766702070157], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066289787452], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322332741724581]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244276670207016], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066289787452], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322332741724581]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1553441636421933], ["'autoclave' (unit, DK, None)", 0.6714095900306614], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742453674527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550519745571], ["'mixed heating grid' (megajoule, DK, None)", -0.01751756356727522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894952289782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169914717759652], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945385646969226], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117859489914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807653314142]]</t>
@@ -316,7 +316,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'mechanical disinfection' (unit, DK, None)", 0.32654099807334935], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037244074958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250009842808374e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014703808493833127]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.05201037244074957], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741718037371], ["'mixed heating grid' (megajoule, DK, None)", -0.017510349580320814]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037244074958], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741718037371], ["'mixed heating grid' (megajoule, DK, None)", -0.017510349580320814]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.01109664910736055], ["'autoclave' (unit, DK, None)", 0.06018770930716342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877178041586e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237045687974], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650668190230945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398663217282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152359033353387], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585727226815], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712190735319], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001003286304509496]]</t>
@@ -340,7 +340,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'mechanical disinfection' (unit, DK, None)", 0.03115435937622894], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136581935], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949321333193e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.77928198955556e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0031400321365819346], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483075657594], ["'mixed heating grid' (megajoule, DK, None)", -0.001164587027595413]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136581935], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483075657594], ["'mixed heating grid' (megajoule, DK, None)", -0.001164587027595413]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.004202585039371011], ["'autoclave' (unit, DK, None)", 0.04303643783726186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666305107554916e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018782848025], ["'mixed heating grid' (megajoule, DK, None)", -0.009030612862528358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236045217438747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319994536496607], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646122373121545], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522484918756986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832403404741906]]</t>
@@ -364,7 +364,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'mechanical disinfection' (unit, DK, None)", 0.02214709906727502], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153559166863843], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461591099171e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580072514229055e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.012153559166863842], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830621489645], ["'mixed heating grid' (megajoule, DK, None)", -0.009026893925067085]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153559166863843], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830621489645], ["'mixed heating grid' (megajoule, DK, None)", -0.009026893925067085]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.002064263609871142], ["'autoclave' (unit, DK, None)", 0.003531539003013573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243245181060849e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1297781317537295e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164738612740972e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050234138819627], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447249265569555e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296503865654432], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576737453479], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574296160147]]</t>
@@ -388,7 +388,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'mechanical disinfection' (unit, DK, None)", 0.0014413964180245748], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515756020207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058157988564e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853279139127548e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0015722515756020205], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489243688564e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161376254864419e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515756020207], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489243688564e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161376254864419e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.733840433402183e-08], ["'autoclave' (unit, DK, None)", 2.694093644540442e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668430655967e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2634901546953076e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3328293688843016e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525669182024057e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167553009238e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170096157030477e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.507987461236878e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.86060407545479e-09]]</t>
@@ -412,7 +412,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2915696186097997e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170072982528e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431226403715e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187439234781422e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601700729825274e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322573047052e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3322804904034183e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170072982528e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322573047052e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3322804904034183e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0003099036910400239], ["'autoclave' (unit, DK, None)", 0.000268355384604779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943122041447846e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052204866764473e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207294348765124e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957867129109], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362617453217634e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336732945919162e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.6414716106175937e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317500925114e-05]]</t>
@@ -436,7 +436,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'mechanical disinfection' (unit, DK, None)", 0.00013032186037817547], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.98810762156626e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007722479404e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.696150181740001e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107621566258e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534416450953e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.019897269163193e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.98810762156626e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534416450953e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.019897269163193e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.000581879790948417], ["'autoclave' (unit, DK, None)", 0.0004759603108342956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2144315630849516e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578824863395e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0217901737084745e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002981409944546082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274325766527174e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221678870132434e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230477258698e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767935593465e-05]]</t>
@@ -460,7 +460,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'mechanical disinfection' (unit, DK, None)", 0.00023787077468661428], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800363553859e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638997727669e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215166151779394e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010888003635538588], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.29075118238722e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0197221276207997e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800363553859e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.29075118238722e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0197221276207997e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.0006164942737989614], ["'autoclave' (unit, DK, None)", 0.00048807718986053914], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521194301764e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365837895082e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.199490913199815e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564096349692], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.5833312340295796e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445707225441036e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.09054797326344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069124967221355e-05]]</t>
@@ -484,7 +484,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'mechanical disinfection' (unit, DK, None)", 0.00024386434480095], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.128872297233605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.97772901459929e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.364323746250714e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001128872297233605], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451802081763e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349687368191e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.128872297233605e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451802081763e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349687368191e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.001999873638805205], ["'autoclave' (unit, DK, None)", 0.004165479060726981], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550784065771117e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299290893568e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364060333029202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571500088924896], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.989636193264576e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370730421544957e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004621110912581378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069610017125]]</t>
@@ -508,7 +508,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'mechanical disinfection' (unit, DK, None)", 0.002000101910704434], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784317427014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640419175961e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.859960052822422e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005122478431742701], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864634581393e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360204077059398e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784317427014e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864634581393e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360204077059398e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 1.014262135748798e-09], ["'autoclave' (unit, DK, None)", 1.4473329624477082e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965861586061e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485222999233684e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992677304991334e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933688154229e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011355763984238e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950035125676844e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755482008328e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566179817168e-11]]</t>
@@ -532,7 +532,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260642762282368e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909789867542147e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1745106368156906e-12]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492370923392e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914917365465e-10]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492370923392e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914917365465e-10]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 4.981147820756165e-07], ["'autoclave' (unit, DK, None)", 6.098545586628893e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.00024825770281e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051734643327e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1924565265113074e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655891093617e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628137920452114e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795700336993785e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353244695439e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773685051868e-08]]</t>
@@ -556,7 +556,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'mechanical disinfection' (unit, DK, None)", 3.0054280189826337e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.14534040492931e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.679668848378066e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055465279172e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141826573367e-08]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055465279172e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141826573367e-08]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.05704845509046995], ["'autoclave' (unit, DK, None)", 0.011815230642179259], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124196052168807e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315597719857], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124582117382428], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001070989502], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466568737583866], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767515311140387], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.003579365288850814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307216793785]]</t>
@@ -580,7 +580,7 @@
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'mechanical disinfection' (unit, DK, None)", 0.005860588808485981], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693285993957386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776407262264e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.017707358886298e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003869328599395738], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976749982588], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119589038471284]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693285993957386], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976749982588], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119589038471284]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -14,573 +14,597 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188409811598503], ["'autoclave' (unit, DK, None)", 0.0007704106131069967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.761349901315382e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.118084848901607e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.737644611538529e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091834263244786], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102784453212793e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908696204763177e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418545421725], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365818695119e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007188409811598503], ["'autoclave' (unit, DK, None)", 0.0007704106131069967], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461961999263e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162956150477e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389899267738e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003158429741025686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365818695119e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056819863669496], ["'autoclave' (unit, DK, None)", 0.001027214150809329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9877478513884186e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399742191894e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778959053117e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013554139396261918], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211630383466], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396729907727826e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836375087250835e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427759273726], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670477869976]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056819863669496], ["'autoclave' (unit, DK, None)", 0.001027214150809329], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242806196976e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.23515362778123e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193060354132], ["'mixed heating grid' (megajoule, DK, None)", -0.0009036092930841278], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670477869976]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737335993882399], ["'mechanical disinfection' (unit, DK, None)", 0.0007504184385824863], ["'autoclave' (unit, DK, None)", 0.0015408212262139939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496719510092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002086713826007308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143854667642e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.72541518623043e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769853963958287e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953322825103183e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737335993882399], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0015408212262139939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496719510092e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002086713826007308], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143854667642e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.72541518623043e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1270093323131685e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.775460194843407e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'mechanical disinfection' (unit, DK, None)", 0.00037520921929124314], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601413907245168e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384926981979118e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9766614125515916e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025018560137], ["'wet wipe' (unit, GLO, None)", 0.0002523811690063122], ["'autoclave' (unit, DK, None)", 0.0011556159196604951], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183847008736e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651532449826], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287709335284e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601413907245168e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79679518940772e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079075133705665e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.117624405331192e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356935807178905e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247667884169238], ["'autoclave' (unit, DK, None)", 0.22259098188612164], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290448048065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916779607403], ["'mixed heating grid' (megajoule, DK, None)", -0.013857791662173826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376149184344764], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760031586342419], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147118563214717], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0494545256284145], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122523373368]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.247667884169238], ["'autoclave' (unit, DK, None)", 0.22259098188612164], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491792630023], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503881380986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752778530716018], ["'mixed heating grid' (megajoule, DK, None)", -0.09238527774782551], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122523373368]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087357357939408], ["'autoclave' (unit, DK, None)", 0.2967879758481622], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697201643518], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009937204645081629], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197299962491261], ["'mixed heating grid' (megajoule, DK, None)", -0.039646376061218125], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.4046267154534122], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00830689118219563], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00787650476663552], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930852289694226], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.044079797938331194]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087357357939408], ["'autoclave' (unit, DK, None)", 0.2967879758481622], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110364121134], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0661473500690844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199974994181], ["'mixed heating grid' (megajoule, DK, None)", -0.26430917374145413], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.044079797938331194]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13343703892212214], ["'mechanical disinfection' (unit, DK, None)", 0.22422044798007632], ["'autoclave' (unit, DK, None)", 0.44518196377224345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158508447571], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0447803385997261], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315920011997], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931681372342], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935926346068e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263773408385664]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13343703892212214], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.44518196377224345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158508447571], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0447803385997261], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315920011997], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931681372342], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00464973679315017], ["'mixed heating grid' (megajoule, DK, None)", -0.01396840368945554]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'mechanical disinfection' (unit, DK, None)", 0.11211022399003816], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00484926809354945], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.871967963173024e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631886704192832]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585528039302], ["'wet wipe' (unit, GLO, None)", 0.05759767966711682], ["'autoclave' (unit, DK, None)", 0.3338864728291825], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00232517786765958], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009176470406], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631840023994], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00484926809354945], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015135277418805617], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032922653687352504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004611017113518451], ["'mixed heating grid' (megajoule, DK, None)", -0.013852084822413612]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819006924819134], ["'autoclave' (unit, DK, None)", 0.046071943160264785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293368790164], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602673697873817], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292370457424269], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658377660383], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253789171729], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00043126320981916327], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485101078922], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699896003686]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819006924819134], ["'autoclave' (unit, DK, None)", 0.046071943160264785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549805458893], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224682833013], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449131915877], ["'mixed heating grid' (megajoule, DK, None)", -0.004861580304949513], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699896003686]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901110695293], ["'autoclave' (unit, DK, None)", 0.061429257547019715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300832470486], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489574487016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066865390674], ["'mixed heating grid' (megajoule, DK, None)", -0.002086306884825884], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312449076196442], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449695870322679], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991285137606155], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376084810964], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054450972511]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901110695293], ["'autoclave' (unit, DK, None)", 0.061429257547019715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746424072928], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034730401726828465], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377910260454], ["'mixed heating grid' (megajoule, DK, None)", -0.01390871256550589], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054450972511]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0065457413244776426], ["'mechanical disinfection' (unit, DK, None)", 0.04698625592218581], ["'autoclave' (unit, DK, None)", 0.0921438863205296], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171441996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0047747607126877156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950442377426e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055818158793e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675014335941e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242069881494508e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0065457413244776426], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.0921438863205296], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586171441996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0047747607126877156], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950442377426e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055818158793e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883097845237769], ["'mixed heating grid' (megajoule, DK, None)", -0.0007350577702824468]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'mechanical disinfection' (unit, DK, None)", 0.023493127961092906], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443661859637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008375071679647e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121034940747254e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003901389831071202], ["'wet wipe' (unit, GLO, None)", 0.002224593629529514], ["'autoclave' (unit, DK, None)", 0.06910791474039718], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002317073909500373], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592579356296], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790088475485e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443661859637], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311348356205e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907708786772], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894701660964], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289367353416995]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032082863136484], ["'autoclave' (unit, DK, None)", 0.05815749255563378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152629310425], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003729728045091046], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540180157711627], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681966336027], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330802670634], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588597322378256], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853840002388805], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586954781544894]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032082863136484], ["'autoclave' (unit, DK, None)", 0.05815749255563378], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704362714037], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331795901753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853633940307], ["'mixed heating grid' (megajoule, DK, None)", -0.006360120105141085], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586954781544894]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714644563127], ["'autoclave' (unit, DK, None)", 0.0775433234075117], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366791411766], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931445463105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545804594353], ["'mixed heating grid' (megajoule, DK, None)", -0.0027293928170159416], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419800236376236], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001501041309541647], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834976803312763], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.044658704232081146], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873946945762297]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714644563127], ["'autoclave' (unit, DK, None)", 0.0775433234075117], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038787899613278984], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0050289665244875985], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697203062908], ["'mixed heating grid' (megajoule, DK, None)", -0.01819595211343961], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873946945762297]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384728630735], ["'mechanical disinfection' (unit, DK, None)", 0.059260756660717825], ["'autoclave' (unit, DK, None)", 0.1163149851112676], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844510155], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0059889070559211175], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850148375983e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927302497795], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282477838068e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015581333206825e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384728630735], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.1163149851112676], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058844510155], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0059889070559211175], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850148375983e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927302497795], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003759498501332136], ["'mixed heating grid' (megajoule, DK, None)", -0.0009616329279707573]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'mechanical disinfection' (unit, DK, None)", 0.029630378330358913], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500882746517], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641238919026e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007790666603412e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202881322278], ["'wet wipe' (unit, GLO, None)", 0.0024694419430704], ["'autoclave' (unit, DK, None)", 0.08723623883345068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.002962814528029841], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0035816829402588045], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700296751966e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500882746517], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017490582922e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016035120922], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037281920889429545], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536251373041539]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751937338483626], ["'autoclave' (unit, DK, None)", 2.3654223123466656], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234422198172], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065494396788], ["'mixed heating grid' (megajoule, DK, None)", -0.07078878018682692], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441616656416914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535831042330842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919290290644128], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311979595417], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537395515982]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751937338483626], ["'autoclave' (unit, DK, None)", 2.3654223123466656], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286392299722], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805811017439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571376996264525], ["'mixed heating grid' (megajoule, DK, None)", -0.4719252012455129], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537395515982]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445248609966], ["'autoclave' (unit, DK, None)", 3.1538964164622207], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729251645294], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029061542115883597], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.036783353802751995], ["'mixed heating grid' (megajoule, DK, None)", -0.20252278780193453], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004688064363], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0768554138167239], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.057816309993268776], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073797069132], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997210660975]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.930445248609966], ["'autoclave' (unit, DK, None)", 3.1538964164622207], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933499435838], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491709233589], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522235868501346], ["'mixed heating grid' (megajoule, DK, None)", -1.3501519186795634], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997210660975]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2402569760534228], ["'mechanical disinfection' (unit, DK, None)", 2.3912587510119407], ["'autoclave' (unit, DK, None)", 4.730844624693333], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312142793317], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173146161299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343889269113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131647942866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583803945823062], ["'mixed heating grid' (megajoule, DK, None)", -0.0011883669362828565]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2402569760534228], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 4.730844624693333], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312142793317], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173146161299], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343889269113], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131647942866], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959689787927666], ["'mixed heating grid' (megajoule, DK, None)", -0.07135381180774801]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'mechanical disinfection' (unit, DK, None)", 1.1956293755059704], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555329637047], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791901972911502], ["'mixed heating grid' (megajoule, DK, None)", -0.0005941834681414283]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451256749812], ["'wet wipe' (unit, GLO, None)", 0.13935219649121308], ["'autoclave' (unit, DK, None)", 3.548133468519999], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965502543978], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506376151389928], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687778538227], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555329637047], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00029502566158810963], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292068788183], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285177076819858], ["'mixed heating grid' (megajoule, DK, None)", -0.07075962833960657]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597922898768], ["'autoclave' (unit, DK, None)", 0.05699652207816925], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.662922819623305e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638708264152], ["'mixed heating grid' (megajoule, DK, None)", -0.003968991393431242], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246643514079], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776607886218842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179652632904674], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314719813992], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004208732611132142]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597922898768], ["'autoclave' (unit, DK, None)", 0.05699652207816925], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088973768735], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.637372025372128e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092472176102], ["'mixed heating grid' (megajoule, DK, None)", -0.02645994262287495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004208732611132142]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511106208858], ["'autoclave' (unit, DK, None)", 0.07599536277089233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001320435153594263], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6460734475205364e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003474800108634279], ["'mixed heating grid' (megajoule, DK, None)", -0.011355065020729952], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2911741604962572], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002340532470609554], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627839430620683], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074568961688], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973577903189227]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511106208858], ["'autoclave' (unit, DK, None)", 0.07599536277089233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715743588080945], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957145440942172], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165334057561878], ["'mixed heating grid' (megajoule, DK, None)", -0.075700433471533], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973577903189227]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050839500837], ["'mechanical disinfection' (unit, DK, None)", 0.05775317583815584], ["'autoclave' (unit, DK, None)", 0.11399304415633854], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467743858377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444671454], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747746453257e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395484743976], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.03894959382621e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662945921510067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050839500837], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.11399304415633854], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467743858377], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0096933444671454], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747746453257e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395484743976], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001224258443763452], ["'mixed heating grid' (megajoule, DK, None)", -0.00400067163477081]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'mechanical disinfection' (unit, DK, None)", 0.02887658791907792], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267570916738], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194747969131025e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.3314729607550333e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211928725488], ["'wet wipe' (unit, GLO, None)", 0.03231285983124328], ["'autoclave' (unit, DK, None)", 0.08549478311725388], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387609278713], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132296067486], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495492906514e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267570916738], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.383456137491612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556406678981e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636957943239], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356905163259]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541602747309945e-05], ["'autoclave' (unit, DK, None)", 0.00022512372814226776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831956605441997e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580765063717e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294674621043863e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.36672651767721e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04196147733744e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647946798767e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690139074835725e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429152198651e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541602747309945e-05], ["'autoclave' (unit, DK, None)", 0.00022512372814226776], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140831018564316e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930638601211985e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.555720510042478e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.8631164140292423e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429152198651e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899572898265], ["'autoclave' (unit, DK, None)", 0.000300164970856357], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315030702288715e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.737002748263315e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662696765253e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2286826735261007e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316357700758e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184544252180643e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.1185005506862857e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039176010065e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524708311984e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899572898265], ["'autoclave' (unit, DK, None)", 0.000300164970856357], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828403103820935e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.8158164190567355e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775131176841e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.191217823507339e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524708311984e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.914085597243836e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381664218233606], ["'autoclave' (unit, DK, None)", 0.00045024745628453563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467382996302144e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218560316255e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397764468825e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587433384187e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625273875584e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209686772779524e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.914085597243836e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00045024745628453563], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467382996302144e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218560316255e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397764468825e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587433384187e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.864180167227428e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.32895444555917e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690832109116803], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609072e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812636937783e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.604843386389762e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387822713916e-05], ["'wet wipe' (unit, GLO, None)", 2.109659643989682e-05], ["'autoclave' (unit, DK, None)", 0.00033768559221340164], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404416493646e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958248867857e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.654679552893765e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558327609072e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361681355906e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894630089850156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002040858059e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.292906011695272e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917950054207846e-06], ["'autoclave' (unit, DK, None)", 0.00015413112165581715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296613051938488e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075681022545e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.663804075124159e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016858285555e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983469933647e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323057813319e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142618047929e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851340375305e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917950054207846e-06], ["'autoclave' (unit, DK, None)", 0.00015413112165581715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510236139031084e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.440164245664473e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2133383787348364e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.1092027167494394e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851340375305e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293560697871747e-05], ["'autoclave' (unit, DK, None)", 0.0002055081622077562], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044436797774e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568281111741564e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358164119237e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3342885702555646e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743756058088484e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595484229897384e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957878262188674e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.4115894698726565e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024162973861e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293560697871747e-05], ["'autoclave' (unit, DK, None)", 0.0002055081622077562], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052433529884e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080740034657e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238776079496e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.895257135037098e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024162973861e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451653857245e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540579344352707e-05], ["'autoclave' (unit, DK, None)", 0.0003082622433116344], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312136441555e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134661448332e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806500590737e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984563741018376e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464059881874e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.829362994462454e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451653857245e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.0003082622433116344], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312136441555e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134661448332e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806500590737e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984563741018376e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3465076610933143e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.7010302678805656e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289672176353e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085816e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320299409295e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.914681497231227e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909302737099e-06], ["'wet wipe' (unit, GLO, None)", 8.8153491120501e-05], ["'autoclave' (unit, DK, None)", 0.00023119668248372576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187695735247e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767600031686e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361300118147e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469296085816e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6660602986775e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880368327752e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3186403407939126e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618834529082527e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957966219641127], ["'autoclave' (unit, DK, None)", 0.021468112364053785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203054129824933e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640096652532], ["'mixed heating grid' (megajoule, DK, None)", -0.0006324937442773581], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078843480443], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499904011044427], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255140154022441], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454001146282093], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079300086367]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957966219641127], ["'autoclave' (unit, DK, None)", 0.021468112364053785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106699469323086], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147412075817256e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547760064435021], ["'mixed heating grid' (megajoule, DK, None)", -0.004216624961849055], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079300086367]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851041911020474], ["'autoclave' (unit, DK, None)", 0.028624149818738377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026060985059223876], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.23452348410437e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933501104370676], ["'mixed heating grid' (megajoule, DK, None)", -0.001809529646086083], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757009989928398], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597058488760944], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830477217756733], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363383510653786], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400452239798857]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851041911020474], ["'autoclave' (unit, DK, None)", 0.028624149818738377], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001720197033612137], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021530718632792008], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289000736247123], ["'mixed heating grid' (megajoule, DK, None)", -0.012063530973907218], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400452239798857]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02370930667937485], ["'mechanical disinfection' (unit, DK, None)", 0.02119693227563219], ["'autoclave' (unit, DK, None)", 0.04293622472810758], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009683479581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853805022534], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906087372324364e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198302248195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579871907194e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617991313330021e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02370930667937485], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.04293622472810758], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009683479581], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853805022534], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906087372324364e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198302248195], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038521441891469784], ["'mixed heating grid' (megajoule, DK, None)", -0.0006375422698291232]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'mechanical disinfection' (unit, DK, None)", 0.010598466137816094], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244276670207016], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.2077899359535885e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.3089956566650105e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01415428478987892], ["'wet wipe' (unit, GLO, None)", 0.002321360416247334], ["'autoclave' (unit, DK, None)", 0.03220216854608068], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682135974598], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086420249916], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217474464873e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0002244276670207016], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977045110715418e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202424540314], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003820066289787452], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322332741724581]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553441636421933], ["'autoclave' (unit, DK, None)", 0.6714095900306614], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742453674527], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550519745571], ["'mixed heating grid' (megajoule, DK, None)", -0.01751756356727522], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894952289782], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169914717759652], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945385646969226], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117859489914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807653314142]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553441636421933], ["'autoclave' (unit, DK, None)", 0.6714095900306614], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149917489916721], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941266028950268], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.045470336798303805], ["'mixed heating grid' (megajoule, DK, None)", -0.11678375711516814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807653314142]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101342144495], ["'autoclave' (unit, DK, None)", 0.8952127867075484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394358376992], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046112138429], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321808282629], ["'mixed heating grid' (megajoule, DK, None)", -0.050116781215596796], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698876521345413], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935497578148], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.023934517973676208], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681087180258], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737595979157]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101342144495], ["'autoclave' (unit, DK, None)", 0.8952127867075484], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.323920419694851], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0419963859744169], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812055217536], ["'mixed heating grid' (megajoule, DK, None)", -0.3341118747706453], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737595979157]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089489611244], ["'mechanical disinfection' (unit, DK, None)", 0.6530819961466987], ["'autoclave' (unit, DK, None)", 1.3428191800613232], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135631447706], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243223375775], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162573754586], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001022495753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001968561705], ["'mixed heating grid' (megajoule, DK, None)", -0.00029407616987666254]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089489611244], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.3428191800613232], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135631447706], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243223375775], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037129162573754586], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001022495753], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874991727880164], ["'mixed heating grid' (megajoule, DK, None)", -0.017657387665259146]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'mechanical disinfection' (unit, DK, None)", 0.32654099807334935], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037244074958], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.7250009842808374e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014703808493833127]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379064411996], ["'wet wipe' (unit, GLO, None)", 0.04488063968336708], ["'autoclave' (unit, DK, None)", 1.007114385045992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.033864255357218445], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03061566701815241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832514750917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037244074958], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939188797332], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02090231082744951], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741718037371], ["'mixed heating grid' (megajoule, DK, None)", -0.017510349580320814]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109664910736055], ["'autoclave' (unit, DK, None)", 0.06018770930716342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877178041586e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237045687974], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650668190230945], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398663217282], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152359033353387], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585727226815], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712190735319], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001003286304509496]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109664910736055], ["'autoclave' (unit, DK, None)", 0.06018770930716342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.679339062064977e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114081068503148e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824697125315], ["'mixed heating grid' (megajoule, DK, None)", -0.007767112126820631], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001003286304509496]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191440753664197], ["'autoclave' (unit, DK, None)", 0.08025027907621789], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434362476136454e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092608962001865e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379797835211], ["'mixed heating grid' (megajoule, DK, None)", -0.0033331917789988616], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459813691026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0021526517479024754], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0024597844212691502], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806250911358], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002854286037196319]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191440753664197], ["'autoclave' (unit, DK, None)", 0.08025027907621789], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547433977647824e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380794415435891e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198652234758], ["'mixed heating grid' (megajoule, DK, None)", -0.022221278526659075], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002854286037196319]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138935596821], ["'mechanical disinfection' (unit, DK, None)", 0.06230871875245788], ["'autoclave' (unit, DK, None)", 0.12037541861432688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010738168882], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964807981586], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650621693088586e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859655448], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3455898642666446e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.955856397911112e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138935596821], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.12037541861432688], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003865010738168882], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964807981586], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.650621693088586e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859655448], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762568870893], ["'mixed heating grid' (megajoule, DK, None)", -0.0011743663095849688]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'mechanical disinfection' (unit, DK, None)", 0.03115435937622894], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136581935], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949321333193e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.77928198955556e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00564377601995781], ["'wet wipe' (unit, GLO, None)", 0.003225553727605582], ["'autoclave' (unit, DK, None)", 0.09028156396074513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739149964785], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112472089127], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301243386177172e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136581935], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654305862187254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979868869919e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483075657594], ["'mixed heating grid' (megajoule, DK, None)", -0.001164587027595413]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585039371011], ["'autoclave' (unit, DK, None)", 0.04303643783726186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666305107554916e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018782848025], ["'mixed heating grid' (megajoule, DK, None)", -0.009030612862528358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236045217438747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319994536496607], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646122373121545], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522484918756986], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832403404741906]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202585039371011], ["'autoclave' (unit, DK, None)", 0.04303643783726186], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9685118342396252e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2723628129470843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006780012521898684], ["'mixed heating grid' (megajoule, DK, None)", -0.060204085750189054], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832403404741906]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225292467247306], ["'autoclave' (unit, DK, None)", 0.05738191711634915], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400832194008543e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283457571658745e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002909586166712477], ["'mixed heating grid' (megajoule, DK, None)", -0.02583608430110499], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031624630578883893], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814755637198008], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918157908822034], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654221103875208], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572993943978]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01225292467247306], ["'autoclave' (unit, DK, None)", 0.05738191711634915], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.54510375842148e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845219477791078e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019397241111416528], ["'mixed heating grid' (megajoule, DK, None)", -0.17224056200736657], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572993943978]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341452602074327], ["'mechanical disinfection' (unit, DK, None)", 0.04429419813455004], ["'autoclave' (unit, DK, None)", 0.08607287567452375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475760202553973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389514337264], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.79518255827049e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000726264253550711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072923182198386e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001516014502845811]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341452602074327], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.08607287567452375], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475760202553973], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389514337264], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.79518255827049e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000726264253550711], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010251195237400612], ["'mixed heating grid' (megajoule, DK, None)", -0.009102694650209376]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'mechanical disinfection' (unit, DK, None)", 0.02214709906727502], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153559166863843], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461591099171e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580072514229055e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299341527656998], ["'wet wipe' (unit, GLO, None)", 0.012977474972275714], ["'autoclave' (unit, DK, None)", 0.0645546567558928], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512036399465], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020154610603], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.759036511654098e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153559166863843], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968368681652574e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.406981383923414e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830621489645], ["'mixed heating grid' (megajoule, DK, None)", -0.009026893925067085]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064263609871142], ["'autoclave' (unit, DK, None)", 0.003531539003013573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243245181060849e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1297781317537295e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164738612740972e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050234138819627], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447249265569555e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296503865654432], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576737453479], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574296160147]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064263609871142], ["'autoclave' (unit, DK, None)", 0.003531539003013573], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.1427140921057967e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544723642195848e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865187545024864], ["'mixed heating grid' (megajoule, DK, None)", -0.0005443159075160649], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574296160147]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902611103434651], ["'autoclave' (unit, DK, None)", 0.004708718670684764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679469998705022e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.056690616619579e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122260214465e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0002335886592709093], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003110165237747246], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00028433468663364677], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101697863243907], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866686606614], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750924835353]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902611103434651], ["'autoclave' (unit, DK, None)", 0.004708718670684764], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000116696171608614], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690432979929721e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414840142981], ["'mixed heating grid' (megajoule, DK, None)", -0.0015572577284727286], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750924835353]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642898004657], ["'mechanical disinfection' (unit, DK, None)", 0.0028827928360491495], ["'autoclave' (unit, DK, None)", 0.007063078006027149], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921821383774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764556630424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433599242385e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355724780529e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116315977141e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3706558278255097e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642898004657], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.007063078006027149], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921821383774], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764556630424], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433599242385e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355724780529e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547598252684426e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.229909046255695e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'mechanical disinfection' (unit, DK, None)", 0.0014413964180245748], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515756020207], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058157988564e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853279139127548e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211131065493], ["'wet wipe' (unit, GLO, None)", 0.0003586764679815802], ["'autoclave' (unit, DK, None)", 0.00529730850452036], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586080931922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355715370073], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686719848477e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515756020207], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313301351842e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813959793663651e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489243688564e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161376254864419e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733840433402183e-08], ["'autoclave' (unit, DK, None)", 2.694093644540442e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9931668430655967e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.2634901546953076e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3328293688843016e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525669182024057e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167553009238e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170096157030477e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.507987461236878e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.86060407545479e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733840433402183e-08], ["'autoclave' (unit, DK, None)", 2.694093644540442e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686528753023e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796566541075e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5089934364635386e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.885529125895345e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.86060407545479e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905332916981e-07], ["'autoclave' (unit, DK, None)", 3.5921248593872555e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201434101643e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.254199546619e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.505855443311194e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.813151162350056e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264504874321e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545164479930716e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871046847853747e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753411934869e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362921088081822e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905332916981e-07], ["'autoclave' (unit, DK, None)", 3.5921248593872555e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7255455010571905e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783284831493e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036288741301e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.542100774900037e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362921088081822e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.39714412565362e-08], ["'mechanical disinfection' (unit, DK, None)", 2.5831392372195993e-07], ["'autoclave' (unit, DK, None)", 5.388187289080885e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981712407326e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374187932773e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457507931943e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319647448674e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086245280766e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.2374878469562844e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.39714412565362e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 5.388187289080885e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981712407326e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374187932773e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457507931943e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319647448674e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305503004273443e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3434679296382e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2915696186097997e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170072982528e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431226403715e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187439234781422e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.0222802274152475e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488207745991e-07], ["'autoclave' (unit, DK, None)", 4.0411404668106626e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905857342287e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.2211695421572915e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144915015863887e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170072982528e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517723247e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367023043985e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322573047052e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3322804904034183e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099036910400239], ["'autoclave' (unit, DK, None)", 0.000268355384604779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943122041447846e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052204866764473e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207294348765124e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957867129109], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362617453217634e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336732945919162e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.6414716106175937e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317500925114e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099036910400239], ["'autoclave' (unit, DK, None)", 0.000268355384604779], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566962082215e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338617731275323e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136577842984e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001347152956584342], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317500925114e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865844769858729], ["'autoclave' (unit, DK, None)", 0.00035780717947303867], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829588584660723e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970296057207125e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525507698425e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.781195232698403e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040701371480330277], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130207868907442e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063886040664324e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891469325683366], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181751049612e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865844769858729], ["'autoclave' (unit, DK, None)", 0.00035780717947303867], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108639329809058e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.395895087090687e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683671798955e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00038541301551322686], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181751049612e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024999713073634326], ["'mechanical disinfection' (unit, DK, None)", 0.00026064372075635094], ["'autoclave' (unit, DK, None)", 0.0005367107692095582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695263167655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504150136452e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737666596773e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773479883059312e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015444958826e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.392300363480002e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024999713073634326], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0005367107692095582], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695263167655e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504150136452e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737666596773e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773479883059312e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8355935188698806e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.036858770980593e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'mechanical disinfection' (unit, DK, None)", 0.00013032186037817547], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.98810762156626e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007722479404e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.696150181740001e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014898451963218522], ["'wet wipe' (unit, GLO, None)", 7.725704312777029e-05], ["'autoclave' (unit, DK, None)", 0.0004025330769071685], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568373780421e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288991041271e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9003475333193546e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.98810762156626e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608196575441e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605684606616e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534416450953e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.019897269163193e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581879790948417], ["'autoclave' (unit, DK, None)", 0.0004759603108342956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2144315630849516e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578824863395e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0217901737084745e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002981409944546082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274325766527174e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221678870132434e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230477258698e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767935593465e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000581879790948417], ["'autoclave' (unit, DK, None)", 0.0004759603108342956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.79649197176665e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781084000877576e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196385883242264e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033478601158056496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767935593465e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484544905806], ["'autoclave' (unit, DK, None)", 0.0006346137477790608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324893595705e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450668897828e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591276330630317e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001436706414564069], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385605510496], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.189360182158664e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.572967912735905e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000244147337387569], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.8971842956008e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484544905806], ["'autoclave' (unit, DK, None)", 0.0006346137477790608], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877442173990564e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144974129558e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727517553753558], ["'mixed heating grid' (megajoule, DK, None)", -0.000957804276376046], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.8971842956008e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652206574926], ["'mechanical disinfection' (unit, DK, None)", 0.00047574154937322856], ["'autoclave' (unit, DK, None)", 0.0009519206216685915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702372748621e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719342541228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849883258777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.5063803322581455e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603277995455377e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.430332303558788e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652206574926], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0009519206216685915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702372748621e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719342541228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849883258777e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.5063803322581455e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767572364475e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.061873789138594e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'mechanical disinfection' (unit, DK, None)", 0.00023787077468661428], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800363553859e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801638997727669e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215166151779394e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020009543495041793], ["'wet wipe' (unit, GLO, None)", 0.0010944013384291545], ["'autoclave' (unit, DK, None)", 0.0007139404662514434], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.4634946796332576e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252179822987e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699766517554e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800363553859e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669462145786e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839279361287e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.29075118238722e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0197221276207997e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164942737989614], ["'autoclave' (unit, DK, None)", 0.00048807718986053914], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521194301764e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365837895082e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.199490913199815e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564096349692], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.5833312340295796e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445707225441036e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.09054797326344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069124967221355e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164942737989614], ["'autoclave' (unit, DK, None)", 0.00048807718986053914], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766803310766e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3961699142148026e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243891930054e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034663272754665436], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.6069124967221355e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764859588806121], ["'autoclave' (unit, DK, None)", 0.0006507695864807189], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541325919948e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369187094589682e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191465380528996e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001487545614026569], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693648666352], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823618277176403e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404537584203394e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717738947448], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437767573416]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001764859588806121], ["'autoclave' (unit, DK, None)", 0.0006507695864807189], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469522059373e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230553111596172e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127643587019344], ["'mixed heating grid' (megajoule, DK, None)", -0.0009916970760177127], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437767573416]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943641957366], ["'mechanical disinfection' (unit, DK, None)", 0.0004877286896019], ["'autoclave' (unit, DK, None)", 0.0009761543797210785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854589731838e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143347110637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846682193127e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745839511274627e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955458029198622e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.728647492501428e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943641957366], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0009761543797210785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854589731838e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012367143347110637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846682193127e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745839511274627e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580229092227734e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.2409929248306984e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'mechanical disinfection' (unit, DK, None)", 0.00024386434480095], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.128872297233605e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.97772901459929e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.364323746250714e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761717589998], ["'wet wipe' (unit, GLO, None)", 0.0016920736939477078], ["'autoclave' (unit, DK, None)", 0.0007321157847908087], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059807871585e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205339718462e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693364386255e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.128872297233605e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.338024669807626e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919128602661e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451802081763e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349687368191e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873638805205], ["'autoclave' (unit, DK, None)", 0.004165479060726981], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550784065771117e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299290893568e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364060333029202e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571500088924896], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.989636193264576e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370730421544957e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004621110912581378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069610017125]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873638805205], ["'autoclave' (unit, DK, None)", 0.004165479060726981], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249408387785], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110565867010091e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199527262379], ["'mixed heating grid' (megajoule, DK, None)", -0.0006242706888686135], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069610017125]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755801669799746], ["'autoclave' (unit, DK, None)", 0.005553972080969308], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472634847182e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025807018518843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00023861135324501433], ["'mixed heating grid' (megajoule, DK, None)", -0.00026790059085429654], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002975422210458994], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997934173903093e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153919701765414], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213838257405], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277150017066]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755801669799746], ["'autoclave' (unit, DK, None)", 0.005553972080969308], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898661805179658], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.345446009287619e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423549667635], ["'mixed heating grid' (megajoule, DK, None)", -0.0017860039390286435], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277150017066]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273969164187], ["'mechanical disinfection' (unit, DK, None)", 0.004000203821408868], ["'autoclave' (unit, DK, None)", 0.008330958121453966], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.51184435080894e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073736761785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988446125982e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056373265861e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280838351957e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5719920105644843e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273969164187], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.008330958121453966], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.51184435080894e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00029904073736761785], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988446125982e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056373265861e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871038773133e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.438803677587623e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'mechanical disinfection' (unit, DK, None)", 0.002000101910704434], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784317427014e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640419175961e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.859960052822422e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358120244823], ["'wet wipe' (unit, GLO, None)", 0.009590872147209842], ["'autoclave' (unit, DK, None)", 0.006248218591090472], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900457814585e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216560233056], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976892251965e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784317427014e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960175001436e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650850000563948e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.336864634581393e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360204077059398e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262135748798e-09], ["'autoclave' (unit, DK, None)", 1.4473329624477082e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965861586061e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485222999233684e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992677304991334e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933688154229e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011355763984238e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950035125676844e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755482008328e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566179817168e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262135748798e-09], ["'autoclave' (unit, DK, None)", 1.4473329624477082e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538095071125e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352031147321e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8990148666155789e-10], ["'mixed heating grid' (megajoule, DK, None)", -9.32845153666089e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566179817168e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679279849177e-09], ["'autoclave' (unit, DK, None)", 1.9297772832636107e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183701500716e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352383046334e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464869629329e-11], ["'mixed heating grid' (megajoule, DK, None)", -4.0032276430538814e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668521969970512e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.11992260857778e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105994074997563e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269149861502e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.76515506191634e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679279849177e-09], ["'autoclave' (unit, DK, None)", 1.9297772832636107e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487591749649e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240644033883e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.43297657975289e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.6688184287025876e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.76515506191634e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031254685603e-10], ["'mechanical disinfection' (unit, DK, None)", 1.4521285524564737e-09], ["'autoclave' (unit, DK, None)", 2.8946659248954173e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340100050643e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057943093323e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184129164757e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049405923884e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781957973508441e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.349021273631381e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031254685603e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.8946659248954173e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340100050643e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057943093323e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184129164757e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049405923884e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8712590269598747e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.4104365981047036e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260642762282368e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909789867542147e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1745106368156906e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.603984704969216e-10], ["'wet wipe' (unit, GLO, None)", 5.65861233763265e-10], ["'autoclave' (unit, DK, None)", 2.1709994436715624e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468593425218e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681384603795e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368258329513e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978149316196e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592058516914e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012890502143e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492370923392e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914917365465e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981147820756165e-07], ["'autoclave' (unit, DK, None)", 6.098545586628893e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.00024825770281e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051734643327e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1924565265113074e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655891093617e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628137920452114e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795700336993785e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353244695439e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773685051868e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981147820756165e-07], ["'autoclave' (unit, DK, None)", 6.098545586628893e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.990818937354201e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780955930723e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936782309555e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.1283043510075382e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773685051868e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425452801509515e-06], ["'autoclave' (unit, DK, None)", 8.131394115505191e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030112934126e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016416095196e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755695003285e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.133441683543318e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355984866142e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968182090681117e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.649598863551085e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.3040431675198423e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621971081106e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425452801509515e-06], ["'autoclave' (unit, DK, None)", 8.131394115505191e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940668603384e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287523175829e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.850850379666887e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.088961122362212e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621971081106e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421526969435747e-07], ["'mechanical disinfection' (unit, DK, None)", 6.010856037965267e-07], ["'autoclave' (unit, DK, None)", 1.2197091173257791e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023574747758e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.41879778215033e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231159305223e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.91951344261283e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290680809858664e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.359337696756132e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421526969435747e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 1.2197091173257791e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023574747758e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.41879778215033e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231159305223e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.91951344261283e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508869328442e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.2179385150571475e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'mechanical disinfection' (unit, DK, None)", 3.0054280189826337e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.14534040492931e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.679668848378066e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862286212514e-07], ["'wet wipe' (unit, GLO, None)", 1.42317058644661e-07], ["'autoclave' (unit, DK, None)", 9.147818379943341e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929532081884e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160588659831e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462318610446e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579354982646511e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461969524456e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558630256463e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055465279172e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141826573367e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845509046995], ["'autoclave' (unit, DK, None)", 0.011815230642179259], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7124196052168807e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315597719857], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124582117382428], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001070989502], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466568737583866], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767515311140387], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.003579365288850814], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307216793785]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845509046995], ["'autoclave' (unit, DK, None)", 0.011815230642179259], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362784296298929], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352039801199898e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210398479904], ["'mixed heating grid' (megajoule, DK, None)", -0.00808305474492162], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307216793785]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995272607774], ["'autoclave' (unit, DK, None)", 0.015753640856239013], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849188227857149e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.0423949031564866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854660856507], ["'mixed heating grid' (megajoule, DK, None)", -0.003468775934357343], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665266030057], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423653482048529], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255964034580116], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082719123523421], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215784486116]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995272607774], ["'autoclave' (unit, DK, None)", 0.015753640856239013], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00032007843088166], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.022141288119364e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236440571008], ["'mixed heating grid' (megajoule, DK, None)", -0.02312517289571562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215784486116]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499250831302], ["'mechanical disinfection' (unit, DK, None)", 0.011721177616971962], ["'autoclave' (unit, DK, None)", 0.023630461284358525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218988519799], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331232970923836], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714286223714236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074845731866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8069552814524626e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.035414717772596e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499250831302], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.023630461284358525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218988519799], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331232970923836], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714286223714236e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074845731866], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858324514055158], ["'mixed heating grid' (megajoule, DK, None)", -0.0012221359774359914]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'mechanical disinfection' (unit, DK, None)", 0.005860588808485981], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693285993957386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776407262264e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.017707358886298e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031808956949], ["'wet wipe' (unit, GLO, None)", 0.012386853664760958], ["'autoclave' (unit, DK, None)", 0.01772284596326889], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108095256922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518463105], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428572447428472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00038693285993957386], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393288496711623e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876730822405e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976749982588], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119589038471284]]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>H200 REC</t>
+  </si>
+  <si>
+    <t>H200 SU</t>
+  </si>
+  <si>
+    <t>H400 REC</t>
+  </si>
+  <si>
+    <t>H400 SU</t>
+  </si>
+  <si>
+    <t>alubox (large + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (large + wipe)</t>
+  </si>
+  <si>
+    <t>alubox (small + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (small + wipe)</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000718840980205548], ["'autoclave' (unit, DK, None)", 0.000660351955885596], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498780607927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848530567334e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7376449115353246e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091834219100107], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102784447547698e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908696186176558e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001327141851461318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365802310424e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000718840980205548], ["'autoclave' (unit, DK, None)", 0.000660351955885596], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.168746180769311e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162768188326e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453899020378222e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000315842994102355], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365802310424e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056819901330693], ["'autoclave' (unit, DK, None)", 0.0013207039117711916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9877477855366374e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399657130617e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778970940704e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013554140254536172], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001072121161795864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396729890677537e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.683637503126088e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427750595262], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670431256555]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056819901330693], ["'autoclave' (unit, DK, None)", 0.0013207039117711916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242762730454e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153571159894e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193139604712], ["'mixed heating grid' (megajoule, DK, None)", -0.0009036093503024114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670431256555]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737336001674545], ["'mechanical disinfection' (unit, DK, None)", 0.000750418439960545], ["'autoclave' (unit, DK, None)", 0.0018489854764796691], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496716358134e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138261166564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143793498426e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415155586902e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854033712487e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953323328722926e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737336001674545], ["'wet wipe' (unit, GLO, None)", 0.000252381166428882], ["'autoclave' (unit, DK, None)", 0.0018489854764796691], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496716358134e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138261166564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143793498426e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415155586902e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795180099254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.127009336501461e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7754604972347585e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025059456037], ["'mechanical disinfection' (unit, DK, None)", 0.0003752092199802725], ["'autoclave' (unit, DK, None)", 0.001027214153599816], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818382818859e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651533103787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287586996851e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.460141385596522e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.38492701685622e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.976661664361463e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025059456037], ["'wet wipe' (unit, GLO, None)", 0.000252381166428882], ["'autoclave' (unit, DK, None)", 0.001027214153599816], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818382818859e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651533103787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287586996851e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.460141385596522e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795180099254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176244094846074e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356938805911433e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476678840660577], ["'autoclave' (unit, DK, None)", 0.19079227058883225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290444774732], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916787972572], ["'mixed heating grid' (megajoule, DK, None)", -0.013857789981248056], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1437614917969789], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276003158510024], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147118530644295], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452558512729], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122503570289]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.2476678840660577], ["'autoclave' (unit, DK, None)", 0.19079227058883225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491790458], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503878851492], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752778586483814], ["'mixed heating grid' (megajoule, DK, None)", -0.09238526654165372], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122503570289]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087357402266669], ["'autoclave' (unit, DK, None)", 0.3815845411776644], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697200716584], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720464393692], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01319729998642355], ["'mixed heating grid' (megajoule, DK, None)", -0.0396463712521824], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462671532262273], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306891178457032], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876504756824072], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930852277500647], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407979788199269]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087357402266669], ["'autoclave' (unit, DK, None)", 0.3815845411776644], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110363509297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0661473500614646], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199990949039], ["'mixed heating grid' (megajoule, DK, None)", -0.264309141681216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407979788199269]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1334370390546252], ["'mechanical disinfection' (unit, DK, None)", 0.22422044829192989], ["'autoclave' (unit, DK, None)", 0.5342183576487304], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158504842996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338608588086], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315919106554], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931644335576], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935940389101e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263770586530843]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1334370390546252], ["'wet wipe' (unit, GLO, None)", 0.057597678959994], ["'autoclave' (unit, DK, None)", 0.5342183576487304], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158504842996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338608588086], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315919106554], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931644335576], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527740641073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046497368015821095], ["'mixed heating grid' (megajoule, DK, None)", -0.013968401995112727]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585534829738], ["'mechanical disinfection' (unit, DK, None)", 0.11211022414596494], ["'autoclave' (unit, DK, None)", 0.29678797647151683], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778655073107], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009181770343], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631838213108], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268087351588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.87196797019454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631885293265421]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585534829738], ["'wet wipe' (unit, GLO, None)", 0.057597678959994], ["'autoclave' (unit, DK, None)", 0.29678797647151683], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778655073107], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009181770343], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631838213108], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268087351588], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527740641073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046110171218801755], ["'mixed heating grid' (megajoule, DK, None)", -0.013852083142180073]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819006893290447], ["'autoclave' (unit, DK, None)", 0.039490237005725494], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293366121104], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602673758881824], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292373312001952], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658365241573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253785903239], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0004312632089888851], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485087210429], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699843578209]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819006893290447], ["'autoclave' (unit, DK, None)", 0.039490237005725494], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549803687834], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224680216909], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449172587882], ["'mixed heating grid' (megajoule, DK, None)", -0.004861582208001302], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699843578209]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901011498017], ["'autoclave' (unit, DK, None)", 0.07898047401145096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300831714668], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489573303113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066882844728], ["'mixed heating grid' (megajoule, DK, None)", -0.0020863077015047826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312449041242838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449695860485476], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991285112595025], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376080904346], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054301825346]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02236901011498017], ["'autoclave' (unit, DK, None)", 0.07898047401145096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026787464235740382], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040171894777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377921896489], ["'mixed heating grid' (megajoule, DK, None)", -0.013908718010031882], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054301825346]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006545741316203516], ["'mechanical disinfection' (unit, DK, None)", 0.046986255927286745], ["'autoclave' (unit, DK, None)", 0.11057266361603141], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586170371557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476069845066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950433963848e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055720109878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675024577663e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242074673617959e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006545741316203516], ["'wet wipe' (unit, GLO, None)", 0.002224593588692142], ["'autoclave' (unit, DK, None)", 0.11057266361603141], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586170371557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476069845066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950433963848e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055720109878e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311217246625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883097851387266], ["'mixed heating grid' (megajoule, DK, None)", -0.0007350580580187213]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0039013898245662745], ["'mechanical disinfection' (unit, DK, None)", 0.023493127963643372], ["'autoclave' (unit, DK, None)", 0.06142925756446188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00231707390886122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592494211176], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900867927696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443497781164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837512288825e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121037336808979e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0039013898245662745], ["'wet wipe' (unit, GLO, None)", 0.002224593588692142], ["'autoclave' (unit, DK, None)", 0.06142925756446188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00231707390886122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592494211176], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900867927696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443497781164], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311217246625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894762643845], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289370206819122]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032082859007828], ["'autoclave' (unit, DK, None)", 0.04984927934834795], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152628950593], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280529095665], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540183799941009], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681950029628], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330798406569], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588597311482356], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853839984308758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00065869547133772]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01032082859007828], ["'autoclave' (unit, DK, None)", 0.04984927934834795], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704360326363], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433179237587], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853686063777], ["'mixed heating grid' (megajoule, DK, None)", -0.006360122533294006], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00065869547133772]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952714521218193], ["'autoclave' (unit, DK, None)", 0.09969855869669586], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366790392801], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931443867484], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545826962708], ["'mixed heating grid' (megajoule, DK, None)", -0.002729393859037638], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01241980019048074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010413082582879], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834976770490177], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870418115144], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018739469263690197]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952714521218193], ["'autoclave' (unit, DK, None)", 0.09969855869669586], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789960655314], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028966523425468], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697217975144], ["'mixed heating grid' (megajoule, DK, None)", -0.018195959060250917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018739469263690197]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384727501467], ["'mechanical disinfection' (unit, DK, None)", 0.05926075666638214], ["'autoclave' (unit, DK, None)", 0.1395779821753743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058843138074], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907037548601], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385013704105e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012319272897487105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282490963413e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015587447600887e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384727501467], ["'wet wipe' (unit, GLO, None)", 0.002469441887751026], ["'autoclave' (unit, DK, None)", 0.1395779821753743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058843138074], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907037548601], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385013704105e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012319272897487105], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8690174731010805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037594985092130633], ["'mixed heating grid' (megajoule, DK, None)", -0.0009616332951009002]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202872714801], ["'mechanical disinfection' (unit, DK, None)", 0.02963037833319107], ["'autoclave' (unit, DK, None)", 0.07754332343076348], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145272105806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682929271069], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05477002740821e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500669398894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641245481698e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007793723800444e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202872714801], ["'wet wipe' (unit, GLO, None)", 0.002469441887751026], ["'autoclave' (unit, DK, None)", 0.07754332343076348], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145272105806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682929271069], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05477002740821e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500669398894], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8690174731010805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192096758255], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536255013770997]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751937313387222], ["'autoclave' (unit, DK, None)", 2.0275048400879876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234419042169], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065553239002], ["'mixed heating grid' (megajoule, DK, None)", -0.07078880380770323], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441616551028], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535831020515994], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.019192902843213247], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2226231187889386], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537352814611]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751937313387222], ["'autoclave' (unit, DK, None)", 2.0275048400879876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286390205551], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805808021495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571377035492668], ["'mixed heating grid' (megajoule, DK, None)", -0.4719253587180216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537352814611]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.93044519908796], ["'autoclave' (unit, DK, None)", 4.055009680175974], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729242708198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02906154210232561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335397109632], ["'mixed heating grid' (megajoule, DK, None)", -0.20252285537995615], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004658401921], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685541375106755], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781630980280194], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073768702496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997089178276]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.93044519908796], ["'autoclave' (unit, DK, None)", 4.055009680175974], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933493536765], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491708331097], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522235980730897], ["'mixed heating grid' (megajoule, DK, None)", -1.3501523691997077], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997089178276]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24025697601244228], ["'mechanical disinfection' (unit, DK, None)", 2.3912587513740657], ["'autoclave' (unit, DK, None)", 5.6770135522463665], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312141891842], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173056988747], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343804701257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131568080492], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804044604453], ["'mixed heating grid' (megajoule, DK, None)", -0.001188367332818414]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.24025697601244228], ["'wet wipe' (unit, GLO, None)", 0.13935219326944326], ["'autoclave' (unit, DK, None)", 5.6770135522463665], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312141891842], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173056988747], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343804701257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131568080492], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950256462042696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959689847239554], ["'mixed heating grid' (megajoule, DK, None)", -0.07135383561716467]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451244002775], ["'mechanical disinfection' (unit, DK, None)", 1.1956293756870329], ["'autoclave' (unit, DK, None)", 3.153896417914648], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965497161328], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0550637609806003], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687609402514], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555195992564], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791902022302198], ["'mixed heating grid' (megajoule, DK, None)", -0.000594183666409207]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451244002775], ["'wet wipe' (unit, GLO, None)", 0.13935219326944326], ["'autoclave' (unit, DK, None)", 3.153896417914648], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965497161328], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0550637609806003], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687609402514], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555195992564], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950256462042696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851770827016563], ["'mixed heating grid' (megajoule, DK, None)", -0.07075965195075545]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597922734379], ["'autoclave' (unit, DK, None)", 0.04885416191027488], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629227473764905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638736470506], ["'mixed heating grid' (megajoule, DK, None)", -0.003968990965172326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246642631864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776607884286522], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179652626521786], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314711769189], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087326079998525]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1497597922734379], ["'autoclave' (unit, DK, None)", 0.04885416191027488], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000309408892582926], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.63737197026655e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092490980338], ["'mixed heating grid' (megajoule, DK, None)", -0.026459939767815507], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087326079998525]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511114593128], ["'autoclave' (unit, DK, None)", 0.09770832382054973], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204351331355858], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.646073422582799e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748001167039613], ["'mixed heating grid' (megajoule, DK, None)", -0.01135506379550486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117416047142664], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405324700279824], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627839411393], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.035910745666955464], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01197357789427806]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511114593128], ["'autoclave' (unit, DK, None)", 0.09770832382054973], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000871574345304017], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957145274943252], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165334111359757], ["'mixed heating grid' (megajoule, DK, None)", -0.07570042530336574], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01197357789427806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050887998127], ["'mechanical disinfection' (unit, DK, None)", 0.057753175946723634], ["'autoclave' (unit, DK, None)", 0.1367916533487697], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467736227674], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344473887627], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487477255562474e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395478885801], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.038949598561353e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662945202570237e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050887998127], ["'wet wipe' (unit, GLO, None)", 0.03231285964601534], ["'autoclave' (unit, DK, None)", 0.1367916533487697], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467736227674], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344473887627], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487477255562474e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395478885801], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345611113444e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584466066015], ["'mixed heating grid' (megajoule, DK, None)", -0.0040006712030935575]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211954321374], ["'mechanical disinfection' (unit, DK, None)", 0.028876587973361817], ["'autoclave' (unit, DK, None)", 0.07599536297153871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387604722468], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132300099693], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495451112495e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267561113464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474799280674e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.331472601285118e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211954321374], ["'wet wipe' (unit, GLO, None)", 0.03231285964601534], ["'autoclave' (unit, DK, None)", 0.07599536297153871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387604722468], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132300099693], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495451112495e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267561113464], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345611113444e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636986137977], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356477080706]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541602741584954e-05], ["'autoclave' (unit, DK, None)", 0.00019296319556729927], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.583195577756119e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580765531944e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294675015983516e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667265154954775e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961476537836e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647944942115e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690139047069588e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429142020424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541602741584954e-05], ["'autoclave' (unit, DK, None)", 0.00019296319556729927], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140830469222845e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9306385326035046e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205103546295e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.863116677322344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429142020424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899561332311], ["'autoclave' (unit, DK, None)", 0.00038592639113459843], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.31503046785144e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.73700243777927e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662698104825e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2286827865161525e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316351560119e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184544249774067e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.1185005501269915e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039168188618e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524679355573e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899561332311], ["'autoclave' (unit, DK, None)", 0.00038592639113459843], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828402949076858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.815816212381946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775132069889e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.19121857677435e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524679355573e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.9140855952422006e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381664216431838], ["'autoclave' (unit, DK, None)", 0.0005402969475884381], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673829945634475e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218537788901e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397545121103e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587414348324e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.43562527466162e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209687435784627e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.9140855952422006e-05], ["'wet wipe' (unit, GLO, None)", 2.10965962269019e-05], ["'autoclave' (unit, DK, None)", 0.0005402969475884381], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673829945634475e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218537788901e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397545121103e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587414348324e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361644610786e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8641801676993925e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.328954843651206e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387821024261e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690832108215919], ["'autoclave' (unit, DK, None)", 0.0003001649708824655], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404406111995e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958235395308e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546795090242205e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558295753797e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812637330802e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6048437178923134e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387821024261e-05], ["'wet wipe' (unit, GLO, None)", 2.10965962269019e-05], ["'autoclave' (unit, DK, None)", 0.0003001649708824655], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404406111995e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958235395308e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546795090242205e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558295753797e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361644610786e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002041326094e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.2929064064722824e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917950045584797e-06], ["'autoclave' (unit, DK, None)", 0.00013211238999578684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296613041792924e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075687813054e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6638043196531506e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016854837342e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983468800055e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323055132383e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142613572137e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851327101554e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917950045584797e-06], ["'autoclave' (unit, DK, None)", 0.00013211238999578684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023607171006e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4401642387575944e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338379187537e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.1092028797687673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851327101554e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293560699892299e-05], ["'autoclave' (unit, DK, None)", 0.0002642247799915736], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044408067814e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568281080484847e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358166061964e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.334288640213958e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743756048383248e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.65954842264856e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957878254112679e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.41158946861187e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024159197562e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293560699892299e-05], ["'autoclave' (unit, DK, None)", 0.0002642247799915736], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052414566214e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080719228515e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238777374647e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.895257601426385e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024159197562e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451650649626e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540579344358331e-05], ["'autoclave' (unit, DK, None)", 0.0003699146919882032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312111964457e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134638737134e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806478758707e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79845637161931e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.5734640610218305e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.8293634049656e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451650649626e-06], ["'wet wipe' (unit, GLO, None)", 8.81534910938993e-05], ["'autoclave' (unit, DK, None)", 0.0003699146919882032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312111964457e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134638737134e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806478758707e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79845637161931e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060298255296e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507661777785e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.701030514361373e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909300424298e-06], ["'mechanical disinfection' (unit, DK, None)", 4.7702896721791654e-05], ["'autoclave' (unit, DK, None)", 0.00020550816221566844], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187681120125e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.20476758644919e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361295751741e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469291931468e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320305109078e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.9146817024828e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909300424298e-06], ["'wet wipe' (unit, GLO, None)", 8.81534910938993e-05], ["'autoclave' (unit, DK, None)", 0.00020550816221566844], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187681120125e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.20476758644919e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361295751741e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469291931468e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060298255296e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640341472684e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618836973365444e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957966158240931], ["'autoclave' (unit, DK, None)", 0.018401239205872198], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053991987581e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640092230129], ["'mixed heating grid' (megajoule, DK, None)", -0.0006324936060415435], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078822205264], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499903872363574], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255140130361101], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0054540011166426495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079289592768]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957966158240931], ["'autoclave' (unit, DK, None)", 0.018401239205872198], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106699377860918], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411963152965e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547760061486753], ["'mixed heating grid' (megajoule, DK, None)", -0.004216624040276957], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079289592768]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851042171359949], ["'autoclave' (unit, DK, None)", 0.03680247841174438], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026060984668899417], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523433118742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933501091718427], ["'mixed heating grid' (megajoule, DK, None)", -0.0018095292506010569], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757009930047929], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597058447022046], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830477146479794], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363383427162395], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400451941262605]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851042171359949], ["'autoclave' (unit, DK, None)", 0.03680247841174438], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201970078481463], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071829340439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00728900072781229], ["'mixed heating grid' (megajoule, DK, None)", -0.012063528337340378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400451941262605]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023709306652208537], ["'mechanical disinfection' (unit, DK, None)", 0.021196932245074705], ["'autoclave' (unit, DK, None)", 0.051523469776442156], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000554800967073323], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853785362514], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608699417958e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198105991326], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579864483083e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617988992695719e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023709306652208537], ["'wet wipe' (unit, GLO, None)", 0.0023213601143841], ["'autoclave' (unit, DK, None)", 0.051523469776442156], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000554800967073323], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853785362514], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608699417958e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198105991326], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977044605687848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038521441846892763], ["'mixed heating grid' (megajoule, DK, None)", -0.000637542130489919]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014154284769576196], ["'mechanical disinfection' (unit, DK, None)", 0.010598466122537353], ["'autoclave' (unit, DK, None)", 0.028624149875801197], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682128363831], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086408492185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217398835916e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442766373647076], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207789932241533e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.308994496347859e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014154284769576196], ["'wet wipe' (unit, GLO, None)", 0.0023213601143841], ["'autoclave' (unit, DK, None)", 0.028624149875801197], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682128363831], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086408492185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217398835916e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442766373647076], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977044605687848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000382006628536687], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322331359935711]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553441631352923], ["'autoclave' (unit, DK, None)", 0.5754939344261286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742448764403], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0068205505274351475], ["'mixed heating grid' (megajoule, DK, None)", -0.01751756736534841], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894931826201], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169914713096564], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945385633909615], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117836671975], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807644395874]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553441631352923], ["'autoclave' (unit, DK, None)", 0.5754939344261286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149917489590909], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941266024735647], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04547033684956765], ["'mixed heating grid' (megajoule, DK, None)", -0.11678378243565606], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807644395874]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448101220556533], ["'autoclave' (unit, DK, None)", 1.1509878688522568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394356986556], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046110231124], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321810482574], ["'mixed heating grid' (megajoule, DK, None)", -0.05011679208167428], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1969887646374924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021579354961746938], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0239345179343357], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.643468108075267], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737570607249]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448101220556533], ["'autoclave' (unit, DK, None)", 1.1509878688522568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.323920419603073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04199638596172085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812069883838], ["'mixed heating grid' (megajoule, DK, None)", -0.33411194721116183], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737570607249]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089475740148], ["'mechanical disinfection' (unit, DK, None)", 0.6530819961369582], ["'autoclave' (unit, DK, None)", 1.6113830163931604], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135614475325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224301548513], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000371291625611281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001005816334], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001981470584], ["'mixed heating grid' (megajoule, DK, None)", -0.0002940762336368317]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089475740148], ["'wet wipe' (unit, GLO, None)", 0.0448806390016497], ["'autoclave' (unit, DK, None)", 1.6113830163931604], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135614475325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224301548513], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000371291625611281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001005816334], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939164771338], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874991735631118], ["'mixed heating grid' (megajoule, DK, None)", -0.017657391493648318]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379053472193], ["'mechanical disinfection' (unit, DK, None)", 0.3265409980684791], ["'autoclave' (unit, DK, None)", 0.895212786885089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425534708434], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666893822818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742583251222562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037216163036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725000990735277e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014703811681841586]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379053472193], ["'wet wipe' (unit, GLO, None)", 0.0448806390016497], ["'autoclave' (unit, DK, None)", 0.895212786885089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425534708434], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666893822818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742583251222562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037216163036], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939164771338], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741725723781], ["'mixed heating grid' (megajoule, DK, None)", -0.0175103533768299]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109664910730486], ["'autoclave' (unit, DK, None)", 0.05158946511502782], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877085771398e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237043937978], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650669477805806], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028513986619837367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152359032406931], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585726820312], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712188230469], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863045258016]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109664910730486], ["'autoclave' (unit, DK, None)", 0.05158946511502782], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793390008389644e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114081011526319e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824695958651], ["'mixed heating grid' (megajoule, DK, None)", -0.007767112985203871], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863045258016]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191440722855571], ["'autoclave' (unit, DK, None)", 0.1031789302300556], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434362214847977e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092608704156244e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379797334546], ["'mixed heating grid' (megajoule, DK, None)", -0.003333192147366913], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459810219127], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00215265174761762], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784421146696], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806250205766], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542860372427078]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191440722855571], ["'autoclave' (unit, DK, None)", 0.1031789302300556], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547433805180183e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380794243800052e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198648896998], ["'mixed heating grid' (megajoule, DK, None)", -0.022221280982446086], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542860372427078]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138934692817], ["'mechanical disinfection' (unit, DK, None)", 0.062308718743705915], ["'autoclave' (unit, DK, None)", 0.1444505023220779], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501073784775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964810773068], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506216712632607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859960404], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.345589863972864e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9558566140627943e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138934692817], ["'wet wipe' (unit, GLO, None)", 0.003225553718284336], ["'autoclave' (unit, DK, None)", 0.1444505023220779], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501073784775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964810773068], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506216712632607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859960404], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65430581456561e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762567106929], ["'mixed heating grid' (megajoule, DK, None)", -0.001174366439370189]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005643776019097728], ["'mechanical disinfection' (unit, DK, None)", 0.031154359371852958], ["'autoclave' (unit, DK, None)", 0.08025027906782105], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739148047327], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611247375858], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012433425265213e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136632968], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.172794931986429e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.779283070313972e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005643776019097728], ["'wet wipe' (unit, GLO, None)", 0.003225553718284336], ["'autoclave' (unit, DK, None)", 0.08025027906782105], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739148047327], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611247375858], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012433425265213e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136632968], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65430581456561e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483073908319], ["'mixed heating grid' (megajoule, DK, None)", -0.0011645871562998749]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202584329120736], ["'autoclave' (unit, DK, None)", 0.03688837534512291], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666347019959092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018935968426], ["'mixed heating grid' (megajoule, DK, None)", -0.009030613153272192], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236052404797962], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319989476110748], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964612555864857], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522488544982168], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832402620299113]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202584329120736], ["'autoclave' (unit, DK, None)", 0.03688837534512291], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9685146153430797e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272356032843762e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00678001262397895], ["'mixed heating grid' (megajoule, DK, None)", -0.060204087688481275], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832402620299113]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0122529328828411], ["'autoclave' (unit, DK, None)", 0.0737767506902458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400844062661313e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283426888660215e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095862105193776], ["'mixed heating grid' (megajoule, DK, None)", -0.025836085132907027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003162465080820619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754114169254], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918158868423709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00465422212534709], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572770774968]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0122529328828411], ["'autoclave' (unit, DK, None)", 0.0737767506902458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.5451115925157184e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845199053545858e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01939724140346253], ["'mixed heating grid' (megajoule, DK, None)", -0.1722405675527135], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572770774968]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341457044105302], ["'mechanical disinfection' (unit, DK, None)", 0.04429419670525798], ["'autoclave' (unit, DK, None)", 0.10328745096634416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475761057566675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389625594705], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795207840151782e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642388796449], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072923439249318e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00015160145516544438]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341457044105302], ["'wet wipe' (unit, GLO, None)", 0.012977474749620934], ["'autoclave' (unit, DK, None)", 0.10328745096634416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475761057566675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389625594705], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795207840151782e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642388796449], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968340505625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001025119539174321], ["'mixed heating grid' (megajoule, DK, None)", -0.009102694943273908]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299338296534556], ["'mechanical disinfection' (unit, DK, None)", 0.02214709835262899], ["'autoclave' (unit, DK, None)", 0.05738191720352453], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512546922242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020221148433], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590415680303564e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001215355892135311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461719624637e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580072758272219e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299338296534556], ["'wet wipe' (unit, GLO, None)", 0.012977474749620934], ["'autoclave' (unit, DK, None)", 0.05738191720352453], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512546922242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020221148433], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590415680303564e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001215355892135311], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968340505625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830774546986], ["'mixed heating grid' (megajoule, DK, None)", -0.009026894215691186]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064263599177728], ["'autoclave' (unit, DK, None)", 0.0030270334416534162], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243245063140622e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129778139982388e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164743171773712e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050234101628925], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447249250526335e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296503835077946], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576707116755], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574273847112]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064263599177728], ["'autoclave' (unit, DK, None)", 0.0030270334416534162], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142714013859665e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544723539958809e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002086518759988259], ["'mixed heating grid' (megajoule, DK, None)", -0.0005443162114515808], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574273847112]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902611033401841], ["'autoclave' (unit, DK, None)", 0.006054066883306831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.767946966478139e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0566905703527486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122283756203e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023358878970231633], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101652272796645], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843346861808897], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00031016978540331086], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866678061058], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750861356181]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902611033401841], ["'autoclave' (unit, DK, None)", 0.006054066883306831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669616940449763], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690432671952946e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414855837473], ["'mixed heating grid' (megajoule, DK, None)", -0.001557258598015442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750861356181]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642830579143], ["'mechanical disinfection' (unit, DK, None)", 0.0028827928405962427], ["'autoclave' (unit, DK, None)", 0.008475693636629566], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921807402558], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764504693035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433268489735e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355683049504e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116329791006e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3706565931733168e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642830579143], ["'wet wipe' (unit, GLO, None)", 0.0003586764126121852], ["'autoclave' (unit, DK, None)", 0.008475693636629566], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921807402558], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764504693035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433268489735e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355683049504e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313256484027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547598335627824e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.229913641678349e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211085470656], ["'mechanical disinfection' (unit, DK, None)", 0.0014413964202981213], ["'autoclave' (unit, DK, None)", 0.004708718687016425], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586072583826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355684308769], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686653697947e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515686186056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058164895496e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853282965866584e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211085470656], ["'wet wipe' (unit, GLO, None)", 0.0003586764126121852], ["'autoclave' (unit, DK, None)", 0.004708718687016425], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586072583826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355684308769], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686653697947e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515686186056], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313256484027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489251913835e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161380812019682e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733840427421669e-08], ["'autoclave' (unit, DK, None)", 2.3092231256051998e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.99316684081376e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490158340023e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.332829395952e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.652566915179121e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167552879777e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170096152507489e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874608393845e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604064843143e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733840427421669e-08], ["'autoclave' (unit, DK, None)", 2.3092231256051998e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686513810932e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796547724767e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.508993438893349e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.885529306346668e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604064843143e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905381587454e-07], ["'autoclave' (unit, DK, None)", 4.618446251210398e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201427724947e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.25419953810378e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.505855444353927e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.813151239789246e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264496365076e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545164479541076e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.8710468464912515e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753410815168e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.236292105789236e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.357905381587454e-07], ["'autoclave' (unit, DK, None)", 4.618446251210398e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.72554549684815e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8287832791633065e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036295692855e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.5421008265261636e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.236292105789236e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.397144137190947e-08], ["'mechanical disinfection' (unit, DK, None)", 2.5831392386675e-07], ["'autoclave' (unit, DK, None)", 6.465824751694561e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981693789277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237421189063e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.607245750159287e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319627602209e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086251399335e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.2374878923961943e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.397144137190947e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488188293794e-07], ["'autoclave' (unit, DK, None)", 6.465824751694561e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981693789277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237421189063e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.607245750159287e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319627602209e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33475177223546e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305503007947251e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3434679569219512e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.022280233689043e-08], ["'mechanical disinfection' (unit, DK, None)", 1.29156961933375e-07], ["'autoclave' (unit, DK, None)", 3.592124862052533e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905846225565e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169556485355e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491500318574e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170069661351e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431256996557e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187439461980972e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.022280233689043e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488188293794e-07], ["'autoclave' (unit, DK, None)", 3.592124862052533e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905846225565e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169556485355e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491500318574e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170069661351e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33475177223546e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322576690267e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.33228051745997e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099036906428558], ["'autoclave' (unit, DK, None)", 0.0002300189021211307], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121906613522e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052205093267038e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207294781303105e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001446095784810082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362617451253871e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336732939726349e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471601897044e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317493726669e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099036906428558], ["'autoclave' (unit, DK, None)", 0.0002300189021211307], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566872612711e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338616617491605e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136728844692e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001347152985420207], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317493726669e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865845041326379], ["'autoclave' (unit, DK, None)", 0.0004600378042422612], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829588202840164e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970295553170201e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525572499557e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.781195356445128e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040701371426773834], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130207862997088e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063886022009222e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891469301118437], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181730570491e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865845041326379], ["'autoclave' (unit, DK, None)", 0.0004600378042422612], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108639077782287e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.395895053539293e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.25768371499971e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003854130237630085], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181730570491e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002499971313146409], ["'mechanical disinfection' (unit, DK, None)", 0.0002606437215748902], ["'autoclave' (unit, DK, None)", 0.000644052925939166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695249925003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504158116409e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737295451304e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7734798695963974e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015482982953e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3923004360923326e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002499971313146409], ["'wet wipe' (unit, GLO, None)", 7.725704178186805e-05], ["'autoclave' (unit, DK, None)", 0.000644052925939166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695249925003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504158116409e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737295451304e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7734798695963974e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608143767927e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.83559354170093e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.03685881457964e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001489845199422049], ["'mechanical disinfection' (unit, DK, None)", 0.0001303218607874451], ["'autoclave' (unit, DK, None)", 0.0003578071810773144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568365873316e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288995813707e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900347459090261e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107599036948e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007741491468e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6961502180461663e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001489845199422049], ["'wet wipe' (unit, GLO, None)", 7.725704178186805e-05], ["'autoclave' (unit, DK, None)", 0.0003578071810773144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568365873316e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288995813707e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900347459090261e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107599036948e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608143767927e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534642860242e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0198973123991783e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818797899867289], ["'autoclave' (unit, DK, None)", 0.0004079659845177437], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431515501809e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578906126716e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.021790146702807e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140993941449], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274325764623196e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221678864334125e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230472182945e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767765329475e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818797899867289], ["'autoclave' (unit, DK, None)", 0.0004079659845177437], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796491940192789e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108360996683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.19638593741781e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033478600978018713], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767765329475e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484659144062], ["'autoclave' (unit, DK, None)", 0.000815931969035487], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324758850918e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450491993243e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.659127656312019e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014367064068378967], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385591067274], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893601815856222e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729679109892342e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00024414733724459], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.897184247161771e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484659144062], ["'autoclave' (unit, DK, None)", 0.000815931969035487], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877442085050111e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144856372401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727517708746807], ["'mixed heating grid' (megajoule, DK, None)", -0.0009578042712252644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.897184247161771e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652231854316], ["'mechanical disinfection' (unit, DK, None)", 0.00047574155270491093], ["'autoclave' (unit, DK, None)", 0.0011423047566496824], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702340325546e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719398624472], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849748446214e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380300414469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603278131876211e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.430332258223012e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652231854316], ["'wet wipe' (unit, GLO, None)", 0.0010944013351023895], ["'autoclave' (unit, DK, None)", 0.0011423047566496824], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702340325546e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719398624472], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849748446214e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380300414469e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669444227508e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767654276435e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.061873761917369e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002000954363522074], ["'mechanical disinfection' (unit, DK, None)", 0.00023787077635245546], ["'autoclave' (unit, DK, None)", 0.0006346137536942679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494660273641e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252213363732e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699496892427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800358225027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801639065938086e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215166129111506e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002000954363522074], ["'wet wipe' (unit, GLO, None)", 0.0010944013351023895], ["'autoclave' (unit, DK, None)", 0.0006346137536942679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494660273641e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252213363732e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699496892427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800358225027e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669444227508e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290751263617077e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.019722100626253e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164942728512594], ["'autoclave' (unit, DK, None)", 0.0004183518809990785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521146795886e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365923244572e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.199490806655512e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640912518574], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583331232006816e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.4457072192246664e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547967762828e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912479961041e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164942728512594], ["'autoclave' (unit, DK, None)", 0.0004183518809990785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.812476648808485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.396169875230997e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243948829715e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034663272044370083], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912479961041e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00176485970165454], ["'autoclave' (unit, DK, None)", 0.0008367037619981567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541191393958e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186918170537e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.719146562470917e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014875455835448327], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693634318142], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823618271088475e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.640453756547733e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000256071773739798], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437719889162]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00176485970165454], ["'autoclave' (unit, DK, None)", 0.0008367037619981567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.92246943326334e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.023055299416215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001812764374980613], ["'mixed heating grid' (megajoule, DK, None)", -0.0009916970556965552], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437719889162]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943667771785], ["'mechanical disinfection' (unit, DK, None)", 0.00048772869309729564], ["'autoclave' (unit, DK, None)", 0.00117138526679742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854557085055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714340408241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846547208684e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.7458394799271365e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955458172479113e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.728647313640136e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943667771785], ["'wet wipe' (unit, GLO, None)", 0.0016920736904469076], ["'autoclave' (unit, DK, None)", 0.00117138526679742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854557085055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714340408241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846547208684e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.7458394799271365e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802465196027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580229178258478e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.240992817435965e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761860633916], ["'mechanical disinfection' (unit, DK, None)", 0.00024386434654864782], ["'autoclave' (unit, DK, None)", 0.0006507695926652332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059788378394e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205373790591e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693094417368e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288722919878068e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977729086239535e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.364323656820068e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761860633916], ["'wet wipe' (unit, GLO, None)", 0.0016920736904469076], ["'autoclave' (unit, DK, None)", 0.0006507695926652332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059788378394e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205373790591e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693094417368e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288722919878068e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802465196027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451887396106e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349580867764e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873638186589], ["'autoclave' (unit, DK, None)", 0.003570410624078717], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840646887756e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299291600267e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364061940090576e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001057150008659635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896361918638474e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370730418653185e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000462111090865758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069601950292]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873638186589], ["'autoclave' (unit, DK, None)", 0.003570410624078717], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249401205895], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110565866202559e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199527733511], ["'mixed heating grid' (megajoule, DK, None)", -0.0006242707960060384], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069601950292]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755801648569254], ["'autoclave' (unit, DK, None)", 0.0071408212481574316], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472631782234e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025807014864399e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002386113532652326], ["'mixed heating grid' (megajoule, DK, None)", -0.00026790063683143427], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029754222098036087], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997934169687307e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000101539196930543], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213827204452], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277127067445]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755801648569254], ["'autoclave' (unit, DK, None)", 0.0071408212481574316], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000289866180315659], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454460068550255e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423551015517], ["'mixed heating grid' (megajoule, DK, None)", -0.001786004245542895], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277127067445]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273964850923], ["'mechanical disinfection' (unit, DK, None)", 0.004000203821405099], ["'autoclave' (unit, DK, None)", 0.009997149747420409], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443490970285e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407370741317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988443556437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056371757159e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280839538329e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.571992280349978e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273964850923], ["'wet wipe' (unit, GLO, None)", 0.00959087214292132], ["'autoclave' (unit, DK, None)", 0.009997149747420409], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443490970285e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407370741317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988443556437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056371757159e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960170717908e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871039485471e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.43880529747646e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358117054304], ["'mechanical disinfection' (unit, DK, None)", 0.0020001019107025496], ["'autoclave' (unit, DK, None)", 0.005553972081900227], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900456792413e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216542681032], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976887112874e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784292179876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640419769145e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.85996140174989e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358117054304], ["'wet wipe' (unit, GLO, None)", 0.00959087214292132], ["'autoclave' (unit, DK, None)", 0.005553972081900227], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900456792413e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216542681032], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976887112874e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784292179876e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960170717908e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.3368646352878e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360205683458961e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262128737483e-09], ["'autoclave' (unit, DK, None)", 1.2405711132136215e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965863170332e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522317988965e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992677219138744e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933748690194e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011355308792272e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950035391929284e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755780376273e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566097399755e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262128737483e-09], ["'autoclave' (unit, DK, None)", 1.2405711132136215e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538096122369e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.39635202341718e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.89901487865931e-10], ["'mixed heating grid' (megajoule, DK, None)", -9.32845147942583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566097399755e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679385528601e-09], ["'autoclave' (unit, DK, None)", 2.4811422264272417e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183705987013e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352348063994e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464921314004e-11], ["'mixed heating grid' (megajoule, DK, None)", -4.0032276184919303e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522140353195e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.1199224715782564e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105994155202906e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269233908811e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155038469107e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679385528601e-09], ["'autoclave' (unit, DK, None)", 2.4811422264272417e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487594710902e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240620747764e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976614209341e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.6688184123279535e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155038469107e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031302600719e-10], ["'mechanical disinfection' (unit, DK, None)", 1.4521285413816987e-09], ["'autoclave' (unit, DK, None)", 3.4735991169981403e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734015188233e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705795932694e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184145719567e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049251782454e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.78195800383607e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.3490212592188745e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031302600719e-10], ["'wet wipe' (unit, GLO, None)", 5.658612285950354e-10], ["'autoclave' (unit, DK, None)", 3.4735991169981403e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734015188233e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705795932694e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184145719567e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049251782454e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592025228564e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.87125904516967e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.4104365894509176e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.6039846807194536e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260642706908493e-10], ["'autoclave' (unit, DK, None)", 1.929777287221189e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468624373595e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681394312357e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368291439134e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978123521632e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909790019180287e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1745106296094373e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.6039846807194536e-10], ["'wet wipe' (unit, GLO, None)", 5.658612285950354e-10], ["'autoclave' (unit, DK, None)", 1.929777287221189e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468624373595e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681394312357e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368291439134e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978123521632e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592025228564e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492551504963e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914831548232e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981147814084986e-07], ["'autoclave' (unit, DK, None)", 5.227324800269251e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248255974635e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051757022546e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.192456442054107e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655888283176e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628137912364557e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795700319177372e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353220063472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773673137891e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981147814084986e-07], ["'autoclave' (unit, DK, None)", 5.227324800269251e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189362074682e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780941823055e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936783801503e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.1283042947027383e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773673137891e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425452828629e-06], ["'autoclave' (unit, DK, None)", 1.0454649600538498e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030108040322e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016409710846e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755759028997e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.133441441915936e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.32535597695596e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968182066339928e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495988581841047e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.30404316058126e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621937186594e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425452828629e-06], ["'autoclave' (unit, DK, None)", 1.0454649600538498e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60794066537315e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287518926064e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8508503839352677e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.08896096127729e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621937186594e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421527006064564e-07], ["'mechanical disinfection' (unit, DK, None)", 6.010856045000128e-07], ["'autoclave' (unit, DK, None)", 1.4636509440753904e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.920802355490857e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977816070853e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231154569161e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919513420330676e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.629068084742779e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.359337554973573e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421527006064564e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705597212204e-07], ["'autoclave' (unit, DK, None)", 1.4636509440753904e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.920802355490857e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977816070853e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231154569161e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919513420330676e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461962802388e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508891886291e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.217938429925816e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862302839395e-07], ["'mechanical disinfection' (unit, DK, None)", 3.005428022500064e-07], ["'autoclave' (unit, DK, None)", 8.131394133752168e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929520236026e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.48516058541094e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462309138322e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.157935494535878e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340423713872e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6796687774867867e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862302839395e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705597212204e-07], ["'autoclave' (unit, DK, None)", 8.131394133752168e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929520236026e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.48516058541094e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462309138322e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.157935494535878e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461962802388e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055487649176e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141742150947e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845508441566], ["'autoclave' (unit, DK, None)", 0.010127340607091077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.712419576214946e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315721994802], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124580449696758], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001070636131], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466568737102369], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767515291195214], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652867015637], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012363072156451858]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845508441566], ["'autoclave' (unit, DK, None)", 0.010127340607091077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362784103856183], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352039577119195e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210481329867], ["'mixed heating grid' (megajoule, DK, None)", -0.008083053633131172], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012363072156451858]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995276265299], ["'autoclave' (unit, DK, None)", 0.020254681214182148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849188145730175e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.042394801749952e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854696410882], ["'mixed heating grid' (megajoule, DK, None)", -0.0034687754572416897], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665265035469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423653480599364], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255964028571872], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082719117469194], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215781218424]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995276265299], ["'autoclave' (unit, DK, None)", 0.020254681214182148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003200784254607376], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.022141220617749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043252364642739245], ["'mixed heating grid' (megajoule, DK, None)", -0.023125169714944594], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215781218424]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499273216413], ["'mechanical disinfection' (unit, DK, None)", 0.01172117766695602], ["'autoclave' (unit, DK, None)", 0.02835655369985502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218985817985], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331233003942155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.71428613725222e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074824250154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.806955302315124e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.035414437809796e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499273216413], ["'wet wipe' (unit, GLO, None)", 0.012386853594456874], ["'autoclave' (unit, DK, None)", 0.02835655369985502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218985817985], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331233003942155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.71428613725222e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074824250154], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328839362472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858324639322058], ["'mixed heating grid' (megajoule, DK, None)", -0.001222135809336288]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031821008635], ["'mechanical disinfection' (unit, DK, None)", 0.00586058883347801], ["'autoclave' (unit, DK, None)", 0.0157536409443639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108079124557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518660572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.42857227450444e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328595800914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776511575572e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.017707218904898e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031821008635], ["'wet wipe' (unit, GLO, None)", 0.012386853594456874], ["'autoclave' (unit, DK, None)", 0.0157536409443639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108079124557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518660572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.42857227450444e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328595800914], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328839362472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976874206355], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119587371472388]]</t>
   </si>
 </sst>
 </file>
@@ -938,79 +962,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1073,9 +1097,12 @@
       <c r="U2" t="s">
         <v>181</v>
       </c>
+      <c r="V2" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -1138,9 +1165,12 @@
       <c r="U3" t="s">
         <v>182</v>
       </c>
+      <c r="V3" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -1203,9 +1233,12 @@
       <c r="U4" t="s">
         <v>183</v>
       </c>
+      <c r="V4" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -1268,9 +1301,12 @@
       <c r="U5" t="s">
         <v>184</v>
       </c>
+      <c r="V5" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -1333,9 +1369,12 @@
       <c r="U6" t="s">
         <v>185</v>
       </c>
+      <c r="V6" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
@@ -1398,9 +1437,12 @@
       <c r="U7" t="s">
         <v>186</v>
       </c>
+      <c r="V7" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1463,9 +1505,12 @@
       <c r="U8" t="s">
         <v>187</v>
       </c>
+      <c r="V8" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -1527,6 +1572,9 @@
       </c>
       <c r="U9" t="s">
         <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -103,508 +103,508 @@
     <t>alubox (small + wipe)</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000718840980205548], ["'autoclave' (unit, DK, None)", 0.000660351955885596], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7613498780607927e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848530567334e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7376449115353246e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00038091834219100107], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102784447547698e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908696186176558e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001327141851461318], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365802310424e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000718840980205548], ["'autoclave' (unit, DK, None)", 0.000660351955885596], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.168746180769311e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162768188326e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.453899020378222e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000315842994102355], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665365802310424e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056819901330693], ["'autoclave' (unit, DK, None)", 0.0013207039117711916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.9877477855366374e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.362399657130617e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.198778970940704e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013554140254536172], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001072121161795864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396729890677537e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.683637503126088e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427750595262], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670431256555]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002056819901330693], ["'autoclave' (unit, DK, None)", 0.0013207039117711916], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.292242762730454e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153571159894e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021325193139604712], ["'mixed heating grid' (megajoule, DK, None)", -0.0009036093503024114], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013272670431256555]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737336001674545], ["'mechanical disinfection' (unit, DK, None)", 0.000750418439960545], ["'autoclave' (unit, DK, None)", 0.0018489854764796691], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496716358134e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138261166564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143793498426e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415155586902e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854033712487e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953323328722926e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005737336001674545], ["'wet wipe' (unit, GLO, None)", 0.000252381166428882], ["'autoclave' (unit, DK, None)", 0.0018489854764796691], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496716358134e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138261166564], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143793498426e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415155586902e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795180099254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.127009336501461e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7754604972347585e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025059456037], ["'mechanical disinfection' (unit, DK, None)", 0.0003752092199802725], ["'autoclave' (unit, DK, None)", 0.001027214153599816], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818382818859e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651533103787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287586996851e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.460141385596522e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.38492701685622e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.976661664361463e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00034200025059456037], ["'wet wipe' (unit, GLO, None)", 0.000252381166428882], ["'autoclave' (unit, DK, None)", 0.001027214153599816], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.933818382818859e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651533103787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584287586996851e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.460141385596522e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796795180099254e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079074851891714e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1176244094846074e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.7356938805911433e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476678840660577], ["'autoclave' (unit, DK, None)", 0.19079227058883225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290444774732], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004612916787972572], ["'mixed heating grid' (megajoule, DK, None)", -0.013857789981248056], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1437614917969789], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00276003158510024], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147118530644295], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452558512729], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122503570289]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476678840660577], ["'autoclave' (unit, DK, None)", 0.19079227058883225], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491790458], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021958503878851492], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752778586483814], ["'mixed heating grid' (megajoule, DK, None)", -0.09238526654165372], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.015494122503570289]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087357402266669], ["'autoclave' (unit, DK, None)", 0.3815845411776644], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697200716584], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00993720464393692], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01319729998642355], ["'mixed heating grid' (megajoule, DK, None)", -0.0396463712521824], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462671532262273], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306891178457032], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876504756824072], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930852277500647], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407979788199269]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7087357402266669], ["'autoclave' (unit, DK, None)", 0.3815845411776644], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110363509297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0661473500614646], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798199990949039], ["'mixed heating grid' (megajoule, DK, None)", -0.264309141681216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407979788199269]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1334370390546252], ["'mechanical disinfection' (unit, DK, None)", 0.22422044829192989], ["'autoclave' (unit, DK, None)", 0.5342183576487304], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158504842996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338608588086], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315919106554], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931644335576], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.743935940389101e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263770586530843]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.1334370390546252], ["'wet wipe' (unit, GLO, None)", 0.057597678959994], ["'autoclave' (unit, DK, None)", 0.5342183576487304], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158504842996], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780338608588086], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315919106554], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977931644335576], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527740641073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046497368015821095], ["'mixed heating grid' (megajoule, DK, None)", -0.013968401995112727]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585534829738], ["'mechanical disinfection' (unit, DK, None)", 0.11211022414596494], ["'autoclave' (unit, DK, None)", 0.29678797647151683], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778655073107], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009181770343], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631838213108], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268087351588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.87196797019454e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631885293265421]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.07946585534829738], ["'wet wipe' (unit, GLO, None)", 0.057597678959994], ["'autoclave' (unit, DK, None)", 0.29678797647151683], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778655073107], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009181770343], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007498631838213108], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.004849268087351588], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527740641073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265368356], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046110171218801755], ["'mixed heating grid' (megajoule, DK, None)", -0.013852083142180073]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819006893290447], ["'autoclave' (unit, DK, None)", 0.039490237005725494], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014331293366121104], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602673758881824], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292373312001952], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003308658365241573], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253785903239], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0004312632089888851], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485087210429], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699843578209]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.007819006893290447], ["'autoclave' (unit, DK, None)", 0.039490237005725494], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549803687834], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011529224680216909], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019068449172587882], ["'mixed heating grid' (megajoule, DK, None)", -0.004861582208001302], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004699843578209]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901011498017], ["'autoclave' (unit, DK, None)", 0.07898047401145096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004058300831714668], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489573303113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066882844728], ["'mixed heating grid' (megajoule, DK, None)", -0.0020863077015047826], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312449041242838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449695860485476], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991285112595025], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03433376080904346], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054301825346]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02236901011498017], ["'autoclave' (unit, DK, None)", 0.07898047401145096], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026787464235740382], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003473040171894777], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005455377921896489], ["'mixed heating grid' (megajoule, DK, None)", -0.013908718010031882], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238054301825346]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006545741316203516], ["'mechanical disinfection' (unit, DK, None)", 0.046986255927286745], ["'autoclave' (unit, DK, None)", 0.11057266361603141], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586170371557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476069845066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950433963848e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055720109878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.801675024577663e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242074673617959e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006545741316203516], ["'wet wipe' (unit, GLO, None)", 0.002224593588692142], ["'autoclave' (unit, DK, None)", 0.11057266361603141], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586170371557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476069845066], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950433963848e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360055720109878e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311217246625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002883097851387266], ["'mixed heating grid' (megajoule, DK, None)", -0.0007350580580187213]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0039013898245662745], ["'mechanical disinfection' (unit, DK, None)", 0.023493127963643372], ["'autoclave' (unit, DK, None)", 0.06142925756446188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00231707390886122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592494211176], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900867927696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443497781164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.400837512288825e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121037336808979e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0039013898245662745], ["'wet wipe' (unit, GLO, None)", 0.002224593588692142], ["'autoclave' (unit, DK, None)", 0.06142925756446188], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00231707390886122], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0028555592494211176], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7957900867927696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663443497781164], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6678311217246625e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907704864417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028590894762643845], ["'mixed heating grid' (megajoule, DK, None)", -0.0007289370206819122]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032082859007828], ["'autoclave' (unit, DK, None)", 0.04984927934834795], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152628950593], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297280529095665], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540183799941009], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681950029628], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987330798406569], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588597311482356], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853839984308758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00065869547133772]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01032082859007828], ["'autoclave' (unit, DK, None)", 0.04984927934834795], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704360326363], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001669433179237587], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864853686063777], ["'mixed heating grid' (megajoule, DK, None)", -0.006360122533294006], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00065869547133772]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714521218193], ["'autoclave' (unit, DK, None)", 0.09969855869669586], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366790392801], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931443867484], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010670545826962708], ["'mixed heating grid' (megajoule, DK, None)", -0.002729393859037638], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.01241980019048074], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010413082582879], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834976770490177], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465870418115144], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018739469263690197]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02952714521218193], ["'autoclave' (unit, DK, None)", 0.09969855869669586], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789960655314], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028966523425468], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697217975144], ["'mixed heating grid' (megajoule, DK, None)", -0.018195959060250917], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0018739469263690197]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384727501467], ["'mechanical disinfection' (unit, DK, None)", 0.05926075666638214], ["'autoclave' (unit, DK, None)", 0.1395779821753743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058843138074], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907037548601], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385013704105e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012319272897487105], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282490963413e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015587447600887e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00860384727501467], ["'wet wipe' (unit, GLO, None)", 0.002469441887751026], ["'autoclave' (unit, DK, None)", 0.1395779821753743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058843138074], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907037548601], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.527385013704105e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012319272897487105], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8690174731010805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037594985092130633], ["'mixed heating grid' (megajoule, DK, None)", -0.0009616332951009002]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202872714801], ["'mechanical disinfection' (unit, DK, None)", 0.02963037833319107], ["'autoclave' (unit, DK, None)", 0.07754332343076348], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145272105806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682929271069], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05477002740821e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500669398894], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.130641245481698e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007793723800444e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005128202872714801], ["'wet wipe' (unit, GLO, None)", 0.002469441887751026], ["'autoclave' (unit, DK, None)", 0.07754332343076348], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145272105806], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682929271069], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.05477002740821e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615500669398894], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8690174731010805e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002503001602983452], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003728192096758255], ["'mixed heating grid' (megajoule, DK, None)", -0.0009536255013770997]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751937313387222], ["'autoclave' (unit, DK, None)", 2.0275048400879876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234419042169], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012857065553239002], ["'mixed heating grid' (megajoule, DK, None)", -0.07078880380770323], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441616551028], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535831020515994], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.019192902843213247], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2226231187889386], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537352814611]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.6751937313387222], ["'autoclave' (unit, DK, None)", 2.0275048400879876], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286390205551], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805808021495], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571377035492668], ["'mixed heating grid' (megajoule, DK, None)", -0.4719253587180216], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.03660537352814611]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.93044519908796], ["'autoclave' (unit, DK, None)", 4.055009680175974], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729242708198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02906154210232561], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335397109632], ["'mixed heating grid' (megajoule, DK, None)", -0.20252285537995615], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004658401921], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685541375106755], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781630980280194], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073768702496], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997089178276]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.93044519908796], ["'autoclave' (unit, DK, None)", 4.055009680175974], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933493536765], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1934491708331097], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522235980730897], ["'mixed heating grid' (megajoule, DK, None)", -1.3501523691997077], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.10413997089178276]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24025697601244228], ["'mechanical disinfection' (unit, DK, None)", 2.3912587513740657], ["'autoclave' (unit, DK, None)", 5.6770135522463665], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312141891842], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173056988747], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343804701257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131568080492], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804044604453], ["'mixed heating grid' (megajoule, DK, None)", -0.001188367332818414]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.24025697601244228], ["'wet wipe' (unit, GLO, None)", 0.13935219326944326], ["'autoclave' (unit, DK, None)", 5.6770135522463665], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312141891842], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173056988747], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999343804701257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846131568080492], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950256462042696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012959689847239554], ["'mixed heating grid' (megajoule, DK, None)", -0.07135383561716467]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451244002775], ["'mechanical disinfection' (unit, DK, None)", 1.1956293756870329], ["'autoclave' (unit, DK, None)", 3.153896417914648], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965497161328], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0550637609806003], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687609402514], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555195992564], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010791902022302198], ["'mixed heating grid' (megajoule, DK, None)", -0.000594183666409207]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.14271451244002775], ["'wet wipe' (unit, GLO, None)", 0.13935219326944326], ["'autoclave' (unit, DK, None)", 3.153896417914648], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.20320965497161328], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0550637609806003], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00039998687609402514], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456555195992564], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950256462042696], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292064296327], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012851770827016563], ["'mixed heating grid' (megajoule, DK, None)", -0.07075965195075545]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597922734379], ["'autoclave' (unit, DK, None)", 0.04885416191027488], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629227473764905e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638736470506], ["'mixed heating grid' (megajoule, DK, None)", -0.003968990965172326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246642631864], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776607884286522], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179652626521786], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314711769189], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087326079998525]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497597922734379], ["'autoclave' (unit, DK, None)", 0.04885416191027488], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000309408892582926], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.63737197026655e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092490980338], ["'mixed heating grid' (megajoule, DK, None)", -0.026459939767815507], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087326079998525]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511114593128], ["'autoclave' (unit, DK, None)", 0.09770832382054973], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204351331355858], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.646073422582799e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748001167039613], ["'mixed heating grid' (megajoule, DK, None)", -0.01135506379550486], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117416047142664], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405324700279824], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627839411393], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.035910745666955464], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01197357789427806]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284511114593128], ["'autoclave' (unit, DK, None)", 0.09770832382054973], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000871574345304017], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957145274943252], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165334111359757], ["'mixed heating grid' (megajoule, DK, None)", -0.07570042530336574], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01197357789427806]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050887998127], ["'mechanical disinfection' (unit, DK, None)", 0.057753175946723634], ["'autoclave' (unit, DK, None)", 0.1367916533487697], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467736227674], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344473887627], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487477255562474e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395478885801], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.038949598561353e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662945202570237e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.030333050887998127], ["'wet wipe' (unit, GLO, None)", 0.03231285964601534], ["'autoclave' (unit, DK, None)", 0.1367916533487697], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467736227674], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344473887627], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487477255562474e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395478885801], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345611113444e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012242584466066015], ["'mixed heating grid' (megajoule, DK, None)", -0.0040006712030935575]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211954321374], ["'mechanical disinfection' (unit, DK, None)", 0.028876587973361817], ["'autoclave' (unit, DK, None)", 0.07599536297153871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387604722468], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132300099693], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495451112495e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267561113464], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.019474799280674e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.331472601285118e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017997211954321374], ["'wet wipe' (unit, GLO, None)", 0.03231285964601534], ["'autoclave' (unit, DK, None)", 0.07599536297153871], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387604722468], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132300099693], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497495451112495e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172267561113464], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.38345611113444e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453556324058513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012140636986137977], ["'mixed heating grid' (megajoule, DK, None)", -0.003967356477080706]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541602741584954e-05], ["'autoclave' (unit, DK, None)", 0.00019296319556729927], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.583195577756119e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580765531944e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294675015983516e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667265154954775e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961476537836e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647944942115e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690139047069588e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429142020424e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.541602741584954e-05], ["'autoclave' (unit, DK, None)", 0.00019296319556729927], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140830469222845e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9306385326035046e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205103546295e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.863116677322344e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429142020424e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899561332311], ["'autoclave' (unit, DK, None)", 0.00038592639113459843], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.31503046785144e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.73700243777927e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662698104825e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2286827865161525e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316351560119e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184544249774067e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.1185005501269915e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039168188618e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524679355573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0001588899561332311], ["'autoclave' (unit, DK, None)", 0.00038592639113459843], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828402949076858e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.815816212381946e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775132069889e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.19121857677435e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911524679355573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.9140855952422006e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381664216431838], ["'autoclave' (unit, DK, None)", 0.0005402969475884381], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673829945634475e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218537788901e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397545121103e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587414348324e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.43562527466162e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209687435784627e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.9140855952422006e-05], ["'wet wipe' (unit, GLO, None)", 2.10965962269019e-05], ["'autoclave' (unit, DK, None)", 0.0005402969475884381], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.4673829945634475e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218537788901e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273397545121103e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587414348324e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361644610786e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8641801676993925e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.328954843651206e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387821024261e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690832108215919], ["'autoclave' (unit, DK, None)", 0.0003001649708824655], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404406111995e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958235395308e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546795090242205e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558295753797e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812637330802e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6048437178923134e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.928387821024261e-05], ["'wet wipe' (unit, GLO, None)", 2.10965962269019e-05], ["'autoclave' (unit, DK, None)", 0.0003001649708824655], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.2645404406111995e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958235395308e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546795090242205e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604558295753797e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.952361644610786e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946299869846214e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.832002041326094e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.2929064064722824e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917950045584797e-06], ["'autoclave' (unit, DK, None)", 0.00013211238999578684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296613041792924e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075687813054e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6638043196531506e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016854837342e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983468800055e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323055132383e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111142613572137e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851327101554e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.917950045584797e-06], ["'autoclave' (unit, DK, None)", 0.00013211238999578684], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.851023607171006e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4401642387575944e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338379187537e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.1092028797687673e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851327101554e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293560699892299e-05], ["'autoclave' (unit, DK, None)", 0.0002642247799915736], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044408067814e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5568281080484847e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358166061964e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.334288640213958e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743756048383248e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.65954842264856e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.8957878254112679e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.41158946861187e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024159197562e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.293560699892299e-05], ["'autoclave' (unit, DK, None)", 0.0002642247799915736], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052414566214e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080719228515e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238777374647e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.895257601426385e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024159197562e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451650649626e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540579344358331e-05], ["'autoclave' (unit, DK, None)", 0.0003699146919882032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312111964457e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134638737134e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806478758707e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79845637161931e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.5734640610218305e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.8293634049656e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.807451650649626e-06], ["'wet wipe' (unit, GLO, None)", 8.81534910938993e-05], ["'autoclave' (unit, DK, None)", 0.0003699146919882032], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312111964457e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134638737134e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901806478758707e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79845637161931e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060298255296e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.346507661777785e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.701030514361373e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909300424298e-06], ["'mechanical disinfection' (unit, DK, None)", 4.7702896721791654e-05], ["'autoclave' (unit, DK, None)", 0.00020550816221566844], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187681120125e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.20476758644919e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361295751741e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469291931468e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7867320305109078e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.9146817024828e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.456909300424298e-06], ["'wet wipe' (unit, GLO, None)", 8.81534910938993e-05], ["'autoclave' (unit, DK, None)", 0.00020550816221566844], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0067187681120125e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.20476758644919e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.780361295751741e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469291931468e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060298255296e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880357972183e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.318640341472684e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6618836973365444e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957966158240931], ["'autoclave' (unit, DK, None)", 0.018401239205872198], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053991987581e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640092230129], ["'mixed heating grid' (megajoule, DK, None)", -0.0006324936060415435], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078822205264], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499903872363574], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255140130361101], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0054540011166426495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079289592768]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009957966158240931], ["'autoclave' (unit, DK, None)", 0.018401239205872198], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106699377860918], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411963152965e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002547760061486753], ["'mixed heating grid' (megajoule, DK, None)", -0.004216624040276957], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.000717079289592768]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851042171359949], ["'autoclave' (unit, DK, None)", 0.03680247841174438], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026060984668899417], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.234523433118742e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933501091718427], ["'mixed heating grid' (megajoule, DK, None)", -0.0018095292506010569], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757009930047929], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597058447022046], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830477146479794], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363383427162395], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400451941262605]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02851042171359949], ["'autoclave' (unit, DK, None)", 0.03680247841174438], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201970078481463], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002153071829340439], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00728900072781229], ["'mixed heating grid' (megajoule, DK, None)", -0.012063528337340378], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0020400451941262605]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023709306652208537], ["'mechanical disinfection' (unit, DK, None)", 0.021196932245074705], ["'autoclave' (unit, DK, None)", 0.051523469776442156], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000554800967073323], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853785362514], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608699417958e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198105991326], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.415579864483083e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617988992695719e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.023709306652208537], ["'wet wipe' (unit, GLO, None)", 0.0023213601143841], ["'autoclave' (unit, DK, None)", 0.051523469776442156], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000554800967073323], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853785362514], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608699417958e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411198105991326], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977044605687848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038521441846892763], ["'mixed heating grid' (megajoule, DK, None)", -0.000637542130489919]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014154284769576196], ["'mechanical disinfection' (unit, DK, None)", 0.010598466122537353], ["'autoclave' (unit, DK, None)", 0.028624149875801197], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682128363831], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086408492185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217398835916e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442766373647076], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207789932241533e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.308994496347859e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014154284769576196], ["'wet wipe' (unit, GLO, None)", 0.0023213601143841], ["'autoclave' (unit, DK, None)", 0.028624149875801197], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682128363831], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086408492185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581217398835916e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442766373647076], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977044605687848e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716202255621364], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000382006628536687], ["'mixed heating grid' (megajoule, DK, None)", -0.0006322331359935711]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553441631352923], ["'autoclave' (unit, DK, None)", 0.5754939344261286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742448764403], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0068205505274351475], ["'mixed heating grid' (megajoule, DK, None)", -0.01751756736534841], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998894931826201], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169914713096564], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945385633909615], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22843117836671975], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807644395874]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1553441631352923], ["'autoclave' (unit, DK, None)", 0.5754939344261286], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1149917489590909], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941266024735647], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04547033684956765], ["'mixed heating grid' (megajoule, DK, None)", -0.11678378243565606], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01661807644395874]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101220556533], ["'autoclave' (unit, DK, None)", 1.1509878688522568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394356986556], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006309046110231124], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01951321810482574], ["'mixed heating grid' (megajoule, DK, None)", -0.05011679208167428], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1969887646374924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.021579354961746938], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0239345179343357], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.643468108075267], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737570607249]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4448101220556533], ["'autoclave' (unit, DK, None)", 1.1509878688522568], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.323920419603073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04199638596172085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.13008812069883838], ["'mixed heating grid' (megajoule, DK, None)", -0.33411194721116183], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737570607249]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089475740148], ["'mechanical disinfection' (unit, DK, None)", 0.6530819961369582], ["'autoclave' (unit, DK, None)", 1.6113830163931604], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135614475325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224301548513], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000371291625611281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001005816334], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011450001981470584], ["'mixed heating grid' (megajoule, DK, None)", -0.0002940762336368317]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13663089475740148], ["'wet wipe' (unit, GLO, None)", 0.0448806390016497], ["'autoclave' (unit, DK, None)", 1.6113830163931604], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.056715135614475325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05119224301548513], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000371291625611281], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003108001005816334], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939164771338], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006874991735631118], ["'mixed heating grid' (megajoule, DK, None)", -0.017657391493648318]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379053472193], ["'mechanical disinfection' (unit, DK, None)", 0.3265409980684791], ["'autoclave' (unit, DK, None)", 0.895212786885089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425534708434], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666893822818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742583251222562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037216163036], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725000990735277e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014703811681841586]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08139379053472193], ["'wet wipe' (unit, GLO, None)", 0.0448806390016497], ["'autoclave' (unit, DK, None)", 0.895212786885089], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425534708434], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666893822818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000742583251222562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037216163036], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694939164771338], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310821130473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006817741725723781], ["'mixed heating grid' (megajoule, DK, None)", -0.0175103533768299]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109664910730486], ["'autoclave' (unit, DK, None)", 0.05158946511502782], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037877085771398e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237043937978], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650669477805806], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028513986619837367], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152359032406931], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165585726820312], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712188230469], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863045258016]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01109664910730486], ["'autoclave' (unit, DK, None)", 0.05158946511502782], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793390008389644e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.114081011526319e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009314824695958651], ["'mixed heating grid' (megajoule, DK, None)", -0.007767112985203871], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863045258016]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191440722855571], ["'autoclave' (unit, DK, None)", 0.1031789302300556], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1434362214847977e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092608704156244e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379797334546], ["'mixed heating grid' (megajoule, DK, None)", -0.003333192147366913], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459810219127], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00215265174761762], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784421146696], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04147806250205766], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542860372427078]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03191440722855571], ["'autoclave' (unit, DK, None)", 0.1031789302300556], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547433805180183e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.380794243800052e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.026649198648896998], ["'mixed heating grid' (megajoule, DK, None)", -0.022221280982446086], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542860372427078]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138934692817], ["'mechanical disinfection' (unit, DK, None)", 0.062308718743705915], ["'autoclave' (unit, DK, None)", 0.1444505023220779], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501073784775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964810773068], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506216712632607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859960404], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.345589863972864e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9558566140627943e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.009473138934692817], ["'wet wipe' (unit, GLO, None)", 0.003225553718284336], ["'autoclave' (unit, DK, None)", 0.1444505023220779], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000386501073784775], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964810773068], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506216712632607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00018763993859960404], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65430581456561e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014083762567106929], ["'mixed heating grid' (megajoule, DK, None)", -0.001174366439370189]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005643776019097728], ["'mechanical disinfection' (unit, DK, None)", 0.031154359371852958], ["'autoclave' (unit, DK, None)", 0.08025027906782105], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739148047327], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611247375858], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012433425265213e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136632968], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.172794931986429e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.779283070313972e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005643776019097728], ["'wet wipe' (unit, GLO, None)", 0.003225553718284336], ["'autoclave' (unit, DK, None)", 0.08025027906782105], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00023077739148047327], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000542611247375858], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3012433425265213e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032136632968], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.65430581456561e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668979783443862e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013966483073908319], ["'mixed heating grid' (megajoule, DK, None)", -0.0011645871562998749]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202584329120736], ["'autoclave' (unit, DK, None)", 0.03688837534512291], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9666347019959092e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018935968426], ["'mixed heating grid' (megajoule, DK, None)", -0.009030613153272192], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011236052404797962], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00019319989476110748], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964612555864857], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522488544982168], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832402620299113]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004202584329120736], ["'autoclave' (unit, DK, None)", 0.03688837534512291], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9685146153430797e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.272356032843762e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00678001262397895], ["'mixed heating grid' (megajoule, DK, None)", -0.060204087688481275], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832402620299113]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0122529328828411], ["'autoclave' (unit, DK, None)", 0.0737767506902458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400844062661313e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283426888660215e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095862105193776], ["'mixed heating grid' (megajoule, DK, None)", -0.025836085132907027], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003162465080820619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814754114169254], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918158868423709], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00465422212534709], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572770774968]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0122529328828411], ["'autoclave' (unit, DK, None)", 0.0737767506902458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.5451115925157184e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845199053545858e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01939724140346253], ["'mixed heating grid' (megajoule, DK, None)", -0.1722405675527135], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572770774968]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341457044105302], ["'mechanical disinfection' (unit, DK, None)", 0.04429419670525798], ["'autoclave' (unit, DK, None)", 0.10328745096634416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475761057566675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389625594705], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795207840151782e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642388796449], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072923439249318e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00015160145516544438]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0027341457044105302], ["'wet wipe' (unit, GLO, None)", 0.012977474749620934], ["'autoclave' (unit, DK, None)", 0.10328745096634416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026475761057566675], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840389625594705], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795207840151782e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642388796449], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968340505625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001025119539174321], ["'mixed heating grid' (megajoule, DK, None)", -0.009102694943273908]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299338296534556], ["'mechanical disinfection' (unit, DK, None)", 0.02214709835262899], ["'autoclave' (unit, DK, None)", 0.05738191720352453], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512546922242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020221148433], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590415680303564e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001215355892135311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461719624637e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580072758272219e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016299338296534556], ["'wet wipe' (unit, GLO, None)", 0.012977474749620934], ["'autoclave' (unit, DK, None)", 0.05738191720352453], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512546922242], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287020221148433], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590415680303564e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001215355892135311], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968340505625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069712184315e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010165830774546986], ["'mixed heating grid' (megajoule, DK, None)", -0.009026894215691186]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064263599177728], ["'autoclave' (unit, DK, None)", 0.0030270334416534162], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243245063140622e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129778139982388e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164743171773712e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050234101628925], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447249250526335e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296503835077946], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576707116755], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574273847112]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002064263599177728], ["'autoclave' (unit, DK, None)", 0.0030270334416534162], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.142714013859665e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.544723539958809e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002086518759988259], ["'mixed heating grid' (megajoule, DK, None)", -0.0005443162114515808], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574273847112]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902611033401841], ["'autoclave' (unit, DK, None)", 0.006054066883306831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.767946966478139e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0566905703527486e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954122283756203e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023358878970231633], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101652272796645], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843346861808897], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00031016978540331086], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.002290866678061058], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750861356181]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005902611033401841], ["'autoclave' (unit, DK, None)", 0.006054066883306831], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669616940449763], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690432671952946e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969414855837473], ["'mixed heating grid' (megajoule, DK, None)", -0.001557258598015442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014291750861356181]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642830579143], ["'mechanical disinfection' (unit, DK, None)", 0.0028827928405962427], ["'autoclave' (unit, DK, None)", 0.008475693636629566], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921807402558], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764504693035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433268489735e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355683049504e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116329791006e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3706565931733168e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0020169642830579143], ["'wet wipe' (unit, GLO, None)", 0.0003586764126121852], ["'autoclave' (unit, DK, None)", 0.008475693636629566], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921807402558], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764504693035], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998433268489735e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395355683049504e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313256484027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1547598335627824e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.229913641678349e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211085470656], ["'mechanical disinfection' (unit, DK, None)", 0.0014413964202981213], ["'autoclave' (unit, DK, None)", 0.004708718687016425], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586072583826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355684308769], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686653697947e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515686186056], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.627058164895496e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853282965866584e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0011990211085470656], ["'wet wipe' (unit, GLO, None)", 0.0003586764126121852], ["'autoclave' (unit, DK, None)", 0.004708718687016425], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586072583826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355684308769], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999686653697947e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722515686186056], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.196313256484027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.8139596403784065e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.128489251913835e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.161380812019682e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733840427421669e-08], ["'autoclave' (unit, DK, None)", 2.3092231256051998e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.99316684081376e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.263490158340023e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.332829395952e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.652566915179121e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167552879777e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170096152507489e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874608393845e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604064843143e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.733840427421669e-08], ["'autoclave' (unit, DK, None)", 2.3092231256051998e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686513810932e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6029796547724767e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.508993438893349e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.885529306346668e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604064843143e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905381587454e-07], ["'autoclave' (unit, DK, None)", 4.618446251210398e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201427724947e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.25419953810378e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.505855444353927e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.813151239789246e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.651264496365076e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545164479541076e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.8710468464912515e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753410815168e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.236292105789236e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.357905381587454e-07], ["'autoclave' (unit, DK, None)", 4.618446251210398e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.72554549684815e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8287832791633065e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036295692855e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.5421008265261636e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.236292105789236e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.397144137190947e-08], ["'mechanical disinfection' (unit, DK, None)", 2.5831392386675e-07], ["'autoclave' (unit, DK, None)", 6.465824751694561e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981693789277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237421189063e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.607245750159287e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319627602209e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086251399335e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.2374878923961943e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.397144137190947e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488188293794e-07], ["'autoclave' (unit, DK, None)", 6.465824751694561e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.8815981693789277e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.040237421189063e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.607245750159287e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701319627602209e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33475177223546e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.305503007947251e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3434679569219512e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.022280233689043e-08], ["'mechanical disinfection' (unit, DK, None)", 1.29156961933375e-07], ["'autoclave' (unit, DK, None)", 3.592124862052533e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905846225565e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169556485355e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491500318574e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170069661351e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431256996557e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187439461980972e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.022280233689043e-08], ["'wet wipe' (unit, GLO, None)", 1.0964488188293794e-07], ["'autoclave' (unit, DK, None)", 3.592124862052533e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905846225565e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169556485355e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.214491500318574e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.460170069661351e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.33475177223546e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367020222833e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.261322576690267e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.33228051745997e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099036906428558], ["'autoclave' (unit, DK, None)", 0.0002300189021211307], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121906613522e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052205093267038e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207294781303105e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001446095784810082], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362617451253871e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336732939726349e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471601897044e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317493726669e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003099036906428558], ["'autoclave' (unit, DK, None)", 0.0002300189021211307], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566872612711e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338616617491605e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368136728844692e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001347152985420207], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.552317493726669e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865845041326379], ["'autoclave' (unit, DK, None)", 0.0004600378042422612], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829588202840164e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0970295553170201e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525572499557e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.781195356445128e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00040701371426773834], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130207862997088e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063886022009222e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891469301118437], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181730570491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008865845041326379], ["'autoclave' (unit, DK, None)", 0.0004600378042422612], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108639077782287e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.395895053539293e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.25768371499971e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003854130237630085], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261181730570491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002499971313146409], ["'mechanical disinfection' (unit, DK, None)", 0.0002606437215748902], ["'autoclave' (unit, DK, None)", 0.000644052925939166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695249925003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504158116409e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737295451304e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7734798695963974e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015482982953e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3923004360923326e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002499971313146409], ["'wet wipe' (unit, GLO, None)", 7.725704178186805e-05], ["'autoclave' (unit, DK, None)", 0.000644052925939166], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7083695249925003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504158116409e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501737295451304e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.7734798695963974e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608143767927e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.83559354170093e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.03685881457964e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001489845199422049], ["'mechanical disinfection' (unit, DK, None)", 0.0001303218607874451], ["'autoclave' (unit, DK, None)", 0.0003578071810773144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568365873316e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288995813707e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900347459090261e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107599036948e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.194007741491468e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6961502180461663e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001489845199422049], ["'wet wipe' (unit, GLO, None)", 7.725704178186805e-05], ["'autoclave' (unit, DK, None)", 0.0003578071810773144], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568365873316e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471288995813707e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900347459090261e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988107599036948e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776608143767927e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.94760551761566e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8036534642860242e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0198973123991783e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818797899867289], ["'autoclave' (unit, DK, None)", 0.0004079659845177437], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431515501809e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.294578906126716e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.021790146702807e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140993941449], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274325764623196e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221678864334125e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230472182945e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767765329475e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005818797899867289], ["'autoclave' (unit, DK, None)", 0.0004079659845177437], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796491940192789e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.378108360996683e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.19638593741781e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033478600978018713], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.4788767765329475e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484659144062], ["'autoclave' (unit, DK, None)", 0.000815931969035487], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324758850918e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5287450491993243e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.659127656312019e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014367064068378967], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008391385591067274], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893601815856222e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729679109892342e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00024414733724459], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.897184247161771e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001665484659144062], ["'autoclave' (unit, DK, None)", 0.000815931969035487], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877442085050111e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144856372401e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727517708746807], ["'mixed heating grid' (megajoule, DK, None)", -0.0009578042712252644], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.897184247161771e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652231854316], ["'mechanical disinfection' (unit, DK, None)", 0.00047574155270491093], ["'autoclave' (unit, DK, None)", 0.0011423047566496824], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702340325546e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719398624472], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849748446214e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380300414469e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5603278131876211e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.430332258223012e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003358652231854316], ["'wet wipe' (unit, GLO, None)", 0.0010944013351023895], ["'autoclave' (unit, DK, None)", 0.0011423047566496824], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702340325546e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719398624472], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849748446214e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380300414469e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669444227508e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.368767654276435e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.061873761917369e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002000954363522074], ["'mechanical disinfection' (unit, DK, None)", 0.00023787077635245546], ["'autoclave' (unit, DK, None)", 0.0006346137536942679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494660273641e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252213363732e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699496892427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800358225027e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801639065938086e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215166129111506e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002000954363522074], ["'wet wipe' (unit, GLO, None)", 0.0010944013351023895], ["'autoclave' (unit, DK, None)", 0.0006346137536942679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494660273641e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252213363732e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045699496892427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.088800358225027e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669444227508e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483922075156e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.290751263617077e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.019722100626253e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164942728512594], ["'autoclave' (unit, DK, None)", 0.0004183518809990785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.238521146795886e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504365923244572e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.199490806655512e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925640912518574], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583331232006816e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.4457072192246664e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547967762828e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912479961041e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0006164942728512594], ["'autoclave' (unit, DK, None)", 0.0004183518809990785], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.812476648808485e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.396169875230997e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336243948829715e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00034663272044370083], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912479961041e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00176485970165454], ["'autoclave' (unit, DK, None)", 0.0008367037619981567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2002541191393958e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186918170537e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.719146562470917e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014875455835448327], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693634318142], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823618271088475e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.640453756547733e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000256071773739798], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437719889162]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.00176485970165454], ["'autoclave' (unit, DK, None)", 0.0008367037619981567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.92246943326334e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.023055299416215e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001812764374980613], ["'mixed heating grid' (megajoule, DK, None)", -0.0009916970556965552], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261437719889162]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943667771785], ["'mechanical disinfection' (unit, DK, None)", 0.00048772869309729564], ["'autoclave' (unit, DK, None)", 0.00117138526679742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854557085055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714340408241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846547208684e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.7458394799271365e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955458172479113e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.728647313640136e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003432943667771785], ["'wet wipe' (unit, GLO, None)", 0.0016920736904469076], ["'autoclave' (unit, DK, None)", 0.00117138526679742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854557085055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714340408241], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587846547208684e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.7458394799271365e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802465196027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580229178258478e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.240992817435965e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761860633916], ["'mechanical disinfection' (unit, DK, None)", 0.00024386434654864782], ["'autoclave' (unit, DK, None)", 0.0006507695926652332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059788378394e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205373790591e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693094417368e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288722919878068e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977729086239535e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.364323656820068e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00020448761860633916], ["'wet wipe' (unit, GLO, None)", 0.0016920736904469076], ["'autoclave' (unit, DK, None)", 0.0006507695926652332], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059788378394e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205373790591e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175693094417368e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288722919878068e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802465196027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091919070153765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.500451887396106e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.197349580867764e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873638186589], ["'autoclave' (unit, DK, None)", 0.003570410624078717], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840646887756e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299291600267e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364061940090576e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001057150008659635], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896361918638474e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370730418653185e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000462111090865758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069601950292]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.001999873638186589], ["'autoclave' (unit, DK, None)", 0.003570410624078717], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249401205895], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.110565866202559e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199527733511], ["'mixed heating grid' (megajoule, DK, None)", -0.0006242707960060384], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00016367069601950292]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755801648569254], ["'autoclave' (unit, DK, None)", 0.0071408212481574316], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472631782234e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025807014864399e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002386113532652326], ["'mixed heating grid' (megajoule, DK, None)", -0.00026790063683143427], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029754222098036087], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997934169687307e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000101539196930543], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213827204452], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277127067445]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005755801648569254], ["'autoclave' (unit, DK, None)", 0.0071408212481574316], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000289866180315659], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454460068550255e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423551015517], ["'mixed heating grid' (megajoule, DK, None)", -0.001786004245542895], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563277127067445]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273964850923], ["'mechanical disinfection' (unit, DK, None)", 0.004000203821405099], ["'autoclave' (unit, DK, None)", 0.009997149747420409], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443490970285e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407370741317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988443556437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056371757159e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280839538329e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.571992280349978e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013809273964850923], ["'wet wipe' (unit, GLO, None)", 0.00959087214292132], ["'autoclave' (unit, DK, None)", 0.009997149747420409], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443490970285e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407370741317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988443556437e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.061056371757159e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960170717908e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.406871039485471e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.43880529747646e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358117054304], ["'mechanical disinfection' (unit, DK, None)", 0.0020001019107025496], ["'autoclave' (unit, DK, None)", 0.005553972081900227], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900456792413e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216542681032], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976887112874e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784292179876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640419769145e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.85996140174989e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008202358117054304], ["'wet wipe' (unit, GLO, None)", 0.00959087214292132], ["'autoclave' (unit, DK, None)", 0.005553972081900227], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.096900456792413e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216542681032], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976887112874e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.1224784292179876e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243960170717908e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084998845652e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.3368646352878e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.360205683458961e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262128737483e-09], ["'autoclave' (unit, DK, None)", 1.2405711132136215e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965863170332e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.848522317988965e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992677219138744e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933748690194e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011355308792272e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950035391929284e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755780376273e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566097399755e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.014262128737483e-09], ["'autoclave' (unit, DK, None)", 1.2405711132136215e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538096122369e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.39635202341718e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.89901487865931e-10], ["'mixed heating grid' (megajoule, DK, None)", -9.32845147942583e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566097399755e-11]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679385528601e-09], ["'autoclave' (unit, DK, None)", 2.4811422264272417e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183705987013e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352348063994e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.149464921314004e-11], ["'mixed heating grid' (megajoule, DK, None)", -4.0032276184919303e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522140353195e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.1199224715782564e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.105994155202906e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269233908811e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155038469107e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.904679385528601e-09], ["'autoclave' (unit, DK, None)", 2.4811422264272417e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487594710902e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9268240620747764e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976614209341e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.6688184123279535e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155038469107e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031302600719e-10], ["'mechanical disinfection' (unit, DK, None)", 1.4521285413816987e-09], ["'autoclave' (unit, DK, None)", 3.4735991169981403e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734015188233e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705795932694e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184145719567e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049251782454e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.78195800383607e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.3490212592188745e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 6.050031302600719e-10], ["'wet wipe' (unit, GLO, None)", 5.658612285950354e-10], ["'autoclave' (unit, DK, None)", 3.4735991169981403e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.610734015188233e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.082705795932694e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184145719567e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049251782454e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592025228564e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.87125904516967e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.4104365894509176e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.6039846807194536e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260642706908493e-10], ["'autoclave' (unit, DK, None)", 1.929777287221189e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468624373595e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681394312357e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368291439134e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978123521632e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909790019180287e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.1745106296094373e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.6039846807194536e-10], ["'wet wipe' (unit, GLO, None)", 5.658612285950354e-10], ["'autoclave' (unit, DK, None)", 1.929777287221189e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468624373595e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681394312357e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368291439134e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978123521632e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.709592025228564e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.590128893431536e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8473492551504963e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3986914831548232e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981147814084986e-07], ["'autoclave' (unit, DK, None)", 5.227324800269251e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248255974635e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704051757022546e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.192456442054107e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655888283176e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628137912364557e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795700319177372e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.5279353220063472e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773673137891e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.981147814084986e-07], ["'autoclave' (unit, DK, None)", 5.227324800269251e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189362074682e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780941823055e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.46936783801503e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.1283042947027383e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699773673137891e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425452828629e-06], ["'autoclave' (unit, DK, None)", 1.0454649600538498e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.496030108040322e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016409710846e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7762755759028997e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.133441441915936e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.32535597695596e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968182066339928e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495988581841047e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.30404316058126e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621937186594e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.425452828629e-06], ["'autoclave' (unit, DK, None)", 1.0454649600538498e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.60794066537315e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287518926064e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8508503839352677e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.08896096127729e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525621937186594e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421527006064564e-07], ["'mechanical disinfection' (unit, DK, None)", 6.010856045000128e-07], ["'autoclave' (unit, DK, None)", 1.4636509440753904e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.920802355490857e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977816070853e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231154569161e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919513420330676e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.629068084742779e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.359337554973573e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.9421527006064564e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705597212204e-07], ["'autoclave' (unit, DK, None)", 1.4636509440753904e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.920802355490857e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977816070853e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231154569161e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919513420330676e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461962802388e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.781508891886291e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.217938429925816e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862302839395e-07], ["'mechanical disinfection' (unit, DK, None)", 3.005428022500064e-07], ["'autoclave' (unit, DK, None)", 8.131394133752168e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929520236026e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.48516058541094e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462309138322e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.157935494535878e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.145340423713872e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6796687774867867e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3494862302839395e-07], ["'wet wipe' (unit, GLO, None)", 1.4231705597212204e-07], ["'autoclave' (unit, DK, None)", 8.131394133752168e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929520236026e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.48516058541094e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462309138322e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.157935494535878e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461962802388e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558628141283e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.700055487649176e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.191141742150947e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845508441566], ["'autoclave' (unit, DK, None)", 0.010127340607091077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.712419576214946e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022677315721994802], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124580449696758], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001070636131], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002466568737102369], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767515291195214], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793652867015637], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012363072156451858]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05704845508441566], ["'autoclave' (unit, DK, None)", 0.010127340607091077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362784103856183], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352039577119195e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015118210481329867], ["'mixed heating grid' (megajoule, DK, None)", -0.008083053633131172], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012363072156451858]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995276265299], ["'autoclave' (unit, DK, None)", 0.020254681214182148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849188145730175e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.042394801749952e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854696410882], ["'mixed heating grid' (megajoule, DK, None)", -0.0034687754572416897], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665265035469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423653480599364], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255964028571872], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.010082719117469194], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215781218424]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1631995276265299], ["'autoclave' (unit, DK, None)", 0.020254681214182148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003200784254607376], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.022141220617749e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0043252364642739245], ["'mixed heating grid' (megajoule, DK, None)", -0.023125169714944594], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.003517215781218424]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499273216413], ["'mechanical disinfection' (unit, DK, None)", 0.01172117766695602], ["'autoclave' (unit, DK, None)", 0.02835655369985502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218985817985], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331233003942155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.71428613725222e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074824250154], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.806955302315124e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.035414437809796e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006634499273216413], ["'wet wipe' (unit, GLO, None)", 0.012386853594456874], ["'autoclave' (unit, DK, None)", 0.02835655369985502], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003551218985817985], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0020331233003942155], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.71428613725222e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122074824250154], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328839362472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022858324639322058], ["'mixed heating grid' (megajoule, DK, None)", -0.001222135809336288]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031821008635], ["'mechanical disinfection' (unit, DK, None)", 0.00586058883347801], ["'autoclave' (unit, DK, None)", 0.0157536409443639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108079124557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518660572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.42857227450444e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328595800914], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776511575572e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.017707218904898e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003919031821008635], ["'wet wipe' (unit, GLO, None)", 0.012386853594456874], ["'autoclave' (unit, DK, None)", 0.0157536409443639], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108079124557], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00121591518660572], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.42857227450444e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328595800914], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.939328839362472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018876394855464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022667976874206355], ["'mixed heating grid' (megajoule, DK, None)", -0.0012119587371472388]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410825704091], ["'autoclave' (unit, DK, None)", 0.0006603519667065796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.761349836439207e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1079073967296586e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1180848713567346e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.737643588971731e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183499024052], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.102787739362217e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908699490360711e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271411208751104], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665366050507743e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410825704091], ["'autoclave' (unit, DK, None)", 0.0006603519667065796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1687461531512495e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4059162178187723e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.45389914237823e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00031584290593144877], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.665366050507743e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0020568202097098367], ["'autoclave' (unit, DK, None)", 0.0013207039334131587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.987747667673643e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.36239939012897e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1987790232959964e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013554136470754824], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001072121183500147], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.739673979808046e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.683638498471796e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738425692605945], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001327267113736222]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0020568202097098367], ["'autoclave' (unit, DK, None)", 0.0013207039334131587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2922426849330974e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.235153393429314e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002132519348863999], ["'mixed heating grid' (megajoule, DK, None)", -0.0009036090980503215], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001327267113736222]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005692341469611565], ["'mechanical disinfection' (unit, DK, None)", 0.0007504177900932903], ["'autoclave' (unit, DK, None)", 0.001848985506778423], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496725751903e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138077619831], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921431765861786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415619778724e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854340923833e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953321108468753e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005692341469611565], ["'wet wipe' (unit, GLO, None)", 0.00033163972906610973], ["'autoclave' (unit, DK, None)", 0.001848985506778423], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496725751903e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138077619831], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921431765861786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415619778724e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.945074393879361e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0350967304931724e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.623283638977064e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375194369534068], ["'mechanical disinfection' (unit, DK, None)", 0.0003752088950466452], ["'autoclave' (unit, DK, None)", 0.001027214170432457], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183884278202e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001247965142333314], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286353172357e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414632759995e-05], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384927170461891e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9766605542343767e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375194369534068], ["'wet wipe' (unit, GLO, None)", 0.00033163972906610973], ["'autoclave' (unit, DK, None)", 0.001027214170432457], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183884278202e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001247965142333314], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286353172357e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414632759995e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.945074393879361e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.0257118033227092e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.583517033434718e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24766792808575006], ["'autoclave' (unit, DK, None)", 0.1907922758724077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290428322243], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364663675], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046129168681428336], ["'mixed heating grid' (megajoule, DK, None)", -0.013857787800228661], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.143761495106558], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760032983543096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002614713260746802], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.049454493963139196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01549412359798041]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24766792808575006], ["'autoclave' (unit, DK, None)", 0.1907922758724077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18112491779540926], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02195850385422469], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030752779120952225], ["'mixed heating grid' (megajoule, DK, None)", -0.0923852520015244], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01549412359798041]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087358664701405], ["'autoclave' (unit, DK, None)", 0.38158455174481526], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729697196057608], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009937204632792192], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013197300215786236], ["'mixed heating grid' (megajoule, DK, None)", -0.03964636501240645], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462672463766325], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306895387362716], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876508997297794], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930843369898369], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407980099552022]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7087358664701405], ["'autoclave' (unit, DK, None)", 0.38158455174481526], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5102110360434065], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614734998727934], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08798200143857499], ["'mixed heating grid' (megajoule, DK, None)", -0.26430910008270964], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04407980099552022]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13247854515315005], ["'mechanical disinfection' (unit, DK, None)", 0.22422017059461674], ["'autoclave' (unit, DK, None)", 0.5342183724427416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158540761296], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780337907045165], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315892780865], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977933691159566], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74393607497496e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263766925143642]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13247854515315005], ["'wet wipe' (unit, GLO, None)", 0.08616993474492793], ["'autoclave' (unit, DK, None)", 0.5342183724427416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158540761296], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780337907045165], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315892780865], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977933691159566], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06161670957719171], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008396260674740003], ["'mixed heating grid' (megajoule, DK, None)", -0.025223432823925078]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0785129114092111], ["'mechanical disinfection' (unit, DK, None)", 0.11211008529730837], ["'autoclave' (unit, DK, None)", 0.296787984690412], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778869539043], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781008762210595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863178556173], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0048492684298742485], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.87196803748747e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631883462571821]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0785129114092111], ["'wet wipe' (unit, GLO, None)", 0.08616993474492793], ["'autoclave' (unit, DK, None)", 0.296787984690412], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778869539043], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781008762210595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863178556173], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0048492684298742485], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06161670957719171], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008357540994365123], ["'mixed heating grid' (megajoule, DK, None)", -0.025107113989299355]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008709097365], ["'autoclave' (unit, DK, None)", 0.039490237217896455], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001433129336209842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001728590769336054], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602674156982886], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292370828942936], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0033086584931367965], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00038042543850133875], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0004312632698813833], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188483843535852], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004700291089552]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008709097365], ["'autoclave' (unit, DK, None)", 0.039490237217896455], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009509549801018577], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001152922467254414], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001906844943798859], ["'mixed heating grid' (megajoule, DK, None)", -0.004861580552628624], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004700291089552]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223690135629654], ["'autoclave' (unit, DK, None)", 0.07898047443579287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040583008305755345], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005217489569830842], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008183066996739241], ["'mixed heating grid' (megajoule, DK, None)", -0.0020863069911153213], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312449401212838], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449697663632526], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991286946908243], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0343337573057348], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238055574966795]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223690135629654], ["'autoclave' (unit, DK, None)", 0.07898047443579287], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678746422822135], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0034730401695834477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0054553779978261645], ["'mixed heating grid' (megajoule, DK, None)", -0.013908713274102142], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0014238055574966795]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00651748222237015], ["'mechanical disinfection' (unit, DK, None)", 0.046986244446992786], ["'autoclave' (unit, DK, None)", 0.11057266421011008], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586173413642], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760670811222], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897895033969666e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360056557069385e-05], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8016750914088955e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242070505181623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00651748222237015], ["'wet wipe' (unit, GLO, None)", 0.0030004312567553275], ["'autoclave' (unit, DK, None)", 0.11057266421011008], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586173413642], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760670811222], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897895033969666e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360056557069385e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0032351607059133486], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005206152963111267], ["'mixed heating grid' (megajoule, DK, None)", -0.0013273303674628204]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003873739443828619], ["'mechanical disinfection' (unit, DK, None)", 0.023493122223496393], ["'autoclave' (unit, DK, None)", 0.061429257894505596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023170739106776303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559232891273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790067939332e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663444898378378], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008375457044414e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121035252590811e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003873739443828619], ["'wet wipe' (unit, GLO, None)", 0.0030004312567553275], ["'autoclave' (unit, DK, None)", 0.061429257894505596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023170739106776303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559232891273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790067939332e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663444898378378], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0032351607059133486], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005182144587654218], ["'mixed heating grid' (megajoule, DK, None)", -0.0013212093322102294]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010320831117758016], ["'autoclave' (unit, DK, None)", 0.04984927964236602], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152628379364], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016013658407], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297281075589976], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540180478285349], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0044126821291998065], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987331631147226], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588598156104079], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853838245362076], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586955337101681]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010320831117758016], ["'autoclave' (unit, DK, None)", 0.04984927964236602], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013769704356535966], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016694331781586845], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024864854050393316], ["'mixed heating grid' (megajoule, DK, None)", -0.0063601203188569004], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586955337101681]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.029527150181873494], ["'autoclave' (unit, DK, None)", 0.099698559284732], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005876366788775208], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007554931438984968], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001067054598331171], ["'mixed heating grid' (megajoule, DK, None)", -0.0027293929087303117], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419800694767667], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010415588889707], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001683497931481146], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04465869928271008], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873947103814687]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.029527150181873494], ["'autoclave' (unit, DK, None)", 0.099698559284732], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03878789959587597], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028966520175405], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007113697322207813], ["'mixed heating grid' (megajoule, DK, None)", -0.018195952724868743], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001873947103814687]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008572552487379089], ["'mechanical disinfection' (unit, DK, None)", 0.05926074067227988], ["'autoclave' (unit, DK, None)", 0.13957798299862487], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058847166883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906999003459], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850004859183e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927406400979], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282582706168e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015581871370092e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008572552487379089], ["'wet wipe' (unit, GLO, None)", 0.0035009665958729624], ["'autoclave' (unit, DK, None)", 0.13957798299862487], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058847166883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906999003459], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850004859183e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927406400979], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004684516758519555], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006788713157446913], ["'mixed heating grid' (megajoule, DK, None)", -0.0017364683663158799]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005097691830977549], ["'mechanical disinfection' (unit, DK, None)", 0.02963037033613994], ["'autoclave' (unit, DK, None)", 0.07754332388812492], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145296161567], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682906219037], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700009718365e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615502621498618], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1306412913530756e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007790935685046e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005097691830977549], ["'wet wipe' (unit, GLO, None)", 0.0035009665958729624], ["'autoclave' (unit, DK, None)", 0.07754332388812492], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145296161567], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682906219037], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700009718365e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615502621498618], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004684516758519555], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006757406744533379], ["'mixed heating grid' (megajoule, DK, None)", -0.0017284605753801945]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939407418635], ["'autoclave' (unit, DK, None)", 2.027504865126453], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234413630867], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292049851116], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285706602322177], ["'mixed heating grid' (megajoule, DK, None)", -0.07078876961774914], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3044161804847699], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535837909950836], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919290978402734], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262297247779742], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.036605378725964394]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939407418635], ["'autoclave' (unit, DK, None)", 2.027504865126453], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5297286386614874], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06421805798386937], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08571377348814513], ["'mixed heating grid' (megajoule, DK, None)", -0.4719251307849944], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.036605378725964394]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9304456461491115], ["'autoclave' (unit, DK, None)", 4.0550097302529045], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.22606729227384606], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.029061542058724927], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03678335531569104], ["'mixed heating grid' (megajoule, DK, None)", -0.20252275756438712], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568005079869353], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0768554344862598], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.05781633071116901], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.62710696472619], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.1041399856792468]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9304456461491115], ["'autoclave' (unit, DK, None)", 4.0550097302529045], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4921933483422183], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19344917054288022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24522236877127376], ["'mixed heating grid' (megajoule, DK, None)", -1.350151717095914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.1041399856792468]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2524051732328811], ["'mechanical disinfection' (unit, DK, None)", 2.391257418958331], ["'autoclave' (unit, DK, None)", 5.677013622354069], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144800046], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172695984536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934266376923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846132540204101], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804833588216], ["'mixed heating grid' (megajoule, DK, None)", -0.0011883667588544202]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2524051732328811], ["'wet wipe' (unit, GLO, None)", 0.19779601480583786], ["'autoclave' (unit, DK, None)", 5.677013622354069], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144800046], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172695984536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934266376923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846132540204101], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18019922735501173], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02340195605709541], ["'mixed heating grid' (megajoule, DK, None)", -0.12884710033676094]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.154885865877171], ["'mechanical disinfection' (unit, DK, None)", 1.1956287094791656], ["'autoclave' (unit, DK, None)", 3.1538964568633716], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551452603], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375882160432], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868532753846], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456556822778097], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001079190241679408], ["'mixed heating grid' (megajoule, DK, None)", -0.0005941833794272101]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.154885865877171], ["'wet wipe' (unit, GLO, None)", 0.19779601480583786], ["'autoclave' (unit, DK, None)", 3.1538964568633716], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551452603], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375882160432], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868532753846], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456556822778097], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18019922735501173], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.023294037032927456], ["'mixed heating grid' (megajoule, DK, None)", -0.1282529169573337]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149759799744358], ["'autoclave' (unit, DK, None)", 0.04885416288864448], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629224275574725e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555651419245e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638880735061], ["'mixed heating grid' (megajoule, DK, None)", -0.0039689905769709505], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246697691275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000777661019918553], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179655007924723], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01274830936382202], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087327925405486]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.149759799744358], ["'autoclave' (unit, DK, None)", 0.04885416288864448], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003094088713612902], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6373715216346704e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008097092587156707], ["'mixed heating grid' (megajoule, DK, None)", -0.02645993717980634], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087327925405486]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.42845113414818714], ["'autoclave' (unit, DK, None)", 0.09770832577728891], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013204350425700134], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.646073219556818e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034748001579772525], ["'mixed heating grid' (megajoule, DK, None)", -0.01135506268488218], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.29117416202111207], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0023405331667451595], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627846585082727], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591073060231555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973578419284661]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.42845113414818714], ["'autoclave' (unit, DK, None)", 0.09770832577728891], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008715742855247613], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010957143923493712], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023165334386515034], ["'mixed heating grid' (megajoule, DK, None)", -0.07570041789921453], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011973578419284661]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030130649631618205], ["'mechanical disinfection' (unit, DK, None)", 0.057753129458588306], ["'autoclave' (unit, DK, None)", 0.13679165608820454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467803767135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334436786637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747271960952e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395824023621], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389496227797708e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662944550877019e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030130649631618205], ["'wet wipe' (unit, GLO, None)", 0.04990642967973625], ["'autoclave' (unit, DK, None)", 0.13679165608820454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467803767135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334436786637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747271960952e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395824023621], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010206654613665376], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022107042684462127], ["'mixed heating grid' (megajoule, DK, None)", -0.007224209855152098]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01779631427484949], ["'mechanical disinfection' (unit, DK, None)", 0.028876564729294153], ["'autoclave' (unit, DK, None)", 0.07599536449344696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387645049862], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132236693378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494543921904e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268138679122], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194748113898827e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.3314722754385095e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01779631427484949], ["'wet wipe' (unit, GLO, None)", 0.04990642967973625], ["'autoclave' (unit, DK, None)", 0.07599536449344696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387645049862], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132236693378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494543921904e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268138679122], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010206654613665376], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002200509520332312], ["'mixed heating grid' (megajoule, DK, None)", -0.007190895132397711]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.5416037655323195e-05], ["'autoclave' (unit, DK, None)", 0.00019296319675464016], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831952630359008e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946292107401796e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580786001996e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294674506349799e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667265915908795e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04196180730687e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032648276413583e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690131767718137e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429398071006e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.5416037655323195e-05], ["'autoclave' (unit, DK, None)", 0.00019296319675464016], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7140828380892426e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.930638014869826e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5557205240013308e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.863116337566533e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429398071006e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899811829371], ["'autoclave' (unit, DK, None)", 0.00038592639350928015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.315029576634374e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.737000094802928e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0967662756668512e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.228682640712763e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.66131656573592e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.818454524529252e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.118500649978782e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800037117667082e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911525407803275e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899811829371], ["'autoclave' (unit, DK, None)", 0.00038592639350928015], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828402360814769e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.815814652771553e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.311775171112347e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.191217604751753e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6911525407803275e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.879062309588977e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381657732137276], ["'autoclave' (unit, DK, None)", 0.0005402969509129925], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383004618553e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218378072668e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273391694513211e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587893227738e-06], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625309025728e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209686580236817e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.879062309588977e-05], ["'wet wipe' (unit, GLO, None)", 2.866539840865511e-05], ["'autoclave' (unit, DK, None)", 0.0005402969509129925], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383004618553e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218378072668e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273391694513211e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587893227738e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.417471183403639e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.9777419617592754e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.817007697992771e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.8937433974550775e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690828866068638], ["'autoclave' (unit, DK, None)", 0.00030016497272944024], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.26454044661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958139876562e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546783389026421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559097127296e-06], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812654512855e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6048432901184086e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.8937433974550775e-05], ["'wet wipe' (unit, GLO, None)", 2.866539840865511e-05], ["'autoclave' (unit, DK, None)", 0.00030016497272944024], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.26454044661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958139876562e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546783389026421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559097127296e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.417471183403639e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.945563835214143e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.780959265091585e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951413907697e-06], ["'autoclave' (unit, DK, None)", 0.0001321123901473334], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296612994063845e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880248210403e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075944739233e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6638038387730245e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016958400956e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983908173566e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323494706799e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111141636917926e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851664501467e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951413907697e-06], ["'autoclave' (unit, DK, None)", 0.0001321123901473334], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8510235755003086e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4401641655495075e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.213338396315949e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.1092025591820167e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851664501467e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561073080597e-05], ["'autoclave' (unit, DK, None)", 0.00026422478029466674], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2167044272909768e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.556828074918553e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.498358239567123e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3342885026368115e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743756339870241e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595485548871898e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.89578795782777e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.411589193498008e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024255185702e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561073080597e-05], ["'autoclave' (unit, DK, None)", 0.00026422478029466674], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.031052325352983e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0363080498697967e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.332238826378087e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.89525668424541e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.778024255185702e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.773287145911311e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540578480018365e-05], ["'autoclave' (unit, DK, None)", 0.0003699146924125336], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312229775104e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134427985575e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805678050297e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984564347216356e-07], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464104153323e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.829362597687893e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.773287145911311e-06], ["'wet wipe' (unit, GLO, None)", 8.91853336263275e-05], ["'autoclave' (unit, DK, None)", 0.0003699146924125336], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312229775104e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134427985575e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805678050297e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984564347216356e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.653280464540571e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.042955033035818e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.488883256627311e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.4234147718887277e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289240009182e-05], ["'autoclave' (unit, DK, None)", 0.00020550816245140752], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.006718775146413e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767460408619e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7803611356100595e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469397529099e-07], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786732052076654e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.914681298843946e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.4234147718887277e-06], ["'wet wipe' (unit, GLO, None)", 8.91853336263275e-05], ["'autoclave' (unit, DK, None)", 0.00020550816245140752], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.006718775146413e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767460408619e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7803611356100595e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469397529099e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.653280464540571e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.015087712515048e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.449736443638869e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957980029370253], ["'autoclave' (unit, DK, None)", 0.018401240669565944], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053558892461e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201195880782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640345015616], ["'mixed heating grid' (megajoule, DK, None)", -0.000632492515125854], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243079864834795], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499948691949177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255144590138332], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005453991161277143], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007170796349725236]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957980029370253], ["'autoclave' (unit, DK, None)", 0.018401240669565944], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006106699090480044], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.147411256335164e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025477602300104105], ["'mixed heating grid' (megajoule, DK, None)", -0.004216616767505693], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007170796349725236]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.028510455912633292], ["'autoclave' (unit, DK, None)", 0.03680248133913187], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026060983442471175], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2345231132520895e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010933501814923733], ["'mixed heating grid' (megajoule, DK, None)", -0.0018095261295515612], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757012864601245], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0014597071936411888], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830490581021934], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363355383879278], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002040046176709806]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.028510455912633292], ["'autoclave' (unit, DK, None)", 0.03680248133913187], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017201969268957871], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00021530716164200838], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007289001209949161], ["'mixed heating grid' (megajoule, DK, None)", -0.01206350753034374], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.002040046176709806]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.024206100691865316], ["'mechanical disinfection' (unit, DK, None)", 0.02119684406587314], ["'autoclave' (unit, DK, None)", 0.05152347387478465], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009783574193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853570697825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906078974406442e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411204565467135], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4155802888468226e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617970678944128e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.024206100691865316], ["'wet wipe' (unit, GLO, None)", 0.003509081842319081], ["'autoclave' (unit, DK, None)", 0.05152347387478465], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009783574193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853570697825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906078974406442e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411204565467135], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00020056009577611741], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006956008412692877], ["'mixed heating grid' (megajoule, DK, None)", -0.0011512394833069351]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014651554899901267], ["'mechanical disinfection' (unit, DK, None)", 0.01059842203293657], ["'autoclave' (unit, DK, None)", 0.028624152152658133], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682195740469], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086280111356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.5812157948812885e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442777183159047], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207790144423403e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.308985339472064e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014651554899901267], ["'wet wipe' (unit, GLO, None)", 0.003509081842319081], ["'autoclave' (unit, DK, None)", 0.028624152152658133], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682195740469], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086280111356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.5812157948812885e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442777183159047], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00020056009577611741], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006923930511248639], ["'mixed heating grid' (megajoule, DK, None)", -0.001145930497967463]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442077641456], ["'autoclave' (unit, DK, None)", 0.5754939395063033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742438294705], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310791107253], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550621257615], ["'mixed heating grid' (megajoule, DK, None)", -0.017517562596919358], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06998895256253376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169916180139932], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945387103579563], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311470657432], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016618077562085262]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442077641456], ["'autoclave' (unit, DK, None)", 0.5754939395063033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11499174888961908], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013941266004710986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04547033747505076], ["'mixed heating grid' (megajoule, DK, None)", -0.11678375064612907], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.016618077562085262]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102198623478], ["'autoclave' (unit, DK, None)", 1.1509878790126062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04907394354021772], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00630904610116907], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.019513218373246634], ["'mixed heating grid' (megajoule, DK, None)", -0.05011677843946231], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698877376872087], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935937712018], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.023934522361539534], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.643468019903502], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737888707168]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102198623478], ["'autoclave' (unit, DK, None)", 1.1509878790126062], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.3239204194073777], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.041996385901398973], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.130088122488311], ["'mixed heating grid' (megajoule, DK, None)", -0.33411185626308204], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.04727737888707168]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13583059383343474], ["'mechanical disinfection' (unit, DK, None)", 0.6530817120685448], ["'autoclave' (unit, DK, None)", 1.6113830306176498], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513567056579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192242265763965], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916231909512], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0031080012149343013], ["'steel recycling' (kilogram, RER, None)", 7.88669712683211e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.704660495412684e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001145000213897509], ["'mixed heating grid' (megajoule, DK, None)", -0.0002940761535868096]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13583059383343474], ["'wet wipe' (unit, GLO, None)", 0.06283082250772341], ["'autoclave' (unit, DK, None)", 1.6113830306176498], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05671513567056579], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192242265763965], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003712916231909512], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0031080012149343013], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694938610584363], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.039119921113631925], ["'steel recycling' (kilogram, RER, None)", 7.88669712683211e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.704660495412684e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012414513982861915], ["'mixed heating grid' (megajoule, DK, None)", -0.03188481955215155]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08060430011807398], ["'mechanical disinfection' (unit, DK, None)", 0.3265408560342724], ["'autoclave' (unit, DK, None)", 0.8952127947875831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538057561], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666445449934], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832463819024], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037566108332], ["'steel recycling' (kilogram, RER, None)", 7.88669712683211e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.704660495412684e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.725001069487529e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001470380767934048]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08060430011807398], ["'wet wipe' (unit, GLO, None)", 0.06283082250772341], ["'autoclave' (unit, DK, None)", 0.8952127947875831], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.03386425538057561], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666445449934], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007425832463819024], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.005201037566108332], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008694938610584363], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.039119921113631925], ["'steel recycling' (kilogram, RER, None)", 7.88669712683211e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.704660495412684e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.012357263972167033], ["'mixed heating grid' (megajoule, DK, None)", -0.031737781475358134]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.011096652236276873], ["'autoclave' (unit, DK, None)", 0.05158946551138289], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.037876108826813e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977378547072e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013972237103866397], ["'mixed heating grid' (megajoule, DK, None)", -0.0011650669663263614], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002851398899645617], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152360041091286], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165586728508195], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724709939095897], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863825207975]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.011096652236276873], ["'autoclave' (unit, DK, None)", 0.05158946551138289], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6793383525860158e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.11407940752635e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00931482473591093], ["'mixed heating grid' (megajoule, DK, None)", -0.00776711310884241], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0010032863825207975]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441597688861], ["'autoclave' (unit, DK, None)", 0.10317893102276574], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.143435944836004e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4092601445339328e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003997379814479736], ["'mixed heating grid' (megajoule, DK, None)", -0.003333192200425367], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025460479135015], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0021526520512022314], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784722893115], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.041478056166467325], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542862591335342]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441597688861], ["'autoclave' (unit, DK, None)", 0.10317893102276574], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.547431979115538e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.3807894119432e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02664919876319826], ["'mixed heating grid' (megajoule, DK, None)", -0.022221281336169112], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028542862591335342]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009412830733957565], ["'mechanical disinfection' (unit, DK, None)", 0.06230869888344261], ["'autoclave' (unit, DK, None)", 0.1444505034318721], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650107611298666], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964297954072], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506198441218695e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001876399531866428], ["'steel recycling' (kilogram, RER, None)", 1.4878559547065697e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.5961804268935777e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.34558987403335e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.9558566451965315e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.009412830733957565], ["'wet wipe' (unit, GLO, None)", 0.00557219984967011], ["'autoclave' (unit, DK, None)", 0.1444505034318721], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00038650107611298666], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964297954072], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506198441218695e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001876399531866428], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654301801051844e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.738269589207366e-06], ["'steel recycling' (kilogram, RER, None)", 1.4878559547065697e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.5961804268935777e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025431749213500904], ["'mixed heating grid' (megajoule, DK, None)", -0.0021206118021248857]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005585571352861307], ["'mechanical disinfection' (unit, DK, None)", 0.031154349441721307], ["'autoclave' (unit, DK, None)", 0.08025027968437339], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000230777392870634], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112167065718], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301239688243739e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032380737559], ["'steel recycling' (kilogram, RER, None)", 1.4878559547065697e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.5961804268935777e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1727949370166717e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.779283225982657e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005585571352861307], ["'wet wipe' (unit, GLO, None)", 0.00557219984967011], ["'autoclave' (unit, DK, None)", 0.08025027968437339], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.000230777392870634], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112167065718], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.301239688243739e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003140032380737559], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.654301801051844e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.738269589207366e-06], ["'steel recycling' (kilogram, RER, None)", 1.4878559547065697e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.5961804268935777e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002531446971979922], ["'mixed heating grid' (megajoule, DK, None)", -0.0021108325188989026]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202583829486242], ["'autoclave' (unit, DK, None)", 0.036888376165562696], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.966639290418022e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069846897433256e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010170018945100036], ["'mixed heating grid' (megajoule, DK, None)", -0.009030612201121899], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001123605750060822], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931999418130703], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00019646119708766023], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522494699555833], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832401216482813]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202583829486242], ["'autoclave' (unit, DK, None)", 0.036888376165562696], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9685176599970052e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2723650178379795e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006780012630066691], ["'mixed heating grid' (megajoule, DK, None)", -0.06020408134081266], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0038832401216482813]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.012252918256244987], ["'autoclave' (unit, DK, None)", 0.07377675233112536], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.400857056043557e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0283467549775725e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029095862131318807], ["'mixed heating grid' (megajoule, DK, None)", -0.025836082408857666], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00316246651507185], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814755530296291], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005918157106216999], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654223859029812], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572371398116]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.012252918256244987], ["'autoclave' (unit, DK, None)", 0.07377675233112536], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.545120169005649e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.845226119759526e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01939724142087922], ["'mixed heating grid' (megajoule, DK, None)", -0.17224054939238442], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011047572371398116]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002726677714582963], ["'mechanical disinfection' (unit, DK, None)", 0.04429418794501874], ["'autoclave' (unit, DK, None)", 0.10328745326357557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576056659003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840388945146015], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795193447431287e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642126247261], ["'steel recycling' (kilogram, RER, None)", 1.2977422797630975e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.175179639394321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7072923454579015e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00015160143918121748]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002726677714582963], ["'wet wipe' (unit, GLO, None)", 0.013758721110003029], ["'autoclave' (unit, DK, None)", 0.10328745326357557], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002647576056659003], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840388945146015], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795193447431287e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007262642126247261], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968328798546724e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3763750156664076e-06], ["'steel recycling' (kilogram, RER, None)", 1.2977422797630975e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.175179639394321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001851109234588969], ["'mixed heating grid' (megajoule, DK, None)", -0.016437186331440135]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016226996863193599], ["'mechanical disinfection' (unit, DK, None)", 0.02214709397250937], ["'autoclave' (unit, DK, None)", 0.0573819184797642], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512253763136], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287019814204153], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590386894862574e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153558481994148], ["'steel recycling' (kilogram, RER, None)", 1.2977422797630975e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.175179639394321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.536461727289485e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.580071959060874e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0016226996863193599], ["'wet wipe' (unit, GLO, None)", 0.013758721110003029], ["'autoclave' (unit, DK, None)", 0.0573819184797642], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00015808512253763136], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287019814204153], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7590386894862574e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0012153558481994148], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5968328798546724e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3763750156664076e-06], ["'steel recycling' (kilogram, RER, None)", 1.2977422797630975e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.175179639394321e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0018425727728616783], ["'mixed heating grid' (megajoule, DK, None)", -0.01636138561184952]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0020642651239137244], ["'autoclave' (unit, DK, None)", 0.0030270335955034505], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.243244623452391e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958530429145e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.129778417846585e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.164729959694141e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001105023523718675], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447254214259229e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296508775746094], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.000813256582311172], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574654318406]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0020642651239137244], ["'autoclave' (unit, DK, None)", 0.0030270335955034505], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.1427137221039234e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.5447227996532e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00020865189452310567], ["'mixed heating grid' (megajoule, DK, None)", -0.0005443153306462762], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005023574654318406]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902614599457084], ["'autoclave' (unit, DK, None)", 0.0060540671910068984], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7679468419682943e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0566902353313656e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.954123078710312e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0002335884117120218], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031101655468903106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843348355747923], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0003101699342349924], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0022908636121441468], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001429175194377293]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902614599457084], ["'autoclave' (unit, DK, None)", 0.0060540671910068984], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011669616118602602], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3690430441871399e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005969415385806879], ["'mixed heating grid' (megajoule, DK, None)", -0.0015572560780801451], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001429175194377293]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002042172623330613], ["'mechanical disinfection' (unit, DK, None)", 0.0028827831573464855], ["'autoclave' (unit, DK, None)", 0.008475694067409662], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921942231512], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764276672671], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998424592667494e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395356394627145e-05], ["'steel recycling' (kilogram, RER, None)", 2.572471121670288e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.337348591039923e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.254116796255639e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.3706543751949197e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002042172623330613], ["'wet wipe' (unit, GLO, None)", 0.0005490770245891349], ["'autoclave' (unit, DK, None)", 0.008475694067409662], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00019945921942231512], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764276672671], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998424592667494e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.395356394627145e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.1963113317469175e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2752729726674729e-05], ["'steel recycling' (kilogram, RER, None)", 2.572471121670288e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.337348591039923e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.6967069213616675e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014861139500233617]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00122428394840774], ["'mechanical disinfection' (unit, DK, None)", 0.0014413915786732428], ["'autoclave' (unit, DK, None)", 0.004708718926338701], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586153089357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735554794054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999684918533499e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722516876964885], ["'steel recycling' (kilogram, RER, None)", 2.572471121670288e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.337348591039923e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6270583981278126e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.853271875974598e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00122428394840774], ["'wet wipe' (unit, GLO, None)", 0.0005490770245891349], ["'autoclave' (unit, DK, None)", 0.004708718926338701], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00011909586153089357], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000500735554794054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.999684918533499e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015722516876964885], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.1963113317469175e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2752729726674729e-05], ["'steel recycling' (kilogram, RER, None)", 2.572471121670288e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.337348591039923e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.670436337380386e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014792606781473868]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.7338417931180185e-08], ["'autoclave' (unit, DK, None)", 2.3092231411832045e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.99316683512659e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.403367008173327e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.26349018174327e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3328293048784965e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.652567019772566e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.510167989492743e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6170100510866579e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079864753464305e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604401189014e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.7338417931180185e-08], ["'autoclave' (unit, DK, None)", 2.3092231411832045e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3225686476073635e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.602979646735788e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.5089934544955135e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.885528699189978e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.860604401189014e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3579058126512805e-07], ["'autoclave' (unit, DK, None)", 4.6184462823664075e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.644201411620158e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.25419950173417e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5058554510494667e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.813150979232985e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.6512647907506e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545165793618935e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.871048159394471e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064750634778678e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362922014775075e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3579058126512805e-07], ["'autoclave' (unit, DK, None)", 4.6184462823664075e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.725545486217926e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.828783254953749e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0039036340329786e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.54210065282199e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.2362922014775075e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.375905103979603e-08], ["'mechanical disinfection' (unit, DK, None)", 2.5831383716410944e-07], ["'autoclave' (unit, DK, None)", 6.465824795312973e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.881598179436706e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402373962793222e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457417429208e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701320256654139e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152123359912946e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.693107824377188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.836086290687544e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.237487739506513e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.375905103979603e-08], ["'wet wipe' (unit, GLO, None)", 1.1492338611339005e-07], ["'autoclave' (unit, DK, None)", 6.465824795312973e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.881598179436706e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402373962793222e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6072457417429208e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4701320256654139e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517704414747e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.498044675847328e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152123359912946e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.693107824377188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.580410158712344e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.425966606070183e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.0012841495500934e-08], ["'mechanical disinfection' (unit, DK, None)", 1.2915691858205472e-07], ["'autoclave' (unit, DK, None)", 3.5921248862849847e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905906279934e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169407511941e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914834858416e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601701749290935e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152123359912946e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.693107824377188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.4180431453437606e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.1187438697532564e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.0012841495500934e-08], ["'wet wipe' (unit, GLO, None)", 1.1492338611339005e-07], ["'autoclave' (unit, DK, None)", 3.5921248862849847e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1234905906279934e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169407511941e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2144914834858416e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4601701749290935e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3347517704414747e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.498044675847328e-09], ["'steel recycling' (kilogram, RER, None)", 1.5152123359912946e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.693107824377188e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 9.5362297272589e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.41477916737265e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00030990375427403103], ["'autoclave' (unit, DK, None)", 0.0002300189090904142], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.943121645397454e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947604961993032e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.8052206210806856e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0207287680373404e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460958330244183], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362619490538575e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336734982186694e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641467030389286e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5523176490630476e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00030990375427403103], ["'autoclave' (unit, DK, None)", 0.0002300189090904142], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.943566699282422e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6338612911641606e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5368137473871237e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00013471525120248938], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5523176490630476e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846992986994], ["'autoclave' (unit, DK, None)", 0.00046003781818082826], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6829587463134847e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.097029387610741e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0886525892221521e-05], ["'mixed heating grid' (megajoule, DK, None)", -5.781193324908387e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137278379985], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130214000650078e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063892174675184e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891456423631795], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261182172492657e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846992986994], ["'autoclave' (unit, DK, None)", 0.00046003781818082826], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1108638589527953e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3958949419050221e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.257683928147687e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003854128883272257], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.261182172492657e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002489010895893624], ["'mechanical disinfection' (unit, DK, None)", 0.0002606433174277482], ["'autoclave' (unit, DK, None)", 0.0006440529454531599], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.708369530191779e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504042529833e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501733414502906e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773480160114751e-06], ["'steel recycling' (kilogram, RER, None)", 4.894130855384296e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.225164712698872e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.388015670589994e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.3922992440234694e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002489010895893624], ["'wet wipe' (unit, GLO, None)", 0.00011087859294168156], ["'autoclave' (unit, DK, None)", 0.0006440529454531599], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.708369530191779e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504042529833e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501733414502906e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.773480160114751e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607312244694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.300285699308788e-06], ["'steel recycling' (kilogram, RER, None)", 4.894130855384296e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.225164712698872e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.9261218384697334e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.678055766961716e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014789592646408112], ["'mechanical disinfection' (unit, DK, None)", 0.0001303216587138741], ["'autoclave' (unit, DK, None)", 0.0003578071919184221], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568396917885e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889266868266e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346682900581e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988108085200489e-06], ["'steel recycling' (kilogram, RER, None)", 4.894130855384296e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.225164712698872e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1940078352949886e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.6961496220117347e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014789592646408112], ["'wet wipe' (unit, GLO, None)", 0.00011087859294168156], ["'autoclave' (unit, DK, None)", 0.0003578071919184221], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0200568396917885e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.4712889266868266e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.900346682900581e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.988108085200489e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.776607312244694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.300285699308788e-06], ["'steel recycling' (kilogram, RER, None)", 4.894130855384296e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.225164712698872e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.8941817601167795e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.661094270741598e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799174145266], ["'autoclave' (unit, DK, None)", 0.0004079659986392099], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.214431449416517e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.064839093767624e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.29457911586697e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0217888052972634e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002981410036931152], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274329784694806e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221682916700623e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667221241045816e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.478877081186895e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005818799174145266], ["'autoclave' (unit, DK, None)", 0.0004079659986392099], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.796491896341801e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3781082763018926e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.196386077244647e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00033478592035315094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.478877081186895e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0016654851246876423], ["'autoclave' (unit, DK, None)", 0.0008159319972784195], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1934324571712195e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.528745010871145e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6591277163175464e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014367060230691844], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00083913858655347], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893613915100873e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729691317158685e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00024414707721255824], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.89718511388297e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0016654851246876423], ["'autoclave' (unit, DK, None)", 0.0008159319972784195], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.877441961526201e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0176144601239537e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017727518108783658], ["'mixed heating grid' (megajoule, DK, None)", -0.0009578040153794562], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.89718511388297e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003334178629011816], ["'mechanical disinfection' (unit, DK, None)", 0.0004757407456240578], ["'autoclave' (unit, DK, None)", 0.0011423047961897877], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702427921003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719140646327], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522848923333718e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380870194478e-06], ["'steel recycling' (kilogram, RER, None)", 8.351772547078486e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.631780240138596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.560327848397775e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.43033000633791e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003334178629011816], ["'wet wipe' (unit, GLO, None)", 0.0011605308777886238], ["'autoclave' (unit, DK, None)", 0.0011423047961897877], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2499702427921003e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719140646327], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522848923333718e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.506380870194478e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669272758321e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.479148395675187e-06], ["'steel recycling' (kilogram, RER, None)", 8.351772547078486e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.631780240138596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6917649146847174e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.140474252626702e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019765867702833012], ["'mechanical disinfection' (unit, DK, None)", 0.0002378703728120289], ["'autoclave' (unit, DK, None)", 0.0006346137756609931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494712576345e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252059079166e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045697846667436e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0888004535739998e-05], ["'steel recycling' (kilogram, RER, None)", 8.351772547078486e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.631780240138596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.801639241988855e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.215165003168955e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019765867702833012], ["'wet wipe' (unit, GLO, None)", 0.0011605308777886238], ["'autoclave' (unit, DK, None)", 0.0006346137756609931], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.463494712576345e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252059079166e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9045697846667436e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0888004535739998e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.316669272758321e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.479148395675187e-06], ["'steel recycling' (kilogram, RER, None)", 8.351772547078486e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.631780240138596e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6839632754427277e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.09832260259501e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00061649440504491], ["'autoclave' (unit, DK, None)", 0.00041835189598726227], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2385210779306794e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.091918937985811e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.504366144341711e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.1994894739835144e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031925641919640087], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583335385671701e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.44571142157908e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.0905383989611e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912796302126e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00061649440504491], ["'autoclave' (unit, DK, None)", 0.00041835189598726227], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8124766031128806e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3961697870786097e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.336244096227808e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.000346632631598901], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.606912796302126e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0017648601833784479], ["'autoclave' (unit, DK, None)", 0.0008367037919745242], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.200254099638314e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5369186519241575e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7191466257255865e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014875452022747397], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008985693917779495], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823630772409973e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404550224564215e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00025607150419608736], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261438619859528]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0017648601833784479], ["'autoclave' (unit, DK, None)", 0.0008367037919745242], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.922469304543327e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0230552728613693e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00018127644171503924], ["'mixed heating grid' (megajoule, DK, None)", -0.000991696801516493], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010261438619859528]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034082965698311376], ["'mechanical disinfection' (unit, DK, None)", 0.0004877278579229886], ["'autoclave' (unit, DK, None)", 0.0011713853087643345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854650405535e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000123671431430009], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845692078574e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745840071565052e-06], ["'steel recycling' (kilogram, RER, None)", 8.737244347378461e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035666670806036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5955458543646025e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.728645076416475e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00034082965698311376], ["'wet wipe' (unit, GLO, None)", 0.001764755550769046], ["'autoclave' (unit, DK, None)", 0.0011713853087643345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.3024854650405535e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000123671431430009], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845692078574e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.745840071565052e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802447400769e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.529829938982618e-06], ["'steel recycling' (kilogram, RER, None)", 8.737244347378461e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035666670806036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.729949573710714e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.463918437513143e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002020341139121566], ["'mechanical disinfection' (unit, DK, None)", 0.0002438639289614943], ["'autoclave' (unit, DK, None)", 0.0006507696159801857], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059844099472e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205217650051e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691384157148e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288723909945578e-05], ["'steel recycling' (kilogram, RER, None)", 8.737244347378461e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035666670806036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.977729271822993e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.3643225382082375e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0002020341139121566], ["'wet wipe' (unit, GLO, None)", 0.001764755550769046], ["'autoclave' (unit, DK, None)", 0.0006507696159801857], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.777059844099472e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205217650051e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9175691384157148e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1288723909945578e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.33802447400769e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.529829938982618e-06], ["'steel recycling' (kilogram, RER, None)", 8.737244347378461e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.7035666670806036e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.72197184443889e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.420275212131058e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873844707333], ["'autoclave' (unit, DK, None)", 0.0035704106470388075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5507840582195872e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650849830335282e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.340299329713447e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.364060653274504e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571500241087798], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896368568708027e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370731083334507e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211094285118456], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001636707010992661]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873844707333], ["'autoclave' (unit, DK, None)", 0.0035704106470388075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010290249358279505], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105658556563074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005560199553142298], ["'mixed heating grid' (megajoule, DK, None)", -0.0006242707102183003], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001636707010992661]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802196428514], ["'autoclave' (unit, DK, None)", 0.0071408212940776115], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391472613462944e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.025806967137897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002386113543556296], ["'mixed heating grid' (megajoule, DK, None)", -0.0002679006000163377], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002975422253286301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997936171164551e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010153921695326782], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017209657779848], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563278572227924]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802196428514], ["'autoclave' (unit, DK, None)", 0.0071408212940776115], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028986617910646496], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454459750857124e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015907423623708651], ["'mixed heating grid' (megajoule, DK, None)", -0.0017860040001089175], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00046563278572227924]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013750815463103915], ["'mechanical disinfection' (unit, DK, None)", 0.0040002025110161404], ["'autoclave' (unit, DK, None)", 0.009997149811708662], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443668079236e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000299040733914615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988324192654e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0610564667615915e-05], ["'steel recycling' (kilogram, RER, None)", 8.310901150498274e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.790446095840509e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4001280903520845e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.5719920643256773e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0013750815463103915], ["'wet wipe' (unit, GLO, None)", 0.010051408250030088], ["'autoclave' (unit, DK, None)", 0.009997149811708662], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.5118443668079236e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000299040733914615], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988324192654e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0610564667615915e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243959907000385e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.116305839805869e-05], ["'steel recycling' (kilogram, RER, None)", 8.310901150498274e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.790446095840509e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015180704374112536], ["'mixed heating grid' (megajoule, DK, None)", -0.00017044116871462855]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008144543307274257], ["'mechanical disinfection' (unit, DK, None)", 0.0020001012555080702], ["'autoclave' (unit, DK, None)", 0.005553972117615922], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004673674783e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216353725234], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976648385307e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.122478588201715e-05], ["'steel recycling' (kilogram, RER, None)", 8.310901150498274e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.790446095840509e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.000640451760403e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.859960321628387e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0008144543307274257], ["'wet wipe' (unit, GLO, None)", 0.010051408250030088], ["'autoclave' (unit, DK, None)", 0.005553972117615922], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.0969004673674783e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00017884216353725234], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1765976648385307e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.122478588201715e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.243959907000385e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.116305839805869e-05], ["'steel recycling' (kilogram, RER, None)", 8.310901150498274e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.790446095840509e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00015110697969594923], ["'mixed heating grid' (megajoule, DK, None)", -0.00016965517268246569]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262297099406e-09], ["'autoclave' (unit, DK, None)", 1.2405711407787474e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.951965860558855e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012889068794e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8485223502222985e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3992675216994143e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933923824346e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011361226709367e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950040409546848e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422743929206686e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566399525121e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.014262297099406e-09], ["'autoclave' (unit, DK, None)", 1.2405711407787474e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.276538094389521e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.396352021587277e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.899014900148199e-10], ["'mixed heating grid' (megajoule, DK, None)", -9.328450144662764e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.719566399525121e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679761529727e-09], ["'autoclave' (unit, DK, None)", 2.481142281557494e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2518183698591902e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946352339782862e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.14946501353179e-11], ["'mixed heating grid' (megajoule, DK, None)", -4.0032270456894256e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522633280443e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119924252698936e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.1059956666998066e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.31626589555118e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155124421862e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679761529727e-09], ["'autoclave' (unit, DK, None)", 2.481142281557494e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4863487589829639e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.92682406152354e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.432976675687864e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.6688180304596167e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.765155124421862e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.008615856970408e-10], ["'mechanical disinfection' (unit, DK, None)", 1.4521273721869453e-09], ["'autoclave' (unit, DK, None)", 3.473599194180493e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340253420566e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057612742505e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184029099648e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049816833378e-11], ["'steel recycling' (kilogram, RER, None)", 2.0696752899879834e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.138473892756876e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.781958057947792e-13], ["'mixed heating grid' (megajoule, DK, None)", -2.349020923108768e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 6.008615856970408e-10], ["'wet wipe' (unit, GLO, None)", 6.853831136254948e-10], ["'autoclave' (unit, DK, None)", 3.473599194180493e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.6107340253420566e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057612742505e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184029099648e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8178049816833378e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70959178973637e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7948498107342568e-10], ["'steel recycling' (kilogram, RER, None)", 2.0696752899879834e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.138473892756876e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.18477502932292e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.5468949911112745e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.562832445005853e-10], ["'mechanical disinfection' (unit, DK, None)", 7.260636860934726e-10], ["'autoclave' (unit, DK, None)", 1.929777330100274e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468685001446e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681187036545e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368058199295e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978218079223e-11], ["'steel recycling' (kilogram, RER, None)", 2.0696752899879834e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.138473892756876e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3909790289738893e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.174510461554384e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.562832445005853e-10], ["'wet wipe' (unit, GLO, None)", 6.853831136254948e-10], ["'autoclave' (unit, DK, None)", 1.929777330100274e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1559468685001446e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681187036545e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1814368058199295e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.041978218079223e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.70959178973637e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7948498107342568e-10], ["'steel recycling' (kilogram, RER, None)", 2.0696752899879834e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.138473892756876e-13], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.1608652390331785e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.5351498864957304e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149190963614e-07], ["'autoclave' (unit, DK, None)", 5.227324953969264e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.000248251107455e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6155586169694716e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.704052008086285e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.1924553183224254e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.6026559917763743e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.62814233412037e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795704744747205e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.527934334909801e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699774013999056e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149190963614e-07], ["'autoclave' (unit, DK, None)", 5.227324953969264e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9908189329778435e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4114780867310146e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.469368005390857e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.1283035455482839e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.699774013999056e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.4254532060645988e-06], ["'autoclave' (unit, DK, None)", 1.0454649907938524e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49603009425756e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0913016375990423e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.776275647730848e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.133438226981701e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325356268244762e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.5968195374537036e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6496001913337523e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.3040403800276093e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525622906915035e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.4254532060645988e-06], ["'autoclave' (unit, DK, None)", 1.0454649907938524e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.607940656275617e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.264287496479948e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8508504318205667e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.0889588179878e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.0525622906915035e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.940891728436995e-07], ["'mechanical disinfection' (unit, DK, None)", 6.010847313479647e-07], ["'autoclave' (unit, DK, None)", 1.4636509871113942e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023671668394e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977588942827e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231073236453e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919514057827349e-09], ["'steel recycling' (kilogram, RER, None)", 2.2852554836859137e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.642783009390532e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6290681268901144e-10], ["'mixed heating grid' (megajoule, DK, None)", -5.359335668508555e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.940891728436995e-07], ["'wet wipe' (unit, GLO, None)", 1.9909670134383256e-07], ["'autoclave' (unit, DK, None)", 1.4636509871113942e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9208023671668394e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977588942827e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231073236453e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.919514057827349e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461785208132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766733558364882e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554836859137e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.642783009390532e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.766295656091667e-08], ["'mixed heating grid' (megajoule, DK, None)", -5.8107890975036683e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3483657263708274e-07], ["'mechanical disinfection' (unit, DK, None)", 3.0054236567398234e-07], ["'autoclave' (unit, DK, None)", 8.131394372841078e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929589952594e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160449576378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462146472906e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579356012167933e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554836859137e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.642783009390532e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.14534063445055e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.6796678342542774e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.3483657263708274e-07], ["'wet wipe' (unit, GLO, None)", 1.9909670134383256e-07], ["'autoclave' (unit, DK, None)", 8.131394372841078e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7439929589952594e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160449576378e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.116462146472906e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1579356012167933e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.226461785208132e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766733558364882e-08], ["'steel recycling' (kilogram, RER, None)", 2.2852554836859137e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.642783009390532e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7581503154572153e-08], ["'mixed heating grid' (megajoule, DK, None)", -5.783992419161124e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845766178669], ["'autoclave' (unit, DK, None)", 0.010127340956473567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.71241945936175e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018873999631264e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002267731622588238], ["'mixed heating grid' (megajoule, DK, None)", -0.0012124579199732778], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001089478711], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665695281189513], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0002076752349394595], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0035793634417132804], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307279024623]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845766178669], ["'autoclave' (unit, DK, None)", 0.010127340956473567], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011362783328475163], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3352037979570578e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001511821081725492], ["'mixed heating grid' (megajoule, DK, None)", -0.008083052799821853], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001236307279024623]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16319953573776563], ["'autoclave' (unit, DK, None)", 0.020254681912947128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.849187814828133e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.042394078787785e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006487854840570333], ["'mixed heating grid' (megajoule, DK, None)", -0.003468775099633903], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11525665318069218], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423655861328881], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255966499551806], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0100827139203191], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0035172159615289114]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16319953573776563], ["'autoclave' (unit, DK, None)", 0.020254681912947128], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00032007840361901875], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.0221407393754555e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004325236560380225], ["'mixed heating grid' (megajoule, DK, None)", -0.023125167330892687], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0035172159615289114]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0066049073929430055], ["'mechanical disinfection' (unit, DK, None)", 0.011721161709572341], ["'autoclave' (unit, DK, None)", 0.028356554678125992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190094981135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123264546378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714284556499607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122076009606083], ["'steel recycling' (kilogram, RER, None)", 3.1848645825194796e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.7195563864560845e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.806955386905272e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0354142279720417e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0066049073929430055], ["'wet wipe' (unit, GLO, None)", 0.01904098846063288], ["'autoclave' (unit, DK, None)", 0.028356554678125992], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00035512190094981135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123264546378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.714284556499607e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00023122076009606083], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393284986961342e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.746651647637411e-05], ["'steel recycling' (kilogram, RER, None)", 3.1848645825194796e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.7195563864560845e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00041276412274187974], ["'mixed heating grid' (megajoule, DK, None)", -0.002206871063199371]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038898199883428], ["'mechanical disinfection' (unit, DK, None)", 0.0058605808547861704], ["'autoclave' (unit, DK, None)", 0.01575364148784777], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108220517138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151651668185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569112999214e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328794162507], ["'steel recycling' (kilogram, RER, None)", 3.1848645825194796e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.7195563864560845e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9034776934526308e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0177071139860209e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038898199883428], ["'wet wipe' (unit, GLO, None)", 0.01904098846063288], ["'autoclave' (unit, DK, None)", 0.01575364148784777], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00021204108220517138], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0012159151651668185], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.428569112999214e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0003869328794162507], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9393284986961342e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.746651647637411e-05], ["'steel recycling' (kilogram, RER, None)", 3.1848645825194796e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.7195563864560845e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00041086064504842687], ["'mixed heating grid' (megajoule, DK, None)", -0.0021966939920595105]]</t>
   </si>
 </sst>
 </file>

--- a/results/case1_apos/data_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_case1_apos_recipe.xlsx
@@ -118,13 +118,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.0005692341469611565], ["'mechanical disinfection' (unit, DK, None)", 0.0007504177900932903], ["'autoclave' (unit, DK, None)", 0.001848985506778423], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496725751903e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138077619831], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921431765861786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415619778724e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8769854340923833e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.953321108468753e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005692341469611565], ["'wet wipe' (unit, GLO, None)", 0.00033163972906610973], ["'autoclave' (unit, DK, None)", 0.001848985506778423], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496725751903e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138077619831], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921431765861786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415619778724e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.945074393879361e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0350967304931724e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.623283638977064e-05]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005692341469611565], ["'wet wipe' (unit, GLO, None)", 0.00020203452488268576], ["'autoclave' (unit, DK, None)", 0.001848985506778423], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.913496725751903e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138077619831], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2921431765861786e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.725415619778724e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.282527985598497e-07], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0350967304931724e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.623283638977064e-05]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375194369534068], ["'mechanical disinfection' (unit, DK, None)", 0.0003752088950466452], ["'autoclave' (unit, DK, None)", 0.001027214170432457], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183884278202e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001247965142333314], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286353172357e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414632759995e-05], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.384927170461891e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.9766605542343767e-07]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375194369534068], ["'wet wipe' (unit, GLO, None)", 0.00033163972906610973], ["'autoclave' (unit, DK, None)", 0.001027214170432457], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183884278202e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001247965142333314], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286353172357e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414632759995e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.945074393879361e-06], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.0257118033227092e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.583517033434718e-05]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003375194369534068], ["'wet wipe' (unit, GLO, None)", 0.00020203452488268576], ["'autoclave' (unit, DK, None)", 0.001027214170432457], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.9338183884278202e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001247965142333314], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.584286353172357e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4601414632759995e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7967950473663223e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.282527985598497e-07], ["'steel recycling' (kilogram, RER, None)", 1.1882365335160758e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.3946320986751547e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.0257118033227092e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.583517033434718e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.24766792808575006], ["'autoclave' (unit, DK, None)", 0.1907922758724077], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027296290428322243], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364663675], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0046129168681428336], ["'mixed heating grid' (megajoule, DK, None)", -0.013857787800228661], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.143761495106558], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002760032983543096], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002614713260746802], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.049454493963139196], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.01549412359798041]]</t>
@@ -142,13 +142,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.13247854515315005], ["'mechanical disinfection' (unit, DK, None)", 0.22422017059461674], ["'autoclave' (unit, DK, None)", 0.5342183724427416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158540761296], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780337907045165], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315892780865], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977933691159566], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.74393607497496e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00023263766925143642]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.13247854515315005], ["'wet wipe' (unit, GLO, None)", 0.08616993474492793], ["'autoclave' (unit, DK, None)", 0.5342183724427416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158540761296], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780337907045165], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315892780865], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977933691159566], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06161670957719171], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008396260674740003], ["'mixed heating grid' (megajoule, DK, None)", -0.025223432823925078]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.13247854515315005], ["'wet wipe' (unit, GLO, None)", 0.03944800463432549], ["'autoclave' (unit, DK, None)", 0.5342183724427416], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003894158540761296], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.044780337907045165], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003749315892780865], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0028977933691159566], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144980493122804], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008396260674740003], ["'mixed heating grid' (megajoule, DK, None)", -0.025223432823925078]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.0785129114092111], ["'mechanical disinfection' (unit, DK, None)", 0.11211008529730837], ["'autoclave' (unit, DK, None)", 0.296787984690412], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778869539043], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781008762210595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863178556173], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0048492684298742485], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.87196803748747e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00011631883462571821]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0785129114092111], ["'wet wipe' (unit, GLO, None)", 0.08616993474492793], ["'autoclave' (unit, DK, None)", 0.296787984690412], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778869539043], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781008762210595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863178556173], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0048492684298742485], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06161670957719171], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008357540994365123], ["'mixed heating grid' (megajoule, DK, None)", -0.025107113989299355]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0785129114092111], ["'wet wipe' (unit, GLO, None)", 0.03944800463432549], ["'autoclave' (unit, DK, None)", 0.296787984690412], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023251778869539043], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781008762210595], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000749863178556173], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0048492684298742485], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001513527683332857], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144980493122804], ["'steel recycling' (kilogram, RER, None)", 4.605986001178797e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -6.432438714048241e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008357540994365123], ["'mixed heating grid' (megajoule, DK, None)", -0.025107113989299355]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.007819008709097365], ["'autoclave' (unit, DK, None)", 0.039490237217896455], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001433129336209842], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001728590769336054], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00028602674156982886], ["'mixed heating grid' (megajoule, DK, None)", -0.0007292370828942936], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0033086584931367965], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00038042543850133875], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0004312632698813833], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188483843535852], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005004700291089552]]</t>
@@ -166,13 +166,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.00651748222237015], ["'mechanical disinfection' (unit, DK, None)", 0.046986244446992786], ["'autoclave' (unit, DK, None)", 0.11057266421011008], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586173413642], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760670811222], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897895033969666e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360056557069385e-05], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.8016750914088955e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2242070505181623e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00651748222237015], ["'wet wipe' (unit, GLO, None)", 0.0030004312567553275], ["'autoclave' (unit, DK, None)", 0.11057266421011008], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586173413642], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760670811222], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897895033969666e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360056557069385e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0032351607059133486], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005206152963111267], ["'mixed heating grid' (megajoule, DK, None)", -0.0013273303674628204]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.00651748222237015], ["'wet wipe' (unit, GLO, None)", 0.0017317655457069303], ["'autoclave' (unit, DK, None)", 0.11057266421011008], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003880586173413642], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004774760670811222], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897895033969666e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.360056557069385e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007612142837443172], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005206152963111267], ["'mixed heating grid' (megajoule, DK, None)", -0.0013273303674628204]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.003873739443828619], ["'mechanical disinfection' (unit, DK, None)", 0.023493122223496393], ["'autoclave' (unit, DK, None)", 0.061429257894505596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023170739106776303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559232891273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790067939332e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663444898378378], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4008375457044414e-06], ["'mixed heating grid' (megajoule, DK, None)", -6.121035252590811e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.003873739443828619], ["'wet wipe' (unit, GLO, None)", 0.0030004312567553275], ["'autoclave' (unit, DK, None)", 0.061429257894505596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023170739106776303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559232891273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790067939332e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663444898378378], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0032351607059133486], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005182144587654218], ["'mixed heating grid' (megajoule, DK, None)", -0.0013212093322102294]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003873739443828619], ["'wet wipe' (unit, GLO, None)", 0.0017317655457069303], ["'autoclave' (unit, DK, None)", 0.061429257894505596], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0023170739106776303], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559232891273], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.795790067939332e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00015663444898378378], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.667830901512021e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007612142837443172], ["'steel recycling' (kilogram, RER, None)", 1.132430586398703e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -5.69301764054619e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005182144587654218], ["'mixed heating grid' (megajoule, DK, None)", -0.0013212093322102294]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.010320831117758016], ["'autoclave' (unit, DK, None)", 0.04984927964236602], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002075152628379364], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016013658407], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037297281075589976], ["'mixed heating grid' (megajoule, DK, None)", -0.0009540180478285349], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0044126821291998065], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004987331631147226], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588598156104079], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853838245362076], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0006586955337101681]]</t>
@@ -190,13 +190,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.008572552487379089], ["'mechanical disinfection' (unit, DK, None)", 0.05926074067227988], ["'autoclave' (unit, DK, None)", 0.13957798299862487], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058847166883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906999003459], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850004859183e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927406400979], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.261282582706168e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.6015581871370092e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008572552487379089], ["'wet wipe' (unit, GLO, None)", 0.0035009665958729624], ["'autoclave' (unit, DK, None)", 0.13957798299862487], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058847166883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906999003459], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850004859183e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927406400979], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004684516758519555], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006788713157446913], ["'mixed heating grid' (megajoule, DK, None)", -0.0017364683663158799]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008572552487379089], ["'wet wipe' (unit, GLO, None)", 0.0018141961765743742], ["'autoclave' (unit, DK, None)", 0.13957798299862487], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.004962058847166883], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988906999003459], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850004859183e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001231927406400979], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011022392372987187], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006788713157446913], ["'mixed heating grid' (megajoule, DK, None)", -0.0017364683663158799]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.005097691830977549], ["'mechanical disinfection' (unit, DK, None)", 0.02963037033613994], ["'autoclave' (unit, DK, None)", 0.07754332388812492], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145296161567], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682906219037], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700009718365e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615502621498618], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1306412913530756e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.007790935685046e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005097691830977549], ["'wet wipe' (unit, GLO, None)", 0.0035009665958729624], ["'autoclave' (unit, DK, None)", 0.07754332388812492], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145296161567], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682906219037], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700009718365e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615502621498618], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004684516758519555], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006757406744533379], ["'mixed heating grid' (megajoule, DK, None)", -0.0017284605753801945]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005097691830977549], ["'wet wipe' (unit, GLO, None)", 0.0018141961765743742], ["'autoclave' (unit, DK, None)", 0.07754332388812492], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0029628145296161567], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682906219037], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0547700009718365e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020615502621498618], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.869017164855635e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011022392372987187], ["'steel recycling' (kilogram, RER, None)", 1.654929067972398e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -8.245550165730112e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006757406744533379], ["'mixed heating grid' (megajoule, DK, None)", -0.0017284605753801945]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.6751939407418635], ["'autoclave' (unit, DK, None)", 2.027504865126453], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07983234413630867], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292049851116], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01285706602322177], ["'mixed heating grid' (megajoule, DK, None)", -0.07078876961774914], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3044161804847699], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535837909950836], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01919290978402734], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262297247779742], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.036605378725964394]]</t>
@@ -214,13 +214,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.2524051732328811], ["'mechanical disinfection' (unit, DK, None)", 2.391257418958331], ["'autoclave' (unit, DK, None)", 5.677013622354069], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144800046], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172695984536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934266376923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846132540204101], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021583804833588216], ["'mixed heating grid' (megajoule, DK, None)", -0.0011883667588544202]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.2524051732328811], ["'wet wipe' (unit, GLO, None)", 0.19779601480583786], ["'autoclave' (unit, DK, None)", 5.677013622354069], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144800046], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172695984536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934266376923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846132540204101], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18019922735501173], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02340195605709541], ["'mixed heating grid' (megajoule, DK, None)", -0.12884710033676094]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.2524051732328811], ["'wet wipe' (unit, GLO, None)", 0.10222746504153063], ["'autoclave' (unit, DK, None)", 5.677013622354069], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.3403312144800046], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207172695984536], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001999934266376923], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.006846132540204101], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.042399818201179225], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02340195605709541], ["'mixed heating grid' (megajoule, DK, None)", -0.12884710033676094]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.154885865877171], ["'mechanical disinfection' (unit, DK, None)", 1.1956287094791656], ["'autoclave' (unit, DK, None)", 3.1538964568633716], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551452603], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375882160432], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868532753846], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456556822778097], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001079190241679408], ["'mixed heating grid' (megajoule, DK, None)", -0.0005941833794272101]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.154885865877171], ["'wet wipe' (unit, GLO, None)", 0.19779601480583786], ["'autoclave' (unit, DK, None)", 3.1538964568633716], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551452603], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375882160432], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868532753846], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456556822778097], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.18019922735501173], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.023294037032927456], ["'mixed heating grid' (megajoule, DK, None)", -0.1282529169573337]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.154885865877171], ["'wet wipe' (unit, GLO, None)", 0.10222746504153063], ["'autoclave' (unit, DK, None)", 3.1538964568633716], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.2032096551452603], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.05506375882160432], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003999868532753846], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.011456556822778097], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002950253868756379], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.042399818201179225], ["'steel recycling' (kilogram, RER, None)", 0.00010660693398594637], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0019309802018233208], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.023294037032927456], ["'mixed heating grid' (megajoule, DK, None)", -0.1282529169573337]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.149759799744358], ["'autoclave' (unit, DK, None)", 0.04885416288864448], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.6629224275574725e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.453555651419245e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012145638880735061], ["'mixed heating grid' (megajoule, DK, None)", -0.0039689905769709505], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246697691275], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000777661019918553], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179655007924723], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01274830936382202], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0042087327925405486]]</t>
@@ -238,13 +238,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.030130649631618205], ["'mechanical disinfection' (unit, DK, None)", 0.057753129458588306], ["'autoclave' (unit, DK, None)", 0.13679165608820454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467803767135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334436786637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747271960952e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395824023621], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0389496227797708e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.662944550877019e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.030130649631618205], ["'wet wipe' (unit, GLO, None)", 0.04990642967973625], ["'autoclave' (unit, DK, None)", 0.13679165608820454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467803767135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334436786637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747271960952e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395824023621], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010206654613665376], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022107042684462127], ["'mixed heating grid' (megajoule, DK, None)", -0.007224209855152098]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.030130649631618205], ["'wet wipe' (unit, GLO, None)", 0.02113707079859956], ["'autoclave' (unit, DK, None)", 0.13679165608820454], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0010836467803767135], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00969334436786637], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.248747271960952e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007871395824023621], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4015657914506762e-05], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0022107042684462127], ["'mixed heating grid' (megajoule, DK, None)", -0.007224209855152098]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.01779631427484949], ["'mechanical disinfection' (unit, DK, None)", 0.028876564729294153], ["'autoclave' (unit, DK, None)", 0.07599536449344696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387645049862], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132236693378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494543921904e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268138679122], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0194748113898827e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.3314722754385095e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.01779631427484949], ["'wet wipe' (unit, GLO, None)", 0.04990642967973625], ["'autoclave' (unit, DK, None)", 0.07599536449344696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387645049862], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132236693378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494543921904e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268138679122], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010206654613665376], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002200509520332312], ["'mixed heating grid' (megajoule, DK, None)", -0.007190895132397711]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01779631427484949], ["'wet wipe' (unit, GLO, None)", 0.02113707079859956], ["'autoclave' (unit, DK, None)", 0.07599536449344696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006470387645049862], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005797132236693378], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.497494543921904e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0013172268138679122], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3834551299912304e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4015657914506762e-05], ["'steel recycling' (kilogram, RER, None)", 1.0489367317624837e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5021009663552887e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002200509520332312], ["'mixed heating grid' (megajoule, DK, None)", -0.007190895132397711]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 5.5416037655323195e-05], ["'autoclave' (unit, DK, None)", 0.00019296319675464016], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5831952630359008e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8946292107401796e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.833580786001996e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.294674506349799e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667265915908795e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.04196180730687e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032648276413583e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7690131767718137e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.944429398071006e-06]]</t>
@@ -262,13 +262,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 4.879062309588977e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00021381657732137276], ["'autoclave' (unit, DK, None)", 0.0005402969509129925], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383004618553e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218378072668e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273391694513211e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587893227738e-06], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.435625309025728e-08], ["'mixed heating grid' (megajoule, DK, None)", -7.209686580236817e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.879062309588977e-05], ["'wet wipe' (unit, GLO, None)", 2.866539840865511e-05], ["'autoclave' (unit, DK, None)", 0.0005402969509129925], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383004618553e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218378072668e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273391694513211e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587893227738e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.417471183403639e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.9777419617592754e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.817007697992771e-06]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.879062309588977e-05], ["'wet wipe' (unit, GLO, None)", 1.6288739988416738e-05], ["'autoclave' (unit, DK, None)", 0.0005402969509129925], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.467383004618553e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218378072668e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273391694513211e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.1117587893227738e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2746991019773267e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.9777419617592754e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.817007697992771e-06]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 2.8937433974550775e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010690828866068638], ["'autoclave' (unit, DK, None)", 0.00030016497272944024], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.26454044661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958139876562e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546783389026421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559097127296e-06], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.217812654512855e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.6048432901184086e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.8937433974550775e-05], ["'wet wipe' (unit, GLO, None)", 2.866539840865511e-05], ["'autoclave' (unit, DK, None)", 0.00030016497272944024], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.26454044661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958139876562e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546783389026421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559097127296e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.417471183403639e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.945563835214143e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.780959265091585e-06]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.8937433974550775e-05], ["'wet wipe' (unit, GLO, None)", 1.6288739988416738e-05], ["'autoclave' (unit, DK, None)", 0.00030016497272944024], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.26454044661504e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958139876562e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6546783389026421e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8604559097127296e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9523603439072206e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2746991019773267e-08], ["'steel recycling' (kilogram, RER, None)", 2.8629772199951755e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2104489637504512e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.945563835214143e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.780959265091585e-06]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 7.917951413907697e-06], ["'autoclave' (unit, DK, None)", 0.0001321123901473334], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.296612994063845e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880248210403e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3200075944739233e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.6638038387730245e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016958400956e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513983908173566e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293323494706799e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.2111141636917926e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.0309851664501467e-06]]</t>
@@ -286,13 +286,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 5.773287145911311e-06], ["'mechanical disinfection' (unit, DK, None)", 9.540578480018365e-05], ["'autoclave' (unit, DK, None)", 0.0003699146924125336], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312229775104e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134427985575e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805678050297e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984564347216356e-07], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.573464104153323e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.829362597687893e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.773287145911311e-06], ["'wet wipe' (unit, GLO, None)", 8.91853336263275e-05], ["'autoclave' (unit, DK, None)", 0.0003699146924125336], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312229775104e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134427985575e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805678050297e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984564347216356e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.653280464540571e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.042955033035818e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.488883256627311e-07]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.773287145911311e-06], ["'wet wipe' (unit, GLO, None)", 8.749804388123637e-05], ["'autoclave' (unit, DK, None)", 0.0003699146924125336], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6860312229775104e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3719134427985575e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3901805678050297e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.7984564347216356e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2713601093036636e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.042955033035818e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.488883256627311e-07]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 3.4234147718887277e-06], ["'mechanical disinfection' (unit, DK, None)", 4.770289240009182e-05], ["'autoclave' (unit, DK, None)", 0.00020550816245140752], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.006718775146413e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767460408619e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7803611356100595e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469397529099e-07], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.786732052076654e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.914681298843946e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.4234147718887277e-06], ["'wet wipe' (unit, GLO, None)", 8.91853336263275e-05], ["'autoclave' (unit, DK, None)", 0.00020550816245140752], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.006718775146413e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767460408619e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7803611356100595e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469397529099e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.653280464540571e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.015087712515048e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.449736443638869e-07]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.4234147718887277e-06], ["'wet wipe' (unit, GLO, None)", 8.749804388123637e-05], ["'autoclave' (unit, DK, None)", 0.00020550816245140752], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.006718775146413e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767460408619e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7803611356100595e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.356469397529099e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.666060280727832e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2713601093036636e-08], ["'steel recycling' (kilogram, RER, None)", 2.4792533181110586e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.4073525880979575e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.015087712515048e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.449736443638869e-07]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009957980029370253], ["'autoclave' (unit, DK, None)", 0.018401240669565944], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.203053558892461e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201195880782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003821640345015616], ["'mixed heating grid' (megajoule, DK, None)", -0.000632492515125854], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243079864834795], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499948691949177], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255144590138332], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005453991161277143], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0007170796349725236]]</t>
@@ -310,13 +310,13 @@
     <t>[["'alubox (large)' (unit, GLO, None)", 0.024206100691865316], ["'mechanical disinfection' (unit, DK, None)", 0.02119684406587314], ["'autoclave' (unit, DK, None)", 0.05152347387478465], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009783574193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853570697825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906078974406442e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411204565467135], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.4155802888468226e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0617970678944128e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.024206100691865316], ["'wet wipe' (unit, GLO, None)", 0.003509081842319081], ["'autoclave' (unit, DK, None)", 0.05152347387478465], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009783574193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853570697825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906078974406442e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411204565467135], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00020056009577611741], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006956008412692877], ["'mixed heating grid' (megajoule, DK, None)", -0.0011512394833069351]]</t>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.024206100691865316], ["'wet wipe' (unit, GLO, None)", 0.0015668935730738386], ["'autoclave' (unit, DK, None)", 0.05152347387478465], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0005548009783574193], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853570697825], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7906078974406442e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00013411204565467135], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7190610770851145e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006956008412692877], ["'mixed heating grid' (megajoule, DK, None)", -0.0011512394833069351]]</t>
   </si>
   <si>
     <t>[["'alubox (small)' (unit, GLO, None)", 0.014651554899901267], ["'mechanical disinfection' (unit, DK, None)", 0.01059842203293657], ["'autoclave' (unit, DK, None)", 0.028624152152658133], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682195740469], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086280111356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.5812157948812885e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442777183159047], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.207790144423403e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.308985339472064e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014651554899901267], ["'wet wipe' (unit, GLO, None)", 0.003509081842319081], ["'autoclave' (unit, DK, None)", 0.028624152152658133], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682195740469], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086280111356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.5812157948812885e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442777183159047], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00020056009577611741], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006923930511248639], ["'mixed heating grid' (megajoule, DK, None)", -0.001145930497967463]]</t>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014651554899901267], ["'wet wipe' (unit, GLO, None)", 0.0015668935730738386], ["'autoclave' (unit, DK, None)", 0.028624152152658133], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003312682195740469], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086280111356], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.5812157948812885e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00022442777183159047], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2977026919826846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7190610770851145e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006601801389073648], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.00010348951158112654], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006923930511248639], ["'mixed heating grid' (megajoule, DK, None)", -0.001145930497967463]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.1553442077641456], ["'autoclave' (unit, DK, None)", 0.5754939395063033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017329742438294705], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310791107253], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006820550621257615], ["'mixed heating grid' (megajoule, DK, None)", -0.017517562596919358], ["'market for polypropylene, granulate' (kilogr